--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40486F39-926D-544F-9FD9-97189D10BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF7D46-335D-1D4A-8037-87A2BC2EB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="1000" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -160,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -248,6 +248,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF92D050"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -343,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,13 +379,13 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,7 +403,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,10 +421,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,9 +756,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -791,7 +812,9 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="27">
+        <v>5</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -801,16 +824,18 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B2/$B$49+C2/$C$49+D2/$D$49+E2/$E$49+F2/$F$49+G2/$G$49+H2/$H$49+I2/$I$49+J2/$J$49+K2/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L2" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="27">
+        <v>7</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -820,16 +845,18 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B3/$B$49+C3/$C$49+D3/$D$49+E3/$E$49+F3/$F$49+G3/$G$49+H3/$H$49+I3/$I$49+J3/$J$49+K3/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L3" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="28">
+        <v>11</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -839,16 +866,18 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B4/$B$49+C4/$C$49+D4/$D$49+E4/$E$49+F4/$F$49+G4/$G$49+H4/$H$49+I4/$I$49+J4/$J$49+K4/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L4" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="28">
+        <v>2</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -858,16 +887,18 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B5/$B$49+C5/$C$49+D5/$D$49+E5/$E$49+F5/$F$49+G5/$G$49+H5/$H$49+I5/$I$49+J5/$J$49+K5/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L5" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1670</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="28">
+        <v>11</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -877,16 +908,18 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B6/$B$49+C6/$C$49+D6/$D$49+E6/$E$49+F6/$F$49+G6/$G$49+H6/$H$49+I6/$I$49+J6/$J$49+K6/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L6" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1691</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="28">
+        <v>3</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -896,16 +929,18 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B7/$B$49+C7/$C$49+D7/$D$49+E7/$E$49+F7/$F$49+G7/$G$49+H7/$H$49+I7/$I$49+J7/$J$49+K7/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L7" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1889</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="28">
+        <v>2</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -915,16 +950,18 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B8/$B$49+C8/$C$49+D8/$D$49+E8/$E$49+F8/$F$49+G8/$G$49+H8/$H$49+I8/$I$49+J8/$J$49+K8/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L8" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2085</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="28">
+        <v>3</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -934,16 +971,18 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B9/$B$49+C9/$C$49+D9/$D$49+E9/$E$49+F9/$F$49+G9/$G$49+H9/$H$49+I9/$I$49+J9/$J$49+K9/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L9" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2163</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="28">
+        <v>4</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -953,16 +992,18 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B10/$B$49+C10/$C$49+D10/$D$49+E10/$E$49+F10/$F$49+G10/$G$49+H10/$H$49+I10/$I$49+J10/$J$49+K10/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L10" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2393</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="28">
+        <v>8</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -972,16 +1013,18 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B11/$B$49+C11/$C$49+D11/$D$49+E11/$E$49+F11/$F$49+G11/$G$49+H11/$H$49+I11/$I$49+J11/$J$49+K11/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L11" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2441</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="28">
+        <v>10</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -991,16 +1034,18 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B12/$B$49+C12/$C$49+D12/$D$49+E12/$E$49+F12/$F$49+G12/$G$49+H12/$H$49+I12/$I$49+J12/$J$49+K12/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L12" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2903</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="28">
+        <v>3</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1010,16 +1055,18 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B13/$B$49+C13/$C$49+D13/$D$49+E13/$E$49+F13/$F$49+G13/$G$49+H13/$H$49+I13/$I$49+J13/$J$49+K13/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L13" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2994</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="28">
+        <v>7</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1029,16 +1076,18 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B14/$B$49+C14/$C$49+D14/$D$49+E14/$E$49+F14/$F$49+G14/$G$49+H14/$H$49+I14/$I$49+J14/$J$49+K14/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L14" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3377</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="28">
+        <v>6</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1048,16 +1097,18 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B15/$B$49+C15/$C$49+D15/$D$49+E15/$E$49+F15/$F$49+G15/$G$49+H15/$H$49+I15/$I$49+J15/$J$49+K15/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L15" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3517</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="28">
+        <v>8</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1067,16 +1118,18 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B16/$B$49+C16/$C$49+D16/$D$49+E16/$E$49+F16/$F$49+G16/$G$49+H16/$H$49+I16/$I$49+J16/$J$49+K16/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L16" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3560</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="28">
+        <v>7</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1086,16 +1139,16 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B17/$B$49+C17/$C$49+D17/$D$49+E17/$E$49+F17/$F$49+G17/$G$49+H17/$H$49+I17/$I$49+J17/$J$49+K17/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L17" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1105,8 +1158,8 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B18/$B$49+C18/$C$49+D18/$D$49+E18/$E$49+F18/$F$49+G18/$G$49+H18/$H$49+I18/$I$49+J18/$J$49+K18/$K$49)/SUM(B$53:$K$53),0)</f>
+      <c r="L18" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1167,9 @@
       <c r="A19" s="2">
         <v>3642</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="28">
+        <v>5</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1124,16 +1179,18 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B19/$B$49+C19/$C$49+D19/$D$49+E19/$E$49+F19/$F$49+G19/$G$49+H19/$H$49+I19/$I$49+J19/$J$49+K19/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L19" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3672</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="28">
+        <v>12</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1143,16 +1200,18 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B20/$B$49+C20/$C$49+D20/$D$49+E20/$E$49+F20/$F$49+G20/$G$49+H20/$H$49+I20/$I$49+J20/$J$49+K20/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L20" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3797</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="28">
+        <v>10</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1162,16 +1221,18 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B21/$B$49+C21/$C$49+D21/$D$49+E21/$E$49+F21/$F$49+G21/$G$49+H21/$H$49+I21/$I$49+J21/$J$49+K21/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L21" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4091</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="28">
+        <v>10</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1181,16 +1242,16 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B22/$B$49+C22/$C$49+D22/$D$49+E22/$E$49+F22/$F$49+G22/$G$49+H22/$H$49+I22/$I$49+J22/$J$49+K22/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L22" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1200,8 +1261,8 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B23/$B$49+C23/$C$49+D23/$D$49+E23/$E$49+F23/$F$49+G23/$G$49+H23/$H$49+I23/$I$49+J23/$J$49+K23/$K$49)/SUM(B$53:$K$53),0)</f>
+      <c r="L23" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50+K23/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1209,7 +1270,9 @@
       <c r="A24" s="2">
         <v>4622</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="28">
+        <v>4</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1219,16 +1282,18 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B24/$B$49+C24/$C$49+D24/$D$49+E24/$E$49+F24/$F$49+G24/$G$49+H24/$H$49+I24/$I$49+J24/$J$49+K24/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L24" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5075</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="28">
+        <v>9</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1238,16 +1303,18 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B25/$B$49+C25/$C$49+D25/$D$49+E25/$E$49+F25/$F$49+G25/$G$49+H25/$H$49+I25/$I$49+J25/$J$49+K25/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L25" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5141</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="28">
+        <v>7</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1257,16 +1324,18 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B26/$B$49+C26/$C$49+D26/$D$49+E26/$E$49+F26/$F$49+G26/$G$49+H26/$H$49+I26/$I$49+J26/$J$49+K26/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L26" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>5482</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="28">
+        <v>3</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1276,16 +1345,18 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B27/$B$49+C27/$C$49+D27/$D$49+E27/$E$49+F27/$F$49+G27/$G$49+H27/$H$49+I27/$I$49+J27/$J$49+K27/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L27" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>5680</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="28">
+        <v>2</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1295,16 +1366,18 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B28/$B$49+C28/$C$49+D28/$D$49+E28/$E$49+F28/$F$49+G28/$G$49+H28/$H$49+I28/$I$49+J28/$J$49+K28/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L28" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5943</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="28">
+        <v>5</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1314,16 +1387,18 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B29/$B$49+C29/$C$49+D29/$D$49+E29/$E$49+F29/$F$49+G29/$G$49+H29/$H$49+I29/$I$49+J29/$J$49+K29/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L29" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6464</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="28">
+        <v>10</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1333,16 +1408,18 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B30/$B$49+C30/$C$49+D30/$D$49+E30/$E$49+F30/$F$49+G30/$G$49+H30/$H$49+I30/$I$49+J30/$J$49+K30/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L30" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>6797</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="28">
+        <v>5</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1352,16 +1429,18 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B31/$B$49+C31/$C$49+D31/$D$49+E31/$E$49+F31/$F$49+G31/$G$49+H31/$H$49+I31/$I$49+J31/$J$49+K31/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L31" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7021</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="28">
+        <v>6</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1371,16 +1450,16 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B32/$B$49+C32/$C$49+D32/$D$49+E32/$E$49+F32/$F$49+G32/$G$49+H32/$H$49+I32/$I$49+J32/$J$49+K32/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L32" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>7575</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>7511</v>
+      </c>
+      <c r="B33" s="28"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1390,16 +1469,18 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B33/$B$49+C33/$C$49+D33/$D$49+E33/$E$49+F33/$F$49+G33/$G$49+H33/$H$49+I33/$I$49+J33/$J$49+K33/$K$49)/SUM(B$53:$K$53),0)</f>
+      <c r="L33" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>7642</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>7575</v>
+      </c>
+      <c r="B34" s="28">
+        <v>3</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1409,16 +1490,18 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B34/$B$49+C34/$C$49+D34/$D$49+E34/$E$49+F34/$F$49+G34/$G$49+H34/$H$49+I34/$I$49+J34/$J$49+K34/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L34" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>7949</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>7642</v>
+      </c>
+      <c r="B35" s="28">
+        <v>3</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1428,16 +1511,16 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B35/$B$49+C35/$C$49+D35/$D$49+E35/$E$49+F35/$F$49+G35/$G$49+H35/$H$49+I35/$I$49+J35/$J$49+K35/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L35" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>8688</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>7949</v>
+      </c>
+      <c r="B36" s="28"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1447,16 +1530,16 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B36/$B$49+C36/$C$49+D36/$D$49+E36/$E$49+F36/$F$49+G36/$G$49+H36/$H$49+I36/$I$49+J36/$J$49+K36/$K$49)/SUM(B$53:$K$53),0)</f>
+      <c r="L36" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B36/$B$50+C36/$C$50+D36/$D$50+E36/$E$50+F36/$F$50+G36/$G$50+H36/$H$50+I36/$I$50+J36/$J$50+K36/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>8742</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>8688</v>
+      </c>
+      <c r="B37" s="28"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1466,16 +1549,18 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B37/$B$49+C37/$C$49+D37/$D$49+E37/$E$49+F37/$F$49+G37/$G$49+H37/$H$49+I37/$I$49+J37/$J$49+K37/$K$49)/SUM(B$53:$K$53),0)</f>
+      <c r="L37" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B37/$B$50+C37/$C$50+D37/$D$50+E37/$E$50+F37/$F$50+G37/$G$50+H37/$H$50+I37/$I$50+J37/$J$50+K37/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>8743</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>8742</v>
+      </c>
+      <c r="B38" s="28">
+        <v>5</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1485,16 +1570,18 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B38/$B$49+C38/$C$49+D38/$D$49+E38/$E$49+F38/$F$49+G38/$G$49+H38/$H$49+I38/$I$49+J38/$J$49+K38/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L38" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>8765</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>8743</v>
+      </c>
+      <c r="B39" s="28">
+        <v>6</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1504,16 +1591,18 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B39/$B$49+C39/$C$49+D39/$D$49+E39/$E$49+F39/$F$49+G39/$G$49+H39/$H$49+I39/$I$49+J39/$J$49+K39/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L39" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50+K39/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>8793</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>8765</v>
+      </c>
+      <c r="B40" s="28">
+        <v>6</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1523,16 +1612,18 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B40/$B$49+C40/$C$49+D40/$D$49+E40/$E$49+F40/$F$49+G40/$G$49+H40/$H$49+I40/$I$49+J40/$J$49+K40/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L40" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>9139</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>8793</v>
+      </c>
+      <c r="B41" s="28">
+        <v>8</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1542,16 +1633,18 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B41/$B$49+C41/$C$49+D41/$D$49+E41/$E$49+F41/$F$49+G41/$G$49+H41/$H$49+I41/$I$49+J41/$J$49+K41/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L41" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>9196</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>9139</v>
+      </c>
+      <c r="B42" s="28">
+        <v>2</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1561,16 +1654,18 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B42/$B$49+C42/$C$49+D42/$D$49+E42/$E$49+F42/$F$49+G42/$G$49+H42/$H$49+I42/$I$49+J42/$J$49+K42/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L42" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>9355</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>9196</v>
+      </c>
+      <c r="B43" s="28">
+        <v>7</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1580,16 +1675,18 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B43/$B$49+C43/$C$49+D43/$D$49+E43/$E$49+F43/$F$49+G43/$G$49+H43/$H$49+I43/$I$49+J43/$J$49+K43/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L43" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>9516</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>9355</v>
+      </c>
+      <c r="B44" s="28">
+        <v>8</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1599,16 +1696,16 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B44/$B$49+C44/$C$49+D44/$D$49+E44/$E$49+F44/$F$49+G44/$G$49+H44/$H$49+I44/$I$49+J44/$J$49+K44/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L44" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>9550</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>9516</v>
+      </c>
+      <c r="B45" s="28"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1618,16 +1715,18 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B45/$B$49+C45/$C$49+D45/$D$49+E45/$E$49+F45/$F$49+G45/$G$49+H45/$H$49+I45/$I$49+J45/$J$49+K45/$K$49)/SUM(B$53:$K$53),0)</f>
+      <c r="L45" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B45/$B$50+C45/$C$50+D45/$D$50+E45/$E$50+F45/$F$50+G45/$G$50+H45/$H$50+I45/$I$50+J45/$J$50+K45/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>9744</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>9550</v>
+      </c>
+      <c r="B46" s="28">
+        <v>10</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1637,16 +1736,18 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B46/$B$49+C46/$C$49+D46/$D$49+E46/$E$49+F46/$F$49+G46/$G$49+H46/$H$49+I46/$I$49+J46/$J$49+K46/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
+      <c r="L46" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>9881</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>9744</v>
+      </c>
+      <c r="B47" s="28">
+        <v>5</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1656,242 +1757,263 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2">
-        <f>IF(SUM($B$53:$K$53)&gt;0,$L$49*(B47/$B$49+C47/$C$49+D47/$D$49+E47/$E$49+F47/$F$49+G47/$G$49+H47/$H$49+I47/$I$49+J47/$J$49+K47/$K$49)/SUM(B$53:$K$53),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="L47" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>9881</v>
+      </c>
+      <c r="B48" s="28">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="29">
+        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="9">
-        <v>20</v>
-      </c>
-      <c r="C49" s="10">
+      <c r="B50" s="9">
         <v>15</v>
       </c>
-      <c r="D49" s="10">
+      <c r="C50" s="10">
         <v>15</v>
       </c>
-      <c r="E49" s="10">
+      <c r="D50" s="10">
         <v>15</v>
       </c>
-      <c r="F49" s="10">
+      <c r="E50" s="10">
         <v>15</v>
       </c>
-      <c r="G49" s="10">
+      <c r="F50" s="10">
         <v>15</v>
       </c>
-      <c r="H49" s="10">
+      <c r="G50" s="10">
         <v>15</v>
       </c>
-      <c r="I49" s="10">
+      <c r="H50" s="10">
         <v>15</v>
       </c>
-      <c r="J49" s="10">
+      <c r="I50" s="10">
         <v>15</v>
       </c>
-      <c r="K49" s="10">
+      <c r="J50" s="10">
         <v>15</v>
       </c>
-      <c r="L49" s="11">
+      <c r="K50" s="10">
+        <v>15</v>
+      </c>
+      <c r="L50" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="13" t="e">
-        <f>AVERAGE(B$2:B$47)</f>
+      <c r="B51" s="13">
+        <f>AVERAGE(B$2:B$48)</f>
+        <v>6.2195121951219514</v>
+      </c>
+      <c r="C51" s="13" t="e">
+        <f t="shared" ref="C51:L51" si="0">AVERAGE(C$2:C$48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C50" s="13" t="e">
-        <f t="shared" ref="C50:L50" si="0">AVERAGE(C$2:C$47)</f>
+      <c r="D51" s="13" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="13" t="e">
+      <c r="E51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="13" t="e">
+      <c r="F51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="13" t="e">
+      <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="13" t="e">
+      <c r="J51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="13" t="e">
+      <c r="K51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K50" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L50" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="13" t="e">
-        <f>STDEV(B$2:B$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="13" t="e">
-        <f t="shared" ref="C51:L51" si="1">STDEV(C$2:C$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L51" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.36170212765957438</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="13">
+        <f>STDEV(B$2:B$48)</f>
+        <v>2.8593023198146712</v>
+      </c>
+      <c r="C52" s="13" t="e">
+        <f t="shared" ref="C52:L52" si="1">STDEV(C$2:C$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22618221069524505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="13" t="e">
-        <f>MEDIAN(B$2:B$47)</f>
+      <c r="B53" s="13">
+        <f>MEDIAN(B$2:B$48)</f>
+        <v>6</v>
+      </c>
+      <c r="C53" s="13" t="e">
+        <f t="shared" ref="C53:L53" si="2">MEDIAN(C$2:C$48)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C52" s="13" t="e">
-        <f t="shared" ref="C52:L52" si="2">MEDIAN(C$2:C$47)</f>
+      <c r="D53" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D52" s="13" t="e">
+      <c r="E53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="E52" s="13" t="e">
+      <c r="F53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="G53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="H53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="H52" s="13" t="e">
+      <c r="I53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="I52" s="13" t="e">
+      <c r="J53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J52" s="13" t="e">
+      <c r="K53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K52" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L52" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+      <c r="L53" s="13">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="16">
-        <f t="shared" ref="B53:K53" si="3">IF(SUM(B11:B47)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="16">
+      <c r="B54" s="16">
+        <f t="shared" ref="B54:K54" si="3">IF(SUM(B11:B48)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K54" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L53" s="10"/>
+      <c r="L54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1903,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1960,8 +2082,8 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2">
-        <f>IF(SUM($B$53:$I$53)&gt;0,$J$49*(B2/$B$49+C2/$C$49+D2/$D$49+E2/$E$49+F2/$F$49+G2/$G$49+H2/$H$49+I2/$I$49)/SUM($B$53:$I$53),0)</f>
+      <c r="J2" s="29">
+        <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1977,8 +2099,8 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J47" si="0">IF(SUM($B$53:$I$53)&gt;0,$J$49*(B3/$B$49+C3/$C$49+D3/$D$49+E3/$E$49+F3/$F$49+G3/$G$49+H3/$H$49+I3/$I$49)/SUM($B$53:$I$53),0)</f>
+      <c r="J3" s="29">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2116,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="J4" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2011,7 +2133,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2">
+      <c r="J5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2028,7 +2150,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2045,7 +2167,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2062,7 +2184,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="J8" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2079,7 +2201,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2096,7 +2218,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="J10" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2113,7 +2235,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="J11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2130,7 +2252,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="J12" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2147,7 +2269,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2164,7 +2286,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="J14" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2181,7 +2303,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2">
+      <c r="J15" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2198,7 +2320,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2215,7 +2337,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="J17" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2232,7 +2354,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="J18" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2249,7 +2371,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="J19" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2266,7 +2388,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2283,7 +2405,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
+      <c r="J21" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2300,7 +2422,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2">
+      <c r="J22" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2317,7 +2439,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2">
+      <c r="J23" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2334,7 +2456,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="J24" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2351,7 +2473,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2">
+      <c r="J25" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2368,7 +2490,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2">
+      <c r="J26" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2385,7 +2507,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2">
+      <c r="J27" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2402,7 +2524,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="2">
+      <c r="J28" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2419,7 +2541,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="2">
+      <c r="J29" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2436,7 +2558,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="J30" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2453,7 +2575,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2">
+      <c r="J31" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2470,14 +2592,14 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="2">
+      <c r="J32" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>7575</v>
+        <v>7511</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2487,14 +2609,14 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2">
+      <c r="J33" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>7642</v>
+        <v>7575</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2504,14 +2626,14 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2">
+      <c r="J34" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>7949</v>
+        <v>7642</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2521,14 +2643,14 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2">
+      <c r="J35" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>8688</v>
+        <v>7949</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2538,14 +2660,14 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2">
+      <c r="J36" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>8742</v>
+        <v>8688</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2555,14 +2677,14 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2">
+      <c r="J37" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>8743</v>
+        <v>8742</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2572,14 +2694,14 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="2">
+      <c r="J38" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>8765</v>
+        <v>8743</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2589,14 +2711,14 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2">
+      <c r="J39" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>8793</v>
+        <v>8765</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2606,14 +2728,14 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="2">
+      <c r="J40" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>9139</v>
+        <v>8793</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2623,14 +2745,14 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="2">
+      <c r="J41" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>9196</v>
+        <v>9139</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2640,14 +2762,14 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2">
+      <c r="J42" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>9355</v>
+        <v>9196</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2657,14 +2779,14 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="2">
+      <c r="J43" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>9516</v>
+        <v>9355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2674,14 +2796,14 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2">
+      <c r="J44" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>9550</v>
+        <v>9516</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2691,14 +2813,14 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2">
+      <c r="J45" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>9744</v>
+        <v>9550</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2708,14 +2830,14 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="2">
+      <c r="J46" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>9881</v>
+        <v>9744</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2725,206 +2847,223 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="2">
+      <c r="J47" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48"/>
+      <c r="A48" s="2">
+        <v>9881</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B50" s="10">
         <v>50</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C50" s="10">
         <v>50</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>50</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>50</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>50</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>50</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H50" s="10">
         <v>50</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I50" s="10">
         <v>50</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J50" s="11">
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="13" t="e">
-        <f>AVERAGE(B$2:B$47)</f>
+      <c r="B51" s="13" t="e">
+        <f>AVERAGE(B$2:B$48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C50" s="13" t="e">
-        <f t="shared" ref="C50:J50" si="1">AVERAGE(C$2:C$47)</f>
+      <c r="C51" s="13" t="e">
+        <f t="shared" ref="C51:J51" si="1">AVERAGE(C$2:C$48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="13" t="e">
+      <c r="D51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="13" t="e">
+      <c r="E51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="13" t="e">
+      <c r="F51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="13" t="e">
+      <c r="G51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I50" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="13" t="e">
-        <f>STDEV(B$2:B$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C51" s="13" t="e">
-        <f t="shared" ref="C51:J51" si="2">STDEV(C$2:C$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E51" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H51" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J51" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="13" t="e">
+        <f>STDEV(B$2:B$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="13" t="e">
+        <f t="shared" ref="C52:J52" si="2">STDEV(C$2:C$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I52" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="13" t="e">
-        <f>MEDIAN(B$2:B$47)</f>
+      <c r="B53" s="13" t="e">
+        <f>MEDIAN(B$2:B$48)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C52" s="13" t="e">
-        <f t="shared" ref="C52:J52" si="3">MEDIAN(C$2:C$47)</f>
+      <c r="C53" s="13" t="e">
+        <f t="shared" ref="C53:J53" si="3">MEDIAN(C$2:C$48)</f>
         <v>#NUM!</v>
       </c>
-      <c r="D52" s="13" t="e">
+      <c r="D53" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="E52" s="13" t="e">
+      <c r="E53" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="F53" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="G53" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="H52" s="13" t="e">
+      <c r="H53" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="I52" s="13" t="e">
+      <c r="I53" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="18">
-        <f t="shared" ref="B53:I53" si="4">IF(SUM(B10:B47)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="16">
+      <c r="B54" s="18">
+        <f t="shared" ref="B54:I54" si="4">IF(SUM(B10:B48)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I53" s="16">
+      <c r="I54" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J53" s="10"/>
+      <c r="J54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2936,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E2C325-9DED-7647-82A1-46DD08F3F8AF}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3178,157 +3317,164 @@
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>7575</v>
+        <v>7511</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>7642</v>
+        <v>7575</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>7949</v>
+        <v>7642</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>8688</v>
+        <v>7949</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>8742</v>
+        <v>8688</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>8743</v>
+        <v>8742</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>8765</v>
+        <v>8743</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>8793</v>
+        <v>8765</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>9139</v>
+        <v>8793</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>9196</v>
+        <v>9139</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>9355</v>
+        <v>9196</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>9516</v>
+        <v>9355</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>9550</v>
+        <v>9516</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>9744</v>
+        <v>9550</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>9881</v>
+        <v>9744</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>9881</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B50" s="20">
         <v>100</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C50" s="20">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="19" t="e">
-        <f>AVERAGE(B$2:B$47)</f>
+      <c r="B51" s="19" t="e">
+        <f>AVERAGE(B$2:B$48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C50" s="19" t="e">
-        <f t="shared" ref="C50" si="0">AVERAGE(C$2:C$47)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="19" t="e">
-        <f>STDEV(B$2:B$47)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="C51" s="19" t="e">
-        <f t="shared" ref="C51" si="1">STDEV(C$2:C$47)</f>
+        <f t="shared" ref="C51" si="0">AVERAGE(C$2:C$48)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="19" t="e">
+        <f>STDEV(B$2:B$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="19" t="e">
+        <f t="shared" ref="C52" si="1">STDEV(C$2:C$48)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="19" t="e">
-        <f>MEDIAN(B$2:B$47)</f>
+      <c r="B53" s="19" t="e">
+        <f>MEDIAN(B$2:B$48)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C52" s="19" t="e">
-        <f t="shared" ref="C52" si="2">MEDIAN(C$2:C$47)</f>
+      <c r="C53" s="19" t="e">
+        <f t="shared" ref="C53" si="2">MEDIAN(C$2:C$48)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3342,9 +3488,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D72AB-081C-F944-AC06-2660F6476096}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -3385,9 +3531,9 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26">
-        <f>Quizzes!B2</f>
-        <v>0</v>
+      <c r="B2" s="30">
+        <f>Quizzes!L2</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C2" s="26">
         <f>Homeworks!J2</f>
@@ -3401,13 +3547,13 @@
         <f>Exams!C2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="26">
-        <f>$B2+$C2+IF(($E2/$E$49&gt;$D2/$D$49),($E2/$E$49)*7.5, ($D2/$D$49)*3+($E2/$E$49)*4.5)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="26">
+      <c r="F2" s="30">
+        <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2" s="31">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="26">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -3418,9 +3564,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26">
-        <f>Quizzes!B3</f>
-        <v>0</v>
+      <c r="B3" s="30">
+        <f>Quizzes!L3</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C3" s="26">
         <f>Homeworks!J3</f>
@@ -3434,16 +3580,16 @@
         <f>Exams!C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="26">
-        <f t="shared" ref="F3:F47" si="0">$B3+$C3+IF(($E3/$E$49&gt;$D3/$D$49),($E3/$E$49)*7.5, ($D3/$D$49)*3+($E3/$E$49)*4.5)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
-        <f t="shared" ref="G3:G47" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>0</v>
+      <c r="F3" s="30">
+        <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
+        <v>0.5</v>
       </c>
       <c r="H3" s="26">
-        <f t="shared" ref="H3:H47" si="2">IF(G3&gt;4.75,1,0)</f>
+        <f t="shared" ref="H3:H48" si="2">IF(G3&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3451,9 +3597,9 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
-        <f>Quizzes!B4</f>
-        <v>0</v>
+      <c r="B4" s="30">
+        <f>Quizzes!L4</f>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C4" s="26">
         <f>Homeworks!J4</f>
@@ -3467,13 +3613,13 @@
         <f>Exams!C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F4" s="30">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -3484,9 +3630,9 @@
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26">
-        <f>Quizzes!B5</f>
-        <v>0</v>
+      <c r="B5" s="30">
+        <f>Quizzes!L5</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C5" s="26">
         <f>Homeworks!J5</f>
@@ -3500,11 +3646,11 @@
         <f>Exams!C5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G5" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3517,9 +3663,9 @@
       <c r="A6" s="2">
         <v>1670</v>
       </c>
-      <c r="B6" s="26">
-        <f>Quizzes!B6</f>
-        <v>0</v>
+      <c r="B6" s="30">
+        <f>Quizzes!L6</f>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C6" s="26">
         <f>Homeworks!J6</f>
@@ -3533,13 +3679,13 @@
         <f>Exams!C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -3550,9 +3696,9 @@
       <c r="A7" s="2">
         <v>1691</v>
       </c>
-      <c r="B7" s="26">
-        <f>Quizzes!B7</f>
-        <v>0</v>
+      <c r="B7" s="30">
+        <f>Quizzes!L7</f>
+        <v>0.2</v>
       </c>
       <c r="C7" s="26">
         <f>Homeworks!J7</f>
@@ -3566,11 +3712,11 @@
         <f>Exams!C7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3583,9 +3729,9 @@
       <c r="A8" s="2">
         <v>1889</v>
       </c>
-      <c r="B8" s="26">
-        <f>Quizzes!B8</f>
-        <v>0</v>
+      <c r="B8" s="30">
+        <f>Quizzes!L8</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C8" s="26">
         <f>Homeworks!J8</f>
@@ -3599,11 +3745,11 @@
         <f>Exams!C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G8" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3616,9 +3762,9 @@
       <c r="A9" s="2">
         <v>2085</v>
       </c>
-      <c r="B9" s="26">
-        <f>Quizzes!B9</f>
-        <v>0</v>
+      <c r="B9" s="30">
+        <f>Quizzes!L9</f>
+        <v>0.2</v>
       </c>
       <c r="C9" s="26">
         <f>Homeworks!J9</f>
@@ -3632,11 +3778,11 @@
         <f>Exams!C9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3649,9 +3795,9 @@
       <c r="A10" s="2">
         <v>2163</v>
       </c>
-      <c r="B10" s="26">
-        <f>Quizzes!B10</f>
-        <v>0</v>
+      <c r="B10" s="30">
+        <f>Quizzes!L10</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C10" s="26">
         <f>Homeworks!J10</f>
@@ -3665,13 +3811,13 @@
         <f>Exams!C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F10" s="30">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
@@ -3682,9 +3828,9 @@
       <c r="A11" s="2">
         <v>2393</v>
       </c>
-      <c r="B11" s="26">
-        <f>Quizzes!B11</f>
-        <v>0</v>
+      <c r="B11" s="30">
+        <f>Quizzes!L11</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C11" s="26">
         <f>Homeworks!J11</f>
@@ -3698,13 +3844,13 @@
         <f>Exams!C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F11" s="30">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -3715,9 +3861,9 @@
       <c r="A12" s="2">
         <v>2441</v>
       </c>
-      <c r="B12" s="26">
-        <f>Quizzes!B12</f>
-        <v>0</v>
+      <c r="B12" s="30">
+        <f>Quizzes!L12</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C12" s="26">
         <f>Homeworks!J12</f>
@@ -3731,13 +3877,13 @@
         <f>Exams!C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
@@ -3748,9 +3894,9 @@
       <c r="A13" s="2">
         <v>2903</v>
       </c>
-      <c r="B13" s="26">
-        <f>Quizzes!B13</f>
-        <v>0</v>
+      <c r="B13" s="30">
+        <f>Quizzes!L13</f>
+        <v>0.2</v>
       </c>
       <c r="C13" s="26">
         <f>Homeworks!J13</f>
@@ -3764,11 +3910,11 @@
         <f>Exams!C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3781,9 +3927,9 @@
       <c r="A14" s="2">
         <v>2994</v>
       </c>
-      <c r="B14" s="26">
-        <f>Quizzes!B14</f>
-        <v>0</v>
+      <c r="B14" s="30">
+        <f>Quizzes!L14</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C14" s="26">
         <f>Homeworks!J14</f>
@@ -3797,13 +3943,13 @@
         <f>Exams!C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="2"/>
@@ -3814,9 +3960,9 @@
       <c r="A15" s="2">
         <v>3377</v>
       </c>
-      <c r="B15" s="26">
-        <f>Quizzes!B15</f>
-        <v>0</v>
+      <c r="B15" s="30">
+        <f>Quizzes!L15</f>
+        <v>0.4</v>
       </c>
       <c r="C15" s="26">
         <f>Homeworks!J15</f>
@@ -3830,13 +3976,13 @@
         <f>Exams!C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="2"/>
@@ -3847,9 +3993,9 @@
       <c r="A16" s="2">
         <v>3517</v>
       </c>
-      <c r="B16" s="26">
-        <f>Quizzes!B16</f>
-        <v>0</v>
+      <c r="B16" s="30">
+        <f>Quizzes!L16</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C16" s="26">
         <f>Homeworks!J16</f>
@@ -3863,13 +4009,13 @@
         <f>Exams!C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="2"/>
@@ -3880,9 +4026,9 @@
       <c r="A17" s="2">
         <v>3560</v>
       </c>
-      <c r="B17" s="26">
-        <f>Quizzes!B17</f>
-        <v>0</v>
+      <c r="B17" s="30">
+        <f>Quizzes!L17</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C17" s="26">
         <f>Homeworks!J17</f>
@@ -3896,13 +4042,13 @@
         <f>Exams!C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="2"/>
@@ -3913,8 +4059,8 @@
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="26">
-        <f>Quizzes!B18</f>
+      <c r="B18" s="30">
+        <f>Quizzes!L18</f>
         <v>0</v>
       </c>
       <c r="C18" s="26">
@@ -3929,11 +4075,11 @@
         <f>Exams!C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3946,9 +4092,9 @@
       <c r="A19" s="2">
         <v>3642</v>
       </c>
-      <c r="B19" s="26">
-        <f>Quizzes!B19</f>
-        <v>0</v>
+      <c r="B19" s="30">
+        <f>Quizzes!L19</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C19" s="26">
         <f>Homeworks!J19</f>
@@ -3962,13 +4108,13 @@
         <f>Exams!C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -3979,9 +4125,9 @@
       <c r="A20" s="2">
         <v>3672</v>
       </c>
-      <c r="B20" s="26">
-        <f>Quizzes!B20</f>
-        <v>0</v>
+      <c r="B20" s="30">
+        <f>Quizzes!L20</f>
+        <v>0.8</v>
       </c>
       <c r="C20" s="26">
         <f>Homeworks!J20</f>
@@ -3995,13 +4141,13 @@
         <f>Exams!C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F20" s="30">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="2"/>
@@ -4012,9 +4158,9 @@
       <c r="A21" s="2">
         <v>3797</v>
       </c>
-      <c r="B21" s="26">
-        <f>Quizzes!B21</f>
-        <v>0</v>
+      <c r="B21" s="30">
+        <f>Quizzes!L21</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C21" s="26">
         <f>Homeworks!J21</f>
@@ -4028,13 +4174,13 @@
         <f>Exams!C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H21" s="26">
         <f t="shared" si="2"/>
@@ -4045,9 +4191,9 @@
       <c r="A22" s="2">
         <v>4091</v>
       </c>
-      <c r="B22" s="26">
-        <f>Quizzes!B22</f>
-        <v>0</v>
+      <c r="B22" s="30">
+        <f>Quizzes!L22</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="26">
         <f>Homeworks!J22</f>
@@ -4061,13 +4207,13 @@
         <f>Exams!C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H22" s="26">
         <f t="shared" si="2"/>
@@ -4078,8 +4224,8 @@
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="26">
-        <f>Quizzes!B23</f>
+      <c r="B23" s="30">
+        <f>Quizzes!L23</f>
         <v>0</v>
       </c>
       <c r="C23" s="26">
@@ -4094,11 +4240,11 @@
         <f>Exams!C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
+      <c r="F23" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4111,9 +4257,9 @@
       <c r="A24" s="2">
         <v>4622</v>
       </c>
-      <c r="B24" s="26">
-        <f>Quizzes!B24</f>
-        <v>0</v>
+      <c r="B24" s="30">
+        <f>Quizzes!L24</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C24" s="26">
         <f>Homeworks!J24</f>
@@ -4127,13 +4273,13 @@
         <f>Exams!C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F24" s="30">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
@@ -4144,9 +4290,9 @@
       <c r="A25" s="2">
         <v>5075</v>
       </c>
-      <c r="B25" s="26">
-        <f>Quizzes!B25</f>
-        <v>0</v>
+      <c r="B25" s="30">
+        <f>Quizzes!L25</f>
+        <v>0.6</v>
       </c>
       <c r="C25" s="26">
         <f>Homeworks!J25</f>
@@ -4160,13 +4306,13 @@
         <f>Exams!C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F25" s="30">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H25" s="26">
         <f t="shared" si="2"/>
@@ -4177,9 +4323,9 @@
       <c r="A26" s="2">
         <v>5141</v>
       </c>
-      <c r="B26" s="26">
-        <f>Quizzes!B26</f>
-        <v>0</v>
+      <c r="B26" s="30">
+        <f>Quizzes!L26</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C26" s="26">
         <f>Homeworks!J26</f>
@@ -4193,13 +4339,13 @@
         <f>Exams!C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F26" s="30">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -4210,9 +4356,9 @@
       <c r="A27" s="2">
         <v>5482</v>
       </c>
-      <c r="B27" s="26">
-        <f>Quizzes!B27</f>
-        <v>0</v>
+      <c r="B27" s="30">
+        <f>Quizzes!L27</f>
+        <v>0.2</v>
       </c>
       <c r="C27" s="26">
         <f>Homeworks!J27</f>
@@ -4226,11 +4372,11 @@
         <f>Exams!C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
+      <c r="F27" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4243,9 +4389,9 @@
       <c r="A28" s="2">
         <v>5680</v>
       </c>
-      <c r="B28" s="26">
-        <f>Quizzes!B28</f>
-        <v>0</v>
+      <c r="B28" s="30">
+        <f>Quizzes!L28</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C28" s="26">
         <f>Homeworks!J28</f>
@@ -4259,11 +4405,11 @@
         <f>Exams!C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
+      <c r="F28" s="30">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G28" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4276,9 +4422,9 @@
       <c r="A29" s="2">
         <v>5943</v>
       </c>
-      <c r="B29" s="26">
-        <f>Quizzes!B29</f>
-        <v>0</v>
+      <c r="B29" s="30">
+        <f>Quizzes!L29</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C29" s="26">
         <f>Homeworks!J29</f>
@@ -4292,13 +4438,13 @@
         <f>Exams!C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F29" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -4309,9 +4455,9 @@
       <c r="A30" s="2">
         <v>6464</v>
       </c>
-      <c r="B30" s="26">
-        <f>Quizzes!B30</f>
-        <v>0</v>
+      <c r="B30" s="30">
+        <f>Quizzes!L30</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C30" s="26">
         <f>Homeworks!J30</f>
@@ -4325,13 +4471,13 @@
         <f>Exams!C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F30" s="30">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G30" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
@@ -4342,9 +4488,9 @@
       <c r="A31" s="2">
         <v>6797</v>
       </c>
-      <c r="B31" s="26">
-        <f>Quizzes!B31</f>
-        <v>0</v>
+      <c r="B31" s="30">
+        <f>Quizzes!L31</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C31" s="26">
         <f>Homeworks!J31</f>
@@ -4358,13 +4504,13 @@
         <f>Exams!C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F31" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G31" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="2"/>
@@ -4375,9 +4521,9 @@
       <c r="A32" s="2">
         <v>7021</v>
       </c>
-      <c r="B32" s="26">
-        <f>Quizzes!B32</f>
-        <v>0</v>
+      <c r="B32" s="30">
+        <f>Quizzes!L32</f>
+        <v>0.4</v>
       </c>
       <c r="C32" s="26">
         <f>Homeworks!J32</f>
@@ -4391,13 +4537,13 @@
         <f>Exams!C32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F32" s="30">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G32" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -4406,10 +4552,10 @@
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>7575</v>
-      </c>
-      <c r="B33" s="26">
-        <f>Quizzes!B33</f>
+        <v>7511</v>
+      </c>
+      <c r="B33" s="30">
+        <f>Quizzes!L33</f>
         <v>0</v>
       </c>
       <c r="C33" s="26">
@@ -4424,26 +4570,26 @@
         <f>Exams!C33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <f t="shared" si="1"/>
+      <c r="F33" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="31">
+        <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
         <v>0</v>
       </c>
       <c r="H33" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H33" si="4">IF(G33&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>7642</v>
-      </c>
-      <c r="B34" s="26">
-        <f>Quizzes!B34</f>
-        <v>0</v>
+        <v>7575</v>
+      </c>
+      <c r="B34" s="30">
+        <f>Quizzes!L34</f>
+        <v>0.2</v>
       </c>
       <c r="C34" s="26">
         <f>Homeworks!J34</f>
@@ -4457,11 +4603,11 @@
         <f>Exams!C34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="26">
+      <c r="F34" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4472,11 +4618,11 @@
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>7949</v>
-      </c>
-      <c r="B35" s="26">
-        <f>Quizzes!B35</f>
-        <v>0</v>
+        <v>7642</v>
+      </c>
+      <c r="B35" s="30">
+        <f>Quizzes!L35</f>
+        <v>0.2</v>
       </c>
       <c r="C35" s="26">
         <f>Homeworks!J35</f>
@@ -4490,11 +4636,11 @@
         <f>Exams!C35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="26">
+      <c r="F35" s="30">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4505,10 +4651,10 @@
     </row>
     <row r="36" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>8688</v>
-      </c>
-      <c r="B36" s="26">
-        <f>Quizzes!B36</f>
+        <v>7949</v>
+      </c>
+      <c r="B36" s="30">
+        <f>Quizzes!L36</f>
         <v>0</v>
       </c>
       <c r="C36" s="26">
@@ -4523,11 +4669,11 @@
         <f>Exams!C36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="26">
+      <c r="F36" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4538,10 +4684,10 @@
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>8742</v>
-      </c>
-      <c r="B37" s="26">
-        <f>Quizzes!B37</f>
+        <v>8688</v>
+      </c>
+      <c r="B37" s="30">
+        <f>Quizzes!L37</f>
         <v>0</v>
       </c>
       <c r="C37" s="26">
@@ -4556,11 +4702,11 @@
         <f>Exams!C37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="26">
+      <c r="F37" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4571,11 +4717,11 @@
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>8743</v>
-      </c>
-      <c r="B38" s="26">
-        <f>Quizzes!B38</f>
-        <v>0</v>
+        <v>8742</v>
+      </c>
+      <c r="B38" s="30">
+        <f>Quizzes!L38</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C38" s="26">
         <f>Homeworks!J38</f>
@@ -4589,13 +4735,13 @@
         <f>Exams!C38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F38" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G38" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -4604,11 +4750,11 @@
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>8765</v>
-      </c>
-      <c r="B39" s="26">
-        <f>Quizzes!B39</f>
-        <v>0</v>
+        <v>8743</v>
+      </c>
+      <c r="B39" s="30">
+        <f>Quizzes!L39</f>
+        <v>0.4</v>
       </c>
       <c r="C39" s="26">
         <f>Homeworks!J39</f>
@@ -4622,13 +4768,13 @@
         <f>Exams!C39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F39" s="30">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G39" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H39" s="26">
         <f t="shared" si="2"/>
@@ -4637,11 +4783,11 @@
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>8793</v>
-      </c>
-      <c r="B40" s="26">
-        <f>Quizzes!B40</f>
-        <v>0</v>
+        <v>8765</v>
+      </c>
+      <c r="B40" s="30">
+        <f>Quizzes!L40</f>
+        <v>0.4</v>
       </c>
       <c r="C40" s="26">
         <f>Homeworks!J40</f>
@@ -4655,13 +4801,13 @@
         <f>Exams!C40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F40" s="30">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G40" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -4670,11 +4816,11 @@
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>9139</v>
-      </c>
-      <c r="B41" s="26">
-        <f>Quizzes!B41</f>
-        <v>0</v>
+        <v>8793</v>
+      </c>
+      <c r="B41" s="30">
+        <f>Quizzes!L41</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C41" s="26">
         <f>Homeworks!J41</f>
@@ -4688,13 +4834,13 @@
         <f>Exams!C41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F41" s="30">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G41" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H41" s="26">
         <f t="shared" si="2"/>
@@ -4703,11 +4849,11 @@
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>9196</v>
-      </c>
-      <c r="B42" s="26">
-        <f>Quizzes!B42</f>
-        <v>0</v>
+        <v>9139</v>
+      </c>
+      <c r="B42" s="30">
+        <f>Quizzes!L42</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C42" s="26">
         <f>Homeworks!J42</f>
@@ -4721,11 +4867,11 @@
         <f>Exams!C42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="26">
+      <c r="F42" s="30">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G42" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4736,11 +4882,11 @@
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>9355</v>
-      </c>
-      <c r="B43" s="26">
-        <f>Quizzes!B43</f>
-        <v>0</v>
+        <v>9196</v>
+      </c>
+      <c r="B43" s="30">
+        <f>Quizzes!L43</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C43" s="26">
         <f>Homeworks!J43</f>
@@ -4754,13 +4900,13 @@
         <f>Exams!C43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F43" s="30">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G43" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H43" s="26">
         <f t="shared" si="2"/>
@@ -4769,11 +4915,11 @@
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>9516</v>
-      </c>
-      <c r="B44" s="26">
-        <f>Quizzes!B44</f>
-        <v>0</v>
+        <v>9355</v>
+      </c>
+      <c r="B44" s="30">
+        <f>Quizzes!L44</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C44" s="26">
         <f>Homeworks!J44</f>
@@ -4787,13 +4933,13 @@
         <f>Exams!C44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F44" s="30">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G44" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H44" s="26">
         <f t="shared" si="2"/>
@@ -4802,10 +4948,10 @@
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>9550</v>
-      </c>
-      <c r="B45" s="26">
-        <f>Quizzes!B45</f>
+        <v>9516</v>
+      </c>
+      <c r="B45" s="30">
+        <f>Quizzes!L45</f>
         <v>0</v>
       </c>
       <c r="C45" s="26">
@@ -4820,11 +4966,11 @@
         <f>Exams!C45</f>
         <v>0</v>
       </c>
-      <c r="F45" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
+      <c r="F45" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4835,11 +4981,11 @@
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>9744</v>
-      </c>
-      <c r="B46" s="26">
-        <f>Quizzes!B46</f>
-        <v>0</v>
+        <v>9550</v>
+      </c>
+      <c r="B46" s="30">
+        <f>Quizzes!L46</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C46" s="26">
         <f>Homeworks!J46</f>
@@ -4853,13 +4999,13 @@
         <f>Exams!C46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F46" s="30">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G46" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H46" s="26">
         <f t="shared" si="2"/>
@@ -4868,11 +5014,11 @@
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>9881</v>
-      </c>
-      <c r="B47" s="26">
-        <f>Quizzes!B47</f>
-        <v>0</v>
+        <v>9744</v>
+      </c>
+      <c r="B47" s="30">
+        <f>Quizzes!L47</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C47" s="26">
         <f>Homeworks!J47</f>
@@ -4886,147 +5032,180 @@
         <f>Exams!C47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F47" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G47" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="48" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>9881</v>
+      </c>
+      <c r="B48" s="30">
+        <f>Quizzes!L48</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C48" s="26">
+        <f>Homeworks!J48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="26">
+        <f>Exams!B48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="26">
+        <f>Exams!C48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="30">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G48" s="31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="11">
-        <f>Quizzes!L49</f>
+      <c r="B50" s="11">
+        <f>Quizzes!L50</f>
         <v>1</v>
       </c>
-      <c r="C49" s="25">
-        <f>Homeworks!J49</f>
+      <c r="C50" s="25">
+        <f>Homeworks!J50</f>
         <v>1.5</v>
       </c>
-      <c r="D49" s="9">
-        <f>Exams!B49</f>
+      <c r="D50" s="9">
+        <f>Exams!B50</f>
         <v>100</v>
       </c>
-      <c r="E49" s="10">
-        <f>Exams!C49</f>
+      <c r="E50" s="10">
+        <f>Exams!C50</f>
         <v>100</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="10">
         <v>10</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G50" s="10">
         <v>10</v>
       </c>
-      <c r="H49" s="10">
-        <f>SUM(H2:H47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="H50" s="10">
+        <f>SUM(H2:H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="13">
-        <f>AVERAGE(B$2:B$47)</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="13">
-        <f t="shared" ref="C50:H50" si="3">AVERAGE(C$2:C$47)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="B51" s="13">
-        <f>STDEV(B$2:B$47)</f>
-        <v>0</v>
+        <f>AVERAGE(B$2:B$48)</f>
+        <v>0.36170212765957438</v>
       </c>
       <c r="C51" s="13">
-        <f t="shared" ref="C51:H51" si="4">STDEV(C$2:C$47)</f>
+        <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
         <v>0</v>
       </c>
       <c r="D51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F51" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.36170212765957438</v>
       </c>
       <c r="G51" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.34042553191489361</v>
       </c>
       <c r="H51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="13">
+        <f>STDEV(B$2:B$48)</f>
+        <v>0.22618221069524505</v>
+      </c>
+      <c r="C52" s="13">
+        <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="6"/>
+        <v>0.22618221069524505</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="6"/>
+        <v>0.25763099198194733</v>
+      </c>
+      <c r="H52" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="13">
-        <f>MEDIAN(B$2:B$47)</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="13">
-        <f t="shared" ref="C52:H52" si="5">MEDIAN(C$2:C$47)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <f t="shared" si="5"/>
+      <c r="B53" s="13">
+        <f>MEDIAN(B$2:B$48)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C53" s="13">
+        <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="H53" s="13">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF7D46-335D-1D4A-8037-87A2BC2EB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D4DF3-53B5-9F4F-8DC0-2A44A0AD2C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1160" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,12 +427,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,6 +434,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -812,10 +815,12 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="31">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="30">
+        <v>2.5</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -824,19 +829,21 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="29">
+      <c r="L2" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="31">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="30">
+        <v>14.5</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -845,19 +852,21 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="32">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="30">
+        <v>11.5</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -866,19 +875,21 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="29">
+      <c r="L4" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="32">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -887,19 +898,21 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.13333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1670</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="32">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="30">
+        <v>13.5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -908,19 +921,19 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.73333333333333328</v>
+        <v>0.81666666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1691</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="32">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -929,19 +942,21 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1889</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -950,19 +965,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.13333333333333333</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2085</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="32">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="30">
+        <v>3.5</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -971,19 +988,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.21666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2163</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="32">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="30">
+        <v>12</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -992,19 +1011,21 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="29">
+      <c r="L10" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2393</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="32">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="30">
+        <v>10</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1013,19 +1034,21 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2441</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="32">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="30">
+        <v>15</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1034,19 +1057,21 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2903</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="32">
         <v>3</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="30">
+        <v>9</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1055,19 +1080,21 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2994</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="32">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="30">
+        <v>8</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1076,19 +1103,21 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3377</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="32">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="30">
+        <v>10</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1097,19 +1126,21 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="29">
+      <c r="L15" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.4</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3517</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="32">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="30">
+        <v>5.5</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1118,19 +1149,21 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="29">
+      <c r="L16" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3560</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="32">
         <v>7</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="30">
+        <v>8.5</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1139,17 +1172,19 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
+        <v>0.51666666666666661</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="30">
+        <v>4.5</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1158,19 +1193,21 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3642</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="32">
         <v>5</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="30">
+        <v>4.5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1179,19 +1216,21 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3672</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="32">
         <v>12</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="30">
+        <v>15</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1200,19 +1239,21 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="29">
+      <c r="L20" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3797</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="32">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="30">
+        <v>6.5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1221,19 +1262,21 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4091</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="32">
         <v>10</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="30">
+        <v>13.5</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1242,17 +1285,19 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.78333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="30">
+        <v>10</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1261,19 +1306,21 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="29">
+      <c r="L23" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50+K23/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>4622</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="32">
         <v>4</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="30">
+        <v>12.5</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1282,19 +1329,21 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="29">
+      <c r="L24" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5075</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="32">
         <v>9</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="30">
+        <v>1.5</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1303,19 +1352,21 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="29">
+      <c r="L25" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5141</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="32">
         <v>7</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="30">
+        <v>6</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1324,19 +1375,21 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="29">
+      <c r="L26" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>5482</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="32">
         <v>3</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="30">
+        <v>2.5</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1345,19 +1398,21 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="29">
+      <c r="L27" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>5680</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="32">
         <v>2</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="30">
+        <v>3.5</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1366,19 +1421,21 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="29">
+      <c r="L28" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.13333333333333333</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5943</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="32">
         <v>5</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="30">
+        <v>6.5</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1387,19 +1444,21 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="29">
+      <c r="L29" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.3833333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6464</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="32">
         <v>10</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="30">
+        <v>15</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1408,19 +1467,21 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="29">
+      <c r="L30" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>6797</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="32">
         <v>5</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="30">
+        <v>6</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1429,19 +1490,21 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="29">
+      <c r="L31" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7021</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="32">
         <v>6</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="30">
+        <v>10.5</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1450,17 +1513,19 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="29">
+      <c r="L32" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7511</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="30">
+        <v>1</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1469,19 +1534,21 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="29">
+      <c r="L33" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>7575</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="32">
         <v>3</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="30">
+        <v>5.5</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1490,19 +1557,21 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="29">
+      <c r="L34" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>7642</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="32">
         <v>3</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="30">
+        <v>3</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1511,7 +1580,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="29">
+      <c r="L35" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0.2</v>
       </c>
@@ -1520,8 +1589,8 @@
       <c r="A36" s="2">
         <v>7949</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1530,7 +1599,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="29">
+      <c r="L36" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B36/$B$50+C36/$C$50+D36/$D$50+E36/$E$50+F36/$F$50+G36/$G$50+H36/$H$50+I36/$I$50+J36/$J$50+K36/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
@@ -1539,8 +1608,8 @@
       <c r="A37" s="2">
         <v>8688</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1549,7 +1618,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="29">
+      <c r="L37" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B37/$B$50+C37/$C$50+D37/$D$50+E37/$E$50+F37/$F$50+G37/$G$50+H37/$H$50+I37/$I$50+J37/$J$50+K37/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
@@ -1558,10 +1627,12 @@
       <c r="A38" s="2">
         <v>8742</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="32">
         <v>5</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="30">
+        <v>3.5</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1570,19 +1641,21 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="29">
+      <c r="L38" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.28333333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>8743</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="32">
         <v>6</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="30">
+        <v>13.5</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1591,19 +1664,21 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="29">
+      <c r="L39" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50+K39/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>8765</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="32">
         <v>6</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="30">
+        <v>6</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1612,7 +1687,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="29">
+      <c r="L40" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0.4</v>
       </c>
@@ -1621,10 +1696,12 @@
       <c r="A41" s="2">
         <v>8793</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="32">
         <v>8</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="30">
+        <v>10</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1633,19 +1710,21 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="29">
+      <c r="L41" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>9139</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="32">
         <v>2</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="30">
+        <v>1</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1654,19 +1733,21 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="29">
+      <c r="L42" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.13333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>9196</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="32">
         <v>7</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="30">
+        <v>12.5</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1675,19 +1756,21 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="29">
+      <c r="L43" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>9355</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="32">
         <v>8</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="30">
+        <v>5</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1696,17 +1779,17 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="29">
+      <c r="L44" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>9516</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1715,7 +1798,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="29">
+      <c r="L45" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B45/$B$50+C45/$C$50+D45/$D$50+E45/$E$50+F45/$F$50+G45/$G$50+H45/$H$50+I45/$I$50+J45/$J$50+K45/$K$50)/SUM(B$54:$K$54),0)</f>
         <v>0</v>
       </c>
@@ -1724,10 +1807,12 @@
       <c r="A46" s="2">
         <v>9550</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="32">
         <v>10</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="30">
+        <v>8.5</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -1736,19 +1821,21 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="29">
+      <c r="L46" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>9744</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="32">
         <v>5</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="30">
+        <v>3</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1757,19 +1844,21 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="29">
+      <c r="L47" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>9881</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="32">
         <v>7</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="30">
+        <v>0</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1778,9 +1867,9 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="29">
+      <c r="L48" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1830,45 +1919,45 @@
         <f>AVERAGE(B$2:B$48)</f>
         <v>6.2195121951219514</v>
       </c>
-      <c r="C51" s="13" t="e">
+      <c r="C51" s="13">
         <f t="shared" ref="C51:L51" si="0">AVERAGE(C$2:C$48)</f>
+        <v>7.3255813953488369</v>
+      </c>
+      <c r="D51" s="13" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="13" t="e">
+      <c r="E51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="13" t="e">
+      <c r="F51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="13" t="e">
+      <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="13" t="e">
+      <c r="J51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="13" t="e">
+      <c r="K51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>0.36170212765957438</v>
+        <v>0.40425531914893625</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1879,45 +1968,45 @@
         <f>STDEV(B$2:B$48)</f>
         <v>2.8593023198146712</v>
       </c>
-      <c r="C52" s="13" t="e">
+      <c r="C52" s="13">
         <f t="shared" ref="C52:L52" si="1">STDEV(C$2:C$48)</f>
+        <v>4.6392267943235366</v>
+      </c>
+      <c r="D52" s="13" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="13" t="e">
+      <c r="E52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="13" t="e">
+      <c r="F52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="G52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="H52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="13" t="e">
+      <c r="I52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="13" t="e">
+      <c r="J52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="13" t="e">
+      <c r="K52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>0.22618221069524505</v>
+        <v>0.25054211958243572</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1928,45 +2017,45 @@
         <f>MEDIAN(B$2:B$48)</f>
         <v>6</v>
       </c>
-      <c r="C53" s="13" t="e">
+      <c r="C53" s="13">
         <f t="shared" ref="C53:L53" si="2">MEDIAN(C$2:C$48)</f>
+        <v>6.5</v>
+      </c>
+      <c r="D53" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="D53" s="13" t="e">
+      <c r="E53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="E53" s="13" t="e">
+      <c r="F53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F53" s="13" t="e">
+      <c r="G53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="G53" s="13" t="e">
+      <c r="H53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="H53" s="13" t="e">
+      <c r="I53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="I53" s="13" t="e">
+      <c r="J53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="13" t="e">
+      <c r="K53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K53" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
       <c r="L53" s="13">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1979,7 +2068,7 @@
       </c>
       <c r="C54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="16">
         <f t="shared" si="3"/>
@@ -2082,7 +2171,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="29">
+      <c r="J2" s="27">
         <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
         <v>0</v>
       </c>
@@ -2099,7 +2188,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="29">
+      <c r="J3" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2116,7 +2205,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="29">
+      <c r="J4" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2133,7 +2222,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="29">
+      <c r="J5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2150,7 +2239,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="29">
+      <c r="J6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2167,7 +2256,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2184,7 +2273,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="29">
+      <c r="J8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2201,7 +2290,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2218,7 +2307,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="29">
+      <c r="J10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2235,7 +2324,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2252,7 +2341,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="29">
+      <c r="J12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2269,7 +2358,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2286,7 +2375,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="29">
+      <c r="J14" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2303,7 +2392,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="29">
+      <c r="J15" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2320,7 +2409,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2337,7 +2426,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2354,7 +2443,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="29">
+      <c r="J18" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2371,7 +2460,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="29">
+      <c r="J19" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2388,7 +2477,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="29">
+      <c r="J20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2405,7 +2494,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="29">
+      <c r="J21" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2422,7 +2511,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="29">
+      <c r="J22" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2439,7 +2528,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="29">
+      <c r="J23" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2456,7 +2545,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="29">
+      <c r="J24" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2473,7 +2562,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="29">
+      <c r="J25" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2490,7 +2579,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="29">
+      <c r="J26" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2507,7 +2596,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="29">
+      <c r="J27" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2524,7 +2613,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="29">
+      <c r="J28" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2541,7 +2630,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="29">
+      <c r="J29" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2558,7 +2647,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="29">
+      <c r="J30" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2575,7 +2664,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="29">
+      <c r="J31" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2592,7 +2681,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="29">
+      <c r="J32" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2609,7 +2698,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="29">
+      <c r="J33" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2626,7 +2715,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="29">
+      <c r="J34" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2643,7 +2732,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="29">
+      <c r="J35" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2660,7 +2749,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="29">
+      <c r="J36" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2677,7 +2766,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="29">
+      <c r="J37" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2694,7 +2783,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="29">
+      <c r="J38" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2711,7 +2800,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="29">
+      <c r="J39" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2728,7 +2817,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="29">
+      <c r="J40" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2745,7 +2834,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="29">
+      <c r="J41" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2762,7 +2851,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="29">
+      <c r="J42" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2779,7 +2868,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="29">
+      <c r="J43" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2796,7 +2885,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="29">
+      <c r="J44" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2813,7 +2902,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="29">
+      <c r="J45" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2830,7 +2919,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="29">
+      <c r="J46" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2847,7 +2936,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="29">
+      <c r="J47" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2864,7 +2953,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="29">
+      <c r="J48" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3531,9 +3620,9 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <f>Quizzes!L2</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="26">
         <f>Homeworks!J2</f>
@@ -3547,11 +3636,11 @@
         <f>Exams!C2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G2" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
         <v>0.5</v>
       </c>
@@ -3564,9 +3653,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <f>Quizzes!L3</f>
-        <v>0.46666666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C3" s="26">
         <f>Homeworks!J3</f>
@@ -3580,11 +3669,11 @@
         <f>Exams!C3</f>
         <v>0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G3" s="31">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
         <v>0.5</v>
       </c>
@@ -3597,9 +3686,9 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <f>Quizzes!L4</f>
-        <v>0.73333333333333328</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="26">
         <f>Homeworks!J4</f>
@@ -3613,13 +3702,13 @@
         <f>Exams!C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="30">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="F4" s="28">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -3630,9 +3719,9 @@
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="28">
         <f>Quizzes!L5</f>
-        <v>0.13333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="26">
         <f>Homeworks!J5</f>
@@ -3646,11 +3735,11 @@
         <f>Exams!C5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="30">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G5" s="31">
+      <c r="F5" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3663,9 +3752,9 @@
       <c r="A6" s="2">
         <v>1670</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <f>Quizzes!L6</f>
-        <v>0.73333333333333328</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="C6" s="26">
         <f>Homeworks!J6</f>
@@ -3679,13 +3768,13 @@
         <f>Exams!C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="30">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="F6" s="28">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="G6" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -3696,9 +3785,9 @@
       <c r="A7" s="2">
         <v>1691</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="28">
         <f>Quizzes!L7</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="26">
         <f>Homeworks!J7</f>
@@ -3712,11 +3801,11 @@
         <f>Exams!C7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="30">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="31">
+      <c r="F7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3729,9 +3818,9 @@
       <c r="A8" s="2">
         <v>1889</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="28">
         <f>Quizzes!L8</f>
-        <v>0.13333333333333333</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C8" s="26">
         <f>Homeworks!J8</f>
@@ -3745,11 +3834,11 @@
         <f>Exams!C8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G8" s="31">
+      <c r="F8" s="28">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G8" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3762,9 +3851,9 @@
       <c r="A9" s="2">
         <v>2085</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="28">
         <f>Quizzes!L9</f>
-        <v>0.2</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="C9" s="26">
         <f>Homeworks!J9</f>
@@ -3778,11 +3867,11 @@
         <f>Exams!C9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="30">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="31">
+      <c r="F9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="G9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3795,9 +3884,9 @@
       <c r="A10" s="2">
         <v>2163</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="28">
         <f>Quizzes!L10</f>
-        <v>0.26666666666666666</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C10" s="26">
         <f>Homeworks!J10</f>
@@ -3811,11 +3900,11 @@
         <f>Exams!C10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="30">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G10" s="31">
+      <c r="F10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G10" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3828,9 +3917,9 @@
       <c r="A11" s="2">
         <v>2393</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="28">
         <f>Quizzes!L11</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C11" s="26">
         <f>Homeworks!J11</f>
@@ -3844,11 +3933,11 @@
         <f>Exams!C11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="30">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3861,9 +3950,9 @@
       <c r="A12" s="2">
         <v>2441</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="28">
         <f>Quizzes!L12</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="C12" s="26">
         <f>Homeworks!J12</f>
@@ -3877,13 +3966,13 @@
         <f>Exams!C12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
@@ -3894,9 +3983,9 @@
       <c r="A13" s="2">
         <v>2903</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="28">
         <f>Quizzes!L13</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C13" s="26">
         <f>Homeworks!J13</f>
@@ -3910,13 +3999,13 @@
         <f>Exams!C13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="30">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="2"/>
@@ -3927,9 +4016,9 @@
       <c r="A14" s="2">
         <v>2994</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="28">
         <f>Quizzes!L14</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="26">
         <f>Homeworks!J14</f>
@@ -3943,11 +4032,11 @@
         <f>Exams!C14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="30">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G14" s="31">
+      <c r="F14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3960,9 +4049,9 @@
       <c r="A15" s="2">
         <v>3377</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="28">
         <f>Quizzes!L15</f>
-        <v>0.4</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C15" s="26">
         <f>Homeworks!J15</f>
@@ -3976,11 +4065,11 @@
         <f>Exams!C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="30">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="31">
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -3993,9 +4082,9 @@
       <c r="A16" s="2">
         <v>3517</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="28">
         <f>Quizzes!L16</f>
-        <v>0.53333333333333333</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="C16" s="26">
         <f>Homeworks!J16</f>
@@ -4009,11 +4098,11 @@
         <f>Exams!C16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="30">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="G16" s="31">
+      <c r="F16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4026,9 +4115,9 @@
       <c r="A17" s="2">
         <v>3560</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="28">
         <f>Quizzes!L17</f>
-        <v>0.46666666666666667</v>
+        <v>0.51666666666666661</v>
       </c>
       <c r="C17" s="26">
         <f>Homeworks!J17</f>
@@ -4042,11 +4131,11 @@
         <f>Exams!C17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="30">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G17" s="31">
+      <c r="F17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666661</v>
+      </c>
+      <c r="G17" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4059,9 +4148,9 @@
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="28">
         <f>Quizzes!L18</f>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C18" s="26">
         <f>Homeworks!J18</f>
@@ -4075,11 +4164,11 @@
         <f>Exams!C18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
+      <c r="F18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G18" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4092,9 +4181,9 @@
       <c r="A19" s="2">
         <v>3642</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="28">
         <f>Quizzes!L19</f>
-        <v>0.33333333333333331</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="C19" s="26">
         <f>Homeworks!J19</f>
@@ -4108,11 +4197,11 @@
         <f>Exams!C19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="30">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G19" s="31">
+      <c r="F19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="G19" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4125,9 +4214,9 @@
       <c r="A20" s="2">
         <v>3672</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <f>Quizzes!L20</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C20" s="26">
         <f>Homeworks!J20</f>
@@ -4141,11 +4230,11 @@
         <f>Exams!C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="30">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="31">
+      <c r="F20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4158,9 +4247,9 @@
       <c r="A21" s="2">
         <v>3797</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="28">
         <f>Quizzes!L21</f>
-        <v>0.66666666666666663</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C21" s="26">
         <f>Homeworks!J21</f>
@@ -4174,11 +4263,11 @@
         <f>Exams!C21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G21" s="31">
+      <c r="F21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G21" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4191,9 +4280,9 @@
       <c r="A22" s="2">
         <v>4091</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="28">
         <f>Quizzes!L22</f>
-        <v>0.66666666666666663</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="C22" s="26">
         <f>Homeworks!J22</f>
@@ -4207,13 +4296,13 @@
         <f>Exams!C22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G22" s="31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="F22" s="28">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H22" s="26">
         <f t="shared" si="2"/>
@@ -4224,9 +4313,9 @@
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="28">
         <f>Quizzes!L23</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C23" s="26">
         <f>Homeworks!J23</f>
@@ -4240,13 +4329,13 @@
         <f>Exams!C23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" si="2"/>
@@ -4257,9 +4346,9 @@
       <c r="A24" s="2">
         <v>4622</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="28">
         <f>Quizzes!L24</f>
-        <v>0.26666666666666666</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C24" s="26">
         <f>Homeworks!J24</f>
@@ -4273,11 +4362,11 @@
         <f>Exams!C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="30">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G24" s="31">
+      <c r="F24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G24" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4290,9 +4379,9 @@
       <c r="A25" s="2">
         <v>5075</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="28">
         <f>Quizzes!L25</f>
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="C25" s="26">
         <f>Homeworks!J25</f>
@@ -4306,11 +4395,11 @@
         <f>Exams!C25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="30">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="G25" s="31">
+      <c r="F25" s="28">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="G25" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4323,9 +4412,9 @@
       <c r="A26" s="2">
         <v>5141</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="28">
         <f>Quizzes!L26</f>
-        <v>0.46666666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C26" s="26">
         <f>Homeworks!J26</f>
@@ -4339,11 +4428,11 @@
         <f>Exams!C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="30">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G26" s="31">
+      <c r="F26" s="28">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G26" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4356,9 +4445,9 @@
       <c r="A27" s="2">
         <v>5482</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="28">
         <f>Quizzes!L27</f>
-        <v>0.2</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="C27" s="26">
         <f>Homeworks!J27</f>
@@ -4372,11 +4461,11 @@
         <f>Exams!C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="30">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G27" s="31">
+      <c r="F27" s="28">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="G27" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4389,9 +4478,9 @@
       <c r="A28" s="2">
         <v>5680</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="28">
         <f>Quizzes!L28</f>
-        <v>0.13333333333333333</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="C28" s="26">
         <f>Homeworks!J28</f>
@@ -4405,11 +4494,11 @@
         <f>Exams!C28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="30">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G28" s="31">
+      <c r="F28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="G28" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4422,9 +4511,9 @@
       <c r="A29" s="2">
         <v>5943</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="28">
         <f>Quizzes!L29</f>
-        <v>0.33333333333333331</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="C29" s="26">
         <f>Homeworks!J29</f>
@@ -4438,11 +4527,11 @@
         <f>Exams!C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="30">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G29" s="31">
+      <c r="F29" s="28">
+        <f t="shared" si="0"/>
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="G29" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4455,9 +4544,9 @@
       <c r="A30" s="2">
         <v>6464</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="28">
         <f>Quizzes!L30</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="C30" s="26">
         <f>Homeworks!J30</f>
@@ -4471,13 +4560,13 @@
         <f>Exams!C30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G30" s="31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="F30" s="28">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
@@ -4488,9 +4577,9 @@
       <c r="A31" s="2">
         <v>6797</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="28">
         <f>Quizzes!L31</f>
-        <v>0.33333333333333331</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C31" s="26">
         <f>Homeworks!J31</f>
@@ -4504,11 +4593,11 @@
         <f>Exams!C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="30">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G31" s="31">
+      <c r="F31" s="28">
+        <f t="shared" si="0"/>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="G31" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4521,9 +4610,9 @@
       <c r="A32" s="2">
         <v>7021</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="28">
         <f>Quizzes!L32</f>
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C32" s="26">
         <f>Homeworks!J32</f>
@@ -4537,11 +4626,11 @@
         <f>Exams!C32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="30">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="G32" s="31">
+      <c r="F32" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G32" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4554,9 +4643,9 @@
       <c r="A33" s="2">
         <v>7511</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="28">
         <f>Quizzes!L33</f>
-        <v>0</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="C33" s="26">
         <f>Homeworks!J33</f>
@@ -4570,11 +4659,11 @@
         <f>Exams!C33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="31">
+      <c r="F33" s="28">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
         <v>0</v>
       </c>
@@ -4587,9 +4676,9 @@
       <c r="A34" s="2">
         <v>7575</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="28">
         <f>Quizzes!L34</f>
-        <v>0.2</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="C34" s="26">
         <f>Homeworks!J34</f>
@@ -4603,13 +4692,13 @@
         <f>Exams!C34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="30">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G34" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F34" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="G34" s="29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="2"/>
@@ -4620,7 +4709,7 @@
       <c r="A35" s="2">
         <v>7642</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="28">
         <f>Quizzes!L35</f>
         <v>0.2</v>
       </c>
@@ -4636,11 +4725,11 @@
         <f>Exams!C35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="28">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4653,7 +4742,7 @@
       <c r="A36" s="2">
         <v>7949</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="28">
         <f>Quizzes!L36</f>
         <v>0</v>
       </c>
@@ -4669,11 +4758,11 @@
         <f>Exams!C36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="31">
+      <c r="F36" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4686,7 +4775,7 @@
       <c r="A37" s="2">
         <v>8688</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="28">
         <f>Quizzes!L37</f>
         <v>0</v>
       </c>
@@ -4702,11 +4791,11 @@
         <f>Exams!C37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="31">
+      <c r="F37" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4719,9 +4808,9 @@
       <c r="A38" s="2">
         <v>8742</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="28">
         <f>Quizzes!L38</f>
-        <v>0.33333333333333331</v>
+        <v>0.28333333333333333</v>
       </c>
       <c r="C38" s="26">
         <f>Homeworks!J38</f>
@@ -4735,11 +4824,11 @@
         <f>Exams!C38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="30">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G38" s="31">
+      <c r="F38" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="G38" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4752,9 +4841,9 @@
       <c r="A39" s="2">
         <v>8743</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="28">
         <f>Quizzes!L39</f>
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="C39" s="26">
         <f>Homeworks!J39</f>
@@ -4768,11 +4857,11 @@
         <f>Exams!C39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="30">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="G39" s="31">
+      <c r="F39" s="28">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="G39" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4785,7 +4874,7 @@
       <c r="A40" s="2">
         <v>8765</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="28">
         <f>Quizzes!L40</f>
         <v>0.4</v>
       </c>
@@ -4801,11 +4890,11 @@
         <f>Exams!C40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="28">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4818,9 +4907,9 @@
       <c r="A41" s="2">
         <v>8793</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="28">
         <f>Quizzes!L41</f>
-        <v>0.53333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C41" s="26">
         <f>Homeworks!J41</f>
@@ -4834,11 +4923,11 @@
         <f>Exams!C41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="30">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="G41" s="31">
+      <c r="F41" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="G41" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4851,9 +4940,9 @@
       <c r="A42" s="2">
         <v>9139</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="28">
         <f>Quizzes!L42</f>
-        <v>0.13333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="C42" s="26">
         <f>Homeworks!J42</f>
@@ -4867,11 +4956,11 @@
         <f>Exams!C42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="30">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="G42" s="31">
+      <c r="F42" s="28">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4884,9 +4973,9 @@
       <c r="A43" s="2">
         <v>9196</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="28">
         <f>Quizzes!L43</f>
-        <v>0.46666666666666667</v>
+        <v>0.65</v>
       </c>
       <c r="C43" s="26">
         <f>Homeworks!J43</f>
@@ -4900,11 +4989,11 @@
         <f>Exams!C43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="30">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G43" s="31">
+      <c r="F43" s="28">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="G43" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4917,9 +5006,9 @@
       <c r="A44" s="2">
         <v>9355</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44" s="28">
         <f>Quizzes!L44</f>
-        <v>0.53333333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C44" s="26">
         <f>Homeworks!J44</f>
@@ -4933,11 +5022,11 @@
         <f>Exams!C44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="30">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="G44" s="31">
+      <c r="F44" s="28">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G44" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -4950,7 +5039,7 @@
       <c r="A45" s="2">
         <v>9516</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="28">
         <f>Quizzes!L45</f>
         <v>0</v>
       </c>
@@ -4966,11 +5055,11 @@
         <f>Exams!C45</f>
         <v>0</v>
       </c>
-      <c r="F45" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="31">
+      <c r="F45" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4983,9 +5072,9 @@
       <c r="A46" s="2">
         <v>9550</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46" s="28">
         <f>Quizzes!L46</f>
-        <v>0.66666666666666663</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C46" s="26">
         <f>Homeworks!J46</f>
@@ -4999,11 +5088,11 @@
         <f>Exams!C46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="30">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G46" s="31">
+      <c r="F46" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="G46" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -5016,9 +5105,9 @@
       <c r="A47" s="2">
         <v>9744</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47" s="28">
         <f>Quizzes!L47</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C47" s="26">
         <f>Homeworks!J47</f>
@@ -5032,11 +5121,11 @@
         <f>Exams!C47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="30">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G47" s="31">
+      <c r="F47" s="28">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G47" s="29">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -5049,9 +5138,9 @@
       <c r="A48" s="2">
         <v>9881</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48" s="28">
         <f>Quizzes!L48</f>
-        <v>0.46666666666666667</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C48" s="26">
         <f>Homeworks!J48</f>
@@ -5065,13 +5154,13 @@
         <f>Exams!C48</f>
         <v>0</v>
       </c>
-      <c r="F48" s="30">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="G48" s="31">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+      <c r="F48" s="28">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="G48" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="2"/>
@@ -5116,7 +5205,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.36170212765957438</v>
+        <v>0.40425531914893625</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -5132,11 +5221,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>0.36170212765957438</v>
+        <v>0.40425531914893625</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>0.34042553191489361</v>
+        <v>0.41489361702127658</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5149,7 +5238,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.22618221069524505</v>
+        <v>0.25054211958243572</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -5165,11 +5254,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.22618221069524505</v>
+        <v>0.25054211958243572</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>0.25763099198194733</v>
+        <v>0.31826890695178645</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5182,7 +5271,7 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
@@ -5198,7 +5287,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808D4DF3-53B5-9F4F-8DC0-2A44A0AD2C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49B06D-2C8C-8E42-B041-F69466185631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1160" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9280" yWindow="800" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -821,7 +821,9 @@
       <c r="C2" s="30">
         <v>2.5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="30">
+        <v>6</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -831,7 +833,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -844,7 +846,9 @@
       <c r="C3" s="30">
         <v>14.5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="30">
+        <v>13</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -854,7 +858,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.71666666666666667</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,7 +871,9 @@
       <c r="C4" s="30">
         <v>11.5</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="30">
+        <v>6</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -877,7 +883,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.75</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,7 +896,7 @@
       <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -900,7 +906,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -913,7 +919,9 @@
       <c r="C6" s="30">
         <v>13.5</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="30">
+        <v>11</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -923,7 +931,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.81666666666666665</v>
+        <v>0.78888888888888886</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -934,7 +942,9 @@
         <v>3</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="30">
+        <v>4</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -944,7 +954,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.1</v>
+        <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -957,7 +967,9 @@
       <c r="C8" s="30">
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="30">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -967,7 +979,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15555555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -980,7 +992,9 @@
       <c r="C9" s="30">
         <v>3.5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="30">
+        <v>6</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -990,7 +1004,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.21666666666666667</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1003,7 +1017,9 @@
       <c r="C10" s="30">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="30">
+        <v>12</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1013,7 +1029,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1026,7 +1042,9 @@
       <c r="C11" s="30">
         <v>10</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="30">
+        <v>7</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1036,7 +1054,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.6</v>
+        <v>0.55555555555555547</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1049,7 +1067,9 @@
       <c r="C12" s="30">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="30">
+        <v>4</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1059,7 +1079,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.83333333333333326</v>
+        <v>0.64444444444444438</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,7 +1092,9 @@
       <c r="C13" s="30">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="30">
+        <v>9</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1082,7 +1104,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.4</v>
+        <v>0.46666666666666662</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,7 +1117,9 @@
       <c r="C14" s="30">
         <v>8</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="30">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1105,7 +1129,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1118,7 +1142,9 @@
       <c r="C15" s="30">
         <v>10</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="30">
+        <v>10</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1128,7 +1154,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.57777777777777783</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1141,7 +1167,9 @@
       <c r="C16" s="30">
         <v>5.5</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="30">
+        <v>4</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1151,7 +1179,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.44999999999999996</v>
+        <v>0.38888888888888884</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1164,7 +1192,9 @@
       <c r="C17" s="30">
         <v>8.5</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1174,7 +1204,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.51666666666666661</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1185,7 +1215,9 @@
       <c r="C18" s="30">
         <v>4.5</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="30">
+        <v>3</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1195,7 +1227,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.15</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,7 +1240,9 @@
       <c r="C19" s="30">
         <v>4.5</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="30">
+        <v>4</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1218,7 +1252,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.31666666666666665</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,7 +1265,9 @@
       <c r="C20" s="30">
         <v>15</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="30">
+        <v>10</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1241,7 +1277,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.9</v>
+        <v>0.8222222222222223</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,7 +1290,9 @@
       <c r="C21" s="30">
         <v>6.5</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="30">
+        <v>12</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1264,7 +1302,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.63333333333333341</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,7 +1315,9 @@
       <c r="C22" s="30">
         <v>13.5</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="30">
+        <v>14</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1287,7 +1327,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.78333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1298,7 +1338,9 @@
       <c r="C23" s="30">
         <v>10</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="30">
+        <v>5</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1321,7 +1363,9 @@
       <c r="C24" s="30">
         <v>12.5</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="30">
+        <v>7</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1331,7 +1375,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.52222222222222225</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1344,7 +1388,9 @@
       <c r="C25" s="30">
         <v>1.5</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="30">
+        <v>4</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1354,7 +1400,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.35</v>
+        <v>0.32222222222222219</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1413,9 @@
       <c r="C26" s="30">
         <v>6</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="30">
+        <v>10.5</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1377,7 +1425,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.43333333333333335</v>
+        <v>0.52222222222222225</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1390,7 +1438,9 @@
       <c r="C27" s="30">
         <v>2.5</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="30">
+        <v>1</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1400,7 +1450,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.18333333333333335</v>
+        <v>0.14444444444444446</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1463,9 @@
       <c r="C28" s="30">
         <v>3.5</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="30">
+        <v>2</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1423,7 +1475,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.18333333333333335</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1436,7 +1488,9 @@
       <c r="C29" s="30">
         <v>6.5</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="30">
+        <v>3</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1446,7 +1500,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.3833333333333333</v>
+        <v>0.32222222222222219</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,7 +1513,9 @@
       <c r="C30" s="30">
         <v>15</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="30">
+        <v>15</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1469,7 +1525,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.83333333333333326</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1482,7 +1538,9 @@
       <c r="C31" s="30">
         <v>6</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="30">
+        <v>4</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1492,7 +1550,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.3666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1505,7 +1563,9 @@
       <c r="C32" s="30">
         <v>10.5</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="30">
+        <v>10</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1515,7 +1575,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.58888888888888891</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1526,7 +1586,7 @@
       <c r="C33" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1536,7 +1596,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1549,7 +1609,9 @@
       <c r="C34" s="30">
         <v>5.5</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="30">
+        <v>6</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1559,7 +1621,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.28333333333333333</v>
+        <v>0.32222222222222224</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,7 +1634,9 @@
       <c r="C35" s="30">
         <v>3</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="30">
+        <v>0</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1582,7 +1646,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,7 +1655,7 @@
       </c>
       <c r="B36" s="32"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1610,7 +1674,7 @@
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1633,7 +1697,9 @@
       <c r="C38" s="30">
         <v>3.5</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="30">
+        <v>1</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1643,7 +1709,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.28333333333333333</v>
+        <v>0.21111111111111111</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1656,7 +1722,9 @@
       <c r="C39" s="30">
         <v>13.5</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="30">
+        <v>5</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -1666,7 +1734,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50+K39/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.65</v>
+        <v>0.5444444444444444</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,7 +1747,9 @@
       <c r="C40" s="30">
         <v>6</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="30">
+        <v>7</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1689,7 +1759,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,7 +1772,9 @@
       <c r="C41" s="30">
         <v>10</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="30">
+        <v>13</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -1712,7 +1784,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.6</v>
+        <v>0.68888888888888877</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,7 +1797,9 @@
       <c r="C42" s="30">
         <v>1</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="30">
+        <v>5</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -1735,7 +1809,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.1</v>
+        <v>0.17777777777777778</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1748,7 +1822,9 @@
       <c r="C43" s="30">
         <v>12.5</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="30">
+        <v>15</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1758,7 +1834,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.65</v>
+        <v>0.76666666666666661</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1771,7 +1847,9 @@
       <c r="C44" s="30">
         <v>5</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="30">
+        <v>6</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1781,7 +1859,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.43333333333333335</v>
+        <v>0.42222222222222222</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,7 +1868,7 @@
       </c>
       <c r="B45" s="32"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1813,7 +1891,9 @@
       <c r="C46" s="30">
         <v>8.5</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="30">
+        <v>6</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1823,7 +1903,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.6166666666666667</v>
+        <v>0.5444444444444444</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1836,7 +1916,9 @@
       <c r="C47" s="30">
         <v>3</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="30">
+        <v>5</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1846,7 +1928,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0.28888888888888892</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1859,7 +1941,9 @@
       <c r="C48" s="30">
         <v>0</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="30">
+        <v>4</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -1869,7 +1953,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.23333333333333334</v>
+        <v>0.24444444444444446</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1923,41 +2007,41 @@
         <f t="shared" ref="C51:L51" si="0">AVERAGE(C$2:C$48)</f>
         <v>7.3255813953488369</v>
       </c>
-      <c r="D51" s="13" t="e">
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>6.6785714285714288</v>
+      </c>
+      <c r="E51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="13" t="e">
+      <c r="F51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="13" t="e">
+      <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="13" t="e">
+      <c r="J51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="13" t="e">
+      <c r="K51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>0.40425531914893625</v>
+        <v>0.402127659574468</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1972,41 +2056,41 @@
         <f t="shared" ref="C52:L52" si="1">STDEV(C$2:C$48)</f>
         <v>4.6392267943235366</v>
       </c>
-      <c r="D52" s="13" t="e">
+      <c r="D52" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0149437753427835</v>
+      </c>
+      <c r="E52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="13" t="e">
+      <c r="F52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="G52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="H52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="13" t="e">
+      <c r="I52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="13" t="e">
+      <c r="J52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="13" t="e">
+      <c r="K52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>0.25054211958243572</v>
+        <v>0.24585275365167764</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2021,41 +2105,41 @@
         <f t="shared" ref="C53:L53" si="2">MEDIAN(C$2:C$48)</f>
         <v>6.5</v>
       </c>
-      <c r="D53" s="13" t="e">
+      <c r="D53" s="13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="E53" s="13" t="e">
+      <c r="F53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F53" s="13" t="e">
+      <c r="G53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="G53" s="13" t="e">
+      <c r="H53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="H53" s="13" t="e">
+      <c r="I53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="I53" s="13" t="e">
+      <c r="J53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="13" t="e">
+      <c r="K53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K53" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
       <c r="L53" s="13">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,7 +2156,7 @@
       </c>
       <c r="D54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="16">
         <f t="shared" si="3"/>
@@ -3622,7 +3706,7 @@
       </c>
       <c r="B2" s="28">
         <f>Quizzes!L2</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C2" s="26">
         <f>Homeworks!J2</f>
@@ -3638,7 +3722,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -3655,7 +3739,7 @@
       </c>
       <c r="B3" s="28">
         <f>Quizzes!L3</f>
-        <v>0.71666666666666667</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="C3" s="26">
         <f>Homeworks!J3</f>
@@ -3671,11 +3755,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>0.71666666666666667</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" ref="H3:H48" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -3688,7 +3772,7 @@
       </c>
       <c r="B4" s="28">
         <f>Quizzes!L4</f>
-        <v>0.75</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C4" s="26">
         <f>Homeworks!J4</f>
@@ -3704,11 +3788,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -3721,7 +3805,7 @@
       </c>
       <c r="B5" s="28">
         <f>Quizzes!L5</f>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C5" s="26">
         <f>Homeworks!J5</f>
@@ -3737,7 +3821,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -3754,7 +3838,7 @@
       </c>
       <c r="B6" s="28">
         <f>Quizzes!L6</f>
-        <v>0.81666666666666665</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="C6" s="26">
         <f>Homeworks!J6</f>
@@ -3770,7 +3854,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>0.81666666666666665</v>
+        <v>0.78888888888888886</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -3787,7 +3871,7 @@
       </c>
       <c r="B7" s="28">
         <f>Quizzes!L7</f>
-        <v>0.1</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="C7" s="26">
         <f>Homeworks!J7</f>
@@ -3803,7 +3887,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -3820,7 +3904,7 @@
       </c>
       <c r="B8" s="28">
         <f>Quizzes!L8</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="C8" s="26">
         <f>Homeworks!J8</f>
@@ -3836,7 +3920,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -3853,7 +3937,7 @@
       </c>
       <c r="B9" s="28">
         <f>Quizzes!L9</f>
-        <v>0.21666666666666667</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C9" s="26">
         <f>Homeworks!J9</f>
@@ -3869,11 +3953,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="2"/>
@@ -3886,7 +3970,7 @@
       </c>
       <c r="B10" s="28">
         <f>Quizzes!L10</f>
-        <v>0.53333333333333333</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="C10" s="26">
         <f>Homeworks!J10</f>
@@ -3902,7 +3986,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -3919,7 +4003,7 @@
       </c>
       <c r="B11" s="28">
         <f>Quizzes!L11</f>
-        <v>0.6</v>
+        <v>0.55555555555555547</v>
       </c>
       <c r="C11" s="26">
         <f>Homeworks!J11</f>
@@ -3935,7 +4019,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.55555555555555547</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -3952,7 +4036,7 @@
       </c>
       <c r="B12" s="28">
         <f>Quizzes!L12</f>
-        <v>0.83333333333333326</v>
+        <v>0.64444444444444438</v>
       </c>
       <c r="C12" s="26">
         <f>Homeworks!J12</f>
@@ -3968,11 +4052,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>0.83333333333333326</v>
+        <v>0.64444444444444438</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
@@ -3985,7 +4069,7 @@
       </c>
       <c r="B13" s="28">
         <f>Quizzes!L13</f>
-        <v>0.4</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="C13" s="26">
         <f>Homeworks!J13</f>
@@ -4001,7 +4085,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -4018,7 +4102,7 @@
       </c>
       <c r="B14" s="28">
         <f>Quizzes!L14</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C14" s="26">
         <f>Homeworks!J14</f>
@@ -4034,7 +4118,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -4051,7 +4135,7 @@
       </c>
       <c r="B15" s="28">
         <f>Quizzes!L15</f>
-        <v>0.53333333333333333</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="C15" s="26">
         <f>Homeworks!J15</f>
@@ -4067,7 +4151,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.57777777777777783</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -4084,7 +4168,7 @@
       </c>
       <c r="B16" s="28">
         <f>Quizzes!L16</f>
-        <v>0.44999999999999996</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="C16" s="26">
         <f>Homeworks!J16</f>
@@ -4100,7 +4184,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -4117,7 +4201,7 @@
       </c>
       <c r="B17" s="28">
         <f>Quizzes!L17</f>
-        <v>0.51666666666666661</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C17" s="26">
         <f>Homeworks!J17</f>
@@ -4133,7 +4217,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>0.51666666666666661</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -4150,7 +4234,7 @@
       </c>
       <c r="B18" s="28">
         <f>Quizzes!L18</f>
-        <v>0.15</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C18" s="26">
         <f>Homeworks!J18</f>
@@ -4166,7 +4250,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -4183,7 +4267,7 @@
       </c>
       <c r="B19" s="28">
         <f>Quizzes!L19</f>
-        <v>0.31666666666666665</v>
+        <v>0.3</v>
       </c>
       <c r="C19" s="26">
         <f>Homeworks!J19</f>
@@ -4199,7 +4283,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>0.31666666666666665</v>
+        <v>0.3</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -4216,7 +4300,7 @@
       </c>
       <c r="B20" s="28">
         <f>Quizzes!L20</f>
-        <v>0.9</v>
+        <v>0.8222222222222223</v>
       </c>
       <c r="C20" s="26">
         <f>Homeworks!J20</f>
@@ -4232,7 +4316,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.8222222222222223</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -4249,7 +4333,7 @@
       </c>
       <c r="B21" s="28">
         <f>Quizzes!L21</f>
-        <v>0.55000000000000004</v>
+        <v>0.63333333333333341</v>
       </c>
       <c r="C21" s="26">
         <f>Homeworks!J21</f>
@@ -4265,7 +4349,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.63333333333333341</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -4282,7 +4366,7 @@
       </c>
       <c r="B22" s="28">
         <f>Quizzes!L22</f>
-        <v>0.78333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C22" s="26">
         <f>Homeworks!J22</f>
@@ -4298,7 +4382,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -4348,7 +4432,7 @@
       </c>
       <c r="B24" s="28">
         <f>Quizzes!L24</f>
-        <v>0.55000000000000004</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C24" s="26">
         <f>Homeworks!J24</f>
@@ -4364,7 +4448,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -4381,7 +4465,7 @@
       </c>
       <c r="B25" s="28">
         <f>Quizzes!L25</f>
-        <v>0.35</v>
+        <v>0.32222222222222219</v>
       </c>
       <c r="C25" s="26">
         <f>Homeworks!J25</f>
@@ -4397,7 +4481,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.32222222222222219</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -4414,7 +4498,7 @@
       </c>
       <c r="B26" s="28">
         <f>Quizzes!L26</f>
-        <v>0.43333333333333335</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="C26" s="26">
         <f>Homeworks!J26</f>
@@ -4430,7 +4514,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -4447,7 +4531,7 @@
       </c>
       <c r="B27" s="28">
         <f>Quizzes!L27</f>
-        <v>0.18333333333333335</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="C27" s="26">
         <f>Homeworks!J27</f>
@@ -4463,7 +4547,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>0.18333333333333335</v>
+        <v>0.14444444444444446</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -4480,7 +4564,7 @@
       </c>
       <c r="B28" s="28">
         <f>Quizzes!L28</f>
-        <v>0.18333333333333335</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C28" s="26">
         <f>Homeworks!J28</f>
@@ -4496,7 +4580,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>0.18333333333333335</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -4513,7 +4597,7 @@
       </c>
       <c r="B29" s="28">
         <f>Quizzes!L29</f>
-        <v>0.3833333333333333</v>
+        <v>0.32222222222222219</v>
       </c>
       <c r="C29" s="26">
         <f>Homeworks!J29</f>
@@ -4529,7 +4613,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>0.3833333333333333</v>
+        <v>0.32222222222222219</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -4546,7 +4630,7 @@
       </c>
       <c r="B30" s="28">
         <f>Quizzes!L30</f>
-        <v>0.83333333333333326</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="C30" s="26">
         <f>Homeworks!J30</f>
@@ -4562,7 +4646,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>0.83333333333333326</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -4579,7 +4663,7 @@
       </c>
       <c r="B31" s="28">
         <f>Quizzes!L31</f>
-        <v>0.3666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C31" s="26">
         <f>Homeworks!J31</f>
@@ -4595,7 +4679,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>0.3666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -4612,7 +4696,7 @@
       </c>
       <c r="B32" s="28">
         <f>Quizzes!L32</f>
-        <v>0.55000000000000004</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="C32" s="26">
         <f>Homeworks!J32</f>
@@ -4628,7 +4712,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -4645,7 +4729,7 @@
       </c>
       <c r="B33" s="28">
         <f>Quizzes!L33</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="C33" s="26">
         <f>Homeworks!J33</f>
@@ -4661,7 +4745,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
@@ -4678,7 +4762,7 @@
       </c>
       <c r="B34" s="28">
         <f>Quizzes!L34</f>
-        <v>0.28333333333333333</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="C34" s="26">
         <f>Homeworks!J34</f>
@@ -4694,7 +4778,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <v>0.32222222222222224</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -4711,7 +4795,7 @@
       </c>
       <c r="B35" s="28">
         <f>Quizzes!L35</f>
-        <v>0.2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C35" s="26">
         <f>Homeworks!J35</f>
@@ -4727,7 +4811,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -4810,7 +4894,7 @@
       </c>
       <c r="B38" s="28">
         <f>Quizzes!L38</f>
-        <v>0.28333333333333333</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="C38" s="26">
         <f>Homeworks!J38</f>
@@ -4826,11 +4910,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>0.28333333333333333</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -4843,7 +4927,7 @@
       </c>
       <c r="B39" s="28">
         <f>Quizzes!L39</f>
-        <v>0.65</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C39" s="26">
         <f>Homeworks!J39</f>
@@ -4859,7 +4943,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -4876,7 +4960,7 @@
       </c>
       <c r="B40" s="28">
         <f>Quizzes!L40</f>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C40" s="26">
         <f>Homeworks!J40</f>
@@ -4892,7 +4976,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -4909,7 +4993,7 @@
       </c>
       <c r="B41" s="28">
         <f>Quizzes!L41</f>
-        <v>0.6</v>
+        <v>0.68888888888888877</v>
       </c>
       <c r="C41" s="26">
         <f>Homeworks!J41</f>
@@ -4925,7 +5009,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.68888888888888877</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -4942,7 +5026,7 @@
       </c>
       <c r="B42" s="28">
         <f>Quizzes!L42</f>
-        <v>0.1</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="C42" s="26">
         <f>Homeworks!J42</f>
@@ -4958,7 +5042,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.17777777777777778</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -4975,7 +5059,7 @@
       </c>
       <c r="B43" s="28">
         <f>Quizzes!L43</f>
-        <v>0.65</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="C43" s="26">
         <f>Homeworks!J43</f>
@@ -4991,11 +5075,11 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.76666666666666661</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="26">
         <f t="shared" si="2"/>
@@ -5008,7 +5092,7 @@
       </c>
       <c r="B44" s="28">
         <f>Quizzes!L44</f>
-        <v>0.43333333333333335</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C44" s="26">
         <f>Homeworks!J44</f>
@@ -5024,7 +5108,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -5074,7 +5158,7 @@
       </c>
       <c r="B46" s="28">
         <f>Quizzes!L46</f>
-        <v>0.6166666666666667</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C46" s="26">
         <f>Homeworks!J46</f>
@@ -5090,7 +5174,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -5107,7 +5191,7 @@
       </c>
       <c r="B47" s="28">
         <f>Quizzes!L47</f>
-        <v>0.26666666666666666</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="C47" s="26">
         <f>Homeworks!J47</f>
@@ -5123,7 +5207,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -5140,7 +5224,7 @@
       </c>
       <c r="B48" s="28">
         <f>Quizzes!L48</f>
-        <v>0.23333333333333334</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="C48" s="26">
         <f>Homeworks!J48</f>
@@ -5156,7 +5240,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.23333333333333334</v>
+        <v>0.24444444444444446</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -5205,7 +5289,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.40425531914893625</v>
+        <v>0.402127659574468</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -5221,7 +5305,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>0.40425531914893625</v>
+        <v>0.402127659574468</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -5238,7 +5322,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.25054211958243572</v>
+        <v>0.24585275365167764</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -5254,7 +5338,7 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.25054211958243572</v>
+        <v>0.24585275365167764</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
@@ -5271,7 +5355,7 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.4</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
@@ -5287,7 +5371,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>0.4</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49B06D-2C8C-8E42-B041-F69466185631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24AA2C-6924-5443-9E41-8279EAD2E99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="800" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="820" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -824,7 +824,9 @@
       <c r="D2" s="30">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="30">
+        <v>2</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -833,7 +835,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.3</v>
+        <v>0.25833333333333336</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -849,7 +851,9 @@
       <c r="D3" s="30">
         <v>13</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="30">
+        <v>11</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -858,7 +862,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.76666666666666661</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,7 +878,9 @@
       <c r="D4" s="30">
         <v>6</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="30">
+        <v>15</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -883,7 +889,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.6333333333333333</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -896,8 +902,12 @@
       <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -906,7 +916,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,7 +932,9 @@
       <c r="D6" s="30">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="30">
+        <v>14</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -931,7 +943,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.78888888888888886</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -941,11 +953,15 @@
       <c r="B7" s="32">
         <v>3</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
       <c r="D7" s="30">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="30">
+        <v>7</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -954,7 +970,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.15555555555555556</v>
+        <v>0.23333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,7 +986,9 @@
       <c r="D8" s="30">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="30">
+        <v>5</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -979,7 +997,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.15555555555555556</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,7 +1013,9 @@
       <c r="D9" s="30">
         <v>6</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="30">
+        <v>3.5</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1004,7 +1024,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.27777777777777779</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,7 +1040,9 @@
       <c r="D10" s="30">
         <v>12</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="30">
+        <v>9.5</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1029,7 +1051,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.62222222222222223</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1045,7 +1067,9 @@
       <c r="D11" s="30">
         <v>7</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="30">
+        <v>8</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1054,7 +1078,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.55555555555555547</v>
+        <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,7 +1094,9 @@
       <c r="D12" s="30">
         <v>4</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1079,7 +1105,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.64444444444444438</v>
+        <v>0.48333333333333328</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1095,7 +1121,9 @@
       <c r="D13" s="30">
         <v>9</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="30">
+        <v>8</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1104,7 +1132,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666662</v>
+        <v>0.48333333333333328</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,7 +1148,9 @@
       <c r="D14" s="30">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="30">
+        <v>9</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1129,7 +1159,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.44444444444444442</v>
+        <v>0.48333333333333328</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1145,7 +1175,9 @@
       <c r="D15" s="30">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="30">
+        <v>10.5</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1154,7 +1186,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.57777777777777783</v>
+        <v>0.60833333333333339</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1170,7 +1202,9 @@
       <c r="D16" s="30">
         <v>4</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="30">
+        <v>10</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1179,7 +1213,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.38888888888888884</v>
+        <v>0.45833333333333326</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1195,7 +1229,9 @@
       <c r="D17" s="30">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="30">
+        <v>12</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1204,21 +1240,25 @@
       <c r="K17" s="2"/>
       <c r="L17" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.36666666666666664</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="32">
+        <v>0</v>
+      </c>
       <c r="C18" s="30">
         <v>4.5</v>
       </c>
       <c r="D18" s="30">
         <v>3</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="30">
+        <v>3.5</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1227,7 +1267,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1243,7 +1283,9 @@
       <c r="D19" s="30">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="30">
+        <v>9</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1252,7 +1294,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1268,7 +1310,9 @@
       <c r="D20" s="30">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="30">
+        <v>14</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1277,7 +1321,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.8222222222222223</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1293,7 +1337,9 @@
       <c r="D21" s="30">
         <v>12</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="30">
+        <v>13</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1302,7 +1348,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.63333333333333341</v>
+        <v>0.69166666666666665</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1318,7 +1364,9 @@
       <c r="D22" s="30">
         <v>14</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="30">
+        <v>14.5</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1327,21 +1375,25 @@
       <c r="K22" s="2"/>
       <c r="L22" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32">
+        <v>0</v>
+      </c>
       <c r="C23" s="30">
         <v>10</v>
       </c>
       <c r="D23" s="30">
         <v>5</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="30">
+        <v>12</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1350,7 +1402,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50+K23/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1366,7 +1418,9 @@
       <c r="D24" s="30">
         <v>7</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="30">
+        <v>11</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1375,7 +1429,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.52222222222222225</v>
+        <v>0.57500000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,7 +1445,9 @@
       <c r="D25" s="30">
         <v>4</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="30">
+        <v>7.5</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1400,7 +1456,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.32222222222222219</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1416,7 +1472,9 @@
       <c r="D26" s="30">
         <v>10.5</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="30">
+        <v>7</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1425,7 +1483,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.52222222222222225</v>
+        <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,7 +1499,9 @@
       <c r="D27" s="30">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="30">
+        <v>9.5</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1450,7 +1510,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.14444444444444446</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,7 +1526,9 @@
       <c r="D28" s="30">
         <v>2</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="30">
+        <v>7</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1475,7 +1537,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.24166666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,7 +1553,9 @@
       <c r="D29" s="30">
         <v>3</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="30">
+        <v>12</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1500,7 +1564,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.32222222222222219</v>
+        <v>0.44166666666666665</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1516,7 +1580,9 @@
       <c r="D30" s="30">
         <v>15</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="30">
+        <v>12.5</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1525,7 +1591,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1607,9 @@
       <c r="D31" s="30">
         <v>4</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="30">
+        <v>7</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1550,7 +1618,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,7 +1634,9 @@
       <c r="D32" s="30">
         <v>10</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="30">
+        <v>14</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1575,19 +1645,25 @@
       <c r="K32" s="2"/>
       <c r="L32" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.58888888888888891</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7511</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="32">
+        <v>0</v>
+      </c>
       <c r="C33" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30">
+        <v>5</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1596,7 +1672,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>2.2222222222222223E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1612,7 +1688,9 @@
       <c r="D34" s="30">
         <v>6</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="30">
+        <v>7</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1621,7 +1699,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.32222222222222224</v>
+        <v>0.35833333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1637,7 +1715,9 @@
       <c r="D35" s="30">
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="30">
+        <v>5</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1646,7 +1726,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.13333333333333333</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1656,7 +1736,7 @@
       <c r="B36" s="32"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1675,7 +1755,7 @@
       <c r="B37" s="32"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1700,7 +1780,9 @@
       <c r="D38" s="30">
         <v>1</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="30">
+        <v>3</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1709,7 +1791,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.21111111111111111</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1725,7 +1807,9 @@
       <c r="D39" s="30">
         <v>5</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="30">
+        <v>7.5</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1734,7 +1818,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50+K39/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.5444444444444444</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1750,7 +1834,9 @@
       <c r="D40" s="30">
         <v>7</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="30">
+        <v>6</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1759,7 +1845,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.42222222222222222</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1775,7 +1861,9 @@
       <c r="D41" s="30">
         <v>13</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="30">
+        <v>14</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1784,7 +1872,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.68888888888888877</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,7 +1888,9 @@
       <c r="D42" s="30">
         <v>5</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="30">
+        <v>6.5</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1809,7 +1899,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.17777777777777778</v>
+        <v>0.24166666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1825,7 +1915,9 @@
       <c r="D43" s="30">
         <v>15</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="30">
+        <v>11</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1834,7 +1926,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.76666666666666661</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1850,7 +1942,9 @@
       <c r="D44" s="30">
         <v>6</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="30">
+        <v>12</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1859,7 +1953,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.42222222222222222</v>
+        <v>0.51666666666666661</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,7 +1963,7 @@
       <c r="B45" s="32"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1894,7 +1988,9 @@
       <c r="D46" s="30">
         <v>6</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="30">
+        <v>8</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1903,7 +1999,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.5444444444444444</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,7 +2015,9 @@
       <c r="D47" s="30">
         <v>5</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="30">
+        <v>12.5</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1928,7 +2026,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.28888888888888892</v>
+        <v>0.42500000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,7 +2042,9 @@
       <c r="D48" s="30">
         <v>4</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="30">
+        <v>0</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1953,7 +2053,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.24444444444444446</v>
+        <v>0.18333333333333335</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2001,47 +2101,47 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>6.2195121951219514</v>
+        <v>5.7954545454545459</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:L51" si="0">AVERAGE(C$2:C$48)</f>
-        <v>7.3255813953488369</v>
+        <v>7.1590909090909092</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="0"/>
-        <v>6.6785714285714288</v>
-      </c>
-      <c r="E51" s="13" t="e">
+        <v>6.375</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="0"/>
+        <v>8.5340909090909083</v>
+      </c>
+      <c r="F51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="13" t="e">
+      <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="13" t="e">
+      <c r="J51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="13" t="e">
+      <c r="K51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>0.402127659574468</v>
+        <v>0.43475177304964546</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2050,47 +2150,47 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>2.8593023198146712</v>
+        <v>3.1811914212054186</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:L52" si="1">STDEV(C$2:C$48)</f>
-        <v>4.6392267943235366</v>
+        <v>4.7160940767101485</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="1"/>
-        <v>4.0149437753427835</v>
-      </c>
-      <c r="E52" s="13" t="e">
+        <v>4.1653680146746241</v>
+      </c>
+      <c r="E52" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1151983298340458</v>
+      </c>
+      <c r="F52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="G52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="H52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="13" t="e">
+      <c r="I52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="13" t="e">
+      <c r="J52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="13" t="e">
+      <c r="K52" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K52" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>0.24585275365167764</v>
+        <v>0.24267231507287049</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2103,43 +2203,43 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:L53" si="2">MEDIAN(C$2:C$48)</f>
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E53" s="13" t="e">
+        <v>5.5</v>
+      </c>
+      <c r="E53" s="13">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="F53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="F53" s="13" t="e">
+      <c r="G53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="G53" s="13" t="e">
+      <c r="H53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="H53" s="13" t="e">
+      <c r="I53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="I53" s="13" t="e">
+      <c r="J53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="13" t="e">
+      <c r="K53" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K53" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
       <c r="L53" s="13">
         <f t="shared" si="2"/>
-        <v>0.36666666666666664</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,7 +2260,7 @@
       </c>
       <c r="E54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" si="3"/>
@@ -2247,7 +2347,9 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="27">
+        <v>0</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2264,7 +2366,9 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="27">
+        <v>61</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2274,14 +2378,16 @@
       <c r="I3" s="2"/>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1437499999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="27">
+        <v>75.75</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2291,14 +2397,16 @@
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4203125000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="27">
+        <v>64</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2308,14 +2416,16 @@
       <c r="I5" s="2"/>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1670</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="27">
+        <v>75.5</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2325,14 +2435,16 @@
       <c r="I6" s="2"/>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4156249999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1691</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="27">
+        <v>62</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2342,14 +2454,16 @@
       <c r="I7" s="2"/>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1625000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1889</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="27">
+        <v>0</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2366,7 +2480,9 @@
       <c r="A9" s="2">
         <v>2085</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="27">
+        <v>57.5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2376,14 +2492,16 @@
       <c r="I9" s="2"/>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.078125</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2163</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="27">
+        <v>69.5</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2393,14 +2511,16 @@
       <c r="I10" s="2"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3031250000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2393</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="27">
+        <v>22</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2410,14 +2530,16 @@
       <c r="I11" s="2"/>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41250000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2441</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="27">
+        <v>77</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2427,14 +2549,16 @@
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4437500000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2903</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="27">
+        <v>74.5</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2444,14 +2568,16 @@
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3968750000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2994</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="27">
+        <v>39</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2461,14 +2587,16 @@
       <c r="I14" s="2"/>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.73124999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3377</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="27">
+        <v>40.5</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2478,14 +2606,16 @@
       <c r="I15" s="2"/>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75937499999999991</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3517</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="27">
+        <v>78.75</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2495,14 +2625,16 @@
       <c r="I16" s="2"/>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4765625</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3560</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="27">
+        <v>33</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -2512,14 +2644,16 @@
       <c r="I17" s="2"/>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.61874999999999991</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="27">
+        <v>19.5</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -2529,14 +2663,16 @@
       <c r="I18" s="2"/>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36562499999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3642</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="27">
+        <v>53.25</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2546,14 +2682,16 @@
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.99843750000000009</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3672</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="27">
+        <v>66.25</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -2563,14 +2701,16 @@
       <c r="I20" s="2"/>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2421875</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3797</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="27">
+        <v>77</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2580,14 +2720,16 @@
       <c r="I21" s="2"/>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4437500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4091</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="27">
+        <v>75.25</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2597,14 +2739,16 @@
       <c r="I22" s="2"/>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4109375000000002</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="27">
+        <v>55</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2614,14 +2758,16 @@
       <c r="I23" s="2"/>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>4622</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="27">
+        <v>71</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2631,14 +2777,16 @@
       <c r="I24" s="2"/>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3312499999999998</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5075</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="27">
+        <v>19.5</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2648,14 +2796,16 @@
       <c r="I25" s="2"/>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.36562499999999998</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5141</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="27">
+        <v>33</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2665,14 +2815,16 @@
       <c r="I26" s="2"/>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.61874999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>5482</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="27">
+        <v>50.25</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2682,14 +2834,16 @@
       <c r="I27" s="2"/>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.94218750000000007</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>5680</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="27">
+        <v>9</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2699,14 +2853,16 @@
       <c r="I28" s="2"/>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16875000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5943</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="27">
+        <v>0</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2723,7 +2879,9 @@
       <c r="A30" s="2">
         <v>6464</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="27">
+        <v>80</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2733,14 +2891,16 @@
       <c r="I30" s="2"/>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>6797</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="27">
+        <v>57.75</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2750,14 +2910,16 @@
       <c r="I31" s="2"/>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0828125000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7021</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="27">
+        <v>66.5</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2767,14 +2929,16 @@
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2468750000000002</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7511</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="27">
+        <v>0</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2791,7 +2955,9 @@
       <c r="A34" s="2">
         <v>7575</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="27">
+        <v>40</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2801,14 +2967,16 @@
       <c r="I34" s="2"/>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>7642</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="27">
+        <v>27</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2818,14 +2986,16 @@
       <c r="I35" s="2"/>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.50625000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>7949</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="27">
+        <v>0</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2842,7 +3012,9 @@
       <c r="A37" s="2">
         <v>8688</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="27">
+        <v>0</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2859,7 +3031,9 @@
       <c r="A38" s="2">
         <v>8742</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="27">
+        <v>13</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2869,14 +3043,16 @@
       <c r="I38" s="2"/>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24375000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>8743</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="27">
+        <v>68</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2886,14 +3062,16 @@
       <c r="I39" s="2"/>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2749999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>8765</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="27">
+        <v>23</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2903,14 +3081,16 @@
       <c r="I40" s="2"/>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43124999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>8793</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="27">
+        <v>70.25</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2920,14 +3100,16 @@
       <c r="I41" s="2"/>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3171875000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>9139</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="27">
+        <v>30</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2937,14 +3119,16 @@
       <c r="I42" s="2"/>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>9196</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="27">
+        <v>74</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2954,14 +3138,16 @@
       <c r="I43" s="2"/>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3875000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>9355</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="27">
+        <v>59</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2971,14 +3157,16 @@
       <c r="I44" s="2"/>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1062500000000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>9516</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="27">
+        <v>0</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2995,7 +3183,9 @@
       <c r="A46" s="2">
         <v>9550</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="27">
+        <v>70.75</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -3005,14 +3195,16 @@
       <c r="I46" s="2"/>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3265625000000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>9744</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="27">
+        <v>66.25</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3022,14 +3214,16 @@
       <c r="I47" s="2"/>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2421875</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>9881</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="27">
+        <v>68.5</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -3039,7 +3233,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2843749999999998</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3050,10 +3244,10 @@
         <v>16</v>
       </c>
       <c r="B50" s="10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C50" s="10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D50" s="10">
         <v>50</v>
@@ -3081,9 +3275,9 @@
       <c r="A51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="13" t="e">
+      <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>#DIV/0!</v>
+        <v>46.234042553191486</v>
       </c>
       <c r="C51" s="13" t="e">
         <f t="shared" ref="C51:J51" si="1">AVERAGE(C$2:C$48)</f>
@@ -3115,16 +3309,16 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.86688829787234056</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="13" t="e">
+      <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>#DIV/0!</v>
+        <v>27.666217247407687</v>
       </c>
       <c r="C52" s="13" t="e">
         <f t="shared" ref="C52:J52" si="2">STDEV(C$2:C$48)</f>
@@ -3156,16 +3350,16 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.51874157338889404</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="13" t="e">
+      <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>#NUM!</v>
+        <v>57.5</v>
       </c>
       <c r="C53" s="13" t="e">
         <f t="shared" ref="C53:J53" si="3">MEDIAN(C$2:C$48)</f>
@@ -3197,7 +3391,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.078125</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,7 +3400,7 @@
       </c>
       <c r="B54" s="18">
         <f t="shared" ref="B54:I54" si="4">IF(SUM(B10:B48)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
@@ -3706,7 +3900,7 @@
       </c>
       <c r="B2" s="28">
         <f>Quizzes!L2</f>
-        <v>0.3</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="C2" s="26">
         <f>Homeworks!J2</f>
@@ -3722,7 +3916,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>0.3</v>
+        <v>0.25833333333333336</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -3739,11 +3933,11 @@
       </c>
       <c r="B3" s="28">
         <f>Quizzes!L3</f>
-        <v>0.76666666666666661</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C3" s="26">
         <f>Homeworks!J3</f>
-        <v>0</v>
+        <v>1.1437499999999998</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -3755,11 +3949,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>0.76666666666666661</v>
+        <v>1.9020833333333331</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" ref="H3:H48" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -3772,11 +3966,11 @@
       </c>
       <c r="B4" s="28">
         <f>Quizzes!L4</f>
-        <v>0.6333333333333333</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C4" s="26">
         <f>Homeworks!J4</f>
-        <v>0</v>
+        <v>1.4203125000000001</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -3788,11 +3982,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>2.1453125000000002</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -3805,11 +3999,11 @@
       </c>
       <c r="B5" s="28">
         <f>Quizzes!L5</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="26">
         <f>Homeworks!J5</f>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -3821,11 +4015,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>1.2500000000000002</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" si="2"/>
@@ -3838,11 +4032,11 @@
       </c>
       <c r="B6" s="28">
         <f>Quizzes!L6</f>
-        <v>0.78888888888888886</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C6" s="26">
         <f>Homeworks!J6</f>
-        <v>0</v>
+        <v>1.4156249999999999</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -3854,11 +4048,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>0.78888888888888886</v>
+        <v>2.2406249999999996</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -3871,11 +4065,11 @@
       </c>
       <c r="B7" s="28">
         <f>Quizzes!L7</f>
-        <v>0.15555555555555556</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="C7" s="26">
         <f>Homeworks!J7</f>
-        <v>0</v>
+        <v>1.1625000000000001</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -3887,11 +4081,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>0.15555555555555556</v>
+        <v>1.3958333333333335</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -3904,7 +4098,7 @@
       </c>
       <c r="B8" s="28">
         <f>Quizzes!L8</f>
-        <v>0.15555555555555556</v>
+        <v>0.2</v>
       </c>
       <c r="C8" s="26">
         <f>Homeworks!J8</f>
@@ -3920,7 +4114,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>0.15555555555555556</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -3937,11 +4131,11 @@
       </c>
       <c r="B9" s="28">
         <f>Quizzes!L9</f>
-        <v>0.27777777777777779</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C9" s="26">
         <f>Homeworks!J9</f>
-        <v>0</v>
+        <v>1.078125</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -3953,11 +4147,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>1.3447916666666666</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="2"/>
@@ -3970,11 +4164,11 @@
       </c>
       <c r="B10" s="28">
         <f>Quizzes!L10</f>
-        <v>0.62222222222222223</v>
+        <v>0.625</v>
       </c>
       <c r="C10" s="26">
         <f>Homeworks!J10</f>
-        <v>0</v>
+        <v>1.3031250000000001</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -3986,11 +4180,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <v>1.9281250000000001</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
@@ -4003,11 +4197,11 @@
       </c>
       <c r="B11" s="28">
         <f>Quizzes!L11</f>
-        <v>0.55555555555555547</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="C11" s="26">
         <f>Homeworks!J11</f>
-        <v>0</v>
+        <v>0.41250000000000003</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -4019,11 +4213,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>0.55555555555555547</v>
+        <v>0.96249999999999991</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -4036,11 +4230,11 @@
       </c>
       <c r="B12" s="28">
         <f>Quizzes!L12</f>
-        <v>0.64444444444444438</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="C12" s="26">
         <f>Homeworks!J12</f>
-        <v>0</v>
+        <v>1.4437500000000001</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -4052,11 +4246,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>0.64444444444444438</v>
+        <v>1.9270833333333335</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
@@ -4069,11 +4263,11 @@
       </c>
       <c r="B13" s="28">
         <f>Quizzes!L13</f>
-        <v>0.46666666666666662</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="C13" s="26">
         <f>Homeworks!J13</f>
-        <v>0</v>
+        <v>1.3968750000000001</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -4085,11 +4279,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>0.46666666666666662</v>
+        <v>1.8802083333333335</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="2"/>
@@ -4102,11 +4296,11 @@
       </c>
       <c r="B14" s="28">
         <f>Quizzes!L14</f>
-        <v>0.44444444444444442</v>
+        <v>0.48333333333333328</v>
       </c>
       <c r="C14" s="26">
         <f>Homeworks!J14</f>
-        <v>0</v>
+        <v>0.73124999999999996</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -4118,11 +4312,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>1.2145833333333331</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="2"/>
@@ -4135,11 +4329,11 @@
       </c>
       <c r="B15" s="28">
         <f>Quizzes!L15</f>
-        <v>0.57777777777777783</v>
+        <v>0.60833333333333339</v>
       </c>
       <c r="C15" s="26">
         <f>Homeworks!J15</f>
-        <v>0</v>
+        <v>0.75937499999999991</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -4151,11 +4345,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>0.57777777777777783</v>
+        <v>1.3677083333333333</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="2"/>
@@ -4168,11 +4362,11 @@
       </c>
       <c r="B16" s="28">
         <f>Quizzes!L16</f>
-        <v>0.38888888888888884</v>
+        <v>0.45833333333333326</v>
       </c>
       <c r="C16" s="26">
         <f>Homeworks!J16</f>
-        <v>0</v>
+        <v>1.4765625</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -4184,11 +4378,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>0.38888888888888884</v>
+        <v>1.9348958333333333</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="2"/>
@@ -4201,11 +4395,11 @@
       </c>
       <c r="B17" s="28">
         <f>Quizzes!L17</f>
-        <v>0.36666666666666664</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C17" s="26">
         <f>Homeworks!J17</f>
-        <v>0</v>
+        <v>0.61874999999999991</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -4217,11 +4411,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>1.09375</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="2"/>
@@ -4234,11 +4428,11 @@
       </c>
       <c r="B18" s="28">
         <f>Quizzes!L18</f>
-        <v>0.16666666666666666</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="C18" s="26">
         <f>Homeworks!J18</f>
-        <v>0</v>
+        <v>0.36562499999999998</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -4250,11 +4444,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.54895833333333333</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="26">
         <f t="shared" si="2"/>
@@ -4267,11 +4461,11 @@
       </c>
       <c r="B19" s="28">
         <f>Quizzes!L19</f>
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="C19" s="26">
         <f>Homeworks!J19</f>
-        <v>0</v>
+        <v>0.99843750000000009</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -4283,11 +4477,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>1.3734375000000001</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -4300,11 +4494,11 @@
       </c>
       <c r="B20" s="28">
         <f>Quizzes!L20</f>
-        <v>0.8222222222222223</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="C20" s="26">
         <f>Homeworks!J20</f>
-        <v>0</v>
+        <v>1.2421875</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -4316,11 +4510,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>0.8222222222222223</v>
+        <v>2.0921875000000001</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="2"/>
@@ -4333,11 +4527,11 @@
       </c>
       <c r="B21" s="28">
         <f>Quizzes!L21</f>
-        <v>0.63333333333333341</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="C21" s="26">
         <f>Homeworks!J21</f>
-        <v>0</v>
+        <v>1.4437500000000001</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -4349,11 +4543,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>0.63333333333333341</v>
+        <v>2.135416666666667</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="26">
         <f t="shared" si="2"/>
@@ -4366,11 +4560,11 @@
       </c>
       <c r="B22" s="28">
         <f>Quizzes!L22</f>
-        <v>0.83333333333333337</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C22" s="26">
         <f>Homeworks!J22</f>
-        <v>0</v>
+        <v>1.4109375000000002</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -4382,11 +4576,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>2.2776041666666669</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H22" s="26">
         <f t="shared" si="2"/>
@@ -4399,11 +4593,11 @@
       </c>
       <c r="B23" s="28">
         <f>Quizzes!L23</f>
-        <v>0.33333333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="C23" s="26">
         <f>Homeworks!J23</f>
-        <v>0</v>
+        <v>1.03125</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -4415,11 +4609,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1.48125</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" si="2"/>
@@ -4432,11 +4626,11 @@
       </c>
       <c r="B24" s="28">
         <f>Quizzes!L24</f>
-        <v>0.52222222222222225</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="C24" s="26">
         <f>Homeworks!J24</f>
-        <v>0</v>
+        <v>1.3312499999999998</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -4448,11 +4642,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>0.52222222222222225</v>
+        <v>1.90625</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
@@ -4465,11 +4659,11 @@
       </c>
       <c r="B25" s="28">
         <f>Quizzes!L25</f>
-        <v>0.32222222222222219</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C25" s="26">
         <f>Homeworks!J25</f>
-        <v>0</v>
+        <v>0.36562499999999998</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -4481,7 +4675,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>0.32222222222222219</v>
+        <v>0.73229166666666656</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -4498,11 +4692,11 @@
       </c>
       <c r="B26" s="28">
         <f>Quizzes!L26</f>
-        <v>0.52222222222222225</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C26" s="26">
         <f>Homeworks!J26</f>
-        <v>0</v>
+        <v>0.61874999999999991</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -4514,11 +4708,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>0.52222222222222225</v>
+        <v>1.1270833333333332</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -4531,11 +4725,11 @@
       </c>
       <c r="B27" s="28">
         <f>Quizzes!L27</f>
-        <v>0.14444444444444446</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C27" s="26">
         <f>Homeworks!J27</f>
-        <v>0</v>
+        <v>0.94218750000000007</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -4547,11 +4741,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>0.14444444444444446</v>
+        <v>1.2088541666666668</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="2"/>
@@ -4564,11 +4758,11 @@
       </c>
       <c r="B28" s="28">
         <f>Quizzes!L28</f>
-        <v>0.16666666666666666</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="C28" s="26">
         <f>Homeworks!J28</f>
-        <v>0</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -4580,11 +4774,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.41041666666666665</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="26">
         <f t="shared" si="2"/>
@@ -4597,7 +4791,7 @@
       </c>
       <c r="B29" s="28">
         <f>Quizzes!L29</f>
-        <v>0.32222222222222219</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="C29" s="26">
         <f>Homeworks!J29</f>
@@ -4613,7 +4807,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>0.32222222222222219</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -4630,11 +4824,11 @@
       </c>
       <c r="B30" s="28">
         <f>Quizzes!L30</f>
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="C30" s="26">
         <f>Homeworks!J30</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -4646,11 +4840,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
+        <v>2.375</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
@@ -4663,11 +4857,11 @@
       </c>
       <c r="B31" s="28">
         <f>Quizzes!L31</f>
-        <v>0.33333333333333331</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C31" s="26">
         <f>Homeworks!J31</f>
-        <v>0</v>
+        <v>1.0828125000000002</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -4679,11 +4873,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>1.4494791666666669</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="2"/>
@@ -4696,11 +4890,11 @@
       </c>
       <c r="B32" s="28">
         <f>Quizzes!L32</f>
-        <v>0.58888888888888891</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="C32" s="26">
         <f>Homeworks!J32</f>
-        <v>0</v>
+        <v>1.2468750000000002</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -4712,11 +4906,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>0.58888888888888891</v>
+        <v>1.9218750000000002</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -4729,7 +4923,7 @@
       </c>
       <c r="B33" s="28">
         <f>Quizzes!L33</f>
-        <v>2.2222222222222223E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="C33" s="26">
         <f>Homeworks!J33</f>
@@ -4745,7 +4939,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>2.2222222222222223E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
@@ -4762,11 +4956,11 @@
       </c>
       <c r="B34" s="28">
         <f>Quizzes!L34</f>
-        <v>0.32222222222222224</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="C34" s="26">
         <f>Homeworks!J34</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -4778,11 +4972,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>0.32222222222222224</v>
+        <v>1.1083333333333334</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="2"/>
@@ -4795,11 +4989,11 @@
       </c>
       <c r="B35" s="28">
         <f>Quizzes!L35</f>
-        <v>0.13333333333333333</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="C35" s="26">
         <f>Homeworks!J35</f>
-        <v>0</v>
+        <v>0.50625000000000009</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -4811,11 +5005,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.68958333333333344</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="26">
         <f t="shared" si="2"/>
@@ -4894,11 +5088,11 @@
       </c>
       <c r="B38" s="28">
         <f>Quizzes!L38</f>
-        <v>0.21111111111111111</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="C38" s="26">
         <f>Homeworks!J38</f>
-        <v>0</v>
+        <v>0.24375000000000002</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -4910,11 +5104,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>0.21111111111111111</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -4927,11 +5121,11 @@
       </c>
       <c r="B39" s="28">
         <f>Quizzes!L39</f>
-        <v>0.5444444444444444</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C39" s="26">
         <f>Homeworks!J39</f>
-        <v>0</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -4943,11 +5137,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>1.8083333333333331</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="26">
         <f t="shared" si="2"/>
@@ -4960,11 +5154,11 @@
       </c>
       <c r="B40" s="28">
         <f>Quizzes!L40</f>
-        <v>0.42222222222222222</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="C40" s="26">
         <f>Homeworks!J40</f>
-        <v>0</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -4976,11 +5170,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.84791666666666665</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -4993,11 +5187,11 @@
       </c>
       <c r="B41" s="28">
         <f>Quizzes!L41</f>
-        <v>0.68888888888888877</v>
+        <v>0.75</v>
       </c>
       <c r="C41" s="26">
         <f>Homeworks!J41</f>
-        <v>0</v>
+        <v>1.3171875000000002</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -5009,11 +5203,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>0.68888888888888877</v>
+        <v>2.0671875000000002</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="26">
         <f t="shared" si="2"/>
@@ -5026,11 +5220,11 @@
       </c>
       <c r="B42" s="28">
         <f>Quizzes!L42</f>
-        <v>0.17777777777777778</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="C42" s="26">
         <f>Homeworks!J42</f>
-        <v>0</v>
+        <v>0.5625</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -5042,11 +5236,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>0.17777777777777778</v>
+        <v>0.8041666666666667</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="26">
         <f t="shared" si="2"/>
@@ -5059,11 +5253,11 @@
       </c>
       <c r="B43" s="28">
         <f>Quizzes!L43</f>
-        <v>0.76666666666666661</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C43" s="26">
         <f>Homeworks!J43</f>
-        <v>0</v>
+        <v>1.3875000000000002</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -5075,11 +5269,11 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>0.76666666666666661</v>
+        <v>2.1458333333333335</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="26">
         <f t="shared" si="2"/>
@@ -5092,11 +5286,11 @@
       </c>
       <c r="B44" s="28">
         <f>Quizzes!L44</f>
-        <v>0.42222222222222222</v>
+        <v>0.51666666666666661</v>
       </c>
       <c r="C44" s="26">
         <f>Homeworks!J44</f>
-        <v>0</v>
+        <v>1.1062500000000002</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -5108,11 +5302,11 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>1.6229166666666668</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H44" s="26">
         <f t="shared" si="2"/>
@@ -5158,11 +5352,11 @@
       </c>
       <c r="B46" s="28">
         <f>Quizzes!L46</f>
-        <v>0.5444444444444444</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C46" s="26">
         <f>Homeworks!J46</f>
-        <v>0</v>
+        <v>1.3265625000000001</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -5174,11 +5368,11 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>1.8682291666666666</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H46" s="26">
         <f t="shared" si="2"/>
@@ -5191,11 +5385,11 @@
       </c>
       <c r="B47" s="28">
         <f>Quizzes!L47</f>
-        <v>0.28888888888888892</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="C47" s="26">
         <f>Homeworks!J47</f>
-        <v>0</v>
+        <v>1.2421875</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -5207,11 +5401,11 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>0.28888888888888892</v>
+        <v>1.6671875</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" si="2"/>
@@ -5224,11 +5418,11 @@
       </c>
       <c r="B48" s="28">
         <f>Quizzes!L48</f>
-        <v>0.24444444444444446</v>
+        <v>0.18333333333333335</v>
       </c>
       <c r="C48" s="26">
         <f>Homeworks!J48</f>
-        <v>0</v>
+        <v>1.2843749999999998</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -5240,11 +5434,11 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.24444444444444446</v>
+        <v>1.4677083333333332</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="2"/>
@@ -5289,11 +5483,11 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.402127659574468</v>
+        <v>0.43475177304964546</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0</v>
+        <v>0.86688829787234056</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -5305,11 +5499,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>0.402127659574468</v>
+        <v>1.3016400709219864</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>0.41489361702127658</v>
+        <v>1.3085106382978724</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5322,11 +5516,11 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.24585275365167764</v>
+        <v>0.24267231507287049</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0</v>
+        <v>0.51874157338889404</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -5338,11 +5532,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.24585275365167764</v>
+        <v>0.7057480760034508</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>0.31826890695178645</v>
+        <v>0.72646547158561181</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5355,11 +5549,11 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.36666666666666664</v>
+        <v>0.45</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0</v>
+        <v>1.078125</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -5371,11 +5565,11 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>0.36666666666666664</v>
+        <v>1.3734375000000001</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF24AA2C-6924-5443-9E41-8279EAD2E99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B58D4E2-0D47-2A4A-BB26-4331EDA4E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="820" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -2671,7 +2671,7 @@
         <v>3642</v>
       </c>
       <c r="B19" s="27">
-        <v>53.25</v>
+        <v>63.25</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2682,7 +2682,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>0.99843750000000009</v>
+        <v>1.1859375000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>46.234042553191486</v>
+        <v>46.446808510638299</v>
       </c>
       <c r="C51" s="13" t="e">
         <f t="shared" ref="C51:J51" si="1">AVERAGE(C$2:C$48)</f>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.86688829787234056</v>
+        <v>0.87087765957446817</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>27.666217247407687</v>
+        <v>27.759640715190244</v>
       </c>
       <c r="C52" s="13" t="e">
         <f t="shared" ref="C52:J52" si="2">STDEV(C$2:C$48)</f>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.51874157338889404</v>
+        <v>0.52049326340981672</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>57.5</v>
+        <v>57.75</v>
       </c>
       <c r="C53" s="13" t="e">
         <f t="shared" ref="C53:J53" si="3">MEDIAN(C$2:C$48)</f>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>1.078125</v>
+        <v>1.0828125000000002</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3857,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D72AB-081C-F944-AC06-2660F6476096}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -3902,7 +3902,7 @@
         <f>Quizzes!L2</f>
         <v>0.25833333333333336</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="28">
         <f>Homeworks!J2</f>
         <v>0</v>
       </c>
@@ -3935,7 +3935,7 @@
         <f>Quizzes!L3</f>
         <v>0.7583333333333333</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="28">
         <f>Homeworks!J3</f>
         <v>1.1437499999999998</v>
       </c>
@@ -3968,7 +3968,7 @@
         <f>Quizzes!L4</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="28">
         <f>Homeworks!J4</f>
         <v>1.4203125000000001</v>
       </c>
@@ -4001,7 +4001,7 @@
         <f>Quizzes!L5</f>
         <v>0.05</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="28">
         <f>Homeworks!J5</f>
         <v>1.2000000000000002</v>
       </c>
@@ -4034,7 +4034,7 @@
         <f>Quizzes!L6</f>
         <v>0.82499999999999996</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="28">
         <f>Homeworks!J6</f>
         <v>1.4156249999999999</v>
       </c>
@@ -4067,7 +4067,7 @@
         <f>Quizzes!L7</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="28">
         <f>Homeworks!J7</f>
         <v>1.1625000000000001</v>
       </c>
@@ -4100,7 +4100,7 @@
         <f>Quizzes!L8</f>
         <v>0.2</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <f>Homeworks!J8</f>
         <v>0</v>
       </c>
@@ -4133,7 +4133,7 @@
         <f>Quizzes!L9</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="28">
         <f>Homeworks!J9</f>
         <v>1.078125</v>
       </c>
@@ -4166,7 +4166,7 @@
         <f>Quizzes!L10</f>
         <v>0.625</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="28">
         <f>Homeworks!J10</f>
         <v>1.3031250000000001</v>
       </c>
@@ -4199,7 +4199,7 @@
         <f>Quizzes!L11</f>
         <v>0.54999999999999993</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="28">
         <f>Homeworks!J11</f>
         <v>0.41250000000000003</v>
       </c>
@@ -4232,7 +4232,7 @@
         <f>Quizzes!L12</f>
         <v>0.48333333333333328</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="28">
         <f>Homeworks!J12</f>
         <v>1.4437500000000001</v>
       </c>
@@ -4265,7 +4265,7 @@
         <f>Quizzes!L13</f>
         <v>0.48333333333333328</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="28">
         <f>Homeworks!J13</f>
         <v>1.3968750000000001</v>
       </c>
@@ -4298,7 +4298,7 @@
         <f>Quizzes!L14</f>
         <v>0.48333333333333328</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="28">
         <f>Homeworks!J14</f>
         <v>0.73124999999999996</v>
       </c>
@@ -4331,7 +4331,7 @@
         <f>Quizzes!L15</f>
         <v>0.60833333333333339</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="28">
         <f>Homeworks!J15</f>
         <v>0.75937499999999991</v>
       </c>
@@ -4364,7 +4364,7 @@
         <f>Quizzes!L16</f>
         <v>0.45833333333333326</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="28">
         <f>Homeworks!J16</f>
         <v>1.4765625</v>
       </c>
@@ -4397,7 +4397,7 @@
         <f>Quizzes!L17</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="28">
         <f>Homeworks!J17</f>
         <v>0.61874999999999991</v>
       </c>
@@ -4430,7 +4430,7 @@
         <f>Quizzes!L18</f>
         <v>0.18333333333333335</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="28">
         <f>Homeworks!J18</f>
         <v>0.36562499999999998</v>
       </c>
@@ -4463,9 +4463,9 @@
         <f>Quizzes!L19</f>
         <v>0.375</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>0.99843750000000009</v>
+        <v>1.1859375000000001</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>1.3734375000000001</v>
+        <v>1.5609375000000001</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -4496,7 +4496,7 @@
         <f>Quizzes!L20</f>
         <v>0.85000000000000009</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="28">
         <f>Homeworks!J20</f>
         <v>1.2421875</v>
       </c>
@@ -4529,7 +4529,7 @@
         <f>Quizzes!L21</f>
         <v>0.69166666666666665</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="28">
         <f>Homeworks!J21</f>
         <v>1.4437500000000001</v>
       </c>
@@ -4562,7 +4562,7 @@
         <f>Quizzes!L22</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="28">
         <f>Homeworks!J22</f>
         <v>1.4109375000000002</v>
       </c>
@@ -4595,7 +4595,7 @@
         <f>Quizzes!L23</f>
         <v>0.45</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="28">
         <f>Homeworks!J23</f>
         <v>1.03125</v>
       </c>
@@ -4628,7 +4628,7 @@
         <f>Quizzes!L24</f>
         <v>0.57500000000000007</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="28">
         <f>Homeworks!J24</f>
         <v>1.3312499999999998</v>
       </c>
@@ -4661,7 +4661,7 @@
         <f>Quizzes!L25</f>
         <v>0.36666666666666664</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="28">
         <f>Homeworks!J25</f>
         <v>0.36562499999999998</v>
       </c>
@@ -4694,7 +4694,7 @@
         <f>Quizzes!L26</f>
         <v>0.5083333333333333</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="28">
         <f>Homeworks!J26</f>
         <v>0.61874999999999991</v>
       </c>
@@ -4727,7 +4727,7 @@
         <f>Quizzes!L27</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="28">
         <f>Homeworks!J27</f>
         <v>0.94218750000000007</v>
       </c>
@@ -4760,7 +4760,7 @@
         <f>Quizzes!L28</f>
         <v>0.24166666666666667</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="28">
         <f>Homeworks!J28</f>
         <v>0.16875000000000001</v>
       </c>
@@ -4793,7 +4793,7 @@
         <f>Quizzes!L29</f>
         <v>0.44166666666666665</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="28">
         <f>Homeworks!J29</f>
         <v>0</v>
       </c>
@@ -4826,7 +4826,7 @@
         <f>Quizzes!L30</f>
         <v>0.875</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <f>Homeworks!J30</f>
         <v>1.5</v>
       </c>
@@ -4859,7 +4859,7 @@
         <f>Quizzes!L31</f>
         <v>0.3666666666666667</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="28">
         <f>Homeworks!J31</f>
         <v>1.0828125000000002</v>
       </c>
@@ -4892,7 +4892,7 @@
         <f>Quizzes!L32</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <f>Homeworks!J32</f>
         <v>1.2468750000000002</v>
       </c>
@@ -4925,7 +4925,7 @@
         <f>Quizzes!L33</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="28">
         <f>Homeworks!J33</f>
         <v>0</v>
       </c>
@@ -4958,7 +4958,7 @@
         <f>Quizzes!L34</f>
         <v>0.35833333333333334</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="28">
         <f>Homeworks!J34</f>
         <v>0.75</v>
       </c>
@@ -4991,7 +4991,7 @@
         <f>Quizzes!L35</f>
         <v>0.18333333333333335</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="28">
         <f>Homeworks!J35</f>
         <v>0.50625000000000009</v>
       </c>
@@ -5024,7 +5024,7 @@
         <f>Quizzes!L36</f>
         <v>0</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="28">
         <f>Homeworks!J36</f>
         <v>0</v>
       </c>
@@ -5057,7 +5057,7 @@
         <f>Quizzes!L37</f>
         <v>0</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="28">
         <f>Homeworks!J37</f>
         <v>0</v>
       </c>
@@ -5090,7 +5090,7 @@
         <f>Quizzes!L38</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="28">
         <f>Homeworks!J38</f>
         <v>0.24375000000000002</v>
       </c>
@@ -5123,7 +5123,7 @@
         <f>Quizzes!L39</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="28">
         <f>Homeworks!J39</f>
         <v>1.2749999999999999</v>
       </c>
@@ -5156,7 +5156,7 @@
         <f>Quizzes!L40</f>
         <v>0.41666666666666663</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="28">
         <f>Homeworks!J40</f>
         <v>0.43124999999999997</v>
       </c>
@@ -5189,7 +5189,7 @@
         <f>Quizzes!L41</f>
         <v>0.75</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="28">
         <f>Homeworks!J41</f>
         <v>1.3171875000000002</v>
       </c>
@@ -5222,7 +5222,7 @@
         <f>Quizzes!L42</f>
         <v>0.24166666666666667</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="28">
         <f>Homeworks!J42</f>
         <v>0.5625</v>
       </c>
@@ -5255,7 +5255,7 @@
         <f>Quizzes!L43</f>
         <v>0.7583333333333333</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="28">
         <f>Homeworks!J43</f>
         <v>1.3875000000000002</v>
       </c>
@@ -5288,7 +5288,7 @@
         <f>Quizzes!L44</f>
         <v>0.51666666666666661</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="28">
         <f>Homeworks!J44</f>
         <v>1.1062500000000002</v>
       </c>
@@ -5321,7 +5321,7 @@
         <f>Quizzes!L45</f>
         <v>0</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="28">
         <f>Homeworks!J45</f>
         <v>0</v>
       </c>
@@ -5354,7 +5354,7 @@
         <f>Quizzes!L46</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="28">
         <f>Homeworks!J46</f>
         <v>1.3265625000000001</v>
       </c>
@@ -5387,7 +5387,7 @@
         <f>Quizzes!L47</f>
         <v>0.42500000000000004</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="28">
         <f>Homeworks!J47</f>
         <v>1.2421875</v>
       </c>
@@ -5420,7 +5420,7 @@
         <f>Quizzes!L48</f>
         <v>0.18333333333333335</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="28">
         <f>Homeworks!J48</f>
         <v>1.2843749999999998</v>
       </c>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.86688829787234056</v>
+        <v>0.87087765957446817</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>1.3016400709219864</v>
+        <v>1.305629432624114</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.51874157338889404</v>
+        <v>0.52049326340981672</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.7057480760034508</v>
+        <v>0.70669205261561763</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>1.078125</v>
+        <v>1.0828125000000002</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>1.3734375000000001</v>
+        <v>1.3958333333333335</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B58D4E2-0D47-2A4A-BB26-4331EDA4E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DFBA0-FB59-A14C-829A-9B653362B80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -2300,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2350,7 +2350,9 @@
       <c r="B2" s="27">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2369,7 +2371,9 @@
       <c r="B3" s="27">
         <v>61</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="27">
+        <v>85.5</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2378,7 +2382,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>1.1437499999999998</v>
+        <v>1.213125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,7 +2392,9 @@
       <c r="B4" s="27">
         <v>75.75</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="27">
+        <v>0</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2397,7 +2403,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>1.4203125000000001</v>
+        <v>0.71015625000000004</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,7 +2413,9 @@
       <c r="B5" s="27">
         <v>64</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="27">
+        <v>0</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2416,7 +2424,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2426,7 +2434,9 @@
       <c r="B6" s="27">
         <v>75.5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="27">
+        <v>86.5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2435,7 +2445,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>1.4156249999999999</v>
+        <v>1.3565624999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,7 +2455,9 @@
       <c r="B7" s="27">
         <v>62</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="27">
+        <v>18</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2454,7 +2466,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>1.1625000000000001</v>
+        <v>0.71625000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2464,7 +2476,9 @@
       <c r="B8" s="27">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2483,7 +2497,9 @@
       <c r="B9" s="27">
         <v>57.5</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="27">
+        <v>50</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2492,7 +2508,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>1.078125</v>
+        <v>0.9140625</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,7 +2518,9 @@
       <c r="B10" s="27">
         <v>69.5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="27">
+        <v>99</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2511,7 +2529,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>1.3031250000000001</v>
+        <v>1.3940625</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2521,7 +2539,9 @@
       <c r="B11" s="27">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="27">
+        <v>18.5</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2530,7 +2550,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0.41250000000000003</v>
+        <v>0.34500000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2540,7 +2560,9 @@
       <c r="B12" s="27">
         <v>77</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="27">
+        <v>90</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2549,7 +2571,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.4437500000000001</v>
+        <v>1.3968750000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2559,7 +2581,9 @@
       <c r="B13" s="27">
         <v>74.5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="27">
+        <v>81</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2568,7 +2592,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>1.3968750000000001</v>
+        <v>1.3059375</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2578,7 +2602,9 @@
       <c r="B14" s="27">
         <v>39</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="27">
+        <v>27</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2587,7 +2613,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0.73124999999999996</v>
+        <v>0.56812499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,7 +2623,9 @@
       <c r="B15" s="27">
         <v>40.5</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="27">
+        <v>49</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2606,7 +2634,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0.75937499999999991</v>
+        <v>0.7471875</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2616,7 +2644,9 @@
       <c r="B16" s="27">
         <v>78.75</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="27">
+        <v>89</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2625,7 +2655,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>1.4765625</v>
+        <v>1.40578125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2635,7 +2665,9 @@
       <c r="B17" s="27">
         <v>33</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="27">
+        <v>25</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2644,7 +2676,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0.61874999999999991</v>
+        <v>0.49687499999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2654,7 +2686,9 @@
       <c r="B18" s="27">
         <v>19.5</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="27">
+        <v>9</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2663,7 +2697,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0.36562499999999998</v>
+        <v>0.25031249999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2673,7 +2707,9 @@
       <c r="B19" s="27">
         <v>63.25</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="27">
+        <v>50</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2682,7 +2718,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>1.1859375000000001</v>
+        <v>0.96796874999999993</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,7 +2728,9 @@
       <c r="B20" s="27">
         <v>66.25</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="27">
+        <v>75.5</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2701,7 +2739,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>1.2421875</v>
+        <v>1.1873437499999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,7 +2749,9 @@
       <c r="B21" s="27">
         <v>77</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="27">
+        <v>78.5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2720,7 +2760,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>1.4437500000000001</v>
+        <v>1.3106249999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2730,7 +2770,9 @@
       <c r="B22" s="27">
         <v>75.25</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="27">
+        <v>91</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2739,7 +2781,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>1.4109375000000002</v>
+        <v>1.38796875</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2749,7 +2791,9 @@
       <c r="B23" s="27">
         <v>55</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="27">
+        <v>78</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2758,7 +2802,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>1.03125</v>
+        <v>1.100625</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2768,7 +2812,9 @@
       <c r="B24" s="27">
         <v>71</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="27">
+        <v>57</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2777,7 +2823,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>1.3312499999999998</v>
+        <v>1.0931250000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2787,7 +2833,9 @@
       <c r="B25" s="27">
         <v>19.5</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2796,7 +2844,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0.36562499999999998</v>
+        <v>0.18281249999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2806,7 +2854,9 @@
       <c r="B26" s="27">
         <v>33</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="27">
+        <v>31</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2815,7 +2865,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0.61874999999999991</v>
+        <v>0.54187499999999988</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2825,7 +2875,9 @@
       <c r="B27" s="27">
         <v>50.25</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2834,7 +2886,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0.94218750000000007</v>
+        <v>0.47109375000000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,7 +2896,9 @@
       <c r="B28" s="27">
         <v>9</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="27">
+        <v>0</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2853,7 +2907,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>0.16875000000000001</v>
+        <v>8.4375000000000006E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2863,7 +2917,9 @@
       <c r="B29" s="27">
         <v>0</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="27">
+        <v>0</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2882,7 +2938,9 @@
       <c r="B30" s="27">
         <v>80</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="27">
+        <v>94</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2891,7 +2949,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.4550000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,7 +2959,9 @@
       <c r="B31" s="27">
         <v>57.75</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="27">
+        <v>53</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2910,7 +2970,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>1.0828125000000002</v>
+        <v>0.93890625000000005</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2920,7 +2980,9 @@
       <c r="B32" s="27">
         <v>66.5</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="27">
+        <v>74</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -2929,7 +2991,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>1.2468750000000002</v>
+        <v>1.1784375</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2939,7 +3001,9 @@
       <c r="B33" s="27">
         <v>0</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="27">
+        <v>0</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2958,7 +3022,9 @@
       <c r="B34" s="27">
         <v>40</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="27">
+        <v>32.5</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2967,7 +3033,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.61874999999999991</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,7 +3043,9 @@
       <c r="B35" s="27">
         <v>27</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="27">
+        <v>13</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2986,7 +3054,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0.50625000000000009</v>
+        <v>0.35062500000000002</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2996,7 +3064,9 @@
       <c r="B36" s="27">
         <v>0</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="27">
+        <v>0</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3015,7 +3085,9 @@
       <c r="B37" s="27">
         <v>0</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="27">
+        <v>0</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3034,7 +3106,9 @@
       <c r="B38" s="27">
         <v>13</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="27">
+        <v>0</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3043,7 +3117,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0.24375000000000002</v>
+        <v>0.12187500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3053,7 +3127,9 @@
       <c r="B39" s="27">
         <v>68</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="27">
+        <v>84</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3062,7 +3138,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>1.2749999999999999</v>
+        <v>1.2675000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3072,7 +3148,9 @@
       <c r="B40" s="27">
         <v>23</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="27">
+        <v>8</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3081,7 +3159,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0.43124999999999997</v>
+        <v>0.27562500000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,7 +3169,9 @@
       <c r="B41" s="27">
         <v>70.25</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="27">
+        <v>93.5</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3100,7 +3180,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>1.3171875000000002</v>
+        <v>1.35984375</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3110,7 +3190,9 @@
       <c r="B42" s="27">
         <v>30</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="27">
+        <v>34</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3119,7 +3201,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.53625000000000012</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3129,7 +3211,9 @@
       <c r="B43" s="27">
         <v>74</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="27">
+        <v>87</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3138,7 +3222,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>1.3875000000000002</v>
+        <v>1.3462499999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3148,7 +3232,9 @@
       <c r="B44" s="27">
         <v>59</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="27">
+        <v>52</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3157,7 +3243,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>1.1062500000000002</v>
+        <v>0.94312499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3167,7 +3253,9 @@
       <c r="B45" s="27">
         <v>0</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="27">
+        <v>0</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3186,7 +3274,9 @@
       <c r="B46" s="27">
         <v>70.75</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="27">
+        <v>85</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3195,7 +3285,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>1.3265625000000001</v>
+        <v>1.30078125</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,7 +3295,9 @@
       <c r="B47" s="27">
         <v>66.25</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="27">
+        <v>21</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3214,7 +3306,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>1.2421875</v>
+        <v>0.77859374999999997</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3224,7 +3316,9 @@
       <c r="B48" s="27">
         <v>68.5</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="27">
+        <v>0</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3233,7 +3327,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>1.2843749999999998</v>
+        <v>0.64218749999999991</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3279,37 +3373,37 @@
         <f>AVERAGE(B$2:B$48)</f>
         <v>46.446808510638299</v>
       </c>
-      <c r="C51" s="13" t="e">
+      <c r="C51" s="13">
         <f t="shared" ref="C51:J51" si="1">AVERAGE(C$2:C$48)</f>
+        <v>40.840425531914896</v>
+      </c>
+      <c r="D51" s="13" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="13" t="e">
+      <c r="E51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="13" t="e">
+      <c r="F51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="13" t="e">
+      <c r="G51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.87087765957446817</v>
+        <v>0.74174202127659583</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3320,37 +3414,37 @@
         <f>STDEV(B$2:B$48)</f>
         <v>27.759640715190244</v>
       </c>
-      <c r="C52" s="13" t="e">
+      <c r="C52" s="13">
         <f t="shared" ref="C52:J52" si="2">STDEV(C$2:C$48)</f>
+        <v>36.720315781857515</v>
+      </c>
+      <c r="D52" s="13" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="13" t="e">
+      <c r="E52" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="13" t="e">
+      <c r="F52" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="G52" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="H52" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="13" t="e">
+      <c r="I52" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I52" s="13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.52049326340981672</v>
+        <v>0.50314872806709954</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3361,9 +3455,9 @@
         <f>MEDIAN(B$2:B$48)</f>
         <v>57.75</v>
       </c>
-      <c r="C53" s="13" t="e">
+      <c r="C53" s="13">
         <f t="shared" ref="C53:J53" si="3">MEDIAN(C$2:C$48)</f>
-        <v>#NUM!</v>
+        <v>32.5</v>
       </c>
       <c r="D53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -3391,7 +3485,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>1.0828125000000002</v>
+        <v>0.71625000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3404,7 +3498,7 @@
       </c>
       <c r="C54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="16">
         <f t="shared" si="4"/>
@@ -3857,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D72AB-081C-F944-AC06-2660F6476096}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -3937,7 +4031,7 @@
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
-        <v>1.1437499999999998</v>
+        <v>1.213125</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -3949,7 +4043,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>1.9020833333333331</v>
+        <v>1.9714583333333333</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -3970,7 +4064,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>1.4203125000000001</v>
+        <v>0.71015625000000004</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -3982,11 +4076,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>2.1453125000000002</v>
+        <v>1.4351562499999999</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -4003,7 +4097,7 @@
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
-        <v>1.2000000000000002</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -4015,11 +4109,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>1.2500000000000002</v>
+        <v>0.65000000000000013</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" si="2"/>
@@ -4036,7 +4130,7 @@
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
-        <v>1.4156249999999999</v>
+        <v>1.3565624999999999</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -4048,7 +4142,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>2.2406249999999996</v>
+        <v>2.1815625000000001</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -4069,7 +4163,7 @@
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
-        <v>1.1625000000000001</v>
+        <v>0.71625000000000005</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -4081,11 +4175,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>1.3958333333333335</v>
+        <v>0.94958333333333345</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -4135,7 +4229,7 @@
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
-        <v>1.078125</v>
+        <v>0.9140625</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -4147,11 +4241,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>1.3447916666666666</v>
+        <v>1.1807291666666666</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="2"/>
@@ -4168,7 +4262,7 @@
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
-        <v>1.3031250000000001</v>
+        <v>1.3940625</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -4180,7 +4274,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>1.9281250000000001</v>
+        <v>2.0190625</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4201,7 +4295,7 @@
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
-        <v>0.41250000000000003</v>
+        <v>0.34500000000000003</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -4213,7 +4307,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>0.96249999999999991</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -4234,7 +4328,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.4437500000000001</v>
+        <v>1.3968750000000001</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -4246,7 +4340,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>1.9270833333333335</v>
+        <v>1.8802083333333335</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -4267,7 +4361,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>1.3968750000000001</v>
+        <v>1.3059375</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -4279,7 +4373,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>1.8802083333333335</v>
+        <v>1.7892708333333331</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -4300,7 +4394,7 @@
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
-        <v>0.73124999999999996</v>
+        <v>0.56812499999999999</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -4312,7 +4406,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>1.2145833333333331</v>
+        <v>1.0514583333333332</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -4333,7 +4427,7 @@
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
-        <v>0.75937499999999991</v>
+        <v>0.7471875</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -4345,7 +4439,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>1.3677083333333333</v>
+        <v>1.3555208333333333</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -4366,7 +4460,7 @@
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
-        <v>1.4765625</v>
+        <v>1.40578125</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -4378,7 +4472,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>1.9348958333333333</v>
+        <v>1.8641145833333332</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -4399,7 +4493,7 @@
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
-        <v>0.61874999999999991</v>
+        <v>0.49687499999999996</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -4411,7 +4505,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>1.09375</v>
+        <v>0.97187499999999993</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -4432,7 +4526,7 @@
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
-        <v>0.36562499999999998</v>
+        <v>0.25031249999999999</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -4444,7 +4538,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>0.54895833333333333</v>
+        <v>0.43364583333333334</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -4465,7 +4559,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>1.1859375000000001</v>
+        <v>0.96796874999999993</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -4477,7 +4571,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>1.5609375000000001</v>
+        <v>1.3429687499999998</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -4498,7 +4592,7 @@
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
-        <v>1.2421875</v>
+        <v>1.1873437499999999</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -4510,7 +4604,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>2.0921875000000001</v>
+        <v>2.0373437499999998</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -4531,7 +4625,7 @@
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
-        <v>1.4437500000000001</v>
+        <v>1.3106249999999999</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -4543,7 +4637,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>2.135416666666667</v>
+        <v>2.0022916666666664</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -4564,7 +4658,7 @@
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
-        <v>1.4109375000000002</v>
+        <v>1.38796875</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -4576,7 +4670,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>2.2776041666666669</v>
+        <v>2.2546354166666669</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -4597,7 +4691,7 @@
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
-        <v>1.03125</v>
+        <v>1.100625</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -4609,7 +4703,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>1.48125</v>
+        <v>1.5506249999999999</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -4630,7 +4724,7 @@
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
-        <v>1.3312499999999998</v>
+        <v>1.0931250000000001</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -4642,11 +4736,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>1.90625</v>
+        <v>1.6681250000000003</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
@@ -4663,7 +4757,7 @@
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
-        <v>0.36562499999999998</v>
+        <v>0.18281249999999999</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -4675,7 +4769,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>0.73229166666666656</v>
+        <v>0.54947916666666663</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -4696,7 +4790,7 @@
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
-        <v>0.61874999999999991</v>
+        <v>0.54187499999999988</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -4708,7 +4802,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>1.1270833333333332</v>
+        <v>1.0502083333333332</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -4729,7 +4823,7 @@
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
-        <v>0.94218750000000007</v>
+        <v>0.47109375000000003</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -4741,11 +4835,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>1.2088541666666668</v>
+        <v>0.7377604166666667</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="2"/>
@@ -4762,7 +4856,7 @@
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
-        <v>0.16875000000000001</v>
+        <v>8.4375000000000006E-2</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -4774,7 +4868,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>0.41041666666666665</v>
+        <v>0.32604166666666667</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -4828,7 +4922,7 @@
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
-        <v>1.5</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -4840,7 +4934,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>2.375</v>
+        <v>2.33</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -4861,7 +4955,7 @@
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
-        <v>1.0828125000000002</v>
+        <v>0.93890625000000005</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -4873,7 +4967,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>1.4494791666666669</v>
+        <v>1.3055729166666667</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -4894,7 +4988,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>1.2468750000000002</v>
+        <v>1.1784375</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -4906,7 +5000,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>1.9218750000000002</v>
+        <v>1.8534375000000001</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -4960,7 +5054,7 @@
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
-        <v>0.75</v>
+        <v>0.61874999999999991</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -4972,7 +5066,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>1.1083333333333334</v>
+        <v>0.9770833333333333</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -4993,7 +5087,7 @@
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
-        <v>0.50625000000000009</v>
+        <v>0.35062500000000002</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -5005,7 +5099,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>0.68958333333333344</v>
+        <v>0.53395833333333331</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -5092,7 +5186,7 @@
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
-        <v>0.24375000000000002</v>
+        <v>0.12187500000000001</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -5104,7 +5198,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>0.45208333333333334</v>
+        <v>0.33020833333333333</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
@@ -5125,7 +5219,7 @@
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
-        <v>1.2749999999999999</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -5137,7 +5231,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>1.8083333333333331</v>
+        <v>1.8008333333333333</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5158,7 +5252,7 @@
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
-        <v>0.43124999999999997</v>
+        <v>0.27562500000000001</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -5170,11 +5264,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>0.84791666666666665</v>
+        <v>0.69229166666666664</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -5191,7 +5285,7 @@
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
-        <v>1.3171875000000002</v>
+        <v>1.35984375</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -5203,7 +5297,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>2.0671875000000002</v>
+        <v>2.10984375</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5224,7 +5318,7 @@
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
-        <v>0.5625</v>
+        <v>0.53625000000000012</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -5236,7 +5330,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>0.8041666666666667</v>
+        <v>0.77791666666666681</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5257,7 +5351,7 @@
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
-        <v>1.3875000000000002</v>
+        <v>1.3462499999999999</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -5269,7 +5363,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>2.1458333333333335</v>
+        <v>2.1045833333333333</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -5290,7 +5384,7 @@
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
-        <v>1.1062500000000002</v>
+        <v>0.94312499999999999</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -5302,7 +5396,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>1.6229166666666668</v>
+        <v>1.4597916666666666</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -5356,7 +5450,7 @@
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
-        <v>1.3265625000000001</v>
+        <v>1.30078125</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -5368,7 +5462,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>1.8682291666666666</v>
+        <v>1.8424479166666665</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -5389,7 +5483,7 @@
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
-        <v>1.2421875</v>
+        <v>0.77859374999999997</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -5401,11 +5495,11 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>1.6671875</v>
+        <v>1.20359375</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" si="2"/>
@@ -5422,7 +5516,7 @@
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
-        <v>1.2843749999999998</v>
+        <v>0.64218749999999991</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -5434,11 +5528,11 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>1.4677083333333332</v>
+        <v>0.82552083333333326</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="2"/>
@@ -5487,7 +5581,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.87087765957446817</v>
+        <v>0.74174202127659583</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -5499,11 +5593,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>1.305629432624114</v>
+        <v>1.1764937943262412</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>1.3085106382978724</v>
+        <v>1.2021276595744681</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5520,7 +5614,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.52049326340981672</v>
+        <v>0.50314872806709954</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -5532,11 +5626,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.70669205261561763</v>
+        <v>0.70582681086446475</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>0.72646547158561181</v>
+        <v>0.73469584410744504</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5553,7 +5647,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>1.0828125000000002</v>
+        <v>0.71625000000000005</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -5565,11 +5659,11 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>1.3958333333333335</v>
+        <v>1.1807291666666666</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8DFBA0-FB59-A14C-829A-9B653362B80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF487E-5206-8241-A138-68873E815995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2393,7 +2393,7 @@
         <v>75.75</v>
       </c>
       <c r="C4" s="27">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2403,7 +2403,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>0.71015625000000004</v>
+        <v>1.4076562500000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:J51" si="1">AVERAGE(C$2:C$48)</f>
-        <v>40.840425531914896</v>
+        <v>42.819148936170215</v>
       </c>
       <c r="D51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.74174202127659583</v>
+        <v>0.75658244680851072</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:J52" si="2">STDEV(C$2:C$48)</f>
-        <v>36.720315781857515</v>
+        <v>36.976553313040391</v>
       </c>
       <c r="D52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.50314872806709954</v>
+        <v>0.51239824991673022</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:J53" si="3">MEDIAN(C$2:C$48)</f>
-        <v>32.5</v>
+        <v>34</v>
       </c>
       <c r="D53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0.71625000000000005</v>
+        <v>0.7471875</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>0.71015625000000004</v>
+        <v>1.4076562500000001</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -4076,11 +4076,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>1.4351562499999999</v>
+        <v>2.1326562500000001</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.74174202127659583</v>
+        <v>0.75658244680851072</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -5593,11 +5593,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>1.1764937943262412</v>
+        <v>1.191334219858156</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>1.2021276595744681</v>
+        <v>1.2127659574468086</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.50314872806709954</v>
+        <v>0.51239824991673022</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -5626,11 +5626,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.70582681086446475</v>
+        <v>0.7186006567397234</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>0.73469584410744504</v>
+        <v>0.74267935069338376</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0.71625000000000005</v>
+        <v>0.7471875</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF487E-5206-8241-A138-68873E815995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7834C-C1BA-8E4E-ABC0-A9C5B517FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -2300,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3536,9 +3536,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E2C325-9DED-7647-82A1-46DD08F3F8AF}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -3548,7 +3548,7 @@
     <col min="2" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3559,242 +3559,342 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="30">
+        <f>(14.5+6.5+7.5+4+4.5)</f>
+        <v>37</v>
+      </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="30">
+        <f>(19+10+14.5+17.5+15)</f>
+        <v>76</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>(19+15+13.5+11.5+17.5)</f>
+        <v>76.5</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1670</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f>(13.5+14+16.5+11+8.5)</f>
+        <v>63.5</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1691</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <f>(16+9+7+5+5.5)</f>
+        <v>42.5</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1889</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <f>(13.5+5+1.5+5.5+0)</f>
+        <v>25.5</v>
+      </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2085</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="30">
+        <f>(15+10+13.5+12.5+0)</f>
+        <v>51</v>
+      </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2163</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <f>(16.5+8+6.5+13.5+16)</f>
+        <v>60.5</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2393</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="30">
+        <f>(15+6+6+12.5+12.5)</f>
+        <v>52</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2441</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="30">
+        <f>(16+11+9+11+16)</f>
+        <v>63</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2903</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <f>(19+14+12+12+9.5)</f>
+        <v>66.5</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2994</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="30">
+        <f>(12.5+9+7.5+10+6)</f>
+        <v>45</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3377</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="30">
+        <f>(14.5+12+13.5+10.5+15.5)</f>
+        <v>66</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3517</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="30">
+        <f>(16+7+9+3.5+13.5)</f>
+        <v>49</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3560</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <f>(14+7+8.5+8.5+5.5)</f>
+        <v>43.5</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3601</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <f>(12+10+7.5+1+5)</f>
+        <v>35.5</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3642</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="30">
+        <f>(12.5+6+9.5+12.5+9.5)</f>
+        <v>50</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3672</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <f>(17+9+13.5+14+13)</f>
+        <v>66.5</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3797</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="30">
+        <f>(17.5+10+6+13+11.5)</f>
+        <v>58</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4091</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="30">
+        <f>(17+13+16.5+10.5+17)</f>
+        <v>74</v>
+      </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4582</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="30">
+        <f>(11+5+12+5.5+10.5)</f>
+        <v>44</v>
+      </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>4622</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <f>(18+9+14.5+11.5+17.5)</f>
+        <v>70.5</v>
+      </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5075</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="30">
+        <f>(14+7+8.5+8+7.5)</f>
+        <v>45</v>
+      </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5141</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="2">
+        <f>(14.5+2.5+2.5+6+9)</f>
+        <v>34.5</v>
+      </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>5482</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="30">
+        <f>(12+7+7+12+10)</f>
+        <v>48</v>
+      </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>5680</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="30">
+        <f>(11+7+8.5+7.5+6)</f>
+        <v>40</v>
+      </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5943</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="30">
+        <f>(14+4+3.5+5.5+0)</f>
+        <v>27</v>
+      </c>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6464</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="30">
+        <f>(19+14+19+20+20)</f>
+        <v>92</v>
+      </c>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>6797</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="30">
+        <f>(14+11+9.5+11.5+15)</f>
+        <v>61</v>
+      </c>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7021</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <f>(15.5+15+16.5+16+12.5)</f>
+        <v>75.5</v>
+      </c>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7511</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <f>(5+3+3.5+0+0)</f>
+        <v>11.5</v>
+      </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>7575</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="30">
+        <f>(13+13+15.5+15.5+12)</f>
+        <v>69</v>
+      </c>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>7642</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="30">
+        <f>(12.5+4.5+5.5+3+0)</f>
+        <v>25.5</v>
+      </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3815,49 +3915,70 @@
       <c r="A38" s="2">
         <v>8742</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="30">
+        <f>(15.5+4+9+1.5+16)</f>
+        <v>46</v>
+      </c>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>8743</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2">
+        <f>(10+15+11+13+13.5)</f>
+        <v>62.5</v>
+      </c>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>8765</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2">
+        <f>(17.5+6+5+4+8)</f>
+        <v>40.5</v>
+      </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>8793</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="30">
+        <f>(16+16+14.5+16+12.5)</f>
+        <v>75</v>
+      </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>9139</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2">
+        <f>(8.5+4+7+3.5+4.5)</f>
+        <v>27.5</v>
+      </c>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>9196</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="30">
+        <f>(19+15+16+12+17)</f>
+        <v>79</v>
+      </c>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>9355</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="30">
+        <f>(14.5+9+9+9+6.5)</f>
+        <v>48</v>
+      </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3871,21 +3992,30 @@
       <c r="A46" s="2">
         <v>9550</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2">
+        <f>(16+12+0+0+12.5)</f>
+        <v>40.5</v>
+      </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>9744</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="30">
+        <f>(12.5+6+10+10.5+9)</f>
+        <v>48</v>
+      </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>9881</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2">
+        <f>(5.5+2+0+0+0)</f>
+        <v>7.5</v>
+      </c>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3904,9 +4034,9 @@
       <c r="A51" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="19" t="e">
+      <c r="B51" s="19">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>#DIV/0!</v>
+        <v>51.616279069767444</v>
       </c>
       <c r="C51" s="19" t="e">
         <f t="shared" ref="C51" si="0">AVERAGE(C$2:C$48)</f>
@@ -3917,9 +4047,9 @@
       <c r="A52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="19" t="e">
+      <c r="B52" s="19">
         <f>STDEV(B$2:B$48)</f>
-        <v>#DIV/0!</v>
+        <v>18.739707400172374</v>
       </c>
       <c r="C52" s="19" t="e">
         <f t="shared" ref="C52" si="1">STDEV(C$2:C$48)</f>
@@ -3930,9 +4060,9 @@
       <c r="A53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="19" t="e">
+      <c r="B53" s="19">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>#NUM!</v>
+        <v>49</v>
       </c>
       <c r="C53" s="19" t="e">
         <f t="shared" ref="C53" si="2">MEDIAN(C$2:C$48)</f>
@@ -4002,7 +4132,7 @@
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E2" s="26">
         <f>Exams!C2</f>
@@ -4010,11 +4140,11 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>0.25833333333333336</v>
+        <v>1.3683333333333332</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="26">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -4035,7 +4165,7 @@
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E3" s="26">
         <f>Exams!C3</f>
@@ -4043,11 +4173,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>1.9714583333333333</v>
+        <v>4.2514583333333338</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" ref="H3:H48" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -4068,7 +4198,7 @@
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="E4" s="26">
         <f>Exams!C4</f>
@@ -4076,11 +4206,11 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>2.1326562500000001</v>
+        <v>4.4276562500000001</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
@@ -4134,7 +4264,7 @@
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="E6" s="26">
         <f>Exams!C6</f>
@@ -4142,11 +4272,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>2.1815625000000001</v>
+        <v>4.0865625000000003</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -4167,7 +4297,7 @@
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="E7" s="26">
         <f>Exams!C7</f>
@@ -4175,11 +4305,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>0.94958333333333345</v>
+        <v>2.2245833333333334</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -4200,7 +4330,7 @@
       </c>
       <c r="D8" s="26">
         <f>Exams!B8</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E8" s="26">
         <f>Exams!C8</f>
@@ -4208,11 +4338,11 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.96500000000000008</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="26">
         <f t="shared" si="2"/>
@@ -4233,7 +4363,7 @@
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E9" s="26">
         <f>Exams!C9</f>
@@ -4241,11 +4371,11 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>1.1807291666666666</v>
+        <v>2.7107291666666669</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="2"/>
@@ -4266,7 +4396,7 @@
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="E10" s="26">
         <f>Exams!C10</f>
@@ -4274,11 +4404,11 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>2.0190625</v>
+        <v>3.8340624999999999</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
@@ -4299,7 +4429,7 @@
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E11" s="26">
         <f>Exams!C11</f>
@@ -4307,11 +4437,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>0.89500000000000002</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -4332,7 +4462,7 @@
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E12" s="26">
         <f>Exams!C12</f>
@@ -4340,11 +4470,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>1.8802083333333335</v>
+        <v>3.7702083333333336</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
@@ -4365,7 +4495,7 @@
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="E13" s="26">
         <f>Exams!C13</f>
@@ -4373,11 +4503,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>1.7892708333333331</v>
+        <v>3.7842708333333333</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="2"/>
@@ -4398,7 +4528,7 @@
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E14" s="26">
         <f>Exams!C14</f>
@@ -4406,11 +4536,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>1.0514583333333332</v>
+        <v>2.4014583333333333</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="2"/>
@@ -4431,7 +4561,7 @@
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E15" s="26">
         <f>Exams!C15</f>
@@ -4439,11 +4569,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>1.3555208333333333</v>
+        <v>3.3355208333333333</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="2"/>
@@ -4464,7 +4594,7 @@
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E16" s="26">
         <f>Exams!C16</f>
@@ -4472,11 +4602,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>1.8641145833333332</v>
+        <v>3.3341145833333332</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="2"/>
@@ -4497,7 +4627,7 @@
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
-        <v>0</v>
+        <v>43.5</v>
       </c>
       <c r="E17" s="26">
         <f>Exams!C17</f>
@@ -4505,11 +4635,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>0.97187499999999993</v>
+        <v>2.276875</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="2"/>
@@ -4530,7 +4660,7 @@
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
-        <v>0</v>
+        <v>35.5</v>
       </c>
       <c r="E18" s="26">
         <f>Exams!C18</f>
@@ -4538,11 +4668,11 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>0.43364583333333334</v>
+        <v>1.4986458333333332</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="26">
         <f t="shared" si="2"/>
@@ -4563,7 +4693,7 @@
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" s="26">
         <f>Exams!C19</f>
@@ -4571,11 +4701,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>1.3429687499999998</v>
+        <v>2.8429687499999998</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -4596,7 +4726,7 @@
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="E20" s="26">
         <f>Exams!C20</f>
@@ -4604,11 +4734,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>2.0373437499999998</v>
+        <v>4.0323437499999999</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="2"/>
@@ -4629,7 +4759,7 @@
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E21" s="26">
         <f>Exams!C21</f>
@@ -4637,11 +4767,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>2.0022916666666664</v>
+        <v>3.7422916666666661</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="26">
         <f t="shared" si="2"/>
@@ -4662,7 +4792,7 @@
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E22" s="26">
         <f>Exams!C22</f>
@@ -4670,11 +4800,11 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>2.2546354166666669</v>
+        <v>4.4746354166666666</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H22" s="26">
         <f t="shared" si="2"/>
@@ -4695,7 +4825,7 @@
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E23" s="26">
         <f>Exams!C23</f>
@@ -4703,11 +4833,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>1.5506249999999999</v>
+        <v>2.870625</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" si="2"/>
@@ -4728,7 +4858,7 @@
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="E24" s="26">
         <f>Exams!C24</f>
@@ -4736,11 +4866,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>1.6681250000000003</v>
+        <v>3.7831250000000001</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
@@ -4761,7 +4891,7 @@
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E25" s="26">
         <f>Exams!C25</f>
@@ -4769,11 +4899,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>0.54947916666666663</v>
+        <v>1.8994791666666666</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="26">
         <f t="shared" si="2"/>
@@ -4794,7 +4924,7 @@
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="E26" s="26">
         <f>Exams!C26</f>
@@ -4802,11 +4932,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>1.0502083333333332</v>
+        <v>2.0852083333333331</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -4827,7 +4957,7 @@
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E27" s="26">
         <f>Exams!C27</f>
@@ -4835,11 +4965,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>0.7377604166666667</v>
+        <v>2.1777604166666666</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="2"/>
@@ -4860,7 +4990,7 @@
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E28" s="26">
         <f>Exams!C28</f>
@@ -4868,11 +4998,11 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>0.32604166666666667</v>
+        <v>1.526041666666667</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="26">
         <f t="shared" si="2"/>
@@ -4893,7 +5023,7 @@
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E29" s="26">
         <f>Exams!C29</f>
@@ -4901,11 +5031,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>0.44166666666666665</v>
+        <v>1.2516666666666667</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -4926,7 +5056,7 @@
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E30" s="26">
         <f>Exams!C30</f>
@@ -4934,15 +5064,15 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>2.33</v>
+        <v>5.09</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4959,7 +5089,7 @@
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E31" s="26">
         <f>Exams!C31</f>
@@ -4967,11 +5097,11 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>1.3055729166666667</v>
+        <v>3.1355729166666668</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="2"/>
@@ -4992,7 +5122,7 @@
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="E32" s="26">
         <f>Exams!C32</f>
@@ -5000,11 +5130,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>1.8534375000000001</v>
+        <v>4.1184375000000006</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -5025,7 +5155,7 @@
       </c>
       <c r="D33" s="26">
         <f>Exams!B33</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="E33" s="26">
         <f>Exams!C33</f>
@@ -5033,11 +5163,11 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>9.9999999999999992E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="26">
         <f t="shared" ref="H33" si="4">IF(G33&gt;4.75,1,0)</f>
@@ -5058,7 +5188,7 @@
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E34" s="26">
         <f>Exams!C34</f>
@@ -5066,11 +5196,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>0.9770833333333333</v>
+        <v>3.0470833333333331</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="2"/>
@@ -5091,7 +5221,7 @@
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E35" s="26">
         <f>Exams!C35</f>
@@ -5099,11 +5229,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>0.53395833333333331</v>
+        <v>1.2989583333333332</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H35" s="26">
         <f t="shared" si="2"/>
@@ -5190,7 +5320,7 @@
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E38" s="26">
         <f>Exams!C38</f>
@@ -5198,11 +5328,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>0.33020833333333333</v>
+        <v>1.7102083333333336</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -5223,7 +5353,7 @@
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E39" s="26">
         <f>Exams!C39</f>
@@ -5231,11 +5361,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>1.8008333333333333</v>
+        <v>3.6758333333333333</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H39" s="26">
         <f t="shared" si="2"/>
@@ -5256,7 +5386,7 @@
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="E40" s="26">
         <f>Exams!C40</f>
@@ -5264,11 +5394,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>0.69229166666666664</v>
+        <v>1.9072916666666666</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -5289,7 +5419,7 @@
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E41" s="26">
         <f>Exams!C41</f>
@@ -5297,11 +5427,11 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>2.10984375</v>
+        <v>4.3598437499999996</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H41" s="26">
         <f t="shared" si="2"/>
@@ -5322,7 +5452,7 @@
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="E42" s="26">
         <f>Exams!C42</f>
@@ -5330,11 +5460,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>0.77791666666666681</v>
+        <v>1.6029166666666668</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H42" s="26">
         <f t="shared" si="2"/>
@@ -5355,7 +5485,7 @@
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E43" s="26">
         <f>Exams!C43</f>
@@ -5363,11 +5493,11 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>2.1045833333333333</v>
+        <v>4.4745833333333334</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H43" s="26">
         <f t="shared" si="2"/>
@@ -5388,7 +5518,7 @@
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E44" s="26">
         <f>Exams!C44</f>
@@ -5396,11 +5526,11 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>1.4597916666666666</v>
+        <v>2.8997916666666663</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H44" s="26">
         <f t="shared" si="2"/>
@@ -5454,7 +5584,7 @@
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="E46" s="26">
         <f>Exams!C46</f>
@@ -5462,11 +5592,11 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>1.8424479166666665</v>
+        <v>3.0574479166666668</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="26">
         <f t="shared" si="2"/>
@@ -5487,7 +5617,7 @@
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E47" s="26">
         <f>Exams!C47</f>
@@ -5495,11 +5625,11 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>1.20359375</v>
+        <v>2.64359375</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" si="2"/>
@@ -5520,7 +5650,7 @@
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E48" s="26">
         <f>Exams!C48</f>
@@ -5528,7 +5658,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.82552083333333326</v>
+        <v>1.0505208333333331</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -5568,7 +5698,7 @@
       </c>
       <c r="H50" s="10">
         <f>SUM(H2:H48)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5585,7 +5715,7 @@
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47.223404255319146</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="5"/>
@@ -5593,15 +5723,15 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>1.191334219858156</v>
+        <v>2.6080363475177295</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>1.2127659574468086</v>
+        <v>2.6276595744680851</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.1276595744680851E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5618,7 +5748,7 @@
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23.078035979711341</v>
       </c>
       <c r="E52" s="13">
         <f t="shared" si="6"/>
@@ -5626,15 +5756,15 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>0.7186006567397234</v>
+        <v>1.3499317407191529</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>0.74267935069338376</v>
+        <v>1.369179717561732</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.14586499149789456</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5651,7 +5781,7 @@
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E53" s="13">
         <f t="shared" si="7"/>
@@ -5659,11 +5789,11 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>1.1807291666666666</v>
+        <v>2.7107291666666669</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B7834C-C1BA-8E4E-ABC0-A9C5B517FA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788301F-5B21-4943-825E-0A9753900A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,7 +827,9 @@
       <c r="E2" s="30">
         <v>2</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -835,7 +837,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.25833333333333336</v>
+        <v>0.20666666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -854,7 +856,10 @@
       <c r="E3" s="30">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="30">
+        <f>4+2</f>
+        <v>6</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -862,7 +867,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.7583333333333333</v>
+        <v>0.68666666666666665</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -881,7 +886,10 @@
       <c r="E4" s="30">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="30">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -889,7 +897,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.72499999999999998</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,7 +916,9 @@
       <c r="E5" s="30">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -916,7 +926,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -935,7 +945,10 @@
       <c r="E6" s="30">
         <v>14</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="30">
+        <f>8+1</f>
+        <v>9</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -943,7 +956,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.82499999999999996</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -962,7 +975,10 @@
       <c r="E7" s="30">
         <v>7</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="30">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -970,7 +986,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.23333333333333334</v>
+        <v>0.26666666666666672</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -989,7 +1005,10 @@
       <c r="E8" s="30">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="30">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -997,7 +1016,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1016,7 +1035,10 @@
       <c r="E9" s="30">
         <v>3.5</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="30">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1024,7 +1046,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0.29333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1043,7 +1065,10 @@
       <c r="E10" s="30">
         <v>9.5</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="30">
+        <f>6+4</f>
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1051,7 +1076,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.625</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1070,7 +1095,10 @@
       <c r="E11" s="30">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="30">
+        <f>4+3</f>
+        <v>7</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1078,7 +1106,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.54999999999999993</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,7 +1125,10 @@
       <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="30">
+        <f>4+2</f>
+        <v>6</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1105,7 +1136,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.48333333333333328</v>
+        <v>0.46666666666666662</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1124,7 +1155,10 @@
       <c r="E13" s="30">
         <v>8</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="30">
+        <f>2+3</f>
+        <v>5</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1132,7 +1166,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.48333333333333328</v>
+        <v>0.45333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1151,7 +1185,10 @@
       <c r="E14" s="30">
         <v>9</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="30">
+        <f>5+0</f>
+        <v>5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1159,7 +1196,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.48333333333333328</v>
+        <v>0.45333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1178,7 +1215,10 @@
       <c r="E15" s="30">
         <v>10.5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="30">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1186,7 +1226,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.60833333333333339</v>
+        <v>0.59333333333333338</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1205,7 +1245,10 @@
       <c r="E16" s="30">
         <v>10</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="30">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1213,7 +1256,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.45833333333333326</v>
+        <v>0.47333333333333327</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1232,7 +1275,10 @@
       <c r="E17" s="30">
         <v>12</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="30">
+        <f>0+1</f>
+        <v>1</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1240,7 +1286,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.47499999999999998</v>
+        <v>0.39333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,7 +1305,9 @@
       <c r="E18" s="30">
         <v>3.5</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1267,7 +1315,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.18333333333333335</v>
+        <v>0.14666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1286,7 +1334,10 @@
       <c r="E19" s="30">
         <v>9</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="30">
+        <f>5+2</f>
+        <v>7</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1294,7 +1345,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.375</v>
+        <v>0.39333333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1364,10 @@
       <c r="E20" s="30">
         <v>14</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="30">
+        <f>0+4</f>
+        <v>4</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1321,7 +1375,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.85000000000000009</v>
+        <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,7 +1394,10 @@
       <c r="E21" s="30">
         <v>13</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="30">
+        <f>0+4</f>
+        <v>4</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1348,7 +1405,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.69166666666666665</v>
+        <v>0.60666666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1424,10 @@
       <c r="E22" s="30">
         <v>14.5</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="30">
+        <f>8+5</f>
+        <v>13</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1375,7 +1435,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.8666666666666667</v>
+        <v>0.86666666666666681</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1394,7 +1454,9 @@
       <c r="E23" s="30">
         <v>12</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1402,7 +1464,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50+K23/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1421,7 +1483,10 @@
       <c r="E24" s="30">
         <v>11</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="30">
+        <f>4+2</f>
+        <v>6</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1429,7 +1494,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.57500000000000007</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1448,7 +1513,10 @@
       <c r="E25" s="30">
         <v>7.5</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="30">
+        <f>0+3</f>
+        <v>3</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1456,7 +1524,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.36666666666666664</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,7 +1543,10 @@
       <c r="E26" s="30">
         <v>7</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="30">
+        <f>3+4</f>
+        <v>7</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1483,7 +1554,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.5083333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,7 +1573,9 @@
       <c r="E27" s="30">
         <v>9.5</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1510,7 +1583,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26666666666666666</v>
+        <v>0.21333333333333332</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,7 +1602,10 @@
       <c r="E28" s="30">
         <v>7</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="30">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1537,7 +1613,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.24166666666666667</v>
+        <v>0.19333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1556,7 +1632,10 @@
       <c r="E29" s="30">
         <v>12</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="30">
+        <f>0+1</f>
+        <v>1</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1564,7 +1643,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.44166666666666665</v>
+        <v>0.36666666666666664</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,7 +1662,10 @@
       <c r="E30" s="30">
         <v>12.5</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="30">
+        <f>10+5</f>
+        <v>15</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1591,7 +1673,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,7 +1692,10 @@
       <c r="E31" s="30">
         <v>7</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="30">
+        <f>0+5</f>
+        <v>5</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1618,7 +1703,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.3666666666666667</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1637,7 +1722,10 @@
       <c r="E32" s="30">
         <v>14</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="30">
+        <f>0+0</f>
+        <v>0</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1645,7 +1733,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.67500000000000004</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1664,7 +1752,9 @@
       <c r="E33" s="30">
         <v>5</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="30">
+        <v>0</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1672,7 +1762,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>7.9999999999999988E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1691,7 +1781,10 @@
       <c r="E34" s="30">
         <v>7</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="30">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1699,7 +1792,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.35833333333333334</v>
+        <v>0.39333333333333337</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1718,7 +1811,10 @@
       <c r="E35" s="30">
         <v>5</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="30">
+        <f>0+1</f>
+        <v>1</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1726,7 +1822,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.18333333333333335</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,7 +1833,7 @@
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1756,7 +1852,7 @@
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1783,7 +1879,10 @@
       <c r="E38" s="30">
         <v>3</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="30">
+        <f>2+0</f>
+        <v>2</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1791,7 +1890,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.20833333333333331</v>
+        <v>0.1933333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1810,7 +1909,10 @@
       <c r="E39" s="30">
         <v>7.5</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="30">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1837,7 +1939,10 @@
       <c r="E40" s="30">
         <v>6</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="30">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -1845,7 +1950,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.41666666666666663</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1864,7 +1969,10 @@
       <c r="E41" s="30">
         <v>14</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="30">
+        <f>3+5</f>
+        <v>8</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1872,7 +1980,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.75</v>
+        <v>0.70666666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1891,7 +1999,10 @@
       <c r="E42" s="30">
         <v>6.5</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="30">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1899,7 +2010,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.24166666666666667</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,7 +2029,10 @@
       <c r="E43" s="30">
         <v>11</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="30">
+        <f>8+5</f>
+        <v>13</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1926,7 +2040,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.7583333333333333</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1945,7 +2059,10 @@
       <c r="E44" s="30">
         <v>12</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="30">
+        <f>0+2</f>
+        <v>2</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -1953,7 +2070,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.51666666666666661</v>
+        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,7 +2081,7 @@
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -1991,7 +2108,9 @@
       <c r="E46" s="30">
         <v>8</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="30">
+        <v>4</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -1999,7 +2118,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.54166666666666663</v>
+        <v>0.48666666666666664</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,7 +2137,10 @@
       <c r="E47" s="30">
         <v>12.5</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="30">
+        <f>4+0</f>
+        <v>4</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2026,7 +2148,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.42500000000000004</v>
+        <v>0.39333333333333337</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2045,7 +2167,9 @@
       <c r="E48" s="30">
         <v>0</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="30">
+        <v>0</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2053,7 +2177,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.18333333333333335</v>
+        <v>0.14666666666666667</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2115,33 +2239,33 @@
         <f t="shared" si="0"/>
         <v>8.5340909090909083</v>
       </c>
-      <c r="F51" s="13" t="e">
+      <c r="F51" s="13">
+        <f t="shared" si="0"/>
+        <v>4.6590909090909092</v>
+      </c>
+      <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="H51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="13" t="e">
+      <c r="I51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="13" t="e">
+      <c r="J51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="13" t="e">
+      <c r="K51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>0.43475177304964546</v>
+        <v>0.40595744680851081</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2164,9 +2288,9 @@
         <f t="shared" si="1"/>
         <v>4.1151983298340458</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="F52" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.9174219204945548</v>
       </c>
       <c r="G52" s="13" t="e">
         <f t="shared" si="1"/>
@@ -2190,7 +2314,7 @@
       </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>0.24267231507287049</v>
+        <v>0.23434659513693917</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2213,9 +2337,9 @@
         <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
-      <c r="F53" s="13" t="e">
+      <c r="F53" s="13">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>5</v>
       </c>
       <c r="G53" s="13" t="e">
         <f t="shared" si="2"/>
@@ -2239,7 +2363,7 @@
       </c>
       <c r="L53" s="13">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.39333333333333337</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2264,7 +2388,7 @@
       </c>
       <c r="F54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="16">
         <f t="shared" si="3"/>
@@ -3538,7 +3662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E2C325-9DED-7647-82A1-46DD08F3F8AF}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -4124,7 +4248,7 @@
       </c>
       <c r="B2" s="28">
         <f>Quizzes!L2</f>
-        <v>0.25833333333333336</v>
+        <v>0.20666666666666669</v>
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
@@ -4140,7 +4264,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.3683333333333332</v>
+        <v>1.3166666666666667</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4157,7 +4281,7 @@
       </c>
       <c r="B3" s="28">
         <f>Quizzes!L3</f>
-        <v>0.7583333333333333</v>
+        <v>0.68666666666666665</v>
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
@@ -4173,11 +4297,11 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.2514583333333338</v>
+        <v>4.1797916666666666</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" ref="H3:H48" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -4190,7 +4314,7 @@
       </c>
       <c r="B4" s="28">
         <f>Quizzes!L4</f>
-        <v>0.72499999999999998</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
@@ -4206,7 +4330,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.4276562500000001</v>
+        <v>4.3626562499999997</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4223,7 +4347,7 @@
       </c>
       <c r="B5" s="28">
         <f>Quizzes!L5</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
@@ -4239,7 +4363,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.65000000000000013</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4256,7 +4380,7 @@
       </c>
       <c r="B6" s="28">
         <f>Quizzes!L6</f>
-        <v>0.82499999999999996</v>
+        <v>0.78</v>
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
@@ -4272,7 +4396,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>4.0865625000000003</v>
+        <v>4.0415625000000004</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -4289,7 +4413,7 @@
       </c>
       <c r="B7" s="28">
         <f>Quizzes!L7</f>
-        <v>0.23333333333333334</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
@@ -4305,11 +4429,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.2245833333333334</v>
+        <v>2.2579166666666666</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -4322,7 +4446,7 @@
       </c>
       <c r="B8" s="28">
         <f>Quizzes!L8</f>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
@@ -4338,7 +4462,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>0.96500000000000008</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -4355,7 +4479,7 @@
       </c>
       <c r="B9" s="28">
         <f>Quizzes!L9</f>
-        <v>0.26666666666666666</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
@@ -4371,7 +4495,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.7107291666666669</v>
+        <v>2.7373958333333333</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4388,7 +4512,7 @@
       </c>
       <c r="B10" s="28">
         <f>Quizzes!L10</f>
-        <v>0.625</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
@@ -4404,7 +4528,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.8340624999999999</v>
+        <v>3.8423958333333332</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4421,7 +4545,7 @@
       </c>
       <c r="B11" s="28">
         <f>Quizzes!L11</f>
-        <v>0.54999999999999993</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
@@ -4437,7 +4561,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.4550000000000001</v>
+        <v>2.4383333333333335</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -4454,7 +4578,7 @@
       </c>
       <c r="B12" s="28">
         <f>Quizzes!L12</f>
-        <v>0.48333333333333328</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
@@ -4470,7 +4594,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.7702083333333336</v>
+        <v>3.753541666666667</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -4487,7 +4611,7 @@
       </c>
       <c r="B13" s="28">
         <f>Quizzes!L13</f>
-        <v>0.48333333333333328</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
@@ -4503,7 +4627,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.7842708333333333</v>
+        <v>3.7542708333333334</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -4520,7 +4644,7 @@
       </c>
       <c r="B14" s="28">
         <f>Quizzes!L14</f>
-        <v>0.48333333333333328</v>
+        <v>0.45333333333333331</v>
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
@@ -4536,7 +4660,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.4014583333333333</v>
+        <v>2.3714583333333334</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -4553,7 +4677,7 @@
       </c>
       <c r="B15" s="28">
         <f>Quizzes!L15</f>
-        <v>0.60833333333333339</v>
+        <v>0.59333333333333338</v>
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
@@ -4569,7 +4693,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.3355208333333333</v>
+        <v>3.3205208333333331</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -4586,7 +4710,7 @@
       </c>
       <c r="B16" s="28">
         <f>Quizzes!L16</f>
-        <v>0.45833333333333326</v>
+        <v>0.47333333333333327</v>
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
@@ -4602,7 +4726,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.3341145833333332</v>
+        <v>3.3491145833333329</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -4619,7 +4743,7 @@
       </c>
       <c r="B17" s="28">
         <f>Quizzes!L17</f>
-        <v>0.47499999999999998</v>
+        <v>0.39333333333333331</v>
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
@@ -4635,11 +4759,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.276875</v>
+        <v>2.1952083333333334</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="2"/>
@@ -4652,7 +4776,7 @@
       </c>
       <c r="B18" s="28">
         <f>Quizzes!L18</f>
-        <v>0.18333333333333335</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
@@ -4668,7 +4792,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.4986458333333332</v>
+        <v>1.4619791666666666</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -4685,7 +4809,7 @@
       </c>
       <c r="B19" s="28">
         <f>Quizzes!L19</f>
-        <v>0.375</v>
+        <v>0.39333333333333337</v>
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
@@ -4701,7 +4825,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2.8429687499999998</v>
+        <v>2.8613020833333334</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -4718,7 +4842,7 @@
       </c>
       <c r="B20" s="28">
         <f>Quizzes!L20</f>
-        <v>0.85000000000000009</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
@@ -4734,7 +4858,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>4.0323437499999999</v>
+        <v>3.9156770833333336</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -4751,7 +4875,7 @@
       </c>
       <c r="B21" s="28">
         <f>Quizzes!L21</f>
-        <v>0.69166666666666665</v>
+        <v>0.60666666666666669</v>
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
@@ -4767,7 +4891,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.7422916666666661</v>
+        <v>3.6572916666666666</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -4784,7 +4908,7 @@
       </c>
       <c r="B22" s="28">
         <f>Quizzes!L22</f>
-        <v>0.8666666666666667</v>
+        <v>0.86666666666666681</v>
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
@@ -4817,7 +4941,7 @@
       </c>
       <c r="B23" s="28">
         <f>Quizzes!L23</f>
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
@@ -4833,7 +4957,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.870625</v>
+        <v>2.7806249999999997</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -4850,7 +4974,7 @@
       </c>
       <c r="B24" s="28">
         <f>Quizzes!L24</f>
-        <v>0.57500000000000007</v>
+        <v>0.54</v>
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
@@ -4866,11 +4990,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.7831250000000001</v>
+        <v>3.7481249999999999</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
@@ -4883,7 +5007,7 @@
       </c>
       <c r="B25" s="28">
         <f>Quizzes!L25</f>
-        <v>0.36666666666666664</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
@@ -4899,7 +5023,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>1.8994791666666666</v>
+        <v>1.8661458333333334</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -4916,7 +5040,7 @@
       </c>
       <c r="B26" s="28">
         <f>Quizzes!L26</f>
-        <v>0.5083333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
@@ -4932,7 +5056,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.0852083333333331</v>
+        <v>2.0768749999999998</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -4949,7 +5073,7 @@
       </c>
       <c r="B27" s="28">
         <f>Quizzes!L27</f>
-        <v>0.26666666666666666</v>
+        <v>0.21333333333333332</v>
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
@@ -4965,7 +5089,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.1777604166666666</v>
+        <v>2.1244270833333334</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -4982,7 +5106,7 @@
       </c>
       <c r="B28" s="28">
         <f>Quizzes!L28</f>
-        <v>0.24166666666666667</v>
+        <v>0.19333333333333333</v>
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
@@ -4998,7 +5122,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.526041666666667</v>
+        <v>1.4777083333333336</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5015,7 +5139,7 @@
       </c>
       <c r="B29" s="28">
         <f>Quizzes!L29</f>
-        <v>0.44166666666666665</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
@@ -5031,11 +5155,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.2516666666666667</v>
+        <v>1.1766666666666667</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -5048,7 +5172,7 @@
       </c>
       <c r="B30" s="28">
         <f>Quizzes!L30</f>
-        <v>0.875</v>
+        <v>0.9</v>
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
@@ -5064,7 +5188,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.09</v>
+        <v>5.1150000000000002</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5081,7 +5205,7 @@
       </c>
       <c r="B31" s="28">
         <f>Quizzes!L31</f>
-        <v>0.3666666666666667</v>
+        <v>0.36</v>
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
@@ -5097,7 +5221,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.1355729166666668</v>
+        <v>3.12890625</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5114,7 +5238,7 @@
       </c>
       <c r="B32" s="28">
         <f>Quizzes!L32</f>
-        <v>0.67500000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
@@ -5130,7 +5254,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>4.1184375000000006</v>
+        <v>3.9834375</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -5147,7 +5271,7 @@
       </c>
       <c r="B33" s="28">
         <f>Quizzes!L33</f>
-        <v>9.9999999999999992E-2</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="C33" s="28">
         <f>Homeworks!J33</f>
@@ -5163,7 +5287,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>0.44500000000000001</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
@@ -5180,7 +5304,7 @@
       </c>
       <c r="B34" s="28">
         <f>Quizzes!L34</f>
-        <v>0.35833333333333334</v>
+        <v>0.39333333333333337</v>
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
@@ -5196,7 +5320,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.0470833333333331</v>
+        <v>3.0820833333333333</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5213,7 +5337,7 @@
       </c>
       <c r="B35" s="28">
         <f>Quizzes!L35</f>
-        <v>0.18333333333333335</v>
+        <v>0.16</v>
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
@@ -5229,7 +5353,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.2989583333333332</v>
+        <v>1.275625</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -5312,7 +5436,7 @@
       </c>
       <c r="B38" s="28">
         <f>Quizzes!L38</f>
-        <v>0.20833333333333331</v>
+        <v>0.1933333333333333</v>
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
@@ -5328,7 +5452,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>1.7102083333333336</v>
+        <v>1.6952083333333334</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
@@ -5378,7 +5502,7 @@
       </c>
       <c r="B40" s="28">
         <f>Quizzes!L40</f>
-        <v>0.41666666666666663</v>
+        <v>0.36</v>
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
@@ -5394,7 +5518,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.9072916666666666</v>
+        <v>1.850625</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -5411,7 +5535,7 @@
       </c>
       <c r="B41" s="28">
         <f>Quizzes!L41</f>
-        <v>0.75</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
@@ -5427,7 +5551,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.3598437499999996</v>
+        <v>4.3165104166666666</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5444,7 +5568,7 @@
       </c>
       <c r="B42" s="28">
         <f>Quizzes!L42</f>
-        <v>0.24166666666666667</v>
+        <v>0.26</v>
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
@@ -5460,7 +5584,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.6029166666666668</v>
+        <v>1.6212500000000003</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5477,7 +5601,7 @@
       </c>
       <c r="B43" s="28">
         <f>Quizzes!L43</f>
-        <v>0.7583333333333333</v>
+        <v>0.78</v>
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
@@ -5493,7 +5617,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.4745833333333334</v>
+        <v>4.4962499999999999</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -5510,7 +5634,7 @@
       </c>
       <c r="B44" s="28">
         <f>Quizzes!L44</f>
-        <v>0.51666666666666661</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
@@ -5526,7 +5650,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.8997916666666663</v>
+        <v>2.8231250000000001</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -5576,7 +5700,7 @@
       </c>
       <c r="B46" s="28">
         <f>Quizzes!L46</f>
-        <v>0.54166666666666663</v>
+        <v>0.48666666666666664</v>
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
@@ -5592,7 +5716,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>3.0574479166666668</v>
+        <v>3.0024479166666667</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -5609,7 +5733,7 @@
       </c>
       <c r="B47" s="28">
         <f>Quizzes!L47</f>
-        <v>0.42500000000000004</v>
+        <v>0.39333333333333337</v>
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
@@ -5625,7 +5749,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.64359375</v>
+        <v>2.6119270833333332</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -5642,7 +5766,7 @@
       </c>
       <c r="B48" s="28">
         <f>Quizzes!L48</f>
-        <v>0.18333333333333335</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
@@ -5658,7 +5782,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>1.0505208333333331</v>
+        <v>1.0138541666666665</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -5707,7 +5831,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.43475177304964546</v>
+        <v>0.40595744680851081</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -5723,11 +5847,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.6080363475177295</v>
+        <v>2.579242021276595</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.6276595744680851</v>
+        <v>2.5957446808510638</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5740,7 +5864,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.24267231507287049</v>
+        <v>0.23434659513693917</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -5756,11 +5880,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3499317407191529</v>
+        <v>1.3457031564666357</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.369179717561732</v>
+        <v>1.3579007850688714</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5773,7 +5897,7 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.45</v>
+        <v>0.39333333333333337</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
@@ -5789,7 +5913,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.7107291666666669</v>
+        <v>2.7373958333333333</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788301F-5B21-4943-825E-0A9753900A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4090CB8-3032-6F47-926D-18C7C64CA5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2424,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2477,7 +2477,9 @@
       <c r="C2" s="27">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="30">
+        <v>6</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2485,7 +2487,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="27">
         <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,7 +2500,9 @@
       <c r="C3" s="27">
         <v>85.5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="30">
+        <v>39.5</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2506,7 +2510,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>1.213125</v>
+        <v>1.2037499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2519,7 +2523,9 @@
       <c r="C4" s="27">
         <v>93</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="30">
+        <v>43</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2527,7 +2533,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>1.4076562500000001</v>
+        <v>1.3684375</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2540,7 +2546,9 @@
       <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2548,7 +2556,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
+        <v>0.40000000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2561,7 +2569,9 @@
       <c r="C6" s="27">
         <v>86.5</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2569,7 +2579,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>1.3565624999999999</v>
+        <v>0.90437499999999993</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2582,7 +2592,9 @@
       <c r="C7" s="27">
         <v>18</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="30">
+        <v>23</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2590,7 +2602,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>0.71625000000000005</v>
+        <v>0.70750000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2603,7 +2615,9 @@
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2624,7 +2638,9 @@
       <c r="C9" s="27">
         <v>50</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="30">
+        <v>5.5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2632,7 +2648,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>0.9140625</v>
+        <v>0.66437500000000005</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2645,7 +2661,9 @@
       <c r="C10" s="27">
         <v>99</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="30">
+        <v>46</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2653,7 +2671,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>1.3940625</v>
+        <v>1.389375</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2666,7 +2684,9 @@
       <c r="C11" s="27">
         <v>18.5</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="30">
+        <v>5.5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2674,7 +2694,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0.34500000000000003</v>
+        <v>0.28500000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2687,7 +2707,9 @@
       <c r="C12" s="27">
         <v>90</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="30">
+        <v>35.5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2695,7 +2717,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.3968750000000001</v>
+        <v>1.2862499999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2708,7 +2730,9 @@
       <c r="C13" s="27">
         <v>81</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="30">
+        <v>21.5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2716,7 +2740,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>1.3059375</v>
+        <v>1.0856250000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,7 +2753,9 @@
       <c r="C14" s="27">
         <v>27</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="30">
+        <v>8</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2737,7 +2763,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0.56812499999999999</v>
+        <v>0.45875000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,7 +2776,9 @@
       <c r="C15" s="27">
         <v>49</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="30">
+        <v>7</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2758,7 +2786,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0.7471875</v>
+        <v>0.56812499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2771,7 +2799,9 @@
       <c r="C16" s="27">
         <v>89</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="30">
+        <v>26</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2779,7 +2809,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>1.40578125</v>
+        <v>1.1971875000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2792,7 +2822,9 @@
       <c r="C17" s="27">
         <v>25</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="30">
+        <v>6</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2800,7 +2832,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0.49687499999999996</v>
+        <v>0.39125000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,7 +2845,9 @@
       <c r="C18" s="27">
         <v>9</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="30">
+        <v>5</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2821,7 +2855,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0.25031249999999999</v>
+        <v>0.21687500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2834,7 +2868,9 @@
       <c r="C19" s="27">
         <v>50</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="30">
+        <v>15</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2842,7 +2878,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>0.96796874999999993</v>
+        <v>0.79531249999999998</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2855,7 +2891,9 @@
       <c r="C20" s="27">
         <v>75.5</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="30">
+        <v>21</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2863,7 +2901,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>1.1873437499999999</v>
+        <v>1.0015624999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,7 +2914,9 @@
       <c r="C21" s="27">
         <v>78.5</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="30">
+        <v>18.5</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2884,7 +2924,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>1.3106249999999999</v>
+        <v>1.0587500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,7 +2937,9 @@
       <c r="C22" s="27">
         <v>91</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="30">
+        <v>38</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2905,7 +2947,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>1.38796875</v>
+        <v>1.3053124999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2918,7 +2960,9 @@
       <c r="C23" s="27">
         <v>78</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="30">
+        <v>33</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2926,7 +2970,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>1.100625</v>
+        <v>1.06375</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2939,7 +2983,9 @@
       <c r="C24" s="27">
         <v>57</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2947,7 +2993,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>1.0931250000000001</v>
+        <v>0.72875000000000012</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2960,7 +3006,9 @@
       <c r="C25" s="27">
         <v>0</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="30">
+        <v>0</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2968,7 +3016,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0.18281249999999999</v>
+        <v>0.121875</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,7 +3029,9 @@
       <c r="C26" s="27">
         <v>31</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="30">
+        <v>7</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2989,7 +3039,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0.54187499999999988</v>
+        <v>0.43124999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3002,7 +3052,9 @@
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="30">
+        <v>25.5</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3010,7 +3062,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0.47109375000000003</v>
+        <v>0.56906250000000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3023,7 +3075,9 @@
       <c r="C28" s="27">
         <v>0</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="30">
+        <v>0</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3031,7 +3085,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>8.4375000000000006E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3044,7 +3098,9 @@
       <c r="C29" s="27">
         <v>0</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="30">
+        <v>33</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3052,7 +3108,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3065,7 +3121,9 @@
       <c r="C30" s="27">
         <v>94</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="30">
+        <v>47</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3073,7 +3131,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>1.4550000000000001</v>
+        <v>1.4400000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3086,7 +3144,9 @@
       <c r="C31" s="27">
         <v>53</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="30">
+        <v>11.5</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3094,7 +3154,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>0.93890625000000005</v>
+        <v>0.74093749999999992</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3107,7 +3167,9 @@
       <c r="C32" s="27">
         <v>74</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="30">
+        <v>0</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3115,7 +3177,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>1.1784375</v>
+        <v>0.78562500000000002</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3128,7 +3190,9 @@
       <c r="C33" s="27">
         <v>0</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3149,7 +3213,9 @@
       <c r="C34" s="27">
         <v>32.5</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="30">
+        <v>13</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3157,7 +3223,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0.61874999999999991</v>
+        <v>0.54249999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3170,7 +3236,9 @@
       <c r="C35" s="27">
         <v>13</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="30">
+        <v>11</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3178,7 +3246,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0.35062500000000002</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3191,7 +3259,9 @@
       <c r="C36" s="27">
         <v>0</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="30">
+        <v>0</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3212,7 +3282,9 @@
       <c r="C37" s="27">
         <v>0</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="30">
+        <v>0</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3233,7 +3305,9 @@
       <c r="C38" s="27">
         <v>0</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="30">
+        <v>4</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3241,7 +3315,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0.12187500000000001</v>
+        <v>0.12125000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3254,7 +3328,9 @@
       <c r="C39" s="27">
         <v>84</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="30">
+        <v>24</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3262,7 +3338,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>1.2675000000000001</v>
+        <v>1.085</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3275,7 +3351,9 @@
       <c r="C40" s="27">
         <v>8</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="30">
+        <v>0</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3283,7 +3361,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0.27562500000000001</v>
+        <v>0.18375</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3296,7 +3374,9 @@
       <c r="C41" s="27">
         <v>93.5</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="30">
+        <v>39</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3304,7 +3384,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>1.35984375</v>
+        <v>1.2965625000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,7 +3397,9 @@
       <c r="C42" s="27">
         <v>34</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="30">
+        <v>0</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3325,7 +3407,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0.53625000000000012</v>
+        <v>0.3575000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,7 +3420,9 @@
       <c r="C43" s="27">
         <v>87</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="30">
+        <v>26</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3346,7 +3430,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>1.3462499999999999</v>
+        <v>1.1575</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3359,7 +3443,9 @@
       <c r="C44" s="27">
         <v>52</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="30">
+        <v>11</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3367,7 +3453,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>0.94312499999999999</v>
+        <v>0.73875000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,7 +3466,9 @@
       <c r="C45" s="27">
         <v>0</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="30">
+        <v>0</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3401,7 +3489,9 @@
       <c r="C46" s="27">
         <v>85</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="30">
+        <v>0</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3409,7 +3499,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>1.30078125</v>
+        <v>0.8671875</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3422,7 +3512,9 @@
       <c r="C47" s="27">
         <v>21</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="30">
+        <v>17.5</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3430,7 +3522,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>0.77859374999999997</v>
+        <v>0.69406249999999992</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3443,7 +3535,9 @@
       <c r="C48" s="27">
         <v>0</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="30">
+        <v>0</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3451,7 +3545,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>0.64218749999999991</v>
+        <v>0.42812499999999992</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3501,9 +3595,9 @@
         <f t="shared" ref="C51:J51" si="1">AVERAGE(C$2:C$48)</f>
         <v>42.819148936170215</v>
       </c>
-      <c r="D51" s="13" t="e">
+      <c r="D51" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>14.308510638297872</v>
       </c>
       <c r="E51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -3527,7 +3621,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.75658244680851072</v>
+        <v>0.64747340425531918</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,9 +3636,9 @@
         <f t="shared" ref="C52:J52" si="2">STDEV(C$2:C$48)</f>
         <v>36.976553313040391</v>
       </c>
-      <c r="D52" s="13" t="e">
+      <c r="D52" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>14.947572578664724</v>
       </c>
       <c r="E52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -3568,7 +3662,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.51239824991673022</v>
+        <v>0.44968783910626398</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3583,9 +3677,9 @@
         <f t="shared" ref="C53:J53" si="3">MEDIAN(C$2:C$48)</f>
         <v>34</v>
       </c>
-      <c r="D53" s="13" t="e">
+      <c r="D53" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>8</v>
       </c>
       <c r="E53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -3609,7 +3703,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0.7471875</v>
+        <v>0.66437500000000005</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3626,7 +3720,7 @@
       </c>
       <c r="D54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="16">
         <f t="shared" si="4"/>
@@ -4252,7 +4346,7 @@
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
@@ -4264,7 +4358,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.3166666666666667</v>
+        <v>1.3766666666666665</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4285,7 +4379,7 @@
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
-        <v>1.213125</v>
+        <v>1.2037499999999999</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -4297,7 +4391,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1797916666666666</v>
+        <v>4.1704166666666662</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4318,7 +4412,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>1.4076562500000001</v>
+        <v>1.3684375</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -4330,7 +4424,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.3626562499999997</v>
+        <v>4.3234374999999998</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4351,7 +4445,7 @@
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
-        <v>0.60000000000000009</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -4363,7 +4457,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.64000000000000012</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4384,7 +4478,7 @@
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
-        <v>1.3565624999999999</v>
+        <v>0.90437499999999993</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -4396,11 +4490,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>4.0415625000000004</v>
+        <v>3.589375</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -4417,7 +4511,7 @@
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
-        <v>0.71625000000000005</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -4429,11 +4523,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.2579166666666666</v>
+        <v>2.2491666666666665</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -4483,7 +4577,7 @@
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
-        <v>0.9140625</v>
+        <v>0.66437500000000005</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -4495,7 +4589,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.7373958333333333</v>
+        <v>2.4877083333333334</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4516,7 +4610,7 @@
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
-        <v>1.3940625</v>
+        <v>1.389375</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -4528,7 +4622,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.8423958333333332</v>
+        <v>3.8377083333333331</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4549,7 +4643,7 @@
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
-        <v>0.34500000000000003</v>
+        <v>0.28500000000000003</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -4561,7 +4655,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.4383333333333335</v>
+        <v>2.3783333333333334</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -4582,7 +4676,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.3968750000000001</v>
+        <v>1.2862499999999999</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -4594,11 +4688,11 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.753541666666667</v>
+        <v>3.6429166666666664</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
@@ -4615,7 +4709,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>1.3059375</v>
+        <v>1.0856250000000001</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -4627,11 +4721,11 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.7542708333333334</v>
+        <v>3.5339583333333335</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="2"/>
@@ -4648,7 +4742,7 @@
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
-        <v>0.56812499999999999</v>
+        <v>0.45875000000000005</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -4660,7 +4754,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.3714583333333334</v>
+        <v>2.2620833333333334</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -4681,7 +4775,7 @@
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
-        <v>0.7471875</v>
+        <v>0.56812499999999999</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -4693,11 +4787,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.3205208333333331</v>
+        <v>3.1414583333333335</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="2"/>
@@ -4714,7 +4808,7 @@
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
-        <v>1.40578125</v>
+        <v>1.1971875000000001</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -4726,11 +4820,11 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.3491145833333329</v>
+        <v>3.1405208333333334</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="2"/>
@@ -4747,7 +4841,7 @@
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
-        <v>0.49687499999999996</v>
+        <v>0.39125000000000004</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -4759,7 +4853,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.1952083333333334</v>
+        <v>2.0895833333333336</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -4780,7 +4874,7 @@
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
-        <v>0.25031249999999999</v>
+        <v>0.21687500000000001</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -4792,7 +4886,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.4619791666666666</v>
+        <v>1.4285416666666666</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -4813,7 +4907,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>0.96796874999999993</v>
+        <v>0.79531249999999998</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -4825,11 +4919,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2.8613020833333334</v>
+        <v>2.6886458333333332</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -4846,7 +4940,7 @@
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
-        <v>1.1873437499999999</v>
+        <v>1.0015624999999999</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -4858,11 +4952,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.9156770833333336</v>
+        <v>3.7298958333333334</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="2"/>
@@ -4879,7 +4973,7 @@
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
-        <v>1.3106249999999999</v>
+        <v>1.0587500000000001</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -4891,7 +4985,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.6572916666666666</v>
+        <v>3.4054166666666665</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -4912,7 +5006,7 @@
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
-        <v>1.38796875</v>
+        <v>1.3053124999999999</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -4924,7 +5018,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.4746354166666666</v>
+        <v>4.3919791666666663</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -4945,7 +5039,7 @@
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
-        <v>1.100625</v>
+        <v>1.06375</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -4957,11 +5051,11 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.7806249999999997</v>
+        <v>2.7437500000000004</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" si="2"/>
@@ -4978,7 +5072,7 @@
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
-        <v>1.0931250000000001</v>
+        <v>0.72875000000000012</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -4990,7 +5084,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.7481249999999999</v>
+        <v>3.38375</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5011,7 +5105,7 @@
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
-        <v>0.18281249999999999</v>
+        <v>0.121875</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -5023,7 +5117,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>1.8661458333333334</v>
+        <v>1.8052083333333333</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5044,7 +5138,7 @@
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
-        <v>0.54187499999999988</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -5056,7 +5150,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.0768749999999998</v>
+        <v>1.9662499999999998</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -5077,7 +5171,7 @@
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
-        <v>0.47109375000000003</v>
+        <v>0.56906250000000003</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -5089,7 +5183,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.1244270833333334</v>
+        <v>2.2223958333333336</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5110,7 +5204,7 @@
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
-        <v>8.4375000000000006E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -5122,7 +5216,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.4777083333333336</v>
+        <v>1.4495833333333334</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5143,7 +5237,7 @@
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5155,11 +5249,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.1766666666666667</v>
+        <v>1.5066666666666668</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -5176,7 +5270,7 @@
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
-        <v>1.4550000000000001</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -5188,7 +5282,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.1150000000000002</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5209,7 +5303,7 @@
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
-        <v>0.93890625000000005</v>
+        <v>0.74093749999999992</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -5221,7 +5315,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.12890625</v>
+        <v>2.9309374999999998</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5242,7 +5336,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>1.1784375</v>
+        <v>0.78562500000000002</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -5254,11 +5348,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.9834375</v>
+        <v>3.5906250000000002</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -5308,7 +5402,7 @@
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
-        <v>0.61874999999999991</v>
+        <v>0.54249999999999998</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -5320,7 +5414,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.0820833333333333</v>
+        <v>3.0058333333333334</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5341,7 +5435,7 @@
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
-        <v>0.35062500000000002</v>
+        <v>0.34375</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -5353,7 +5447,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.275625</v>
+        <v>1.26875</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -5440,7 +5534,7 @@
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
-        <v>0.12187500000000001</v>
+        <v>0.12125000000000001</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -5452,7 +5546,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>1.6952083333333334</v>
+        <v>1.6945833333333336</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
@@ -5473,7 +5567,7 @@
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
-        <v>1.2675000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -5485,7 +5579,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.6758333333333333</v>
+        <v>3.4933333333333332</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5506,7 +5600,7 @@
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
-        <v>0.27562500000000001</v>
+        <v>0.18375</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -5518,7 +5612,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.850625</v>
+        <v>1.75875</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -5539,7 +5633,7 @@
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
-        <v>1.35984375</v>
+        <v>1.2965625000000001</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -5551,7 +5645,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.3165104166666666</v>
+        <v>4.2532291666666673</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5572,7 +5666,7 @@
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
-        <v>0.53625000000000012</v>
+        <v>0.3575000000000001</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -5584,7 +5678,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.6212500000000003</v>
+        <v>1.4425000000000003</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5605,7 +5699,7 @@
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
-        <v>1.3462499999999999</v>
+        <v>1.1575</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -5617,7 +5711,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.4962499999999999</v>
+        <v>4.3075000000000001</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -5638,7 +5732,7 @@
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
-        <v>0.94312499999999999</v>
+        <v>0.73875000000000002</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -5650,11 +5744,11 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.8231250000000001</v>
+        <v>2.6187499999999999</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H44" s="26">
         <f t="shared" si="2"/>
@@ -5704,7 +5798,7 @@
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
-        <v>1.30078125</v>
+        <v>0.8671875</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -5716,11 +5810,11 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>3.0024479166666667</v>
+        <v>2.5688541666666667</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H46" s="26">
         <f t="shared" si="2"/>
@@ -5737,7 +5831,7 @@
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
-        <v>0.77859374999999997</v>
+        <v>0.69406249999999992</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -5749,7 +5843,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.6119270833333332</v>
+        <v>2.5273958333333333</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -5770,7 +5864,7 @@
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
-        <v>0.64218749999999991</v>
+        <v>0.42812499999999992</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -5782,7 +5876,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>1.0138541666666665</v>
+        <v>0.79979166666666657</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -5835,7 +5929,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.75658244680851072</v>
+        <v>0.64747340425531918</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -5847,11 +5941,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.579242021276595</v>
+        <v>2.4701329787234045</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5957446808510638</v>
+        <v>2.478723404255319</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5868,7 +5962,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.51239824991673022</v>
+        <v>0.44968783910626398</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -5880,11 +5974,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3457031564666357</v>
+        <v>1.2931539767007045</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3579007850688714</v>
+        <v>1.280953478131031</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5901,7 +5995,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0.7471875</v>
+        <v>0.66437500000000005</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -5913,7 +6007,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.7373958333333333</v>
+        <v>2.5273958333333333</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4090CB8-3032-6F47-926D-18C7C64CA5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4E21E-71FD-C14B-8A18-5F869EBC8F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2869,7 +2869,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="30">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2878,7 +2878,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>0.79531249999999998</v>
+        <v>0.97531249999999992</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="30">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3108,7 +3108,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3168,7 +3168,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3177,7 +3177,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>0.78562500000000002</v>
+        <v>0.93562500000000004</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.64747340425531918</v>
+        <v>0.6474734042553193</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.44968783910626398</v>
+        <v>0.46086122171814303</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>0.79531249999999998</v>
+        <v>0.97531249999999992</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -4919,11 +4919,11 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2.6886458333333332</v>
+        <v>2.8686458333333333</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5249,11 +5249,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.5066666666666668</v>
+        <v>1.1766666666666667</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>0.78562500000000002</v>
+        <v>0.93562500000000004</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.5906250000000002</v>
+        <v>3.7406250000000001</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.64747340425531918</v>
+        <v>0.6474734042553193</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4701329787234045</v>
+        <v>2.4701329787234041</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.44968783910626398</v>
+        <v>0.46086122171814303</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -5974,11 +5974,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.2931539767007045</v>
+        <v>1.3033224395251901</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.280953478131031</v>
+        <v>1.2936191513688098</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4E21E-71FD-C14B-8A18-5F869EBC8F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F19FD-01F6-6D41-87F1-E04B0B3FEA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,8 +1723,8 @@
         <v>14</v>
       </c>
       <c r="F32" s="30">
-        <f>0+0</f>
-        <v>0</v>
+        <f>0+2</f>
+        <v>2</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1733,7 +1733,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.54</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="0"/>
-        <v>4.6590909090909092</v>
+        <v>4.7045454545454541</v>
       </c>
       <c r="G51" s="13" t="e">
         <f t="shared" si="0"/>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>0.40595744680851081</v>
+        <v>0.40652482269503565</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="1"/>
-        <v>3.9174219204945548</v>
+        <v>3.8734609574105052</v>
       </c>
       <c r="G52" s="13" t="e">
         <f t="shared" si="1"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>0.23434659513693917</v>
+        <v>0.23471017943794292</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2424,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="B32" s="28">
         <f>Quizzes!L32</f>
-        <v>0.54</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
@@ -5348,11 +5348,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.7406250000000001</v>
+        <v>3.7672916666666669</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.40595744680851081</v>
+        <v>0.40652482269503565</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -5941,11 +5941,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4701329787234041</v>
+        <v>2.4707003546099293</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.478723404255319</v>
+        <v>2.4893617021276597</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.23434659513693917</v>
+        <v>0.23471017943794292</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -5974,11 +5974,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3033224395251901</v>
+        <v>1.3038932263115333</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.2936191513688098</v>
+        <v>1.3042129131584359</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F19FD-01F6-6D41-87F1-E04B0B3FEA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BB2E1-F18E-DB4A-BF88-7CC2E89337C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,14 +830,18 @@
       <c r="F2" s="30">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="30">
+        <v>5</v>
+      </c>
+      <c r="H2" s="30">
+        <v>9</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.20666666666666669</v>
+        <v>0.28095238095238095</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,14 +864,18 @@
         <f>4+2</f>
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="30">
+        <v>7</v>
+      </c>
+      <c r="H3" s="30">
+        <v>12</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.68666666666666665</v>
+        <v>0.67142857142857149</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -890,14 +898,18 @@
         <f>2+4</f>
         <v>6</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="30">
+        <v>10</v>
+      </c>
+      <c r="H4" s="30">
+        <v>15</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.65999999999999992</v>
+        <v>0.70952380952380956</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -919,14 +931,18 @@
       <c r="F5" s="30">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.04</v>
+        <v>2.8571428571428574E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -949,14 +965,18 @@
         <f>8+1</f>
         <v>9</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="30">
+        <v>2</v>
+      </c>
+      <c r="H6" s="30">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.78</v>
+        <v>0.60476190476190472</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -979,14 +999,18 @@
         <f>2+4</f>
         <v>6</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="30">
+        <v>7</v>
+      </c>
+      <c r="H7" s="30">
+        <v>3</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26666666666666672</v>
+        <v>0.28571428571428575</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1009,14 +1033,18 @@
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="30">
+        <v>2</v>
+      </c>
+      <c r="H8" s="30">
+        <v>4</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.16</v>
+        <v>0.17142857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1039,14 +1067,18 @@
         <f>2+4</f>
         <v>6</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="30">
+        <v>5</v>
+      </c>
+      <c r="H9" s="30">
+        <v>4</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.29333333333333333</v>
+        <v>0.29523809523809524</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1069,14 +1101,18 @@
         <f>6+4</f>
         <v>10</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="30">
+        <v>6</v>
+      </c>
+      <c r="H10" s="30">
+        <v>7.5</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.6333333333333333</v>
+        <v>0.58095238095238089</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1099,14 +1135,18 @@
         <f>4+3</f>
         <v>7</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="30">
+        <v>5</v>
+      </c>
+      <c r="H11" s="30">
+        <v>3</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.45714285714285718</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1129,14 +1169,18 @@
         <f>4+2</f>
         <v>6</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="30">
+        <v>11</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666662</v>
+        <v>0.43809523809523804</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1159,14 +1203,18 @@
         <f>2+3</f>
         <v>5</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="30">
+        <v>6</v>
+      </c>
+      <c r="H13" s="30">
+        <v>4</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.45333333333333331</v>
+        <v>0.419047619047619</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1189,14 +1237,18 @@
         <f>5+0</f>
         <v>5</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="30">
+        <v>5</v>
+      </c>
+      <c r="H14" s="30">
+        <v>4</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.45333333333333331</v>
+        <v>0.40952380952380951</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1219,14 +1271,18 @@
         <f>4+4</f>
         <v>8</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="30">
+        <v>12</v>
+      </c>
+      <c r="H15" s="30">
+        <v>7</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.59333333333333338</v>
+        <v>0.60476190476190472</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,14 +1305,18 @@
         <f>4+4</f>
         <v>8</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="30">
+        <v>3</v>
+      </c>
+      <c r="H16" s="30">
+        <v>3</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.47333333333333327</v>
+        <v>0.39523809523809522</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1279,14 +1339,18 @@
         <f>0+1</f>
         <v>1</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="30">
+        <v>5</v>
+      </c>
+      <c r="H17" s="30">
+        <v>6</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.39333333333333331</v>
+        <v>0.38571428571428568</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1308,14 +1372,18 @@
       <c r="F18" s="30">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="30">
+        <v>5</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.14666666666666667</v>
+        <v>0.15238095238095237</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1338,14 +1406,18 @@
         <f>5+2</f>
         <v>7</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="30">
+        <v>6</v>
+      </c>
+      <c r="H19" s="30">
+        <v>3</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.39333333333333337</v>
+        <v>0.3666666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,14 +1440,18 @@
         <f>0+4</f>
         <v>4</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="30">
+        <v>6</v>
+      </c>
+      <c r="H20" s="30">
+        <v>18</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.73333333333333339</v>
+        <v>0.75238095238095248</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,14 +1474,18 @@
         <f>0+4</f>
         <v>4</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="30">
+        <v>7</v>
+      </c>
+      <c r="H21" s="30">
+        <v>5</v>
+      </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.60666666666666669</v>
+        <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1428,14 +1508,18 @@
         <f>8+5</f>
         <v>13</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="30">
+        <v>12</v>
+      </c>
+      <c r="H22" s="30">
+        <v>17.5</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.86666666666666681</v>
+        <v>0.90000000000000013</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1457,14 +1541,18 @@
       <c r="F23" s="30">
         <v>0</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="30">
+        <v>2</v>
+      </c>
+      <c r="H23" s="30">
+        <v>4</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50+K23/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.36</v>
+        <v>0.31428571428571433</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1487,14 +1575,18 @@
         <f>4+2</f>
         <v>6</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="30">
+        <v>7</v>
+      </c>
+      <c r="H24" s="30">
+        <v>4</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.54</v>
+        <v>0.49047619047619051</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1517,14 +1609,18 @@
         <f>0+3</f>
         <v>3</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="30">
+        <v>6</v>
+      </c>
+      <c r="H25" s="30">
+        <v>9</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1547,14 +1643,18 @@
         <f>3+4</f>
         <v>7</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="30">
+        <v>14</v>
+      </c>
+      <c r="H26" s="30">
+        <v>7</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.5</v>
+        <v>0.55714285714285716</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1576,14 +1676,18 @@
       <c r="F27" s="30">
         <v>0</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="30">
+        <v>6</v>
+      </c>
+      <c r="H27" s="30">
+        <v>4</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.21333333333333332</v>
+        <v>0.24761904761904763</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1606,14 +1710,18 @@
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="30">
+        <v>6</v>
+      </c>
+      <c r="H28" s="30">
+        <v>3</v>
+      </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.19333333333333333</v>
+        <v>0.22380952380952382</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1636,14 +1744,18 @@
         <f>0+1</f>
         <v>1</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="H29" s="30">
+        <v>3</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.36666666666666664</v>
+        <v>0.34285714285714286</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1666,14 +1778,18 @@
         <f>10+5</f>
         <v>15</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="30">
+        <v>13</v>
+      </c>
+      <c r="H30" s="30">
+        <v>18</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.9</v>
+        <v>0.9380952380952382</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1696,14 +1812,18 @@
         <f>0+5</f>
         <v>5</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="30">
+        <v>10</v>
+      </c>
+      <c r="H31" s="30">
+        <v>3</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.36</v>
+        <v>0.38095238095238099</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1726,14 +1846,18 @@
         <f>0+2</f>
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="30">
+        <v>7</v>
+      </c>
+      <c r="H32" s="30">
+        <v>4</v>
+      </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.56666666666666665</v>
+        <v>0.5095238095238096</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1755,14 +1879,18 @@
       <c r="F33" s="30">
         <v>0</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30">
+        <v>0</v>
+      </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>7.9999999999999988E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1785,14 +1913,18 @@
         <f>4+4</f>
         <v>8</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="30">
+        <v>9</v>
+      </c>
+      <c r="H34" s="30">
+        <v>7</v>
+      </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.39333333333333337</v>
+        <v>0.4333333333333334</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,14 +1947,18 @@
         <f>0+1</f>
         <v>1</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="30">
+        <v>7</v>
+      </c>
+      <c r="H35" s="30">
+        <v>3</v>
+      </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.16</v>
+        <v>0.2095238095238095</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1834,8 +1970,8 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1853,8 +1989,8 @@
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1883,14 +2019,18 @@
         <f>2+0</f>
         <v>2</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="30">
+        <v>9</v>
+      </c>
+      <c r="H38" s="30">
+        <v>9</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.1933333333333333</v>
+        <v>0.30952380952380948</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,14 +2053,18 @@
         <f>4+4</f>
         <v>8</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="30">
+        <v>6</v>
+      </c>
+      <c r="H39" s="30">
+        <v>3</v>
+      </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50+K39/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1943,14 +2087,18 @@
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="30">
+        <v>1</v>
+      </c>
+      <c r="H40" s="30">
+        <v>3</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.36</v>
+        <v>0.29523809523809519</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1973,14 +2121,18 @@
         <f>3+5</f>
         <v>8</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="30">
+        <v>10</v>
+      </c>
+      <c r="H41" s="30">
+        <v>18</v>
+      </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.70666666666666667</v>
+        <v>0.77142857142857146</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2003,14 +2155,18 @@
         <f>4+1</f>
         <v>5</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="30">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30">
+        <v>0</v>
+      </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.26</v>
+        <v>0.18571428571428572</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,14 +2189,18 @@
         <f>8+5</f>
         <v>13</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="G43" s="30">
+        <v>15</v>
+      </c>
+      <c r="H43" s="30">
+        <v>13</v>
+      </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.78</v>
+        <v>0.82380952380952388</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,14 +2223,18 @@
         <f>0+2</f>
         <v>2</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="30">
+        <v>5</v>
+      </c>
+      <c r="H44" s="30">
+        <v>5</v>
+      </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.43999999999999995</v>
+        <v>0.40952380952380951</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2082,8 +2246,8 @@
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2111,14 +2275,18 @@
       <c r="F46" s="30">
         <v>4</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="30">
+        <v>1</v>
+      </c>
+      <c r="H46" s="30">
+        <v>16</v>
+      </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.48666666666666664</v>
+        <v>0.50952380952380949</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,14 +2309,18 @@
         <f>4+0</f>
         <v>4</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="30">
+        <v>5.5</v>
+      </c>
+      <c r="H47" s="30">
+        <v>4</v>
+      </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.39333333333333337</v>
+        <v>0.37142857142857144</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2170,14 +2342,18 @@
       <c r="F48" s="30">
         <v>0</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="30">
+        <v>2</v>
+      </c>
+      <c r="H48" s="30">
+        <v>3</v>
+      </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="27">
         <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.14666666666666667</v>
+        <v>0.15238095238095237</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2243,29 +2419,29 @@
         <f t="shared" si="0"/>
         <v>4.7045454545454541</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="G51" s="13">
+        <f t="shared" si="0"/>
+        <v>6.2272727272727275</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" si="0"/>
+        <v>6.1590909090909092</v>
+      </c>
+      <c r="I51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="13" t="e">
+      <c r="J51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I51" s="13" t="e">
+      <c r="K51" s="13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="L51" s="13">
         <f t="shared" si="0"/>
-        <v>0.40652482269503565</v>
+        <v>0.40081053698074975</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2292,13 +2468,13 @@
         <f t="shared" si="1"/>
         <v>3.8734609574105052</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="G52" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="13" t="e">
+        <v>3.7330306682910726</v>
+      </c>
+      <c r="H52" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.25486787309028</v>
       </c>
       <c r="I52" s="13" t="e">
         <f t="shared" si="1"/>
@@ -2314,7 +2490,7 @@
       </c>
       <c r="L52" s="13">
         <f t="shared" si="1"/>
-        <v>0.23471017943794292</v>
+        <v>0.23193547385697735</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,13 +2517,13 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G53" s="13" t="e">
+      <c r="G53" s="13">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H53" s="13" t="e">
+        <v>6</v>
+      </c>
+      <c r="H53" s="13">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>4</v>
       </c>
       <c r="I53" s="13" t="e">
         <f t="shared" si="2"/>
@@ -2363,7 +2539,7 @@
       </c>
       <c r="L53" s="13">
         <f t="shared" si="2"/>
-        <v>0.39333333333333337</v>
+        <v>0.38571428571428568</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,11 +2568,11 @@
       </c>
       <c r="G54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="3"/>
@@ -4342,7 +4518,7 @@
       </c>
       <c r="B2" s="28">
         <f>Quizzes!L2</f>
-        <v>0.20666666666666669</v>
+        <v>0.28095238095238095</v>
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
@@ -4358,7 +4534,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.3766666666666665</v>
+        <v>1.4509523809523808</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4375,7 +4551,7 @@
       </c>
       <c r="B3" s="28">
         <f>Quizzes!L3</f>
-        <v>0.68666666666666665</v>
+        <v>0.67142857142857149</v>
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
@@ -4391,7 +4567,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1704166666666662</v>
+        <v>4.1551785714285714</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4408,7 +4584,7 @@
       </c>
       <c r="B4" s="28">
         <f>Quizzes!L4</f>
-        <v>0.65999999999999992</v>
+        <v>0.70952380952380956</v>
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
@@ -4424,7 +4600,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.3234374999999998</v>
+        <v>4.3729613095238093</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4441,7 +4617,7 @@
       </c>
       <c r="B5" s="28">
         <f>Quizzes!L5</f>
-        <v>0.04</v>
+        <v>2.8571428571428574E-2</v>
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
@@ -4457,7 +4633,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.44000000000000006</v>
+        <v>0.42857142857142866</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4474,7 +4650,7 @@
       </c>
       <c r="B6" s="28">
         <f>Quizzes!L6</f>
-        <v>0.78</v>
+        <v>0.60476190476190472</v>
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
@@ -4490,7 +4666,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.589375</v>
+        <v>3.4141369047619046</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -4507,7 +4683,7 @@
       </c>
       <c r="B7" s="28">
         <f>Quizzes!L7</f>
-        <v>0.26666666666666672</v>
+        <v>0.28571428571428575</v>
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
@@ -4523,11 +4699,11 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.2491666666666665</v>
+        <v>2.2682142857142855</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -4540,7 +4716,7 @@
       </c>
       <c r="B8" s="28">
         <f>Quizzes!L8</f>
-        <v>0.16</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
@@ -4556,7 +4732,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>0.92500000000000004</v>
+        <v>0.93642857142857139</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -4573,7 +4749,7 @@
       </c>
       <c r="B9" s="28">
         <f>Quizzes!L9</f>
-        <v>0.29333333333333333</v>
+        <v>0.29523809523809524</v>
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
@@ -4589,7 +4765,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.4877083333333334</v>
+        <v>2.489613095238095</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4606,7 +4782,7 @@
       </c>
       <c r="B10" s="28">
         <f>Quizzes!L10</f>
-        <v>0.6333333333333333</v>
+        <v>0.58095238095238089</v>
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
@@ -4622,7 +4798,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.8377083333333331</v>
+        <v>3.7853273809523809</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4639,7 +4815,7 @@
       </c>
       <c r="B11" s="28">
         <f>Quizzes!L11</f>
-        <v>0.53333333333333333</v>
+        <v>0.45714285714285718</v>
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
@@ -4655,7 +4831,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.3783333333333334</v>
+        <v>2.302142857142857</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -4672,7 +4848,7 @@
       </c>
       <c r="B12" s="28">
         <f>Quizzes!L12</f>
-        <v>0.46666666666666662</v>
+        <v>0.43809523809523804</v>
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
@@ -4688,7 +4864,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.6429166666666664</v>
+        <v>3.6143452380952379</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -4705,7 +4881,7 @@
       </c>
       <c r="B13" s="28">
         <f>Quizzes!L13</f>
-        <v>0.45333333333333331</v>
+        <v>0.419047619047619</v>
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
@@ -4721,7 +4897,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.5339583333333335</v>
+        <v>3.4996726190476193</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -4738,7 +4914,7 @@
       </c>
       <c r="B14" s="28">
         <f>Quizzes!L14</f>
-        <v>0.45333333333333331</v>
+        <v>0.40952380952380951</v>
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
@@ -4754,11 +4930,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.2620833333333334</v>
+        <v>2.2182738095238097</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="2"/>
@@ -4771,7 +4947,7 @@
       </c>
       <c r="B15" s="28">
         <f>Quizzes!L15</f>
-        <v>0.59333333333333338</v>
+        <v>0.60476190476190472</v>
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
@@ -4787,7 +4963,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.1414583333333335</v>
+        <v>3.1528869047619046</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -4804,7 +4980,7 @@
       </c>
       <c r="B16" s="28">
         <f>Quizzes!L16</f>
-        <v>0.47333333333333327</v>
+        <v>0.39523809523809522</v>
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
@@ -4820,7 +4996,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.1405208333333334</v>
+        <v>3.0624255952380954</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -4837,7 +5013,7 @@
       </c>
       <c r="B17" s="28">
         <f>Quizzes!L17</f>
-        <v>0.39333333333333331</v>
+        <v>0.38571428571428568</v>
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
@@ -4853,7 +5029,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.0895833333333336</v>
+        <v>2.0819642857142857</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -4870,7 +5046,7 @@
       </c>
       <c r="B18" s="28">
         <f>Quizzes!L18</f>
-        <v>0.14666666666666667</v>
+        <v>0.15238095238095237</v>
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
@@ -4886,7 +5062,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.4285416666666666</v>
+        <v>1.4342559523809524</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -4903,7 +5079,7 @@
       </c>
       <c r="B19" s="28">
         <f>Quizzes!L19</f>
-        <v>0.39333333333333337</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
@@ -4919,7 +5095,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2.8686458333333333</v>
+        <v>2.8419791666666665</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -4936,7 +5112,7 @@
       </c>
       <c r="B20" s="28">
         <f>Quizzes!L20</f>
-        <v>0.73333333333333339</v>
+        <v>0.75238095238095248</v>
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
@@ -4952,7 +5128,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.7298958333333334</v>
+        <v>3.7489434523809524</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -4969,7 +5145,7 @@
       </c>
       <c r="B21" s="28">
         <f>Quizzes!L21</f>
-        <v>0.60666666666666669</v>
+        <v>0.54761904761904767</v>
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
@@ -4985,7 +5161,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.4054166666666665</v>
+        <v>3.3463690476190475</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -5002,7 +5178,7 @@
       </c>
       <c r="B22" s="28">
         <f>Quizzes!L22</f>
-        <v>0.86666666666666681</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
@@ -5018,7 +5194,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.3919791666666663</v>
+        <v>4.4253124999999995</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5035,7 +5211,7 @@
       </c>
       <c r="B23" s="28">
         <f>Quizzes!L23</f>
-        <v>0.36</v>
+        <v>0.31428571428571433</v>
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
@@ -5051,7 +5227,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.7437500000000004</v>
+        <v>2.6980357142857141</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5068,7 +5244,7 @@
       </c>
       <c r="B24" s="28">
         <f>Quizzes!L24</f>
-        <v>0.54</v>
+        <v>0.49047619047619051</v>
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
@@ -5084,7 +5260,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.38375</v>
+        <v>3.3342261904761905</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5101,7 +5277,7 @@
       </c>
       <c r="B25" s="28">
         <f>Quizzes!L25</f>
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
@@ -5117,7 +5293,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>1.8052083333333333</v>
+        <v>1.852827380952381</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5134,7 +5310,7 @@
       </c>
       <c r="B26" s="28">
         <f>Quizzes!L26</f>
-        <v>0.5</v>
+        <v>0.55714285714285716</v>
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
@@ -5150,7 +5326,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>1.9662499999999998</v>
+        <v>2.023392857142857</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -5167,7 +5343,7 @@
       </c>
       <c r="B27" s="28">
         <f>Quizzes!L27</f>
-        <v>0.21333333333333332</v>
+        <v>0.24761904761904763</v>
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
@@ -5183,11 +5359,11 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.2223958333333336</v>
+        <v>2.2566815476190474</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="2"/>
@@ -5200,7 +5376,7 @@
       </c>
       <c r="B28" s="28">
         <f>Quizzes!L28</f>
-        <v>0.19333333333333333</v>
+        <v>0.22380952380952382</v>
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
@@ -5216,7 +5392,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.4495833333333334</v>
+        <v>1.480059523809524</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5233,7 +5409,7 @@
       </c>
       <c r="B29" s="28">
         <f>Quizzes!L29</f>
-        <v>0.36666666666666664</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
@@ -5249,7 +5425,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.1766666666666667</v>
+        <v>1.152857142857143</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -5266,7 +5442,7 @@
       </c>
       <c r="B30" s="28">
         <f>Quizzes!L30</f>
-        <v>0.9</v>
+        <v>0.9380952380952382</v>
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
@@ -5282,7 +5458,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.1000000000000005</v>
+        <v>5.1380952380952385</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5299,7 +5475,7 @@
       </c>
       <c r="B31" s="28">
         <f>Quizzes!L31</f>
-        <v>0.36</v>
+        <v>0.38095238095238099</v>
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
@@ -5315,7 +5491,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>2.9309374999999998</v>
+        <v>2.9518898809523808</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5332,7 +5508,7 @@
       </c>
       <c r="B32" s="28">
         <f>Quizzes!L32</f>
-        <v>0.56666666666666665</v>
+        <v>0.5095238095238096</v>
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
@@ -5348,11 +5524,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.7672916666666669</v>
+        <v>3.71014880952381</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -5365,7 +5541,7 @@
       </c>
       <c r="B33" s="28">
         <f>Quizzes!L33</f>
-        <v>7.9999999999999988E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="C33" s="28">
         <f>Homeworks!J33</f>
@@ -5381,7 +5557,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>0.42500000000000004</v>
+        <v>0.40214285714285719</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
@@ -5398,7 +5574,7 @@
       </c>
       <c r="B34" s="28">
         <f>Quizzes!L34</f>
-        <v>0.39333333333333337</v>
+        <v>0.4333333333333334</v>
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
@@ -5414,7 +5590,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.0058333333333334</v>
+        <v>3.0458333333333334</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5431,7 +5607,7 @@
       </c>
       <c r="B35" s="28">
         <f>Quizzes!L35</f>
-        <v>0.16</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
@@ -5447,7 +5623,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.26875</v>
+        <v>1.3182738095238093</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -5530,7 +5706,7 @@
       </c>
       <c r="B38" s="28">
         <f>Quizzes!L38</f>
-        <v>0.1933333333333333</v>
+        <v>0.30952380952380948</v>
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
@@ -5546,11 +5722,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>1.6945833333333336</v>
+        <v>1.8107738095238095</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -5563,7 +5739,7 @@
       </c>
       <c r="B39" s="28">
         <f>Quizzes!L39</f>
-        <v>0.53333333333333333</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
@@ -5579,7 +5755,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.4933333333333332</v>
+        <v>3.4266666666666667</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5596,7 +5772,7 @@
       </c>
       <c r="B40" s="28">
         <f>Quizzes!L40</f>
-        <v>0.36</v>
+        <v>0.29523809523809519</v>
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
@@ -5612,11 +5788,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.75875</v>
+        <v>1.6939880952380952</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -5629,7 +5805,7 @@
       </c>
       <c r="B41" s="28">
         <f>Quizzes!L41</f>
-        <v>0.70666666666666667</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
@@ -5645,7 +5821,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.2532291666666673</v>
+        <v>4.3179910714285716</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5662,7 +5838,7 @@
       </c>
       <c r="B42" s="28">
         <f>Quizzes!L42</f>
-        <v>0.26</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
@@ -5678,7 +5854,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.4425000000000003</v>
+        <v>1.368214285714286</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5695,7 +5871,7 @@
       </c>
       <c r="B43" s="28">
         <f>Quizzes!L43</f>
-        <v>0.78</v>
+        <v>0.82380952380952388</v>
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
@@ -5711,7 +5887,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.3075000000000001</v>
+        <v>4.3513095238095243</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -5728,7 +5904,7 @@
       </c>
       <c r="B44" s="28">
         <f>Quizzes!L44</f>
-        <v>0.43999999999999995</v>
+        <v>0.40952380952380951</v>
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
@@ -5744,7 +5920,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.6187499999999999</v>
+        <v>2.5882738095238094</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -5794,7 +5970,7 @@
       </c>
       <c r="B46" s="28">
         <f>Quizzes!L46</f>
-        <v>0.48666666666666664</v>
+        <v>0.50952380952380949</v>
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
@@ -5810,7 +5986,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.5688541666666667</v>
+        <v>2.5917113095238093</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -5827,7 +6003,7 @@
       </c>
       <c r="B47" s="28">
         <f>Quizzes!L47</f>
-        <v>0.39333333333333337</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
@@ -5843,7 +6019,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.5273958333333333</v>
+        <v>2.5054910714285712</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -5860,7 +6036,7 @@
       </c>
       <c r="B48" s="28">
         <f>Quizzes!L48</f>
-        <v>0.14666666666666667</v>
+        <v>0.15238095238095237</v>
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
@@ -5876,7 +6052,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.79979166666666657</v>
+        <v>0.80550595238095224</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -5925,7 +6101,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.40652482269503565</v>
+        <v>0.40081053698074975</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -5941,7 +6117,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4707003546099293</v>
+        <v>2.4649860688956431</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -5958,7 +6134,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.23471017943794292</v>
+        <v>0.23193547385697735</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -5974,11 +6150,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3038932263115333</v>
+        <v>1.2999474281126644</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3042129131584359</v>
+        <v>1.2916511244128732</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -5991,7 +6167,7 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.39333333333333337</v>
+        <v>0.38571428571428568</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
@@ -6007,7 +6183,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.5273958333333333</v>
+        <v>2.5054910714285712</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BB2E1-F18E-DB4A-BF88-7CC2E89337C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104638C4-7D15-384C-821A-B7BE976F4963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -2600,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2653,17 +2653,19 @@
       <c r="C2" s="27">
         <v>0</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="27">
         <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2676,17 +2678,19 @@
       <c r="C3" s="27">
         <v>85.5</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>39.5</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="27">
+        <v>43</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>1.2037499999999999</v>
+        <v>1.2253124999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2699,17 +2703,19 @@
       <c r="C4" s="27">
         <v>93</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>43</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="27">
+        <v>50</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>1.3684375</v>
+        <v>1.401328125</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2722,17 +2728,19 @@
       <c r="C5" s="27">
         <v>0</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>0.40000000000000008</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2745,17 +2753,19 @@
       <c r="C6" s="27">
         <v>86.5</v>
       </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>0.90437499999999993</v>
+        <v>0.67828124999999995</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2768,17 +2778,19 @@
       <c r="C7" s="27">
         <v>18</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>23</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="27">
+        <v>21.5</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>0.70750000000000002</v>
+        <v>0.69187500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2791,10 +2803,12 @@
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2814,17 +2828,19 @@
       <c r="C9" s="27">
         <v>50</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <v>5.5</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="27">
+        <v>10</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>0.66437500000000005</v>
+        <v>0.57328124999999996</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2837,17 +2853,19 @@
       <c r="C10" s="27">
         <v>99</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="27">
         <v>46</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="27">
+        <v>44</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>1.389375</v>
+        <v>1.37203125</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2860,17 +2878,19 @@
       <c r="C11" s="27">
         <v>18.5</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <v>5.5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0.28500000000000003</v>
+        <v>0.21375000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,17 +2903,19 @@
       <c r="C12" s="27">
         <v>90</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>35.5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="27">
+        <v>28.5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.2862499999999999</v>
+        <v>1.1784374999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2906,17 +2928,19 @@
       <c r="C13" s="27">
         <v>81</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>21.5</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="27">
+        <v>24</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>1.0856250000000001</v>
+        <v>0.99421875000000004</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2929,17 +2953,19 @@
       <c r="C14" s="27">
         <v>27</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>8</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="27">
+        <v>20.5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0.45875000000000005</v>
+        <v>0.49781250000000005</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2952,17 +2978,19 @@
       <c r="C15" s="27">
         <v>49</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <v>7</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="27">
+        <v>22.5</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0.56812499999999999</v>
+        <v>0.59484375</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2975,17 +3003,19 @@
       <c r="C16" s="27">
         <v>89</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>26</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="27">
+        <v>44.5</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>1.1971875000000001</v>
+        <v>1.231640625</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2998,17 +3028,19 @@
       <c r="C17" s="27">
         <v>25</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="27">
         <v>6</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="27">
+        <v>11</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0.39125000000000004</v>
+        <v>0.37593749999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,17 +3053,19 @@
       <c r="C18" s="27">
         <v>9</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="27">
         <v>5</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0.21687500000000001</v>
+        <v>0.16265625</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3044,17 +3078,19 @@
       <c r="C19" s="27">
         <v>50</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="27">
         <v>33</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="27">
+        <v>46</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>0.97531249999999992</v>
+        <v>1.0764843749999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3067,17 +3103,19 @@
       <c r="C20" s="27">
         <v>75.5</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="27">
         <v>21</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="27">
+        <v>41</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>1.0015624999999999</v>
+        <v>1.0586718749999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3090,17 +3128,19 @@
       <c r="C21" s="27">
         <v>78.5</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="27">
         <v>18.5</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="27">
+        <v>26.5</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>1.0587500000000001</v>
+        <v>0.99281249999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3113,17 +3153,19 @@
       <c r="C22" s="27">
         <v>91</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="27">
         <v>38</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="27">
+        <v>47.5</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>1.3053124999999999</v>
+        <v>1.335234375</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3136,17 +3178,19 @@
       <c r="C23" s="27">
         <v>78</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="27">
         <v>33</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="27">
+        <v>40.5</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>1.06375</v>
+        <v>1.1015625</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3159,17 +3203,19 @@
       <c r="C24" s="27">
         <v>57</v>
       </c>
-      <c r="D24" s="30">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>0.72875000000000012</v>
+        <v>0.54656250000000006</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3182,17 +3228,19 @@
       <c r="C25" s="27">
         <v>0</v>
       </c>
-      <c r="D25" s="30">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>18.5</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0.121875</v>
+        <v>0.23015625000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,17 +3253,19 @@
       <c r="C26" s="27">
         <v>31</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="27">
         <v>7</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="27">
+        <v>32</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0.43124999999999997</v>
+        <v>0.56343750000000004</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,17 +3278,19 @@
       <c r="C27" s="27">
         <v>0</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="27">
         <v>25.5</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="27">
+        <v>22.5</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0.56906250000000003</v>
+        <v>0.59554687500000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,17 +3303,19 @@
       <c r="C28" s="27">
         <v>0</v>
       </c>
-      <c r="D28" s="30">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>5</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>5.6250000000000001E-2</v>
+        <v>7.9687500000000008E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3274,17 +3328,19 @@
       <c r="C29" s="27">
         <v>0</v>
       </c>
-      <c r="D29" s="30">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>10</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5000000000000011E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3297,17 +3353,19 @@
       <c r="C30" s="27">
         <v>94</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="27">
         <v>47</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="27">
+        <v>50</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>1.4400000000000002</v>
+        <v>1.4550000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3320,17 +3378,19 @@
       <c r="C31" s="27">
         <v>53</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="27">
         <v>11.5</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="27">
+        <v>38</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>0.74093749999999992</v>
+        <v>0.84070312500000011</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3343,17 +3403,19 @@
       <c r="C32" s="27">
         <v>74</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="27">
         <v>15</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="27">
+        <v>27</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>0.93562500000000004</v>
+        <v>0.90421874999999996</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,10 +3428,12 @@
       <c r="C33" s="27">
         <v>0</v>
       </c>
-      <c r="D33" s="30">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3389,17 +3453,19 @@
       <c r="C34" s="27">
         <v>32.5</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="27">
         <v>13</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="27">
+        <v>25.5</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0.54249999999999998</v>
+        <v>0.59812500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3412,17 +3478,19 @@
       <c r="C35" s="27">
         <v>13</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="27">
         <v>11</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0.34375</v>
+        <v>0.2578125</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3435,10 +3503,12 @@
       <c r="C36" s="27">
         <v>0</v>
       </c>
-      <c r="D36" s="30">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2"/>
+      <c r="D36" s="27">
+        <v>0</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3458,10 +3528,12 @@
       <c r="C37" s="27">
         <v>0</v>
       </c>
-      <c r="D37" s="30">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2"/>
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="27">
+        <v>0</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -3481,17 +3553,19 @@
       <c r="C38" s="27">
         <v>0</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="27">
         <v>4</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="27">
+        <v>24</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0.12125000000000001</v>
+        <v>0.27093749999999994</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3504,17 +3578,19 @@
       <c r="C39" s="27">
         <v>84</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="27">
         <v>24</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="27">
+        <v>43</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>1.085</v>
+        <v>1.13625</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3527,17 +3603,19 @@
       <c r="C40" s="27">
         <v>8</v>
       </c>
-      <c r="D40" s="30">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2"/>
+      <c r="D40" s="27">
+        <v>0</v>
+      </c>
+      <c r="E40" s="27">
+        <v>14</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0.18375</v>
+        <v>0.24281249999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,17 +3628,19 @@
       <c r="C41" s="27">
         <v>93.5</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="27">
         <v>39</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="27">
+        <v>49</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>1.2965625000000001</v>
+        <v>1.3399218749999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3573,17 +3653,19 @@
       <c r="C42" s="27">
         <v>34</v>
       </c>
-      <c r="D42" s="30">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2"/>
+      <c r="D42" s="27">
+        <v>0</v>
+      </c>
+      <c r="E42" s="27">
+        <v>12</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0.3575000000000001</v>
+        <v>0.35812500000000003</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3596,17 +3678,19 @@
       <c r="C43" s="27">
         <v>87</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D43" s="27">
         <v>26</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="27">
+        <v>40</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>1.1575</v>
+        <v>1.1681250000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3619,17 +3703,19 @@
       <c r="C44" s="27">
         <v>52</v>
       </c>
-      <c r="D44" s="30">
+      <c r="D44" s="27">
         <v>11</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="27">
+        <v>38</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>0.73875000000000002</v>
+        <v>0.83906249999999993</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3642,10 +3728,12 @@
       <c r="C45" s="27">
         <v>0</v>
       </c>
-      <c r="D45" s="30">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2"/>
+      <c r="D45" s="27">
+        <v>0</v>
+      </c>
+      <c r="E45" s="27">
+        <v>0</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3665,17 +3753,19 @@
       <c r="C46" s="27">
         <v>85</v>
       </c>
-      <c r="D46" s="30">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2"/>
+      <c r="D46" s="27">
+        <v>0</v>
+      </c>
+      <c r="E46" s="27">
+        <v>16.5</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>0.8671875</v>
+        <v>0.77414062500000003</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3688,17 +3778,19 @@
       <c r="C47" s="27">
         <v>21</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="27">
         <v>17.5</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="27">
+        <v>0</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>0.69406249999999992</v>
+        <v>0.52054687499999996</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3711,17 +3803,19 @@
       <c r="C48" s="27">
         <v>0</v>
       </c>
-      <c r="D48" s="30">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2"/>
+      <c r="D48" s="27">
+        <v>0</v>
+      </c>
+      <c r="E48" s="27">
+        <v>0</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>0.42812499999999992</v>
+        <v>0.32109374999999996</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3750,10 +3844,10 @@
         <v>50</v>
       </c>
       <c r="H50" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I50" s="10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J50" s="11">
         <v>1.5</v>
@@ -3775,9 +3869,9 @@
         <f t="shared" si="1"/>
         <v>14.308510638297872</v>
       </c>
-      <c r="E51" s="13" t="e">
+      <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>20.978723404255319</v>
       </c>
       <c r="F51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -3797,7 +3891,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.6474734042553193</v>
+        <v>0.64294547872340424</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3816,9 +3910,9 @@
         <f t="shared" si="2"/>
         <v>14.947572578664724</v>
       </c>
-      <c r="E52" s="13" t="e">
+      <c r="E52" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>17.923132201155369</v>
       </c>
       <c r="F52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -3838,7 +3932,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.46086122171814303</v>
+        <v>0.46013863474892819</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3857,9 +3951,9 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E53" s="13" t="e">
+      <c r="E53" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>21.5</v>
       </c>
       <c r="F53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -3879,7 +3973,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0.66437500000000005</v>
+        <v>0.59484375</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3900,7 +3994,7 @@
       </c>
       <c r="E54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" si="4"/>
@@ -4522,7 +4616,7 @@
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
@@ -4534,7 +4628,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.4509523809523808</v>
+        <v>1.4359523809523809</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4555,7 +4649,7 @@
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
-        <v>1.2037499999999999</v>
+        <v>1.2253124999999998</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -4567,7 +4661,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1551785714285714</v>
+        <v>4.1767410714285713</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4588,7 +4682,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>1.3684375</v>
+        <v>1.401328125</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -4600,7 +4694,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.3729613095238093</v>
+        <v>4.4058519345238096</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4621,7 +4715,7 @@
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
-        <v>0.40000000000000008</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -4633,7 +4727,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.42857142857142866</v>
+        <v>0.32857142857142863</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4654,7 +4748,7 @@
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
-        <v>0.90437499999999993</v>
+        <v>0.67828124999999995</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -4666,11 +4760,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.4141369047619046</v>
+        <v>3.188043154761905</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -4687,7 +4781,7 @@
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
-        <v>0.70750000000000002</v>
+        <v>0.69187500000000002</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -4699,7 +4793,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.2682142857142855</v>
+        <v>2.2525892857142855</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -4753,7 +4847,7 @@
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
-        <v>0.66437500000000005</v>
+        <v>0.57328124999999996</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -4765,7 +4859,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.489613095238095</v>
+        <v>2.3985193452380953</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4786,7 +4880,7 @@
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
-        <v>1.389375</v>
+        <v>1.37203125</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -4798,7 +4892,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.7853273809523809</v>
+        <v>3.7679836309523811</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4819,7 +4913,7 @@
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
-        <v>0.28500000000000003</v>
+        <v>0.21375000000000002</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -4831,11 +4925,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.302142857142857</v>
+        <v>2.230892857142857</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -4852,7 +4946,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.2862499999999999</v>
+        <v>1.1784374999999998</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -4864,7 +4958,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.6143452380952379</v>
+        <v>3.5065327380952382</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -4885,7 +4979,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>1.0856250000000001</v>
+        <v>0.99421875000000004</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -4897,7 +4991,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.4996726190476193</v>
+        <v>3.4082663690476194</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -4918,7 +5012,7 @@
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
-        <v>0.45875000000000005</v>
+        <v>0.49781250000000005</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -4930,11 +5024,11 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.2182738095238097</v>
+        <v>2.2573363095238097</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="2"/>
@@ -4951,7 +5045,7 @@
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
-        <v>0.56812499999999999</v>
+        <v>0.59484375</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -4963,7 +5057,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.1528869047619046</v>
+        <v>3.1796056547619047</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -4984,7 +5078,7 @@
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
-        <v>1.1971875000000001</v>
+        <v>1.231640625</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -4996,7 +5090,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.0624255952380954</v>
+        <v>3.0968787202380952</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -5017,7 +5111,7 @@
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
-        <v>0.39125000000000004</v>
+        <v>0.37593749999999998</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -5029,7 +5123,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.0819642857142857</v>
+        <v>2.0666517857142859</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -5050,7 +5144,7 @@
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
-        <v>0.21687500000000001</v>
+        <v>0.16265625</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -5062,7 +5156,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.4342559523809524</v>
+        <v>1.3800372023809522</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -5083,7 +5177,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>0.97531249999999992</v>
+        <v>1.0764843749999999</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -5095,7 +5189,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2.8419791666666665</v>
+        <v>2.9431510416666669</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -5116,7 +5210,7 @@
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
-        <v>1.0015624999999999</v>
+        <v>1.0586718749999999</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -5128,11 +5222,11 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.7489434523809524</v>
+        <v>3.8060528273809524</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="2"/>
@@ -5149,7 +5243,7 @@
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
-        <v>1.0587500000000001</v>
+        <v>0.99281249999999999</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -5161,7 +5255,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.3463690476190475</v>
+        <v>3.2804315476190475</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -5182,7 +5276,7 @@
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
-        <v>1.3053124999999999</v>
+        <v>1.335234375</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -5194,7 +5288,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.4253124999999995</v>
+        <v>4.4552343749999999</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5215,7 +5309,7 @@
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
-        <v>1.06375</v>
+        <v>1.1015625</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -5227,7 +5321,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.6980357142857141</v>
+        <v>2.7358482142857143</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5248,7 +5342,7 @@
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
-        <v>0.72875000000000012</v>
+        <v>0.54656250000000006</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -5260,11 +5354,11 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.3342261904761905</v>
+        <v>3.1520386904761901</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
@@ -5281,7 +5375,7 @@
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
-        <v>0.121875</v>
+        <v>0.23015625000000001</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -5293,7 +5387,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>1.852827380952381</v>
+        <v>1.9611086309523811</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5314,7 +5408,7 @@
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
-        <v>0.43124999999999997</v>
+        <v>0.56343750000000004</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -5326,7 +5420,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.023392857142857</v>
+        <v>2.1555803571428571</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -5347,7 +5441,7 @@
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
-        <v>0.56906250000000003</v>
+        <v>0.59554687500000003</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -5359,7 +5453,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.2566815476190474</v>
+        <v>2.2831659226190477</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5380,7 +5474,7 @@
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
-        <v>5.6250000000000001E-2</v>
+        <v>7.9687500000000008E-2</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -5392,7 +5486,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.480059523809524</v>
+        <v>1.503497023809524</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5413,7 +5507,7 @@
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
-        <v>0</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5425,7 +5519,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.152857142857143</v>
+        <v>1.227857142857143</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -5446,7 +5540,7 @@
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
-        <v>1.4400000000000002</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -5458,7 +5552,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.1380952380952385</v>
+        <v>5.1530952380952382</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5479,7 +5573,7 @@
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
-        <v>0.74093749999999992</v>
+        <v>0.84070312500000011</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -5491,7 +5585,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>2.9518898809523808</v>
+        <v>3.0516555059523811</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5512,7 +5606,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>0.93562500000000004</v>
+        <v>0.90421874999999996</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -5524,7 +5618,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.71014880952381</v>
+        <v>3.6787425595238097</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -5578,7 +5672,7 @@
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
-        <v>0.54249999999999998</v>
+        <v>0.59812500000000002</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -5590,7 +5684,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.0458333333333334</v>
+        <v>3.1014583333333334</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5611,7 +5705,7 @@
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
-        <v>0.34375</v>
+        <v>0.2578125</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -5623,11 +5717,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.3182738095238093</v>
+        <v>1.2323363095238096</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="26">
         <f t="shared" si="2"/>
@@ -5710,7 +5804,7 @@
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
-        <v>0.12125000000000001</v>
+        <v>0.27093749999999994</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -5722,7 +5816,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>1.8107738095238095</v>
+        <v>1.9604613095238095</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
@@ -5743,7 +5837,7 @@
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
-        <v>1.085</v>
+        <v>1.13625</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -5755,7 +5849,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.4266666666666667</v>
+        <v>3.4779166666666668</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5776,7 +5870,7 @@
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
-        <v>0.18375</v>
+        <v>0.24281249999999999</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -5788,11 +5882,11 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.6939880952380952</v>
+        <v>1.7530505952380953</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -5809,7 +5903,7 @@
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
-        <v>1.2965625000000001</v>
+        <v>1.3399218749999999</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -5821,7 +5915,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.3179910714285716</v>
+        <v>4.3613504464285713</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5842,7 +5936,7 @@
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
-        <v>0.3575000000000001</v>
+        <v>0.35812500000000003</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -5854,7 +5948,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.368214285714286</v>
+        <v>1.3688392857142859</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5875,7 +5969,7 @@
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
-        <v>1.1575</v>
+        <v>1.1681250000000001</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -5887,7 +5981,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.3513095238095243</v>
+        <v>4.3619345238095235</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -5908,7 +6002,7 @@
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
-        <v>0.73875000000000002</v>
+        <v>0.83906249999999993</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -5920,7 +6014,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.5882738095238094</v>
+        <v>2.6885863095238092</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -5974,7 +6068,7 @@
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
-        <v>0.8671875</v>
+        <v>0.77414062500000003</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -5986,7 +6080,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.5917113095238093</v>
+        <v>2.4986644345238096</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -6007,7 +6101,7 @@
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
-        <v>0.69406249999999992</v>
+        <v>0.52054687499999996</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -6019,7 +6113,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.5054910714285712</v>
+        <v>2.3319754464285714</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -6040,7 +6134,7 @@
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
-        <v>0.42812499999999992</v>
+        <v>0.32109374999999996</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -6052,11 +6146,11 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.80550595238095224</v>
+        <v>0.69847470238095233</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="2"/>
@@ -6105,7 +6199,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.6474734042553193</v>
+        <v>0.64294547872340424</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -6117,11 +6211,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4649860688956431</v>
+        <v>2.4604581433637289</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4893617021276597</v>
+        <v>2.4680851063829787</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -6138,7 +6232,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.46086122171814303</v>
+        <v>0.46013863474892819</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -6150,11 +6244,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.2999474281126644</v>
+        <v>1.3030478722003045</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.2916511244128732</v>
+        <v>1.3080198082163743</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -6171,7 +6265,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0.66437500000000005</v>
+        <v>0.59484375</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -6183,7 +6277,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.5054910714285712</v>
+        <v>2.3985193452380953</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104638C4-7D15-384C-821A-B7BE976F4963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3A78AC-6664-B448-8DBB-6AAC21FEBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2907,7 +2907,7 @@
         <v>35.5</v>
       </c>
       <c r="E12" s="27">
-        <v>28.5</v>
+        <v>35.5</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2915,7 +2915,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.1784374999999998</v>
+        <v>1.2309375</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>20.978723404255319</v>
+        <v>21.127659574468087</v>
       </c>
       <c r="F51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.64294547872340424</v>
+        <v>0.64406249999999998</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E52" s="13">
         <f t="shared" si="2"/>
-        <v>17.923132201155369</v>
+        <v>18.015834848068945</v>
       </c>
       <c r="F52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.46013863474892819</v>
+        <v>0.46152846667334302</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.1784374999999998</v>
+        <v>1.2309375</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.5065327380952382</v>
+        <v>3.5590327380952385</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.64294547872340424</v>
+        <v>0.64406249999999998</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4604581433637289</v>
+        <v>2.4615751646403248</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.46013863474892819</v>
+        <v>0.46152846667334302</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3030478722003045</v>
+        <v>1.3039862651995213</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3A78AC-6664-B448-8DBB-6AAC21FEBAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8819503-F725-224C-8546-4315D06F40E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1120" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10160" yWindow="1680" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Αρ. Ταυτότητας</t>
   </si>
@@ -50,36 +50,6 @@
   </si>
   <si>
     <t>0447</t>
-  </si>
-  <si>
-    <t>Quiz 01</t>
-  </si>
-  <si>
-    <t>Quiz 02</t>
-  </si>
-  <si>
-    <t>Quiz 03</t>
-  </si>
-  <si>
-    <t>Quiz 04</t>
-  </si>
-  <si>
-    <t>Quiz 05</t>
-  </si>
-  <si>
-    <t>Quiz 06</t>
-  </si>
-  <si>
-    <t>Quiz 07</t>
-  </si>
-  <si>
-    <t>Quiz 08</t>
-  </si>
-  <si>
-    <t>Quiz 09</t>
-  </si>
-  <si>
-    <t>Quiz 10</t>
   </si>
   <si>
     <t>Quiz Total</t>
@@ -153,6 +123,33 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>LAB03-Quiz</t>
+  </si>
+  <si>
+    <t>LAB04-Quiz</t>
+  </si>
+  <si>
+    <t>LAB05-Quiz</t>
+  </si>
+  <si>
+    <t>LAB06-Quiz</t>
+  </si>
+  <si>
+    <t>LAB08-Quiz</t>
+  </si>
+  <si>
+    <t>LAB09-Quiz</t>
+  </si>
+  <si>
+    <t>LAB10-Quiz</t>
+  </si>
+  <si>
+    <t>LAB11-Quiz</t>
+  </si>
+  <si>
+    <t>LAB12-Quiz</t>
   </si>
 </sst>
 </file>
@@ -759,59 +756,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="12" width="15.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="3" customWidth="1"/>
+    <col min="3" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -837,14 +832,15 @@
         <v>9</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50+K2/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.28095238095238095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="30">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.24583333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -871,14 +867,15 @@
         <v>12</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50+K3/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.67142857142857149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="30">
+        <v>15</v>
+      </c>
+      <c r="K3" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -905,14 +902,15 @@
         <v>15</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50+K4/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.70952380952380956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="30">
+        <v>20</v>
+      </c>
+      <c r="K4" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -938,14 +936,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50+K5/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="30">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1670</v>
       </c>
@@ -972,14 +971,15 @@
         <v>3</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50+K6/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.60476190476190472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="30">
+        <v>20</v>
+      </c>
+      <c r="K6" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.6958333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1691</v>
       </c>
@@ -1006,14 +1006,15 @@
         <v>3</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50+K7/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.28571428571428575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="30">
+        <v>15</v>
+      </c>
+      <c r="K7" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1889</v>
       </c>
@@ -1040,14 +1041,15 @@
         <v>4</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50+K8/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.17142857142857143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="30">
+        <v>15</v>
+      </c>
+      <c r="K8" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2085</v>
       </c>
@@ -1074,14 +1076,15 @@
         <v>4</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50+K9/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.29523809523809524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="30">
+        <v>15</v>
+      </c>
+      <c r="K9" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.38333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2163</v>
       </c>
@@ -1108,14 +1111,15 @@
         <v>7.5</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50+K10/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.58095238095238089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="30">
+        <v>15</v>
+      </c>
+      <c r="K10" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2393</v>
       </c>
@@ -1142,14 +1146,15 @@
         <v>3</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50+K11/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.45714285714285718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="30">
+        <v>15</v>
+      </c>
+      <c r="K11" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2441</v>
       </c>
@@ -1176,14 +1181,15 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50+K12/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.43809523809523804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.3833333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2903</v>
       </c>
@@ -1210,14 +1216,15 @@
         <v>4</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50+K13/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.419047619047619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="30">
+        <v>20</v>
+      </c>
+      <c r="K13" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2994</v>
       </c>
@@ -1244,14 +1251,15 @@
         <v>4</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50+K14/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.40952380952380951</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="30">
+        <v>15</v>
+      </c>
+      <c r="K14" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3377</v>
       </c>
@@ -1278,14 +1286,15 @@
         <v>7</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50+K15/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.60476190476190472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="30">
+        <v>30</v>
+      </c>
+      <c r="K15" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.77916666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3517</v>
       </c>
@@ -1312,14 +1321,15 @@
         <v>3</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50+K16/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.39523809523809522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="30">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.34583333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3560</v>
       </c>
@@ -1346,14 +1356,15 @@
         <v>6</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50+K17/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.38571428571428568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="30">
+        <v>15</v>
+      </c>
+      <c r="K17" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3601</v>
       </c>
@@ -1379,14 +1390,15 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50+K18/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.15238095238095237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="30">
+        <v>0</v>
+      </c>
+      <c r="K18" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>3642</v>
       </c>
@@ -1413,14 +1425,15 @@
         <v>3</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50+K19/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.3666666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="30">
+        <v>18</v>
+      </c>
+      <c r="K19" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.47083333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>3672</v>
       </c>
@@ -1447,14 +1460,15 @@
         <v>18</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50+K20/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.75238095238095248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="30">
+        <v>15</v>
+      </c>
+      <c r="K20" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.78333333333333344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>3797</v>
       </c>
@@ -1481,14 +1495,15 @@
         <v>5</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50+K21/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.54761904761904767</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="30">
+        <v>15</v>
+      </c>
+      <c r="K21" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.60416666666666674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4091</v>
       </c>
@@ -1515,14 +1530,15 @@
         <v>17.5</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50+K22/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.90000000000000013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="30">
+        <v>20</v>
+      </c>
+      <c r="K22" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.95416666666666672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4582</v>
       </c>
@@ -1548,14 +1564,15 @@
         <v>4</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50+K23/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.31428571428571433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="30">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>4622</v>
       </c>
@@ -1582,14 +1599,15 @@
         <v>4</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50+K24/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.49047619047619051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="30">
+        <v>0</v>
+      </c>
+      <c r="K24" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.4291666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5075</v>
       </c>
@@ -1616,14 +1634,15 @@
         <v>9</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50+K25/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.38095238095238093</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="30">
+        <v>15</v>
+      </c>
+      <c r="K25" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5141</v>
       </c>
@@ -1650,14 +1669,15 @@
         <v>7</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50+K26/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.55714285714285716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="30">
+        <v>20</v>
+      </c>
+      <c r="K26" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.65416666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>5482</v>
       </c>
@@ -1683,14 +1703,15 @@
         <v>4</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50+K27/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.24761904761904763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="30">
+        <v>18</v>
+      </c>
+      <c r="K27" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.3666666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>5680</v>
       </c>
@@ -1717,14 +1738,15 @@
         <v>3</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50+K28/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.22380952380952382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="30">
+        <v>15</v>
+      </c>
+      <c r="K28" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.3208333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>5943</v>
       </c>
@@ -1751,14 +1773,15 @@
         <v>3</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50+K29/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.34285714285714286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J29" s="30">
+        <v>20</v>
+      </c>
+      <c r="K29" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B29/$B$50+C29/$C$50+D29/$D$50+E29/$E$50+F29/$F$50+G29/$G$50+H29/$H$50+I29/$I$50+J29/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6464</v>
       </c>
@@ -1785,14 +1808,15 @@
         <v>18</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50+K30/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.9380952380952382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="30">
+        <v>30</v>
+      </c>
+      <c r="K30" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>1.0708333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>6797</v>
       </c>
@@ -1819,14 +1843,15 @@
         <v>3</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50+K31/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.38095238095238099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="30">
+        <v>23</v>
+      </c>
+      <c r="K31" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7021</v>
       </c>
@@ -1853,14 +1878,15 @@
         <v>4</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50+K32/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.5095238095238096</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="30">
+        <v>15</v>
+      </c>
+      <c r="K32" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.5708333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7511</v>
       </c>
@@ -1886,14 +1912,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50+K33/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>5.7142857142857141E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="30">
+        <v>0</v>
+      </c>
+      <c r="K33" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>7575</v>
       </c>
@@ -1920,14 +1947,15 @@
         <v>7</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50+K34/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.4333333333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="30">
+        <v>15</v>
+      </c>
+      <c r="K34" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.50416666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>7642</v>
       </c>
@@ -1954,14 +1982,15 @@
         <v>3</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50+K35/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.2095238095238095</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="30">
+        <v>15</v>
+      </c>
+      <c r="K35" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.30833333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>7949</v>
       </c>
@@ -1973,14 +2002,13 @@
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B36/$B$50+C36/$C$50+D36/$D$50+E36/$E$50+F36/$F$50+G36/$G$50+H36/$H$50+I36/$I$50+J36/$J$50+K36/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="30"/>
+      <c r="K36" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B36/$B$50+C36/$C$50+D36/$D$50+E36/$E$50+F36/$F$50+G36/$G$50+H36/$H$50+I36/$I$50+J36/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>8688</v>
       </c>
@@ -1992,14 +2020,13 @@
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B37/$B$50+C37/$C$50+D37/$D$50+E37/$E$50+F37/$F$50+G37/$G$50+H37/$H$50+I37/$I$50+J37/$J$50+K37/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="30"/>
+      <c r="K37" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B37/$B$50+C37/$C$50+D37/$D$50+E37/$E$50+F37/$F$50+G37/$G$50+H37/$H$50+I37/$I$50+J37/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>8742</v>
       </c>
@@ -2026,14 +2053,15 @@
         <v>9</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50+K38/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.30952380952380948</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="30">
+        <v>15</v>
+      </c>
+      <c r="K38" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>8743</v>
       </c>
@@ -2060,14 +2088,15 @@
         <v>3</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50+K39/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="30">
+        <v>20</v>
+      </c>
+      <c r="K39" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>8765</v>
       </c>
@@ -2094,14 +2123,15 @@
         <v>3</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50+K40/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.29523809523809519</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="30">
+        <v>15</v>
+      </c>
+      <c r="K40" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.3833333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>8793</v>
       </c>
@@ -2128,14 +2158,15 @@
         <v>18</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50+K41/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.77142857142857146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="30">
+        <v>20</v>
+      </c>
+      <c r="K41" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.84166666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>9139</v>
       </c>
@@ -2162,14 +2193,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50+K42/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.18571428571428572</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="30">
+        <v>0</v>
+      </c>
+      <c r="K42" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>9196</v>
       </c>
@@ -2196,14 +2228,15 @@
         <v>13</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50+K43/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.82380952380952388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="30">
+        <v>30</v>
+      </c>
+      <c r="K43" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.97083333333333344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>9355</v>
       </c>
@@ -2230,14 +2263,15 @@
         <v>5</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50+K44/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.40952380952380951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="30">
+        <v>30</v>
+      </c>
+      <c r="K44" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.60833333333333339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>9516</v>
       </c>
@@ -2249,14 +2283,13 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B45/$B$50+C45/$C$50+D45/$D$50+E45/$E$50+F45/$F$50+G45/$G$50+H45/$H$50+I45/$I$50+J45/$J$50+K45/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="30"/>
+      <c r="K45" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B45/$B$50+C45/$C$50+D45/$D$50+E45/$E$50+F45/$F$50+G45/$G$50+H45/$H$50+I45/$I$50+J45/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>9550</v>
       </c>
@@ -2282,14 +2315,15 @@
         <v>16</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50+K46/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.50952380952380949</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="30">
+        <v>15</v>
+      </c>
+      <c r="K46" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.5708333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>9744</v>
       </c>
@@ -2316,14 +2350,15 @@
         <v>4</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50+K47/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.37142857142857144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="30">
+        <v>15</v>
+      </c>
+      <c r="K47" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>9881</v>
       </c>
@@ -2349,17 +2384,18 @@
         <v>3</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="27">
-        <f>IF(SUM($B$54:$K$54)&gt;0,$L$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50+K48/$K$50)/SUM(B$54:$K$54),0)</f>
-        <v>0.15238095238095237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="30">
+        <v>15</v>
+      </c>
+      <c r="K48" s="27">
+        <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50)/SUM(B$54:$J$54),0)</f>
+        <v>0.2583333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B50" s="9">
         <v>15</v>
@@ -2388,23 +2424,20 @@
       <c r="J50" s="10">
         <v>15</v>
       </c>
-      <c r="K50" s="10">
-        <v>15</v>
-      </c>
-      <c r="L50" s="11">
+      <c r="K50" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
         <v>5.7954545454545459</v>
       </c>
       <c r="C51" s="13">
-        <f t="shared" ref="C51:L51" si="0">AVERAGE(C$2:C$48)</f>
+        <f t="shared" ref="C51:K51" si="0">AVERAGE(C$2:C$48)</f>
         <v>7.1590909090909092</v>
       </c>
       <c r="D51" s="13">
@@ -2431,29 +2464,25 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L51" s="13">
-        <f t="shared" si="0"/>
-        <v>0.40081053698074975</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="13">
+        <f t="shared" si="0"/>
+        <v>14.522727272727273</v>
+      </c>
+      <c r="K51" s="13">
+        <f t="shared" si="0"/>
+        <v>0.46400709219858155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
         <v>3.1811914212054186</v>
       </c>
       <c r="C52" s="13">
-        <f t="shared" ref="C52:L52" si="1">STDEV(C$2:C$48)</f>
+        <f t="shared" ref="C52:K52" si="1">STDEV(C$2:C$48)</f>
         <v>4.7160940767101485</v>
       </c>
       <c r="D52" s="13">
@@ -2480,29 +2509,25 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="13" t="e">
+      <c r="J52" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K52" s="13" t="e">
+        <v>8.6225465303514657</v>
+      </c>
+      <c r="K52" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L52" s="13">
-        <f t="shared" si="1"/>
-        <v>0.23193547385697735</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.25781332880398894</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
         <v>6</v>
       </c>
       <c r="C53" s="13">
-        <f t="shared" ref="C53:L53" si="2">MEDIAN(C$2:C$48)</f>
+        <f t="shared" ref="C53:K53" si="2">MEDIAN(C$2:C$48)</f>
         <v>6.25</v>
       </c>
       <c r="D53" s="13">
@@ -2529,25 +2554,21 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="J53" s="13" t="e">
+      <c r="J53" s="13">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K53" s="13" t="e">
+        <v>15</v>
+      </c>
+      <c r="K53" s="13">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L53" s="13">
-        <f t="shared" si="2"/>
-        <v>0.38571428571428568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B54" s="16">
-        <f t="shared" ref="B54:K54" si="3">IF(SUM(B11:B48)&gt;0,1,0)</f>
+        <f t="shared" ref="B54:J54" si="3">IF(SUM(B11:B48)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="C54" s="16">
@@ -2580,13 +2601,9 @@
       </c>
       <c r="J54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="K54" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2600,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2616,31 +2633,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3823,7 +3840,7 @@
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B50" s="10">
         <v>80</v>
@@ -3855,7 +3872,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
@@ -3896,7 +3913,7 @@
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
@@ -3937,7 +3954,7 @@
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
@@ -3978,7 +3995,7 @@
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B54" s="18">
         <f t="shared" ref="B54:I54" si="4">IF(SUM(B10:B48)&gt;0,1,0)</f>
@@ -4041,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4509,7 +4526,7 @@
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B50" s="20">
         <v>100</v>
@@ -4520,7 +4537,7 @@
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B51" s="19">
         <f>AVERAGE(B$2:B$48)</f>
@@ -4533,7 +4550,7 @@
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B52" s="19">
         <f>STDEV(B$2:B$48)</f>
@@ -4546,7 +4563,7 @@
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B53" s="19">
         <f>MEDIAN(B$2:B$48)</f>
@@ -4585,25 +4602,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4611,8 +4628,8 @@
         <v>3</v>
       </c>
       <c r="B2" s="28">
-        <f>Quizzes!L2</f>
-        <v>0.28095238095238095</v>
+        <f>Quizzes!K2</f>
+        <v>0.24583333333333335</v>
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
@@ -4628,7 +4645,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.4359523809523809</v>
+        <v>1.4008333333333332</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4644,8 +4661,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="28">
-        <f>Quizzes!L3</f>
-        <v>0.67142857142857149</v>
+        <f>Quizzes!K3</f>
+        <v>0.71250000000000002</v>
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
@@ -4661,7 +4678,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1767410714285713</v>
+        <v>4.2178125</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4677,8 +4694,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="28">
-        <f>Quizzes!L4</f>
-        <v>0.70952380952380956</v>
+        <f>Quizzes!K4</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
@@ -4694,7 +4711,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.4058519345238096</v>
+        <v>4.4838281250000005</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4710,8 +4727,8 @@
         <v>1</v>
       </c>
       <c r="B5" s="28">
-        <f>Quizzes!L5</f>
-        <v>2.8571428571428574E-2</v>
+        <f>Quizzes!K5</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
@@ -4727,7 +4744,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.32857142857142863</v>
+        <v>0.32500000000000007</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4743,8 +4760,8 @@
         <v>1670</v>
       </c>
       <c r="B6" s="28">
-        <f>Quizzes!L6</f>
-        <v>0.60476190476190472</v>
+        <f>Quizzes!K6</f>
+        <v>0.6958333333333333</v>
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
@@ -4760,11 +4777,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.188043154761905</v>
+        <v>3.2791145833333335</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -4776,8 +4793,8 @@
         <v>1691</v>
       </c>
       <c r="B7" s="28">
-        <f>Quizzes!L7</f>
-        <v>0.28571428571428575</v>
+        <f>Quizzes!K7</f>
+        <v>0.37500000000000006</v>
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
@@ -4793,7 +4810,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.2525892857142855</v>
+        <v>2.3418749999999999</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -4809,8 +4826,8 @@
         <v>1889</v>
       </c>
       <c r="B8" s="28">
-        <f>Quizzes!L8</f>
-        <v>0.17142857142857143</v>
+        <f>Quizzes!K8</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
@@ -4826,7 +4843,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>0.93642857142857139</v>
+        <v>1.04</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -4842,8 +4859,8 @@
         <v>2085</v>
       </c>
       <c r="B9" s="28">
-        <f>Quizzes!L9</f>
-        <v>0.29523809523809524</v>
+        <f>Quizzes!K9</f>
+        <v>0.38333333333333336</v>
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
@@ -4859,7 +4876,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.3985193452380953</v>
+        <v>2.4866145833333331</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4875,8 +4892,8 @@
         <v>2163</v>
       </c>
       <c r="B10" s="28">
-        <f>Quizzes!L10</f>
-        <v>0.58095238095238089</v>
+        <f>Quizzes!K10</f>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
@@ -4892,7 +4909,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.7679836309523811</v>
+        <v>3.8203645833333333</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4908,8 +4925,8 @@
         <v>2393</v>
       </c>
       <c r="B11" s="28">
-        <f>Quizzes!L11</f>
-        <v>0.45714285714285718</v>
+        <f>Quizzes!K11</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
@@ -4925,11 +4942,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.230892857142857</v>
+        <v>2.2987500000000001</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -4941,8 +4958,8 @@
         <v>2441</v>
       </c>
       <c r="B12" s="28">
-        <f>Quizzes!L12</f>
-        <v>0.43809523809523804</v>
+        <f>Quizzes!K12</f>
+        <v>0.3833333333333333</v>
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
@@ -4958,7 +4975,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.5590327380952385</v>
+        <v>3.5042708333333334</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -4974,8 +4991,8 @@
         <v>2903</v>
       </c>
       <c r="B13" s="28">
-        <f>Quizzes!L13</f>
-        <v>0.419047619047619</v>
+        <f>Quizzes!K13</f>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
@@ -4991,7 +5008,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.4082663690476194</v>
+        <v>3.5225520833333333</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -5007,8 +5024,8 @@
         <v>2994</v>
       </c>
       <c r="B14" s="28">
-        <f>Quizzes!L14</f>
-        <v>0.40952380952380951</v>
+        <f>Quizzes!K14</f>
+        <v>0.48333333333333334</v>
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
@@ -5024,7 +5041,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.2573363095238097</v>
+        <v>2.3311458333333333</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -5040,8 +5057,8 @@
         <v>3377</v>
       </c>
       <c r="B15" s="28">
-        <f>Quizzes!L15</f>
-        <v>0.60476190476190472</v>
+        <f>Quizzes!K15</f>
+        <v>0.77916666666666667</v>
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
@@ -5057,11 +5074,11 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.1796056547619047</v>
+        <v>3.3540104166666667</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="2"/>
@@ -5073,8 +5090,8 @@
         <v>3517</v>
       </c>
       <c r="B16" s="28">
-        <f>Quizzes!L16</f>
-        <v>0.39523809523809522</v>
+        <f>Quizzes!K16</f>
+        <v>0.34583333333333333</v>
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
@@ -5090,7 +5107,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.0968787202380952</v>
+        <v>3.0474739583333337</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -5106,8 +5123,8 @@
         <v>3560</v>
       </c>
       <c r="B17" s="28">
-        <f>Quizzes!L17</f>
-        <v>0.38571428571428568</v>
+        <f>Quizzes!K17</f>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
@@ -5123,7 +5140,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.0666517857142859</v>
+        <v>2.1434375000000001</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -5139,8 +5156,8 @@
         <v>3601</v>
       </c>
       <c r="B18" s="28">
-        <f>Quizzes!L18</f>
-        <v>0.15238095238095237</v>
+        <f>Quizzes!K18</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
@@ -5156,7 +5173,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.3800372023809522</v>
+        <v>1.3609895833333332</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -5172,8 +5189,8 @@
         <v>3642</v>
       </c>
       <c r="B19" s="28">
-        <f>Quizzes!L19</f>
-        <v>0.3666666666666667</v>
+        <f>Quizzes!K19</f>
+        <v>0.47083333333333333</v>
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
@@ -5189,7 +5206,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>2.9431510416666669</v>
+        <v>3.0473177083333334</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -5205,8 +5222,8 @@
         <v>3672</v>
       </c>
       <c r="B20" s="28">
-        <f>Quizzes!L20</f>
-        <v>0.75238095238095248</v>
+        <f>Quizzes!K20</f>
+        <v>0.78333333333333344</v>
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
@@ -5222,7 +5239,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.8060528273809524</v>
+        <v>3.8370052083333333</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -5238,8 +5255,8 @@
         <v>3797</v>
       </c>
       <c r="B21" s="28">
-        <f>Quizzes!L21</f>
-        <v>0.54761904761904767</v>
+        <f>Quizzes!K21</f>
+        <v>0.60416666666666674</v>
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
@@ -5255,7 +5272,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.2804315476190475</v>
+        <v>3.3369791666666666</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -5271,8 +5288,8 @@
         <v>4091</v>
       </c>
       <c r="B22" s="28">
-        <f>Quizzes!L22</f>
-        <v>0.90000000000000013</v>
+        <f>Quizzes!K22</f>
+        <v>0.95416666666666672</v>
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
@@ -5288,7 +5305,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.4552343749999999</v>
+        <v>4.509401041666667</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5304,8 +5321,8 @@
         <v>4582</v>
       </c>
       <c r="B23" s="28">
-        <f>Quizzes!L23</f>
-        <v>0.31428571428571433</v>
+        <f>Quizzes!K23</f>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
@@ -5321,7 +5338,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.7358482142857143</v>
+        <v>2.6965624999999998</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5337,8 +5354,8 @@
         <v>4622</v>
       </c>
       <c r="B24" s="28">
-        <f>Quizzes!L24</f>
-        <v>0.49047619047619051</v>
+        <f>Quizzes!K24</f>
+        <v>0.4291666666666667</v>
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
@@ -5354,7 +5371,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.1520386904761901</v>
+        <v>3.0907291666666667</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5370,8 +5387,8 @@
         <v>5075</v>
       </c>
       <c r="B25" s="28">
-        <f>Quizzes!L25</f>
-        <v>0.38095238095238093</v>
+        <f>Quizzes!K25</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
@@ -5387,7 +5404,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>1.9611086309523811</v>
+        <v>2.0384895833333334</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5403,8 +5420,8 @@
         <v>5141</v>
       </c>
       <c r="B26" s="28">
-        <f>Quizzes!L26</f>
-        <v>0.55714285714285716</v>
+        <f>Quizzes!K26</f>
+        <v>0.65416666666666667</v>
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
@@ -5420,11 +5437,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.1555803571428571</v>
+        <v>2.252604166666667</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -5436,8 +5453,8 @@
         <v>5482</v>
       </c>
       <c r="B27" s="28">
-        <f>Quizzes!L27</f>
-        <v>0.24761904761904763</v>
+        <f>Quizzes!K27</f>
+        <v>0.3666666666666667</v>
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
@@ -5453,7 +5470,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.2831659226190477</v>
+        <v>2.4022135416666668</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5469,8 +5486,8 @@
         <v>5680</v>
       </c>
       <c r="B28" s="28">
-        <f>Quizzes!L28</f>
-        <v>0.22380952380952382</v>
+        <f>Quizzes!K28</f>
+        <v>0.3208333333333333</v>
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
@@ -5486,7 +5503,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.503497023809524</v>
+        <v>1.6005208333333334</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5502,8 +5519,8 @@
         <v>5943</v>
       </c>
       <c r="B29" s="28">
-        <f>Quizzes!L29</f>
-        <v>0.34285714285714286</v>
+        <f>Quizzes!K29</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
@@ -5519,11 +5536,11 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.227857142857143</v>
+        <v>1.3516666666666668</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -5535,8 +5552,8 @@
         <v>6464</v>
       </c>
       <c r="B30" s="28">
-        <f>Quizzes!L30</f>
-        <v>0.9380952380952382</v>
+        <f>Quizzes!K30</f>
+        <v>1.0708333333333333</v>
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
@@ -5552,11 +5569,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.1530952380952382</v>
+        <v>5.2858333333333336</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
@@ -5568,8 +5585,8 @@
         <v>6797</v>
       </c>
       <c r="B31" s="28">
-        <f>Quizzes!L31</f>
-        <v>0.38095238095238099</v>
+        <f>Quizzes!K31</f>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
@@ -5585,7 +5602,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.0516555059523811</v>
+        <v>3.1957031250000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5601,8 +5618,8 @@
         <v>7021</v>
       </c>
       <c r="B32" s="28">
-        <f>Quizzes!L32</f>
-        <v>0.5095238095238096</v>
+        <f>Quizzes!K32</f>
+        <v>0.5708333333333333</v>
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
@@ -5618,7 +5635,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.6787425595238097</v>
+        <v>3.7400520833333335</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -5634,8 +5651,8 @@
         <v>7511</v>
       </c>
       <c r="B33" s="28">
-        <f>Quizzes!L33</f>
-        <v>5.7142857142857141E-2</v>
+        <f>Quizzes!K33</f>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="C33" s="28">
         <f>Homeworks!J33</f>
@@ -5651,7 +5668,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>0.40214285714285719</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
@@ -5667,8 +5684,8 @@
         <v>7575</v>
       </c>
       <c r="B34" s="28">
-        <f>Quizzes!L34</f>
-        <v>0.4333333333333334</v>
+        <f>Quizzes!K34</f>
+        <v>0.50416666666666665</v>
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
@@ -5684,7 +5701,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.1014583333333334</v>
+        <v>3.1722916666666663</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5700,8 +5717,8 @@
         <v>7642</v>
       </c>
       <c r="B35" s="28">
-        <f>Quizzes!L35</f>
-        <v>0.2095238095238095</v>
+        <f>Quizzes!K35</f>
+        <v>0.30833333333333335</v>
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
@@ -5717,11 +5734,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.2323363095238096</v>
+        <v>1.3311458333333333</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H35" s="26">
         <f t="shared" si="2"/>
@@ -5733,7 +5750,7 @@
         <v>7949</v>
       </c>
       <c r="B36" s="28">
-        <f>Quizzes!L36</f>
+        <f>Quizzes!K36</f>
         <v>0</v>
       </c>
       <c r="C36" s="28">
@@ -5766,7 +5783,7 @@
         <v>8688</v>
       </c>
       <c r="B37" s="28">
-        <f>Quizzes!L37</f>
+        <f>Quizzes!K37</f>
         <v>0</v>
       </c>
       <c r="C37" s="28">
@@ -5799,8 +5816,8 @@
         <v>8742</v>
       </c>
       <c r="B38" s="28">
-        <f>Quizzes!L38</f>
-        <v>0.30952380952380948</v>
+        <f>Quizzes!K38</f>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
@@ -5816,7 +5833,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>1.9604613095238095</v>
+        <v>2.0467708333333334</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
@@ -5832,8 +5849,8 @@
         <v>8743</v>
       </c>
       <c r="B39" s="28">
-        <f>Quizzes!L39</f>
-        <v>0.46666666666666667</v>
+        <f>Quizzes!K39</f>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
@@ -5849,7 +5866,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.4779166666666668</v>
+        <v>3.5862499999999997</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5865,8 +5882,8 @@
         <v>8765</v>
       </c>
       <c r="B40" s="28">
-        <f>Quizzes!L40</f>
-        <v>0.29523809523809519</v>
+        <f>Quizzes!K40</f>
+        <v>0.3833333333333333</v>
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
@@ -5882,7 +5899,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.7530505952380953</v>
+        <v>1.8411458333333335</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -5898,8 +5915,8 @@
         <v>8793</v>
       </c>
       <c r="B41" s="28">
-        <f>Quizzes!L41</f>
-        <v>0.77142857142857146</v>
+        <f>Quizzes!K41</f>
+        <v>0.84166666666666667</v>
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
@@ -5915,7 +5932,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.3613504464285713</v>
+        <v>4.4315885416666667</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5931,8 +5948,8 @@
         <v>9139</v>
       </c>
       <c r="B42" s="28">
-        <f>Quizzes!L42</f>
-        <v>0.18571428571428572</v>
+        <f>Quizzes!K42</f>
+        <v>0.16250000000000001</v>
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
@@ -5948,7 +5965,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.3688392857142859</v>
+        <v>1.3456250000000001</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5964,8 +5981,8 @@
         <v>9196</v>
       </c>
       <c r="B43" s="28">
-        <f>Quizzes!L43</f>
-        <v>0.82380952380952388</v>
+        <f>Quizzes!K43</f>
+        <v>0.97083333333333344</v>
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
@@ -5981,7 +5998,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.3619345238095235</v>
+        <v>4.5089583333333341</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -5997,8 +6014,8 @@
         <v>9355</v>
       </c>
       <c r="B44" s="28">
-        <f>Quizzes!L44</f>
-        <v>0.40952380952380951</v>
+        <f>Quizzes!K44</f>
+        <v>0.60833333333333339</v>
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
@@ -6014,11 +6031,11 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.6885863095238092</v>
+        <v>2.8873958333333332</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H44" s="26">
         <f t="shared" si="2"/>
@@ -6030,7 +6047,7 @@
         <v>9516</v>
       </c>
       <c r="B45" s="28">
-        <f>Quizzes!L45</f>
+        <f>Quizzes!K45</f>
         <v>0</v>
       </c>
       <c r="C45" s="28">
@@ -6063,8 +6080,8 @@
         <v>9550</v>
       </c>
       <c r="B46" s="28">
-        <f>Quizzes!L46</f>
-        <v>0.50952380952380949</v>
+        <f>Quizzes!K46</f>
+        <v>0.5708333333333333</v>
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
@@ -6080,7 +6097,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.4986644345238096</v>
+        <v>2.5599739583333334</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -6096,8 +6113,8 @@
         <v>9744</v>
       </c>
       <c r="B47" s="28">
-        <f>Quizzes!L47</f>
-        <v>0.37142857142857144</v>
+        <f>Quizzes!K47</f>
+        <v>0.45</v>
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
@@ -6113,7 +6130,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.3319754464285714</v>
+        <v>2.4105468749999996</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -6129,8 +6146,8 @@
         <v>9881</v>
       </c>
       <c r="B48" s="28">
-        <f>Quizzes!L48</f>
-        <v>0.15238095238095237</v>
+        <f>Quizzes!K48</f>
+        <v>0.2583333333333333</v>
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
@@ -6146,11 +6163,11 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.69847470238095233</v>
+        <v>0.80442708333333324</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="2"/>
@@ -6160,10 +6177,10 @@
     <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B50" s="11">
-        <f>Quizzes!L50</f>
+        <f>Quizzes!K50</f>
         <v>1</v>
       </c>
       <c r="C50" s="25">
@@ -6191,11 +6208,11 @@
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.40081053698074975</v>
+        <v>0.46400709219858155</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -6211,11 +6228,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4615751646403248</v>
+        <v>2.5247717198581561</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4680851063829787</v>
+        <v>2.5638297872340425</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -6224,11 +6241,11 @@
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.23193547385697735</v>
+        <v>0.25781332880398894</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -6244,11 +6261,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3039862651995213</v>
+        <v>1.3207556339577624</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3080198082163743</v>
+        <v>1.304744774628172</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -6257,11 +6274,11 @@
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.38571428571428568</v>
+        <v>0.46249999999999997</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
@@ -6277,7 +6294,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.3985193452380953</v>
+        <v>2.4866145833333331</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8819503-F725-224C-8546-4315D06F40E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060556E3-9BFC-AB41-AF82-E324DFE84669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="1680" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -2617,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2676,13 +2676,15 @@
       <c r="E2" s="27">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="27">
         <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2701,13 +2703,15 @@
       <c r="E3" s="27">
         <v>43</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="27">
+        <v>44</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>1.2253124999999998</v>
+        <v>1.2442499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,13 +2730,15 @@
       <c r="E4" s="27">
         <v>50</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="27">
+        <v>47</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>1.401328125</v>
+        <v>1.4030625000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2751,13 +2757,15 @@
       <c r="E5" s="27">
         <v>0</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.24000000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,13 +2784,15 @@
       <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>0.67828124999999995</v>
+        <v>0.54262499999999991</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2801,13 +2811,15 @@
       <c r="E7" s="27">
         <v>21.5</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="27">
+        <v>22.5</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>0.69187500000000002</v>
+        <v>0.6885</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2826,13 +2838,15 @@
       <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="27">
+        <v>5</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0000000000000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2851,13 +2865,15 @@
       <c r="E9" s="27">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="27">
+        <v>10.5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>0.57328124999999996</v>
+        <v>0.52162500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2876,13 +2892,15 @@
       <c r="E10" s="27">
         <v>44</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="27">
+        <v>43</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>1.37203125</v>
+        <v>1.3556249999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2901,13 +2919,15 @@
       <c r="E11" s="27">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0.21375000000000002</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2926,13 +2946,15 @@
       <c r="E12" s="27">
         <v>35.5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="27">
+        <v>37</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.2309375</v>
+        <v>1.20675</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2951,13 +2973,15 @@
       <c r="E13" s="27">
         <v>24</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="27">
+        <v>18</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>0.99421875000000004</v>
+        <v>0.90337499999999993</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2976,13 +3000,15 @@
       <c r="E14" s="27">
         <v>20.5</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="27">
+        <v>17.5</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0.49781250000000005</v>
+        <v>0.50325000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,13 +3027,15 @@
       <c r="E15" s="27">
         <v>22.5</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="27">
+        <v>31.5</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0.59484375</v>
+        <v>0.66487499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3026,13 +3054,15 @@
       <c r="E16" s="27">
         <v>44.5</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="27">
+        <v>42</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>1.231640625</v>
+        <v>1.2373125000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3051,13 +3081,15 @@
       <c r="E17" s="27">
         <v>11</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="27">
+        <v>30</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0.37593749999999998</v>
+        <v>0.48075000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3076,13 +3108,15 @@
       <c r="E18" s="27">
         <v>0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0.16265625</v>
+        <v>0.13012499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,13 +3135,15 @@
       <c r="E19" s="27">
         <v>46</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="27">
+        <v>46</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>1.0764843749999999</v>
+        <v>1.1371875</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3126,13 +3162,15 @@
       <c r="E20" s="27">
         <v>41</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="27">
+        <v>38.5</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>1.0586718749999999</v>
+        <v>1.0779374999999998</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3151,13 +3189,15 @@
       <c r="E21" s="27">
         <v>26.5</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="27">
+        <v>33</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>0.99281249999999999</v>
+        <v>0.99224999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,13 +3216,15 @@
       <c r="E22" s="27">
         <v>47.5</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="27">
+        <v>45</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>1.335234375</v>
+        <v>1.3381875000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3201,13 +3243,15 @@
       <c r="E23" s="27">
         <v>40.5</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="27">
+        <v>37.5</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>1.1015625</v>
+        <v>1.10625</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,13 +3270,15 @@
       <c r="E24" s="27">
         <v>0</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="27">
+        <v>27</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>0.54656250000000006</v>
+        <v>0.59924999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,13 +3297,15 @@
       <c r="E25" s="27">
         <v>18.5</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="27">
+        <v>37</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0.23015625000000001</v>
+        <v>0.40612500000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3276,13 +3324,15 @@
       <c r="E26" s="27">
         <v>32</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="27">
+        <v>24.5</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0.56343750000000004</v>
+        <v>0.59775</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3301,13 +3351,15 @@
       <c r="E27" s="27">
         <v>22.5</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="27">
+        <v>30.5</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0.59554687500000003</v>
+        <v>0.65943750000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3326,13 +3378,15 @@
       <c r="E28" s="27">
         <v>5</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>7.9687500000000008E-2</v>
+        <v>6.3750000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,13 +3405,15 @@
       <c r="E29" s="27">
         <v>10</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="27">
+        <v>11</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v>7.5000000000000011E-2</v>
+        <v>0.12600000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3376,13 +3432,15 @@
       <c r="E30" s="27">
         <v>50</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="27">
+        <v>44</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>1.4550000000000001</v>
+        <v>1.4279999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3401,13 +3459,15 @@
       <c r="E31" s="27">
         <v>38</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="27">
+        <v>29</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>0.84070312500000011</v>
+        <v>0.84656250000000011</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3426,13 +3486,15 @@
       <c r="E32" s="27">
         <v>27</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="27">
+        <v>44</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>0.90421874999999996</v>
+        <v>0.98737499999999989</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3451,7 +3513,9 @@
       <c r="E33" s="27">
         <v>0</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3476,13 +3540,15 @@
       <c r="E34" s="27">
         <v>25.5</v>
       </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="27">
+        <v>24.5</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0.59812500000000002</v>
+        <v>0.62549999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3501,13 +3567,15 @@
       <c r="E35" s="27">
         <v>0</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="27">
+        <v>4</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0.2578125</v>
+        <v>0.23024999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3526,7 +3594,9 @@
       <c r="E36" s="27">
         <v>0</v>
       </c>
-      <c r="F36" s="2"/>
+      <c r="F36" s="27">
+        <v>0</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3551,7 +3621,9 @@
       <c r="E37" s="27">
         <v>0</v>
       </c>
-      <c r="F37" s="2"/>
+      <c r="F37" s="27">
+        <v>0</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3576,13 +3648,15 @@
       <c r="E38" s="27">
         <v>24</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="27">
+        <v>45</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0.27093749999999994</v>
+        <v>0.48674999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3601,13 +3675,15 @@
       <c r="E39" s="27">
         <v>43</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>1.13625</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3626,13 +3702,15 @@
       <c r="E40" s="27">
         <v>14</v>
       </c>
-      <c r="F40" s="2"/>
+      <c r="F40" s="27">
+        <v>0</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0.24281249999999999</v>
+        <v>0.19424999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3651,13 +3729,15 @@
       <c r="E41" s="27">
         <v>49</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="27">
+        <v>47</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>1.3399218749999999</v>
+        <v>1.3539375000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3676,13 +3756,15 @@
       <c r="E42" s="27">
         <v>12</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="27">
+        <v>0</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0.35812500000000003</v>
+        <v>0.28650000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,13 +3783,15 @@
       <c r="E43" s="27">
         <v>40</v>
       </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="27">
+        <v>37.5</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>1.1681250000000001</v>
+        <v>1.1595</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3726,13 +3810,15 @@
       <c r="E44" s="27">
         <v>38</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="27">
+        <v>35</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>0.83906249999999993</v>
+        <v>0.88124999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3751,7 +3837,9 @@
       <c r="E45" s="27">
         <v>0</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="27">
+        <v>0</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3776,13 +3864,15 @@
       <c r="E46" s="27">
         <v>16.5</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="27">
+        <v>28</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>0.77414062500000003</v>
+        <v>0.78731249999999997</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3801,13 +3891,15 @@
       <c r="E47" s="27">
         <v>0</v>
       </c>
-      <c r="F47" s="2"/>
+      <c r="F47" s="27">
+        <v>0</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>0.52054687499999996</v>
+        <v>0.41643749999999996</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3826,13 +3918,15 @@
       <c r="E48" s="27">
         <v>0</v>
       </c>
-      <c r="F48" s="2"/>
+      <c r="F48" s="27">
+        <v>0</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>0.32109374999999996</v>
+        <v>0.25687499999999996</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3890,9 +3984,9 @@
         <f t="shared" si="1"/>
         <v>21.127659574468087</v>
       </c>
-      <c r="F51" s="13" t="e">
+      <c r="F51" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>21.617021276595743</v>
       </c>
       <c r="G51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -3908,7 +4002,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.64406249999999998</v>
+        <v>0.64495212765957466</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3931,9 +4025,9 @@
         <f t="shared" si="2"/>
         <v>18.015834848068945</v>
       </c>
-      <c r="F52" s="13" t="e">
+      <c r="F52" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>18.162674567806892</v>
       </c>
       <c r="G52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -3949,7 +4043,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.46152846667334302</v>
+        <v>0.45783809251303254</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3972,9 +4066,9 @@
         <f t="shared" si="3"/>
         <v>21.5</v>
       </c>
-      <c r="F53" s="13" t="e">
+      <c r="F53" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>24.5</v>
       </c>
       <c r="G53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -3990,7 +4084,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0.59484375</v>
+        <v>0.59924999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4015,7 +4109,7 @@
       </c>
       <c r="F54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="16">
         <f t="shared" si="4"/>
@@ -4633,7 +4727,7 @@
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
@@ -4645,7 +4739,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.4008333333333332</v>
+        <v>1.3918333333333333</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4666,7 +4760,7 @@
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
-        <v>1.2253124999999998</v>
+        <v>1.2442499999999999</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -4678,7 +4772,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.2178125</v>
+        <v>4.2367500000000007</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4699,7 +4793,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>1.401328125</v>
+        <v>1.4030625000000001</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -4711,7 +4805,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.4838281250000005</v>
+        <v>4.4855625000000003</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4732,7 +4826,7 @@
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
-        <v>0.30000000000000004</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -4744,7 +4838,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.32500000000000007</v>
+        <v>0.26500000000000007</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4765,7 +4859,7 @@
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
-        <v>0.67828124999999995</v>
+        <v>0.54262499999999991</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -4777,11 +4871,11 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.2791145833333335</v>
+        <v>3.1434583333333332</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
@@ -4798,7 +4892,7 @@
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
-        <v>0.69187500000000002</v>
+        <v>0.6885</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -4810,7 +4904,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.3418749999999999</v>
+        <v>2.3384999999999998</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -4831,7 +4925,7 @@
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
-        <v>0</v>
+        <v>3.0000000000000006E-2</v>
       </c>
       <c r="D8" s="26">
         <f>Exams!B8</f>
@@ -4843,7 +4937,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -4864,7 +4958,7 @@
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
-        <v>0.57328124999999996</v>
+        <v>0.52162500000000001</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -4876,7 +4970,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.4866145833333331</v>
+        <v>2.4349583333333333</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4897,7 +4991,7 @@
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
-        <v>1.37203125</v>
+        <v>1.3556249999999999</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -4909,7 +5003,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.8203645833333333</v>
+        <v>3.8039583333333331</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -4930,7 +5024,7 @@
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
-        <v>0.21375000000000002</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -4942,7 +5036,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.2987500000000001</v>
+        <v>2.2560000000000002</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -4963,7 +5057,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.2309375</v>
+        <v>1.20675</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -4975,7 +5069,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.5042708333333334</v>
+        <v>3.4800833333333334</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -4996,7 +5090,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>0.99421875000000004</v>
+        <v>0.90337499999999993</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -5008,7 +5102,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.5225520833333333</v>
+        <v>3.4317083333333334</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -5029,7 +5123,7 @@
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
-        <v>0.49781250000000005</v>
+        <v>0.50325000000000009</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -5041,7 +5135,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.3311458333333333</v>
+        <v>2.3365833333333335</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -5062,7 +5156,7 @@
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
-        <v>0.59484375</v>
+        <v>0.66487499999999999</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -5074,7 +5168,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.3540104166666667</v>
+        <v>3.4240416666666667</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -5095,7 +5189,7 @@
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
-        <v>1.231640625</v>
+        <v>1.2373125000000003</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -5107,7 +5201,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.0474739583333337</v>
+        <v>3.0531458333333337</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -5128,7 +5222,7 @@
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
-        <v>0.37593749999999998</v>
+        <v>0.48075000000000001</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -5140,7 +5234,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.1434375000000001</v>
+        <v>2.2482499999999996</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -5161,7 +5255,7 @@
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
-        <v>0.16265625</v>
+        <v>0.13012499999999999</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -5173,7 +5267,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.3609895833333332</v>
+        <v>1.3284583333333333</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -5194,7 +5288,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>1.0764843749999999</v>
+        <v>1.1371875</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -5206,7 +5300,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>3.0473177083333334</v>
+        <v>3.1080208333333332</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -5227,7 +5321,7 @@
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
-        <v>1.0586718749999999</v>
+        <v>1.0779374999999998</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -5239,7 +5333,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.8370052083333333</v>
+        <v>3.8562708333333333</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -5260,7 +5354,7 @@
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
-        <v>0.99281249999999999</v>
+        <v>0.99224999999999997</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -5272,7 +5366,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.3369791666666666</v>
+        <v>3.3364166666666666</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -5293,7 +5387,7 @@
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
-        <v>1.335234375</v>
+        <v>1.3381875000000001</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -5305,7 +5399,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.509401041666667</v>
+        <v>4.5123541666666664</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5326,7 +5420,7 @@
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
-        <v>1.1015625</v>
+        <v>1.10625</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -5338,7 +5432,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.6965624999999998</v>
+        <v>2.7012499999999999</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5359,7 +5453,7 @@
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
-        <v>0.54656250000000006</v>
+        <v>0.59924999999999995</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -5371,7 +5465,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.0907291666666667</v>
+        <v>3.1434166666666665</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5392,7 +5486,7 @@
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
-        <v>0.23015625000000001</v>
+        <v>0.40612500000000001</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -5404,7 +5498,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>2.0384895833333334</v>
+        <v>2.2144583333333334</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5425,7 +5519,7 @@
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
-        <v>0.56343750000000004</v>
+        <v>0.59775</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -5437,7 +5531,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.252604166666667</v>
+        <v>2.2869166666666665</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -5458,7 +5552,7 @@
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
-        <v>0.59554687500000003</v>
+        <v>0.65943750000000001</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -5470,7 +5564,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.4022135416666668</v>
+        <v>2.4661041666666668</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5491,7 +5585,7 @@
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
-        <v>7.9687500000000008E-2</v>
+        <v>6.3750000000000001E-2</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -5503,7 +5597,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.6005208333333334</v>
+        <v>1.5845833333333335</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5524,7 +5618,7 @@
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.12600000000000003</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5536,7 +5630,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.3516666666666668</v>
+        <v>1.4026666666666667</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -5557,7 +5651,7 @@
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
-        <v>1.4550000000000001</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -5569,7 +5663,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.2858333333333336</v>
+        <v>5.2588333333333335</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5590,7 +5684,7 @@
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
-        <v>0.84070312500000011</v>
+        <v>0.84656250000000011</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -5602,7 +5696,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.1957031250000001</v>
+        <v>3.2015625000000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5623,7 +5717,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>0.90421874999999996</v>
+        <v>0.98737499999999989</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -5635,11 +5729,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.7400520833333335</v>
+        <v>3.8232083333333335</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -5689,7 +5783,7 @@
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
-        <v>0.59812500000000002</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -5701,7 +5795,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.1722916666666663</v>
+        <v>3.1996666666666664</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5722,7 +5816,7 @@
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
-        <v>0.2578125</v>
+        <v>0.23024999999999998</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -5734,7 +5828,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.3311458333333333</v>
+        <v>1.3035833333333333</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -5821,7 +5915,7 @@
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
-        <v>0.27093749999999994</v>
+        <v>0.48674999999999996</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -5833,11 +5927,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>2.0467708333333334</v>
+        <v>2.2625833333333336</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -5854,7 +5948,7 @@
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
-        <v>1.13625</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -5866,7 +5960,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.5862499999999997</v>
+        <v>3.359</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5887,7 +5981,7 @@
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
-        <v>0.24281249999999999</v>
+        <v>0.19424999999999998</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -5899,7 +5993,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.8411458333333335</v>
+        <v>1.7925833333333334</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -5920,7 +6014,7 @@
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
-        <v>1.3399218749999999</v>
+        <v>1.3539375000000002</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -5932,7 +6026,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.4315885416666667</v>
+        <v>4.4456041666666675</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -5953,7 +6047,7 @@
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
-        <v>0.35812500000000003</v>
+        <v>0.28650000000000003</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -5965,7 +6059,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.3456250000000001</v>
+        <v>1.274</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -5986,7 +6080,7 @@
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
-        <v>1.1681250000000001</v>
+        <v>1.1595</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -5998,7 +6092,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.5089583333333341</v>
+        <v>4.5003333333333337</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -6019,7 +6113,7 @@
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
-        <v>0.83906249999999993</v>
+        <v>0.88124999999999998</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -6031,7 +6125,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.8873958333333332</v>
+        <v>2.9295833333333334</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -6085,7 +6179,7 @@
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
-        <v>0.77414062500000003</v>
+        <v>0.78731249999999997</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -6097,7 +6191,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.5599739583333334</v>
+        <v>2.5731458333333332</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -6118,7 +6212,7 @@
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
-        <v>0.52054687499999996</v>
+        <v>0.41643749999999996</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -6130,7 +6224,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.4105468749999996</v>
+        <v>2.3064374999999999</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -6151,7 +6245,7 @@
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
-        <v>0.32109374999999996</v>
+        <v>0.25687499999999996</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -6163,11 +6257,11 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.80442708333333324</v>
+        <v>0.74020833333333325</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H48" s="26">
         <f t="shared" si="2"/>
@@ -6216,7 +6310,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.64406249999999998</v>
+        <v>0.64495212765957466</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -6228,7 +6322,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5247717198581561</v>
+        <v>2.5256613475177301</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -6249,7 +6343,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.46152846667334302</v>
+        <v>0.45783809251303254</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -6261,11 +6355,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3207556339577624</v>
+        <v>1.3212242816638891</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.304744774628172</v>
+        <v>1.321301323615883</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -6282,7 +6376,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0.59484375</v>
+        <v>0.59924999999999995</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -6294,7 +6388,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.4866145833333331</v>
+        <v>2.4661041666666668</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060556E3-9BFC-AB41-AF82-E324DFE84669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C3A243-650D-DB44-A531-B0FB51CB3634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2974,14 +2974,14 @@
         <v>24</v>
       </c>
       <c r="F13" s="27">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>0.90337499999999993</v>
+        <v>0.94537499999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="1"/>
-        <v>21.617021276595743</v>
+        <v>21.76595744680851</v>
       </c>
       <c r="G51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.64495212765957466</v>
+        <v>0.64584574468085121</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="2"/>
-        <v>18.162674567806892</v>
+        <v>18.161070124998318</v>
       </c>
       <c r="G52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.45783809251303254</v>
+        <v>0.45839410282781073</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="3"/>
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="G53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>0.90337499999999993</v>
+        <v>0.94537499999999997</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.4317083333333334</v>
+        <v>3.4737083333333336</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.64495212765957466</v>
+        <v>0.64584574468085121</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5256613475177301</v>
+        <v>2.5265549645390069</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
@@ -6343,7 +6343,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.45783809251303254</v>
+        <v>0.45839410282781073</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3212242816638891</v>
+        <v>1.3218644616434574</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C3A243-650D-DB44-A531-B0FB51CB3634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BA977D-F6F9-1D4F-B5FF-5862317EB405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -831,13 +831,15 @@
       <c r="H2" s="30">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="30">
+        <v>5</v>
+      </c>
       <c r="J2" s="30">
         <v>0</v>
       </c>
       <c r="K2" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50+J2/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.24583333333333335</v>
+        <v>0.25555555555555559</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,13 +868,15 @@
       <c r="H3" s="30">
         <v>12</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="30">
+        <v>2</v>
+      </c>
       <c r="J3" s="30">
         <v>15</v>
       </c>
       <c r="K3" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B3/$B$50+C3/$C$50+D3/$D$50+E3/$E$50+F3/$F$50+G3/$G$50+H3/$H$50+I3/$I$50+J3/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.71250000000000002</v>
+        <v>0.64814814814814825</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,13 +905,15 @@
       <c r="H4" s="30">
         <v>15</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="30">
+        <v>13</v>
+      </c>
       <c r="J4" s="30">
         <v>20</v>
       </c>
       <c r="K4" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B4/$B$50+C4/$C$50+D4/$D$50+E4/$E$50+F4/$F$50+G4/$G$50+H4/$H$50+I4/$I$50+J4/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.78749999999999998</v>
+        <v>0.79629629629629628</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -935,13 +941,15 @@
       <c r="H5" s="30">
         <v>0</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="30">
+        <v>0</v>
+      </c>
       <c r="J5" s="30">
         <v>0</v>
       </c>
       <c r="K5" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B5/$B$50+C5/$C$50+D5/$D$50+E5/$E$50+F5/$F$50+G5/$G$50+H5/$H$50+I5/$I$50+J5/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -970,13 +978,15 @@
       <c r="H6" s="30">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="30">
+        <v>8</v>
+      </c>
       <c r="J6" s="30">
         <v>20</v>
       </c>
       <c r="K6" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B6/$B$50+C6/$C$50+D6/$D$50+E6/$E$50+F6/$F$50+G6/$G$50+H6/$H$50+I6/$I$50+J6/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.6958333333333333</v>
+        <v>0.6777777777777777</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,13 +1015,15 @@
       <c r="H7" s="30">
         <v>3</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="30">
+        <v>3</v>
+      </c>
       <c r="J7" s="30">
         <v>15</v>
       </c>
       <c r="K7" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B7/$B$50+C7/$C$50+D7/$D$50+E7/$E$50+F7/$F$50+G7/$G$50+H7/$H$50+I7/$I$50+J7/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.37500000000000006</v>
+        <v>0.35555555555555562</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1040,13 +1052,15 @@
       <c r="H8" s="30">
         <v>4</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
       <c r="J8" s="30">
         <v>15</v>
       </c>
       <c r="K8" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B8/$B$50+C8/$C$50+D8/$D$50+E8/$E$50+F8/$F$50+G8/$G$50+H8/$H$50+I8/$I$50+J8/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.27500000000000002</v>
+        <v>0.25185185185185183</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,13 +1089,15 @@
       <c r="H9" s="30">
         <v>4</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="30">
+        <v>7</v>
+      </c>
       <c r="J9" s="30">
         <v>15</v>
       </c>
       <c r="K9" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B9/$B$50+C9/$C$50+D9/$D$50+E9/$E$50+F9/$F$50+G9/$G$50+H9/$H$50+I9/$I$50+J9/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.38333333333333336</v>
+        <v>0.3925925925925926</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1110,13 +1126,15 @@
       <c r="H10" s="30">
         <v>7.5</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="30">
+        <v>7</v>
+      </c>
       <c r="J10" s="30">
         <v>15</v>
       </c>
       <c r="K10" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B10/$B$50+C10/$C$50+D10/$D$50+E10/$E$50+F10/$F$50+G10/$G$50+H10/$H$50+I10/$I$50+J10/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.6333333333333333</v>
+        <v>0.61481481481481481</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1145,13 +1163,15 @@
       <c r="H11" s="30">
         <v>3</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="30">
+        <v>6</v>
+      </c>
       <c r="J11" s="30">
         <v>15</v>
       </c>
       <c r="K11" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B11/$B$50+C11/$C$50+D11/$D$50+E11/$E$50+F11/$F$50+G11/$G$50+H11/$H$50+I11/$I$50+J11/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.52500000000000002</v>
+        <v>0.51111111111111107</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1180,13 +1200,15 @@
       <c r="H12" s="30">
         <v>0</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
       <c r="J12" s="30">
         <v>0</v>
       </c>
       <c r="K12" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B12/$B$50+C12/$C$50+D12/$D$50+E12/$E$50+F12/$F$50+G12/$G$50+H12/$H$50+I12/$I$50+J12/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.3833333333333333</v>
+        <v>0.34074074074074073</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1215,13 +1237,15 @@
       <c r="H13" s="30">
         <v>4</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="30">
+        <v>6</v>
+      </c>
       <c r="J13" s="30">
         <v>20</v>
       </c>
       <c r="K13" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B13/$B$50+C13/$C$50+D13/$D$50+E13/$E$50+F13/$F$50+G13/$G$50+H13/$H$50+I13/$I$50+J13/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.53333333333333333</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1250,13 +1274,15 @@
       <c r="H14" s="30">
         <v>4</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="30">
+        <v>2</v>
+      </c>
       <c r="J14" s="30">
         <v>15</v>
       </c>
       <c r="K14" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B14/$B$50+C14/$C$50+D14/$D$50+E14/$E$50+F14/$F$50+G14/$G$50+H14/$H$50+I14/$I$50+J14/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.48333333333333334</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,13 +1311,15 @@
       <c r="H15" s="30">
         <v>7</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="30">
+        <v>2</v>
+      </c>
       <c r="J15" s="30">
         <v>30</v>
       </c>
       <c r="K15" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B15/$B$50+C15/$C$50+D15/$D$50+E15/$E$50+F15/$F$50+G15/$G$50+H15/$H$50+I15/$I$50+J15/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.77916666666666667</v>
+        <v>0.70740740740740748</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1320,13 +1348,15 @@
       <c r="H16" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="30">
+        <v>13</v>
+      </c>
       <c r="J16" s="30">
         <v>0</v>
       </c>
       <c r="K16" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B16/$B$50+C16/$C$50+D16/$D$50+E16/$E$50+F16/$F$50+G16/$G$50+H16/$H$50+I16/$I$50+J16/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.34583333333333333</v>
+        <v>0.40370370370370368</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1355,13 +1385,15 @@
       <c r="H17" s="30">
         <v>6</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="30">
+        <v>1</v>
+      </c>
       <c r="J17" s="30">
         <v>15</v>
       </c>
       <c r="K17" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B17/$B$50+C17/$C$50+D17/$D$50+E17/$E$50+F17/$F$50+G17/$G$50+H17/$H$50+I17/$I$50+J17/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.46249999999999997</v>
+        <v>0.41851851851851851</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1389,13 +1421,15 @@
       <c r="H18" s="30">
         <v>0</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="30">
+        <v>0</v>
+      </c>
       <c r="J18" s="30">
         <v>0</v>
       </c>
       <c r="K18" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B18/$B$50+C18/$C$50+D18/$D$50+E18/$E$50+F18/$F$50+G18/$G$50+H18/$H$50+I18/$I$50+J18/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.13333333333333333</v>
+        <v>0.11851851851851852</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,13 +1458,15 @@
       <c r="H19" s="30">
         <v>3</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="30">
+        <v>6</v>
+      </c>
       <c r="J19" s="30">
         <v>18</v>
       </c>
       <c r="K19" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B19/$B$50+C19/$C$50+D19/$D$50+E19/$E$50+F19/$F$50+G19/$G$50+H19/$H$50+I19/$I$50+J19/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.47083333333333333</v>
+        <v>0.46296296296296302</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1459,13 +1495,15 @@
       <c r="H20" s="30">
         <v>18</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="30">
+        <v>13</v>
+      </c>
       <c r="J20" s="30">
         <v>15</v>
       </c>
       <c r="K20" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B20/$B$50+C20/$C$50+D20/$D$50+E20/$E$50+F20/$F$50+G20/$G$50+H20/$H$50+I20/$I$50+J20/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.78333333333333344</v>
+        <v>0.79259259259259274</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1494,13 +1532,15 @@
       <c r="H21" s="30">
         <v>5</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="30">
+        <v>5</v>
+      </c>
       <c r="J21" s="30">
         <v>15</v>
       </c>
       <c r="K21" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B21/$B$50+C21/$C$50+D21/$D$50+E21/$E$50+F21/$F$50+G21/$G$50+H21/$H$50+I21/$I$50+J21/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.60416666666666674</v>
+        <v>0.57407407407407407</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,13 +1569,15 @@
       <c r="H22" s="30">
         <v>17.5</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="30">
+        <v>15</v>
+      </c>
       <c r="J22" s="30">
         <v>20</v>
       </c>
       <c r="K22" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B22/$B$50+C22/$C$50+D22/$D$50+E22/$E$50+F22/$F$50+G22/$G$50+H22/$H$50+I22/$I$50+J22/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.95416666666666672</v>
+        <v>0.95925925925925937</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1563,13 +1605,15 @@
       <c r="H23" s="30">
         <v>4</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="30">
+        <v>6</v>
+      </c>
       <c r="J23" s="30">
         <v>0</v>
       </c>
       <c r="K23" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B23/$B$50+C23/$C$50+D23/$D$50+E23/$E$50+F23/$F$50+G23/$G$50+H23/$H$50+I23/$I$50+J23/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.27500000000000002</v>
+        <v>0.28888888888888892</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1598,13 +1642,15 @@
       <c r="H24" s="30">
         <v>4</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="30">
+        <v>7</v>
+      </c>
       <c r="J24" s="30">
         <v>0</v>
       </c>
       <c r="K24" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B24/$B$50+C24/$C$50+D24/$D$50+E24/$E$50+F24/$F$50+G24/$G$50+H24/$H$50+I24/$I$50+J24/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.4291666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,13 +1679,15 @@
       <c r="H25" s="30">
         <v>9</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="30">
+        <v>11</v>
+      </c>
       <c r="J25" s="30">
         <v>15</v>
       </c>
       <c r="K25" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B25/$B$50+C25/$C$50+D25/$D$50+E25/$E$50+F25/$F$50+G25/$G$50+H25/$H$50+I25/$I$50+J25/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.45833333333333331</v>
+        <v>0.48888888888888893</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,13 +1716,15 @@
       <c r="H26" s="30">
         <v>7</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="30">
+        <v>1</v>
+      </c>
       <c r="J26" s="30">
         <v>20</v>
       </c>
       <c r="K26" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B26/$B$50+C26/$C$50+D26/$D$50+E26/$E$50+F26/$F$50+G26/$G$50+H26/$H$50+I26/$I$50+J26/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.65416666666666667</v>
+        <v>0.58888888888888902</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,13 +1752,15 @@
       <c r="H27" s="30">
         <v>4</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="30">
+        <v>0</v>
+      </c>
       <c r="J27" s="30">
         <v>18</v>
       </c>
       <c r="K27" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B27/$B$50+C27/$C$50+D27/$D$50+E27/$E$50+F27/$F$50+G27/$G$50+H27/$H$50+I27/$I$50+J27/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.3666666666666667</v>
+        <v>0.32592592592592595</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,13 +1789,15 @@
       <c r="H28" s="30">
         <v>3</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="30">
+        <v>4</v>
+      </c>
       <c r="J28" s="30">
         <v>15</v>
       </c>
       <c r="K28" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B28/$B$50+C28/$C$50+D28/$D$50+E28/$E$50+F28/$F$50+G28/$G$50+H28/$H$50+I28/$I$50+J28/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.3208333333333333</v>
+        <v>0.31481481481481477</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1772,7 +1826,9 @@
       <c r="H29" s="30">
         <v>3</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="30">
+        <v>7</v>
+      </c>
       <c r="J29" s="30">
         <v>20</v>
       </c>
@@ -1807,13 +1863,15 @@
       <c r="H30" s="30">
         <v>18</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="30">
+        <v>13</v>
+      </c>
       <c r="J30" s="30">
         <v>30</v>
       </c>
       <c r="K30" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B30/$B$50+C30/$C$50+D30/$D$50+E30/$E$50+F30/$F$50+G30/$G$50+H30/$H$50+I30/$I$50+J30/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>1.0708333333333333</v>
+        <v>1.0481481481481483</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,13 +1900,15 @@
       <c r="H31" s="30">
         <v>3</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" s="30">
+        <v>11</v>
+      </c>
       <c r="J31" s="30">
         <v>23</v>
       </c>
       <c r="K31" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B31/$B$50+C31/$C$50+D31/$D$50+E31/$E$50+F31/$F$50+G31/$G$50+H31/$H$50+I31/$I$50+J31/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.52500000000000002</v>
+        <v>0.54814814814814816</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,13 +1937,15 @@
       <c r="H32" s="30">
         <v>4</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
       <c r="J32" s="30">
         <v>15</v>
       </c>
       <c r="K32" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B32/$B$50+C32/$C$50+D32/$D$50+E32/$E$50+F32/$F$50+G32/$G$50+H32/$H$50+I32/$I$50+J32/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.5708333333333333</v>
+        <v>0.50740740740740742</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1911,13 +1973,15 @@
       <c r="H33" s="30">
         <v>0</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" s="30">
+        <v>0</v>
+      </c>
       <c r="J33" s="30">
         <v>0</v>
       </c>
       <c r="K33" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B33/$B$50+C33/$C$50+D33/$D$50+E33/$E$50+F33/$F$50+G33/$G$50+H33/$H$50+I33/$I$50+J33/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444439E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1946,13 +2010,15 @@
       <c r="H34" s="30">
         <v>7</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="30">
+        <v>14</v>
+      </c>
       <c r="J34" s="30">
         <v>15</v>
       </c>
       <c r="K34" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B34/$B$50+C34/$C$50+D34/$D$50+E34/$E$50+F34/$F$50+G34/$G$50+H34/$H$50+I34/$I$50+J34/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.50416666666666665</v>
+        <v>0.55185185185185182</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,13 +2047,15 @@
       <c r="H35" s="30">
         <v>3</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" s="30">
+        <v>1</v>
+      </c>
       <c r="J35" s="30">
         <v>15</v>
       </c>
       <c r="K35" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B35/$B$50+C35/$C$50+D35/$D$50+E35/$E$50+F35/$F$50+G35/$G$50+H35/$H$50+I35/$I$50+J35/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.30833333333333335</v>
+        <v>0.28148148148148144</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,7 +2069,7 @@
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B36/$B$50+C36/$C$50+D36/$D$50+E36/$E$50+F36/$F$50+G36/$G$50+H36/$H$50+I36/$I$50+J36/$J$50)/SUM(B$54:$J$54),0)</f>
@@ -2019,7 +2087,7 @@
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B37/$B$50+C37/$C$50+D37/$D$50+E37/$E$50+F37/$F$50+G37/$G$50+H37/$H$50+I37/$I$50+J37/$J$50)/SUM(B$54:$J$54),0)</f>
@@ -2052,13 +2120,15 @@
       <c r="H38" s="30">
         <v>9</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" s="30">
+        <v>4</v>
+      </c>
       <c r="J38" s="30">
         <v>15</v>
       </c>
       <c r="K38" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B38/$B$50+C38/$C$50+D38/$D$50+E38/$E$50+F38/$F$50+G38/$G$50+H38/$H$50+I38/$I$50+J38/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.39583333333333331</v>
+        <v>0.38148148148148148</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2087,13 +2157,15 @@
       <c r="H39" s="30">
         <v>3</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" s="30">
+        <v>3</v>
+      </c>
       <c r="J39" s="30">
         <v>20</v>
       </c>
       <c r="K39" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B39/$B$50+C39/$C$50+D39/$D$50+E39/$E$50+F39/$F$50+G39/$G$50+H39/$H$50+I39/$I$50+J39/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.57499999999999996</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2122,13 +2194,15 @@
       <c r="H40" s="30">
         <v>3</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" s="30">
+        <v>5</v>
+      </c>
       <c r="J40" s="30">
         <v>15</v>
       </c>
       <c r="K40" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B40/$B$50+C40/$C$50+D40/$D$50+E40/$E$50+F40/$F$50+G40/$G$50+H40/$H$50+I40/$I$50+J40/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.3833333333333333</v>
+        <v>0.37777777777777777</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2157,13 +2231,15 @@
       <c r="H41" s="30">
         <v>18</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" s="30">
+        <v>13</v>
+      </c>
       <c r="J41" s="30">
         <v>20</v>
       </c>
       <c r="K41" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B41/$B$50+C41/$C$50+D41/$D$50+E41/$E$50+F41/$F$50+G41/$G$50+H41/$H$50+I41/$I$50+J41/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.84166666666666667</v>
+        <v>0.84444444444444455</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2192,13 +2268,15 @@
       <c r="H42" s="30">
         <v>0</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" s="30">
+        <v>1</v>
+      </c>
       <c r="J42" s="30">
         <v>0</v>
       </c>
       <c r="K42" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B42/$B$50+C42/$C$50+D42/$D$50+E42/$E$50+F42/$F$50+G42/$G$50+H42/$H$50+I42/$I$50+J42/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.16250000000000001</v>
+        <v>0.15185185185185185</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2227,13 +2305,15 @@
       <c r="H43" s="30">
         <v>13</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="30">
+        <v>8</v>
+      </c>
       <c r="J43" s="30">
         <v>30</v>
       </c>
       <c r="K43" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B43/$B$50+C43/$C$50+D43/$D$50+E43/$E$50+F43/$F$50+G43/$G$50+H43/$H$50+I43/$I$50+J43/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.97083333333333344</v>
+        <v>0.92222222222222228</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2262,13 +2342,15 @@
       <c r="H44" s="30">
         <v>5</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="30">
+        <v>7</v>
+      </c>
       <c r="J44" s="30">
         <v>30</v>
       </c>
       <c r="K44" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B44/$B$50+C44/$C$50+D44/$D$50+E44/$E$50+F44/$F$50+G44/$G$50+H44/$H$50+I44/$I$50+J44/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.60833333333333339</v>
+        <v>0.59259259259259267</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2282,7 +2364,7 @@
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="30"/>
       <c r="K45" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B45/$B$50+C45/$C$50+D45/$D$50+E45/$E$50+F45/$F$50+G45/$G$50+H45/$H$50+I45/$I$50+J45/$J$50)/SUM(B$54:$J$54),0)</f>
@@ -2314,13 +2396,15 @@
       <c r="H46" s="30">
         <v>16</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="30">
+        <v>6</v>
+      </c>
       <c r="J46" s="30">
         <v>15</v>
       </c>
       <c r="K46" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B46/$B$50+C46/$C$50+D46/$D$50+E46/$E$50+F46/$F$50+G46/$G$50+H46/$H$50+I46/$I$50+J46/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.5708333333333333</v>
+        <v>0.55185185185185182</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2349,13 +2433,15 @@
       <c r="H47" s="30">
         <v>4</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="30">
+        <v>5</v>
+      </c>
       <c r="J47" s="30">
         <v>15</v>
       </c>
       <c r="K47" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B47/$B$50+C47/$C$50+D47/$D$50+E47/$E$50+F47/$F$50+G47/$G$50+H47/$H$50+I47/$I$50+J47/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.45</v>
+        <v>0.43703703703703706</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2383,13 +2469,15 @@
       <c r="H48" s="30">
         <v>3</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="30">
+        <v>0</v>
+      </c>
       <c r="J48" s="30">
         <v>15</v>
       </c>
       <c r="K48" s="27">
         <f>IF(SUM($B$54:$J$54)&gt;0,$K$50*(B48/$B$50+C48/$C$50+D48/$D$50+E48/$E$50+F48/$F$50+G48/$G$50+H48/$H$50+I48/$I$50+J48/$J$50)/SUM(B$54:$J$54),0)</f>
-        <v>0.2583333333333333</v>
+        <v>0.2296296296296296</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2460,9 +2548,9 @@
         <f t="shared" si="0"/>
         <v>6.1590909090909092</v>
       </c>
-      <c r="I51" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I51" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
       </c>
       <c r="J51" s="13">
         <f t="shared" si="0"/>
@@ -2470,7 +2558,7 @@
       </c>
       <c r="K51" s="13">
         <f t="shared" si="0"/>
-        <v>0.46400709219858155</v>
+        <v>0.4505910165484634</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,9 +2593,9 @@
         <f t="shared" si="1"/>
         <v>5.25486787309028</v>
       </c>
-      <c r="I52" s="13" t="e">
+      <c r="I52" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.5673258167421196</v>
       </c>
       <c r="J52" s="13">
         <f t="shared" si="1"/>
@@ -2515,7 +2603,7 @@
       </c>
       <c r="K52" s="13">
         <f t="shared" si="1"/>
-        <v>0.25781332880398894</v>
+        <v>0.25232180813868482</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2550,9 +2638,9 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I53" s="13" t="e">
+      <c r="I53" s="13">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>5</v>
       </c>
       <c r="J53" s="13">
         <f t="shared" si="2"/>
@@ -2560,7 +2648,7 @@
       </c>
       <c r="K53" s="13">
         <f t="shared" si="2"/>
-        <v>0.46249999999999997</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,7 +2685,7 @@
       </c>
       <c r="I54" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="16">
         <f t="shared" si="3"/>
@@ -2617,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4138,7 +4226,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4723,7 +4811,7 @@
       </c>
       <c r="B2" s="28">
         <f>Quizzes!K2</f>
-        <v>0.24583333333333335</v>
+        <v>0.25555555555555559</v>
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
@@ -4739,7 +4827,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.3918333333333333</v>
+        <v>1.4015555555555554</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4756,7 +4844,7 @@
       </c>
       <c r="B3" s="28">
         <f>Quizzes!K3</f>
-        <v>0.71250000000000002</v>
+        <v>0.64814814814814825</v>
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
@@ -4772,7 +4860,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.2367500000000007</v>
+        <v>4.1723981481481482</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4789,7 +4877,7 @@
       </c>
       <c r="B4" s="28">
         <f>Quizzes!K4</f>
-        <v>0.78749999999999998</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
@@ -4805,7 +4893,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.4855625000000003</v>
+        <v>4.4943587962962965</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4822,7 +4910,7 @@
       </c>
       <c r="B5" s="28">
         <f>Quizzes!K5</f>
-        <v>2.5000000000000001E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
@@ -4838,7 +4926,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.26500000000000007</v>
+        <v>0.26222222222222225</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -4855,7 +4943,7 @@
       </c>
       <c r="B6" s="28">
         <f>Quizzes!K6</f>
-        <v>0.6958333333333333</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
@@ -4871,7 +4959,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.1434583333333332</v>
+        <v>3.1254027777777775</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -4888,7 +4976,7 @@
       </c>
       <c r="B7" s="28">
         <f>Quizzes!K7</f>
-        <v>0.37500000000000006</v>
+        <v>0.35555555555555562</v>
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
@@ -4904,7 +4992,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.3384999999999998</v>
+        <v>2.3190555555555554</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -4921,7 +5009,7 @@
       </c>
       <c r="B8" s="28">
         <f>Quizzes!K8</f>
-        <v>0.27500000000000002</v>
+        <v>0.25185185185185183</v>
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
@@ -4937,7 +5025,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>1.07</v>
+        <v>1.0468518518518519</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -4954,7 +5042,7 @@
       </c>
       <c r="B9" s="28">
         <f>Quizzes!K9</f>
-        <v>0.38333333333333336</v>
+        <v>0.3925925925925926</v>
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
@@ -4970,7 +5058,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.4349583333333333</v>
+        <v>2.4442175925925929</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -4987,7 +5075,7 @@
       </c>
       <c r="B10" s="28">
         <f>Quizzes!K10</f>
-        <v>0.6333333333333333</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
@@ -5003,7 +5091,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.8039583333333331</v>
+        <v>3.7854398148148145</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -5020,7 +5108,7 @@
       </c>
       <c r="B11" s="28">
         <f>Quizzes!K11</f>
-        <v>0.52500000000000002</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
@@ -5036,11 +5124,11 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.2560000000000002</v>
+        <v>2.2421111111111109</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -5053,7 +5141,7 @@
       </c>
       <c r="B12" s="28">
         <f>Quizzes!K12</f>
-        <v>0.3833333333333333</v>
+        <v>0.34074074074074073</v>
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
@@ -5069,7 +5157,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.4800833333333334</v>
+        <v>3.4374907407407411</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -5086,7 +5174,7 @@
       </c>
       <c r="B13" s="28">
         <f>Quizzes!K13</f>
-        <v>0.53333333333333333</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
@@ -5102,7 +5190,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.4737083333333336</v>
+        <v>3.4588935185185186</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -5119,7 +5207,7 @@
       </c>
       <c r="B14" s="28">
         <f>Quizzes!K14</f>
-        <v>0.48333333333333334</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
@@ -5135,7 +5223,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.3365833333333335</v>
+        <v>2.2976944444444447</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -5152,7 +5240,7 @@
       </c>
       <c r="B15" s="28">
         <f>Quizzes!K15</f>
-        <v>0.77916666666666667</v>
+        <v>0.70740740740740748</v>
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
@@ -5168,7 +5256,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.4240416666666667</v>
+        <v>3.3522824074074076</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -5185,7 +5273,7 @@
       </c>
       <c r="B16" s="28">
         <f>Quizzes!K16</f>
-        <v>0.34583333333333333</v>
+        <v>0.40370370370370368</v>
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
@@ -5201,7 +5289,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.0531458333333337</v>
+        <v>3.1110162037037039</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -5218,7 +5306,7 @@
       </c>
       <c r="B17" s="28">
         <f>Quizzes!K17</f>
-        <v>0.46249999999999997</v>
+        <v>0.41851851851851851</v>
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
@@ -5234,7 +5322,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.2482499999999996</v>
+        <v>2.2042685185185187</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -5251,7 +5339,7 @@
       </c>
       <c r="B18" s="28">
         <f>Quizzes!K18</f>
-        <v>0.13333333333333333</v>
+        <v>0.11851851851851852</v>
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
@@ -5267,7 +5355,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.3284583333333333</v>
+        <v>1.3136435185185185</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -5284,7 +5372,7 @@
       </c>
       <c r="B19" s="28">
         <f>Quizzes!K19</f>
-        <v>0.47083333333333333</v>
+        <v>0.46296296296296302</v>
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
@@ -5300,7 +5388,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>3.1080208333333332</v>
+        <v>3.1001504629629633</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -5317,7 +5405,7 @@
       </c>
       <c r="B20" s="28">
         <f>Quizzes!K20</f>
-        <v>0.78333333333333344</v>
+        <v>0.79259259259259274</v>
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
@@ -5333,7 +5421,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.8562708333333333</v>
+        <v>3.8655300925925928</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -5350,7 +5438,7 @@
       </c>
       <c r="B21" s="28">
         <f>Quizzes!K21</f>
-        <v>0.60416666666666674</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
@@ -5366,7 +5454,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.3364166666666666</v>
+        <v>3.306324074074074</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -5383,7 +5471,7 @@
       </c>
       <c r="B22" s="28">
         <f>Quizzes!K22</f>
-        <v>0.95416666666666672</v>
+        <v>0.95925925925925937</v>
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
@@ -5399,7 +5487,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.5123541666666664</v>
+        <v>4.5174467592592595</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5416,7 +5504,7 @@
       </c>
       <c r="B23" s="28">
         <f>Quizzes!K23</f>
-        <v>0.27500000000000002</v>
+        <v>0.28888888888888892</v>
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
@@ -5432,7 +5520,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.7012499999999999</v>
+        <v>2.7151388888888892</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5449,7 +5537,7 @@
       </c>
       <c r="B24" s="28">
         <f>Quizzes!K24</f>
-        <v>0.4291666666666667</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
@@ -5465,7 +5553,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.1434166666666665</v>
+        <v>3.147583333333333</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5482,7 +5570,7 @@
       </c>
       <c r="B25" s="28">
         <f>Quizzes!K25</f>
-        <v>0.45833333333333331</v>
+        <v>0.48888888888888893</v>
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
@@ -5498,7 +5586,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>2.2144583333333334</v>
+        <v>2.2450138888888889</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5515,7 +5603,7 @@
       </c>
       <c r="B26" s="28">
         <f>Quizzes!K26</f>
-        <v>0.65416666666666667</v>
+        <v>0.58888888888888902</v>
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
@@ -5531,11 +5619,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.2869166666666665</v>
+        <v>2.2216388888888892</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -5548,7 +5636,7 @@
       </c>
       <c r="B27" s="28">
         <f>Quizzes!K27</f>
-        <v>0.3666666666666667</v>
+        <v>0.32592592592592595</v>
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
@@ -5564,7 +5652,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.4661041666666668</v>
+        <v>2.425363425925926</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5581,7 +5669,7 @@
       </c>
       <c r="B28" s="28">
         <f>Quizzes!K28</f>
-        <v>0.3208333333333333</v>
+        <v>0.31481481481481477</v>
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
@@ -5597,7 +5685,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.5845833333333335</v>
+        <v>1.5785648148148148</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5647,7 +5735,7 @@
       </c>
       <c r="B30" s="28">
         <f>Quizzes!K30</f>
-        <v>1.0708333333333333</v>
+        <v>1.0481481481481483</v>
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
@@ -5663,11 +5751,11 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.2588333333333335</v>
+        <v>5.236148148148148</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
@@ -5680,7 +5768,7 @@
       </c>
       <c r="B31" s="28">
         <f>Quizzes!K31</f>
-        <v>0.52500000000000002</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
@@ -5696,7 +5784,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.2015625000000001</v>
+        <v>3.2247106481481485</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5713,7 +5801,7 @@
       </c>
       <c r="B32" s="28">
         <f>Quizzes!K32</f>
-        <v>0.5708333333333333</v>
+        <v>0.50740740740740742</v>
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
@@ -5729,7 +5817,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.8232083333333335</v>
+        <v>3.7597824074074073</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -5746,7 +5834,7 @@
       </c>
       <c r="B33" s="28">
         <f>Quizzes!K33</f>
-        <v>4.9999999999999996E-2</v>
+        <v>4.4444444444444439E-2</v>
       </c>
       <c r="C33" s="28">
         <f>Homeworks!J33</f>
@@ -5762,7 +5850,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="0"/>
-        <v>0.39500000000000002</v>
+        <v>0.38944444444444448</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33" si="3">0.5*INT(F33/0.5)+INT( ((F33-INT(F33/0.5)*0.5)/0.25))*0.5</f>
@@ -5779,7 +5867,7 @@
       </c>
       <c r="B34" s="28">
         <f>Quizzes!K34</f>
-        <v>0.50416666666666665</v>
+        <v>0.55185185185185182</v>
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
@@ -5795,7 +5883,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.1996666666666664</v>
+        <v>3.2473518518518514</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5812,7 +5900,7 @@
       </c>
       <c r="B35" s="28">
         <f>Quizzes!K35</f>
-        <v>0.30833333333333335</v>
+        <v>0.28148148148148144</v>
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
@@ -5828,7 +5916,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.3035833333333333</v>
+        <v>1.2767314814814814</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -5911,7 +5999,7 @@
       </c>
       <c r="B38" s="28">
         <f>Quizzes!K38</f>
-        <v>0.39583333333333331</v>
+        <v>0.38148148148148148</v>
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
@@ -5927,11 +6015,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>2.2625833333333336</v>
+        <v>2.2482314814814814</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -5944,7 +6032,7 @@
       </c>
       <c r="B39" s="28">
         <f>Quizzes!K39</f>
-        <v>0.57499999999999996</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
@@ -5960,7 +6048,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.359</v>
+        <v>3.3173333333333335</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -5977,7 +6065,7 @@
       </c>
       <c r="B40" s="28">
         <f>Quizzes!K40</f>
-        <v>0.3833333333333333</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
@@ -5993,7 +6081,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.7925833333333334</v>
+        <v>1.7870277777777779</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -6010,7 +6098,7 @@
       </c>
       <c r="B41" s="28">
         <f>Quizzes!K41</f>
-        <v>0.84166666666666667</v>
+        <v>0.84444444444444455</v>
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
@@ -6026,7 +6114,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.4456041666666675</v>
+        <v>4.4483819444444448</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -6043,7 +6131,7 @@
       </c>
       <c r="B42" s="28">
         <f>Quizzes!K42</f>
-        <v>0.16250000000000001</v>
+        <v>0.15185185185185185</v>
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
@@ -6059,7 +6147,7 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.274</v>
+        <v>1.2633518518518518</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
@@ -6076,7 +6164,7 @@
       </c>
       <c r="B43" s="28">
         <f>Quizzes!K43</f>
-        <v>0.97083333333333344</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
@@ -6092,7 +6180,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.5003333333333337</v>
+        <v>4.4517222222222221</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -6109,7 +6197,7 @@
       </c>
       <c r="B44" s="28">
         <f>Quizzes!K44</f>
-        <v>0.60833333333333339</v>
+        <v>0.59259259259259267</v>
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
@@ -6125,7 +6213,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.9295833333333334</v>
+        <v>2.9138425925925926</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -6175,7 +6263,7 @@
       </c>
       <c r="B46" s="28">
         <f>Quizzes!K46</f>
-        <v>0.5708333333333333</v>
+        <v>0.55185185185185182</v>
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
@@ -6191,7 +6279,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.5731458333333332</v>
+        <v>2.5541643518518518</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -6208,7 +6296,7 @@
       </c>
       <c r="B47" s="28">
         <f>Quizzes!K47</f>
-        <v>0.45</v>
+        <v>0.43703703703703706</v>
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
@@ -6224,7 +6312,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.3064374999999999</v>
+        <v>2.2934745370370369</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -6241,7 +6329,7 @@
       </c>
       <c r="B48" s="28">
         <f>Quizzes!K48</f>
-        <v>0.2583333333333333</v>
+        <v>0.2296296296296296</v>
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
@@ -6257,7 +6345,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.74020833333333325</v>
+        <v>0.71150462962962957</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -6306,7 +6394,7 @@
       </c>
       <c r="B51" s="13">
         <f>AVERAGE(B$2:B$48)</f>
-        <v>0.46400709219858155</v>
+        <v>0.4505910165484634</v>
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
@@ -6322,11 +6410,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5265549645390069</v>
+        <v>2.5131388888888888</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5638297872340425</v>
+        <v>2.521276595744681</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -6339,7 +6427,7 @@
       </c>
       <c r="B52" s="13">
         <f>STDEV(B$2:B$48)</f>
-        <v>0.25781332880398894</v>
+        <v>0.25232180813868482</v>
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
@@ -6355,11 +6443,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3218644616434574</v>
+        <v>1.3182009020400467</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.321301323615883</v>
+        <v>1.3061620130903875</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -6372,7 +6460,7 @@
       </c>
       <c r="B53" s="13">
         <f>MEDIAN(B$2:B$48)</f>
-        <v>0.46249999999999997</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
@@ -6388,7 +6476,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.4661041666666668</v>
+        <v>2.4442175925925929</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BA977D-F6F9-1D4F-B5FF-5862317EB405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954F260-CBD5-2848-9FD2-1E37FF74C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCA0582-B44F-2E45-BD0F-3C600431256F}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -2705,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2767,12 +2767,14 @@
       <c r="F2" s="27">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="27">
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="27">
         <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
-        <v>3.5999999999999997E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2794,12 +2796,14 @@
       <c r="F3" s="27">
         <v>44</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="27">
+        <v>36.5</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>1.2442499999999999</v>
+        <v>1.2193749999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2821,12 +2825,14 @@
       <c r="F4" s="27">
         <v>47</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="27">
+        <v>45.5</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>1.4030625000000001</v>
+        <v>1.39671875</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2848,12 +2854,14 @@
       <c r="F5" s="27">
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>0.24000000000000005</v>
+        <v>0.20000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,12 +2883,14 @@
       <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>0.54262499999999991</v>
+        <v>0.45218749999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,12 +2912,14 @@
       <c r="F7" s="27">
         <v>22.5</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="27">
+        <v>27</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>0.6885</v>
+        <v>0.70874999999999988</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2929,12 +2941,14 @@
       <c r="F8" s="27">
         <v>5</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>3.0000000000000006E-2</v>
+        <v>2.5000000000000005E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,12 +2970,14 @@
       <c r="F9" s="27">
         <v>10.5</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>0.52162500000000001</v>
+        <v>0.44968750000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,12 +2999,14 @@
       <c r="F10" s="27">
         <v>43</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="27">
+        <v>40.5</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>1.3556249999999999</v>
+        <v>1.3321874999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,12 +3028,14 @@
       <c r="F11" s="27">
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0.17100000000000001</v>
+        <v>0.14250000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,12 +3057,14 @@
       <c r="F12" s="27">
         <v>37</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="27">
+        <v>32.5</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.20675</v>
+        <v>1.1681250000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3064,12 +3086,14 @@
       <c r="F13" s="27">
         <v>25</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="27">
+        <v>32</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>0.94537499999999997</v>
+        <v>0.94781250000000006</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,12 +3115,14 @@
       <c r="F14" s="27">
         <v>17.5</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="27">
+        <v>21.5</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0.50325000000000009</v>
+        <v>0.52687500000000009</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,12 +3144,14 @@
       <c r="F15" s="27">
         <v>31.5</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="27">
+        <v>21.5</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0.66487499999999999</v>
+        <v>0.66156250000000005</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3145,12 +3173,14 @@
       <c r="F16" s="27">
         <v>42</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="27">
+        <v>36</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>1.2373125000000003</v>
+        <v>1.2110937500000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,12 +3202,14 @@
       <c r="F17" s="27">
         <v>30</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="27">
+        <v>29.5</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0.48075000000000001</v>
+        <v>0.54812499999999997</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,12 +3231,14 @@
       <c r="F18" s="27">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="27">
+        <v>0</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0.13012499999999999</v>
+        <v>0.10843750000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,12 +3260,14 @@
       <c r="F19" s="27">
         <v>46</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="27">
+        <v>30</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>1.1371875</v>
+        <v>1.09765625</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,12 +3289,14 @@
       <c r="F20" s="27">
         <v>38.5</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="27">
+        <v>30.5</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>1.0779374999999998</v>
+        <v>1.05078125</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,12 +3318,14 @@
       <c r="F21" s="27">
         <v>33</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="27">
+        <v>21.5</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>0.99224999999999997</v>
+        <v>0.93437500000000007</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,12 +3347,14 @@
       <c r="F22" s="27">
         <v>45</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="27">
+        <v>46</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>1.3381875000000001</v>
+        <v>1.3451562499999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3334,12 +3376,14 @@
       <c r="F23" s="27">
         <v>37.5</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="27">
+        <v>28</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>1.10625</v>
+        <v>1.0618750000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3361,12 +3405,14 @@
       <c r="F24" s="27">
         <v>27</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="27">
+        <v>10</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>0.59924999999999995</v>
+        <v>0.54937500000000006</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,12 +3434,14 @@
       <c r="F25" s="27">
         <v>37</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="27">
+        <v>33.5</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0.40612500000000001</v>
+        <v>0.50593750000000004</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3415,12 +3463,14 @@
       <c r="F26" s="27">
         <v>24.5</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="27">
+        <v>14</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0.59775</v>
+        <v>0.56812499999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,12 +3492,14 @@
       <c r="F27" s="27">
         <v>30.5</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0.65943750000000001</v>
+        <v>0.54953125000000003</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3469,12 +3521,14 @@
       <c r="F28" s="27">
         <v>0</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="27">
+        <v>7</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>6.3750000000000001E-2</v>
+        <v>8.8125000000000009E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3496,12 +3550,14 @@
       <c r="F29" s="27">
         <v>11</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="27">
+        <v>18</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v>0.12600000000000003</v>
+        <v>0.19499999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3523,12 +3579,14 @@
       <c r="F30" s="27">
         <v>44</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="27">
+        <v>44</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>1.4279999999999999</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3550,12 +3608,14 @@
       <c r="F31" s="27">
         <v>29</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="27">
+        <v>10</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>0.84656250000000011</v>
+        <v>0.75546875000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3577,12 +3637,14 @@
       <c r="F32" s="27">
         <v>44</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="27">
+        <v>0</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>0.98737499999999989</v>
+        <v>0.82281249999999995</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3604,7 +3666,9 @@
       <c r="F33" s="27">
         <v>0</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="27">
+        <v>0</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="27">
@@ -3631,12 +3695,14 @@
       <c r="F34" s="27">
         <v>24.5</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="27">
+        <v>20.5</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0.62549999999999994</v>
+        <v>0.62375000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,12 +3724,14 @@
       <c r="F35" s="27">
         <v>4</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="27">
+        <v>0</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0.23024999999999998</v>
+        <v>0.19187499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3685,7 +3753,9 @@
       <c r="F36" s="27">
         <v>0</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="27">
+        <v>0</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="27">
@@ -3712,7 +3782,9 @@
       <c r="F37" s="27">
         <v>0</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="27">
+        <v>0</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="27">
@@ -3739,12 +3811,14 @@
       <c r="F38" s="27">
         <v>45</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="27">
+        <v>30</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0.48674999999999996</v>
+        <v>0.55562500000000004</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3766,12 +3840,14 @@
       <c r="F39" s="27">
         <v>0</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="27">
+        <v>0</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>0.90900000000000003</v>
+        <v>0.75749999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3793,12 +3869,14 @@
       <c r="F40" s="27">
         <v>0</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="27">
+        <v>12.5</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0.19424999999999998</v>
+        <v>0.22437499999999999</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3820,12 +3898,14 @@
       <c r="F41" s="27">
         <v>47</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="27">
+        <v>42.5</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>1.3539375000000002</v>
+        <v>1.34078125</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3847,12 +3927,14 @@
       <c r="F42" s="27">
         <v>0</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="27">
+        <v>5</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0.28650000000000003</v>
+        <v>0.26375000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3874,12 +3956,14 @@
       <c r="F43" s="27">
         <v>37.5</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="27">
+        <v>39</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>1.1595</v>
+        <v>1.1612500000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3901,12 +3985,14 @@
       <c r="F44" s="27">
         <v>35</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="27">
+        <v>39</v>
+      </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>0.88124999999999998</v>
+        <v>0.92937499999999995</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3928,7 +4014,9 @@
       <c r="F45" s="27">
         <v>0</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="27">
+        <v>0</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="27">
@@ -3955,12 +4043,14 @@
       <c r="F46" s="27">
         <v>28</v>
       </c>
-      <c r="G46" s="2"/>
+      <c r="G46" s="27">
+        <v>32.5</v>
+      </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>0.78731249999999997</v>
+        <v>0.81859375000000012</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3982,12 +4072,14 @@
       <c r="F47" s="27">
         <v>0</v>
       </c>
-      <c r="G47" s="2"/>
+      <c r="G47" s="27">
+        <v>0</v>
+      </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>0.41643749999999996</v>
+        <v>0.34703124999999996</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4009,12 +4101,14 @@
       <c r="F48" s="27">
         <v>0</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="27">
+        <v>0</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>0.25687499999999996</v>
+        <v>0.21406249999999996</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,9 +4170,9 @@
         <f t="shared" si="1"/>
         <v>21.76595744680851</v>
       </c>
-      <c r="G51" s="13" t="e">
+      <c r="G51" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>17.851063829787233</v>
       </c>
       <c r="H51" s="13" t="e">
         <f t="shared" si="1"/>
@@ -4090,7 +4184,7 @@
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.64584574468085121</v>
+        <v>0.62746010638297889</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4117,9 +4211,9 @@
         <f t="shared" si="2"/>
         <v>18.161070124998318</v>
       </c>
-      <c r="G52" s="13" t="e">
+      <c r="G52" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>16.41874422381753</v>
       </c>
       <c r="H52" s="13" t="e">
         <f t="shared" si="2"/>
@@ -4131,7 +4225,7 @@
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.45839410282781073</v>
+        <v>0.44949257777572238</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4158,9 +4252,9 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G53" s="13" t="e">
+      <c r="G53" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>18</v>
       </c>
       <c r="H53" s="13" t="e">
         <f t="shared" si="3"/>
@@ -4172,7 +4266,7 @@
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0.59924999999999995</v>
+        <v>0.55562500000000004</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4201,7 +4295,7 @@
       </c>
       <c r="G54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="16">
         <f t="shared" si="4"/>
@@ -4815,7 +4909,7 @@
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
-        <v>3.5999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
@@ -4827,7 +4921,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.4015555555555554</v>
+        <v>1.3955555555555554</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4848,7 +4942,7 @@
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
-        <v>1.2442499999999999</v>
+        <v>1.2193749999999999</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -4860,7 +4954,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1723981481481482</v>
+        <v>4.1475231481481485</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4881,7 +4975,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>1.4030625000000001</v>
+        <v>1.39671875</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -4893,7 +4987,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.4943587962962965</v>
+        <v>4.4880150462962964</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -4914,7 +5008,7 @@
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
-        <v>0.24000000000000005</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -4926,11 +5020,11 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.26222222222222225</v>
+        <v>0.22222222222222227</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" si="2"/>
@@ -4947,7 +5041,7 @@
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
-        <v>0.54262499999999991</v>
+        <v>0.45218749999999996</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -4959,7 +5053,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.1254027777777775</v>
+        <v>3.0349652777777774</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -4980,7 +5074,7 @@
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
-        <v>0.6885</v>
+        <v>0.70874999999999988</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -4992,7 +5086,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.3190555555555554</v>
+        <v>2.3393055555555553</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -5013,7 +5107,7 @@
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
-        <v>3.0000000000000006E-2</v>
+        <v>2.5000000000000005E-2</v>
       </c>
       <c r="D8" s="26">
         <f>Exams!B8</f>
@@ -5025,7 +5119,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>1.0468518518518519</v>
+        <v>1.0418518518518518</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -5046,7 +5140,7 @@
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
-        <v>0.52162500000000001</v>
+        <v>0.44968750000000002</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -5058,7 +5152,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.4442175925925929</v>
+        <v>2.3722800925925926</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -5079,7 +5173,7 @@
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
-        <v>1.3556249999999999</v>
+        <v>1.3321874999999999</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -5091,7 +5185,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.7854398148148145</v>
+        <v>3.7620023148148145</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -5112,7 +5206,7 @@
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
-        <v>0.17100000000000001</v>
+        <v>0.14250000000000002</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -5124,7 +5218,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.2421111111111109</v>
+        <v>2.2136111111111112</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -5145,7 +5239,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.20675</v>
+        <v>1.1681250000000001</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -5157,7 +5251,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.4374907407407411</v>
+        <v>3.398865740740741</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -5178,7 +5272,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>0.94537499999999997</v>
+        <v>0.94781250000000006</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -5190,7 +5284,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.4588935185185186</v>
+        <v>3.4613310185185187</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -5211,7 +5305,7 @@
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
-        <v>0.50325000000000009</v>
+        <v>0.52687500000000009</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -5223,7 +5317,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.2976944444444447</v>
+        <v>2.3213194444444447</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -5244,7 +5338,7 @@
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
-        <v>0.66487499999999999</v>
+        <v>0.66156250000000005</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -5256,7 +5350,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.3522824074074076</v>
+        <v>3.3489699074074073</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -5277,7 +5371,7 @@
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
-        <v>1.2373125000000003</v>
+        <v>1.2110937500000001</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -5289,7 +5383,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.1110162037037039</v>
+        <v>3.084797453703704</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -5310,7 +5404,7 @@
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
-        <v>0.48075000000000001</v>
+        <v>0.54812499999999997</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -5322,11 +5416,11 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.2042685185185187</v>
+        <v>2.2716435185185184</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="2"/>
@@ -5343,7 +5437,7 @@
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
-        <v>0.13012499999999999</v>
+        <v>0.10843750000000001</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -5355,7 +5449,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.3136435185185185</v>
+        <v>1.2919560185185186</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -5376,7 +5470,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>1.1371875</v>
+        <v>1.09765625</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -5388,7 +5482,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>3.1001504629629633</v>
+        <v>3.0606192129629628</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -5409,7 +5503,7 @@
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
-        <v>1.0779374999999998</v>
+        <v>1.05078125</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -5421,7 +5515,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.8655300925925928</v>
+        <v>3.8383738425925928</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -5442,7 +5536,7 @@
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
-        <v>0.99224999999999997</v>
+        <v>0.93437500000000007</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -5454,11 +5548,11 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.306324074074074</v>
+        <v>3.2484490740740739</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="26">
         <f t="shared" si="2"/>
@@ -5475,7 +5569,7 @@
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
-        <v>1.3381875000000001</v>
+        <v>1.3451562499999998</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -5487,7 +5581,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.5174467592592595</v>
+        <v>4.5244155092592591</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5508,7 +5602,7 @@
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
-        <v>1.10625</v>
+        <v>1.0618750000000001</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -5520,7 +5614,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.7151388888888892</v>
+        <v>2.6707638888888892</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5541,7 +5635,7 @@
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
-        <v>0.59924999999999995</v>
+        <v>0.54937500000000006</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -5553,7 +5647,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.147583333333333</v>
+        <v>3.0977083333333333</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5574,7 +5668,7 @@
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
-        <v>0.40612500000000001</v>
+        <v>0.50593750000000004</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -5586,11 +5680,11 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>2.2450138888888889</v>
+        <v>2.3448263888888889</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H25" s="26">
         <f t="shared" si="2"/>
@@ -5607,7 +5701,7 @@
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
-        <v>0.59775</v>
+        <v>0.56812499999999999</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -5619,7 +5713,7 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.2216388888888892</v>
+        <v>2.1920138888888889</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
@@ -5640,7 +5734,7 @@
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
-        <v>0.65943750000000001</v>
+        <v>0.54953125000000003</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -5652,7 +5746,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.425363425925926</v>
+        <v>2.3154571759259257</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5673,7 +5767,7 @@
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
-        <v>6.3750000000000001E-2</v>
+        <v>8.8125000000000009E-2</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -5685,7 +5779,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.5785648148148148</v>
+        <v>1.6029398148148148</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5706,7 +5800,7 @@
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
-        <v>0.12600000000000003</v>
+        <v>0.19499999999999998</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5718,7 +5812,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.4026666666666667</v>
+        <v>1.4716666666666667</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -5739,7 +5833,7 @@
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
-        <v>1.4279999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -5751,7 +5845,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.236148148148148</v>
+        <v>5.2181481481481491</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5772,7 +5866,7 @@
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
-        <v>0.84656250000000011</v>
+        <v>0.75546875000000002</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -5784,7 +5878,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.2247106481481485</v>
+        <v>3.1336168981481483</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5805,7 +5899,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>0.98737499999999989</v>
+        <v>0.82281249999999995</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -5817,11 +5911,11 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.7597824074074073</v>
+        <v>3.5952199074074076</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
@@ -5871,7 +5965,7 @@
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
-        <v>0.62549999999999994</v>
+        <v>0.62375000000000003</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -5883,7 +5977,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.2473518518518514</v>
+        <v>3.2456018518518519</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
@@ -5904,7 +5998,7 @@
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
-        <v>0.23024999999999998</v>
+        <v>0.19187499999999999</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -5916,11 +6010,11 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.2767314814814814</v>
+        <v>1.2383564814814814</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="26">
         <f t="shared" si="2"/>
@@ -6003,7 +6097,7 @@
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
-        <v>0.48674999999999996</v>
+        <v>0.55562500000000004</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -6015,11 +6109,11 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>2.2482314814814814</v>
+        <v>2.3171064814814817</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
@@ -6036,7 +6130,7 @@
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
-        <v>0.90900000000000003</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -6048,11 +6142,11 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.3173333333333335</v>
+        <v>3.1658333333333335</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H39" s="26">
         <f t="shared" si="2"/>
@@ -6069,7 +6163,7 @@
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
-        <v>0.19424999999999998</v>
+        <v>0.22437499999999999</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -6081,7 +6175,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.7870277777777779</v>
+        <v>1.8171527777777778</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -6102,7 +6196,7 @@
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
-        <v>1.3539375000000002</v>
+        <v>1.34078125</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -6114,7 +6208,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.4483819444444448</v>
+        <v>4.4352256944444441</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -6135,7 +6229,7 @@
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
-        <v>0.28650000000000003</v>
+        <v>0.26375000000000004</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -6147,11 +6241,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.2633518518518518</v>
+        <v>1.240601851851852</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H42" s="26">
         <f t="shared" si="2"/>
@@ -6168,7 +6262,7 @@
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
-        <v>1.1595</v>
+        <v>1.1612500000000001</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -6180,7 +6274,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.4517222222222221</v>
+        <v>4.4534722222222225</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -6201,7 +6295,7 @@
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
-        <v>0.88124999999999998</v>
+        <v>0.92937499999999995</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -6213,7 +6307,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.9138425925925926</v>
+        <v>2.9619675925925923</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -6267,7 +6361,7 @@
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
-        <v>0.78731249999999997</v>
+        <v>0.81859375000000012</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -6279,7 +6373,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.5541643518518518</v>
+        <v>2.5854456018518519</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -6300,7 +6394,7 @@
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
-        <v>0.41643749999999996</v>
+        <v>0.34703124999999996</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -6312,11 +6406,11 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.2934745370370369</v>
+        <v>2.2240682870370367</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" si="2"/>
@@ -6333,7 +6427,7 @@
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
-        <v>0.25687499999999996</v>
+        <v>0.21406249999999996</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -6345,7 +6439,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.71150462962962957</v>
+        <v>0.66869212962962954</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -6398,7 +6492,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.64584574468085121</v>
+        <v>0.62746010638297889</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -6410,11 +6504,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5131388888888888</v>
+        <v>2.4947532505910166</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.521276595744681</v>
+        <v>2.478723404255319</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -6431,7 +6525,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.45839410282781073</v>
+        <v>0.44949257777572238</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -6443,11 +6537,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3182009020400467</v>
+        <v>1.30873837630002</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3061620130903875</v>
+        <v>1.3185855679827938</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -6464,7 +6558,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0.59924999999999995</v>
+        <v>0.55562500000000004</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -6476,7 +6570,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.4442175925925929</v>
+        <v>2.3722800925925926</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954F260-CBD5-2848-9FD2-1E37FF74C3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EDA45-7A97-0A44-8463-26A5BC6CFD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2770,11 +2770,15 @@
       <c r="G2" s="27">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="27">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27">
+        <v>0</v>
+      </c>
       <c r="J2" s="27">
         <f t="shared" ref="J2:J48" si="0">IF(SUM($B$54:$I$54)&gt;0,$J$50*(B2/$B$50+C2/$C$50+D2/$D$50+E2/$E$50+F2/$F$50+G2/$G$50+H2/$H$50+I2/$I$50)/SUM($B$54:$I$54),0)</f>
-        <v>0.03</v>
+        <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2799,11 +2803,15 @@
       <c r="G3" s="27">
         <v>36.5</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="27">
+        <v>56</v>
+      </c>
+      <c r="I3" s="27">
+        <v>68</v>
+      </c>
       <c r="J3" s="27">
         <f t="shared" si="0"/>
-        <v>1.2193749999999999</v>
+        <v>1.2716741071428572</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2828,11 +2836,15 @@
       <c r="G4" s="27">
         <v>45.5</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="27">
+        <v>60</v>
+      </c>
+      <c r="I4" s="27">
+        <v>70</v>
+      </c>
       <c r="J4" s="27">
         <f t="shared" si="0"/>
-        <v>1.39671875</v>
+        <v>1.4225390625000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2857,11 +2869,15 @@
       <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0</v>
+      </c>
       <c r="J5" s="27">
         <f t="shared" si="0"/>
-        <v>0.20000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2886,11 +2902,15 @@
       <c r="G6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>0.45218749999999996</v>
+        <v>0.33914062499999997</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2915,11 +2935,15 @@
       <c r="G7" s="27">
         <v>27</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="27">
+        <v>57</v>
+      </c>
+      <c r="I7" s="27">
+        <v>57.5</v>
+      </c>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>0.70874999999999988</v>
+        <v>0.86370535714285712</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2944,11 +2968,15 @@
       <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>3</v>
+      </c>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>2.5000000000000005E-2</v>
+        <v>2.6785714285714284E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2973,11 +3001,15 @@
       <c r="G9" s="27">
         <v>3</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="27">
+        <v>17</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>0.44968750000000002</v>
+        <v>0.39039062499999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3002,11 +3034,15 @@
       <c r="G10" s="27">
         <v>40.5</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="27">
+        <v>58.5</v>
+      </c>
+      <c r="I10" s="27">
+        <v>67</v>
+      </c>
       <c r="J10" s="27">
         <f t="shared" si="0"/>
-        <v>1.3321874999999999</v>
+        <v>1.3614174107142856</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,11 +3067,15 @@
       <c r="G11" s="27">
         <v>0</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
       <c r="J11" s="27">
         <f t="shared" si="0"/>
-        <v>0.14250000000000002</v>
+        <v>0.10687500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3060,11 +3100,15 @@
       <c r="G12" s="27">
         <v>32.5</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>66</v>
+      </c>
       <c r="J12" s="27">
         <f t="shared" si="0"/>
-        <v>1.1681250000000001</v>
+        <v>1.0528794642857144</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3089,11 +3133,15 @@
       <c r="G13" s="27">
         <v>32</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="27">
+        <v>52</v>
+      </c>
+      <c r="I13" s="27">
+        <v>59</v>
+      </c>
       <c r="J13" s="27">
         <f t="shared" si="0"/>
-        <v>0.94781250000000006</v>
+        <v>1.0313950892857142</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,11 +3166,15 @@
       <c r="G14" s="27">
         <v>21.5</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="27">
+        <v>30</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0</v>
+      </c>
       <c r="J14" s="27">
         <f t="shared" si="0"/>
-        <v>0.52687500000000009</v>
+        <v>0.4889062500000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3147,11 +3199,15 @@
       <c r="G15" s="27">
         <v>21.5</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="27">
+        <v>38.5</v>
+      </c>
+      <c r="I15" s="27">
+        <v>54</v>
+      </c>
       <c r="J15" s="27">
         <f t="shared" si="0"/>
-        <v>0.66156250000000005</v>
+        <v>0.76112723214285716</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,11 +3232,15 @@
       <c r="G16" s="27">
         <v>36</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="27">
+        <v>48</v>
+      </c>
+      <c r="I16" s="27">
+        <v>48</v>
+      </c>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>1.2110937500000001</v>
+        <v>1.1868917410714286</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,11 +3265,15 @@
       <c r="G17" s="27">
         <v>29.5</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="27">
+        <v>50.5</v>
+      </c>
+      <c r="I17" s="27">
+        <v>56.5</v>
+      </c>
       <c r="J17" s="27">
         <f t="shared" si="0"/>
-        <v>0.54812499999999997</v>
+        <v>0.72024553571428562</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3234,11 +3298,15 @@
       <c r="G18" s="27">
         <v>0</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>0.10843750000000001</v>
+        <v>8.1328125000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3263,11 +3331,15 @@
       <c r="G19" s="27">
         <v>30</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="27">
+        <v>53.5</v>
+      </c>
+      <c r="I19" s="27">
+        <v>59</v>
+      </c>
       <c r="J19" s="27">
         <f t="shared" si="0"/>
-        <v>1.09765625</v>
+        <v>1.1484654017857143</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3292,11 +3364,15 @@
       <c r="G20" s="27">
         <v>30.5</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="27">
+        <v>54</v>
+      </c>
+      <c r="I20" s="27">
+        <v>64</v>
+      </c>
       <c r="J20" s="27">
         <f t="shared" si="0"/>
-        <v>1.05078125</v>
+        <v>1.1282645089285714</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3321,11 +3397,15 @@
       <c r="G21" s="27">
         <v>21.5</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="27">
+        <v>30</v>
+      </c>
+      <c r="I21" s="27">
+        <v>27</v>
+      </c>
       <c r="J21" s="27">
         <f t="shared" si="0"/>
-        <v>0.93437500000000007</v>
+        <v>0.86685267857142878</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3350,11 +3430,15 @@
       <c r="G22" s="27">
         <v>46</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="27">
+        <v>60</v>
+      </c>
+      <c r="I22" s="27">
+        <v>67</v>
+      </c>
       <c r="J22" s="27">
         <f t="shared" si="0"/>
-        <v>1.3451562499999998</v>
+        <v>1.3758314732142858</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,13 +3461,17 @@
         <v>37.5</v>
       </c>
       <c r="G23" s="27">
-        <v>28</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="H23" s="27">
+        <v>42.5</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
       <c r="J23" s="27">
         <f t="shared" si="0"/>
-        <v>1.0618750000000001</v>
+        <v>0.95171874999999995</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3408,11 +3496,15 @@
       <c r="G24" s="27">
         <v>10</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="27">
+        <v>22</v>
+      </c>
+      <c r="I24" s="27">
+        <v>48.5</v>
+      </c>
       <c r="J24" s="27">
         <f t="shared" si="0"/>
-        <v>0.54937500000000006</v>
+        <v>0.61069196428571437</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,11 +3529,15 @@
       <c r="G25" s="27">
         <v>33.5</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="27">
+        <v>31</v>
+      </c>
+      <c r="I25" s="27">
+        <v>43</v>
+      </c>
       <c r="J25" s="27">
         <f t="shared" si="0"/>
-        <v>0.50593750000000004</v>
+        <v>0.59150669642857145</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3466,11 +3562,15 @@
       <c r="G26" s="27">
         <v>14</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="27">
+        <v>44.5</v>
+      </c>
+      <c r="I26" s="27">
+        <v>68</v>
+      </c>
       <c r="J26" s="27">
         <f t="shared" si="0"/>
-        <v>0.56812499999999999</v>
+        <v>0.74729910714285719</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,11 +3595,15 @@
       <c r="G27" s="27">
         <v>0</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="27">
+        <v>24</v>
+      </c>
+      <c r="I27" s="27">
+        <v>44</v>
+      </c>
       <c r="J27" s="27">
         <f t="shared" si="0"/>
-        <v>0.54953125000000003</v>
+        <v>0.6050055803571428</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3524,11 +3628,15 @@
       <c r="G28" s="27">
         <v>7</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27">
+        <v>17.5</v>
+      </c>
       <c r="J28" s="27">
         <f t="shared" si="0"/>
-        <v>8.8125000000000009E-2</v>
+        <v>0.11296875000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3553,11 +3661,15 @@
       <c r="G29" s="27">
         <v>18</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="27">
+        <v>18</v>
+      </c>
+      <c r="I29" s="27">
+        <v>31.5</v>
+      </c>
       <c r="J29" s="27">
         <f t="shared" si="0"/>
-        <v>0.19499999999999998</v>
+        <v>0.28687499999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3582,11 +3694,15 @@
       <c r="G30" s="27">
         <v>44</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="27">
+        <v>53.5</v>
+      </c>
+      <c r="I30" s="27">
+        <v>62</v>
+      </c>
       <c r="J30" s="27">
         <f t="shared" si="0"/>
-        <v>1.41</v>
+        <v>1.3907589285714286</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3611,11 +3727,15 @@
       <c r="G31" s="27">
         <v>10</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="27">
+        <v>39.5</v>
+      </c>
+      <c r="I31" s="27">
+        <v>48</v>
+      </c>
       <c r="J31" s="27">
         <f t="shared" si="0"/>
-        <v>0.75546875000000002</v>
+        <v>0.81861049107142869</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3640,11 +3760,15 @@
       <c r="G32" s="27">
         <v>0</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="27">
+        <v>42</v>
+      </c>
+      <c r="I32" s="27">
+        <v>44.5</v>
+      </c>
       <c r="J32" s="27">
         <f t="shared" si="0"/>
-        <v>0.82281249999999995</v>
+        <v>0.86755580357142847</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3669,8 +3793,12 @@
       <c r="G33" s="27">
         <v>0</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="27">
+        <v>0</v>
+      </c>
+      <c r="I33" s="27">
+        <v>0</v>
+      </c>
       <c r="J33" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3698,11 +3826,15 @@
       <c r="G34" s="27">
         <v>20.5</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="27">
+        <v>28</v>
+      </c>
+      <c r="I34" s="27">
+        <v>44.5</v>
+      </c>
       <c r="J34" s="27">
         <f t="shared" si="0"/>
-        <v>0.62375000000000003</v>
+        <v>0.67450892857142863</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3727,11 +3859,15 @@
       <c r="G35" s="27">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="27">
+        <v>0</v>
+      </c>
+      <c r="I35" s="27">
+        <v>9</v>
+      </c>
       <c r="J35" s="27">
         <f t="shared" si="0"/>
-        <v>0.19187499999999999</v>
+        <v>0.16801339285714284</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3756,8 +3892,12 @@
       <c r="G36" s="27">
         <v>0</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="H36" s="27">
+        <v>0</v>
+      </c>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
       <c r="J36" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3785,8 +3925,12 @@
       <c r="G37" s="27">
         <v>0</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="H37" s="27">
+        <v>0</v>
+      </c>
+      <c r="I37" s="27">
+        <v>0</v>
+      </c>
       <c r="J37" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3814,11 +3958,15 @@
       <c r="G38" s="27">
         <v>30</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="H38" s="27">
+        <v>35</v>
+      </c>
+      <c r="I38" s="27">
+        <v>58</v>
+      </c>
       <c r="J38" s="27">
         <f t="shared" si="0"/>
-        <v>0.55562500000000004</v>
+        <v>0.681450892857143</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3843,11 +3991,15 @@
       <c r="G39" s="27">
         <v>0</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="H39" s="27">
+        <v>0</v>
+      </c>
+      <c r="I39" s="27">
+        <v>33</v>
+      </c>
       <c r="J39" s="27">
         <f t="shared" si="0"/>
-        <v>0.75749999999999995</v>
+        <v>0.65651785714285715</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,11 +4024,15 @@
       <c r="G40" s="27">
         <v>12.5</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="H40" s="27">
+        <v>31</v>
+      </c>
+      <c r="I40" s="27">
+        <v>45</v>
+      </c>
       <c r="J40" s="27">
         <f t="shared" si="0"/>
-        <v>0.22437499999999999</v>
+        <v>0.38569196428571428</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3901,11 +4057,15 @@
       <c r="G41" s="27">
         <v>42.5</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="H41" s="27">
+        <v>60</v>
+      </c>
+      <c r="I41" s="27">
+        <v>64</v>
+      </c>
       <c r="J41" s="27">
         <f t="shared" si="0"/>
-        <v>1.34078125</v>
+        <v>1.3645145089285715</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,11 +4090,15 @@
       <c r="G42" s="27">
         <v>5</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="H42" s="27">
+        <v>42</v>
+      </c>
+      <c r="I42" s="27">
+        <v>56.5</v>
+      </c>
       <c r="J42" s="27">
         <f t="shared" si="0"/>
-        <v>0.26375000000000004</v>
+        <v>0.48040178571428571</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3959,11 +4123,15 @@
       <c r="G43" s="27">
         <v>39</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="H43" s="27">
+        <v>59.5</v>
+      </c>
+      <c r="I43" s="27">
+        <v>59.5</v>
+      </c>
       <c r="J43" s="27">
         <f t="shared" si="0"/>
-        <v>1.1612500000000001</v>
+        <v>1.2162500000000001</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3988,11 +4156,15 @@
       <c r="G44" s="27">
         <v>39</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="H44" s="27">
+        <v>52.5</v>
+      </c>
+      <c r="I44" s="27">
+        <v>67.5</v>
+      </c>
       <c r="J44" s="27">
         <f t="shared" si="0"/>
-        <v>0.92937499999999995</v>
+        <v>1.0418973214285714</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4017,8 +4189,12 @@
       <c r="G45" s="27">
         <v>0</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="H45" s="27">
+        <v>0</v>
+      </c>
+      <c r="I45" s="27">
+        <v>0</v>
+      </c>
       <c r="J45" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4046,11 +4222,15 @@
       <c r="G46" s="27">
         <v>32.5</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="H46" s="27">
+        <v>50</v>
+      </c>
+      <c r="I46" s="27">
+        <v>45</v>
+      </c>
       <c r="J46" s="27">
         <f t="shared" si="0"/>
-        <v>0.81859375000000012</v>
+        <v>0.89073102678571425</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4075,11 +4255,15 @@
       <c r="G47" s="27">
         <v>0</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="H47" s="27">
+        <v>0</v>
+      </c>
+      <c r="I47" s="27">
+        <v>0</v>
+      </c>
       <c r="J47" s="27">
         <f t="shared" si="0"/>
-        <v>0.34703124999999996</v>
+        <v>0.26027343749999998</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4104,11 +4288,15 @@
       <c r="G48" s="27">
         <v>0</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="H48" s="27">
+        <v>0</v>
+      </c>
+      <c r="I48" s="27">
+        <v>0</v>
+      </c>
       <c r="J48" s="27">
         <f t="shared" si="0"/>
-        <v>0.21406249999999996</v>
+        <v>0.16054687499999998</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4172,19 +4360,19 @@
       </c>
       <c r="G51" s="13">
         <f t="shared" si="1"/>
-        <v>17.851063829787233</v>
-      </c>
-      <c r="H51" s="13" t="e">
+        <v>17.978723404255319</v>
+      </c>
+      <c r="H51" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="13" t="e">
+        <v>28.51063829787234</v>
+      </c>
+      <c r="I51" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>35.212765957446805</v>
       </c>
       <c r="J51" s="13">
         <f t="shared" si="1"/>
-        <v>0.62746010638297889</v>
+        <v>0.65448945668693015</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4213,19 +4401,19 @@
       </c>
       <c r="G52" s="13">
         <f t="shared" si="2"/>
-        <v>16.41874422381753</v>
-      </c>
-      <c r="H52" s="13" t="e">
+        <v>16.522368713356222</v>
+      </c>
+      <c r="H52" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="13" t="e">
+        <v>23.386750560042152</v>
+      </c>
+      <c r="I52" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>27.279699547475868</v>
       </c>
       <c r="J52" s="13">
         <f t="shared" si="2"/>
-        <v>0.44949257777572238</v>
+        <v>0.45797216731590284</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4256,17 +4444,17 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="H53" s="13" t="e">
+      <c r="H53" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I53" s="13" t="e">
+        <v>31</v>
+      </c>
+      <c r="I53" s="13">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>44.5</v>
       </c>
       <c r="J53" s="13">
         <f t="shared" si="3"/>
-        <v>0.55562500000000004</v>
+        <v>0.67450892857142863</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4299,11 +4487,11 @@
       </c>
       <c r="H54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="10"/>
     </row>
@@ -4909,7 +5097,7 @@
       </c>
       <c r="C2" s="28">
         <f>Homeworks!J2</f>
-        <v>0.03</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="D2" s="26">
         <f>Exams!B2</f>
@@ -4921,7 +5109,7 @@
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.3955555555555554</v>
+        <v>1.3880555555555554</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4942,7 +5130,7 @@
       </c>
       <c r="C3" s="28">
         <f>Homeworks!J3</f>
-        <v>1.2193749999999999</v>
+        <v>1.2716741071428572</v>
       </c>
       <c r="D3" s="26">
         <f>Exams!B3</f>
@@ -4954,7 +5142,7 @@
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1475231481481485</v>
+        <v>4.1998222552910054</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -4975,7 +5163,7 @@
       </c>
       <c r="C4" s="28">
         <f>Homeworks!J4</f>
-        <v>1.39671875</v>
+        <v>1.4225390625000001</v>
       </c>
       <c r="D4" s="26">
         <f>Exams!B4</f>
@@ -4987,7 +5175,7 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.4880150462962964</v>
+        <v>4.513835358796296</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
@@ -5008,7 +5196,7 @@
       </c>
       <c r="C5" s="28">
         <f>Homeworks!J5</f>
-        <v>0.20000000000000004</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D5" s="26">
         <f>Exams!B5</f>
@@ -5020,7 +5208,7 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" si="0"/>
-        <v>0.22222222222222227</v>
+        <v>0.17222222222222225</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="1"/>
@@ -5041,7 +5229,7 @@
       </c>
       <c r="C6" s="28">
         <f>Homeworks!J6</f>
-        <v>0.45218749999999996</v>
+        <v>0.33914062499999997</v>
       </c>
       <c r="D6" s="26">
         <f>Exams!B6</f>
@@ -5053,7 +5241,7 @@
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>3.0349652777777774</v>
+        <v>2.921918402777778</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
@@ -5074,7 +5262,7 @@
       </c>
       <c r="C7" s="28">
         <f>Homeworks!J7</f>
-        <v>0.70874999999999988</v>
+        <v>0.86370535714285712</v>
       </c>
       <c r="D7" s="26">
         <f>Exams!B7</f>
@@ -5086,7 +5274,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.3393055555555553</v>
+        <v>2.4942609126984125</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
@@ -5107,7 +5295,7 @@
       </c>
       <c r="C8" s="28">
         <f>Homeworks!J8</f>
-        <v>2.5000000000000005E-2</v>
+        <v>2.6785714285714284E-2</v>
       </c>
       <c r="D8" s="26">
         <f>Exams!B8</f>
@@ -5119,7 +5307,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>1.0418518518518518</v>
+        <v>1.0436375661375661</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
@@ -5140,7 +5328,7 @@
       </c>
       <c r="C9" s="28">
         <f>Homeworks!J9</f>
-        <v>0.44968750000000002</v>
+        <v>0.39039062499999999</v>
       </c>
       <c r="D9" s="26">
         <f>Exams!B9</f>
@@ -5152,7 +5340,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.3722800925925926</v>
+        <v>2.3129832175925928</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
@@ -5173,7 +5361,7 @@
       </c>
       <c r="C10" s="28">
         <f>Homeworks!J10</f>
-        <v>1.3321874999999999</v>
+        <v>1.3614174107142856</v>
       </c>
       <c r="D10" s="26">
         <f>Exams!B10</f>
@@ -5185,7 +5373,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.7620023148148145</v>
+        <v>3.7912322255291002</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
@@ -5206,7 +5394,7 @@
       </c>
       <c r="C11" s="28">
         <f>Homeworks!J11</f>
-        <v>0.14250000000000002</v>
+        <v>0.10687500000000001</v>
       </c>
       <c r="D11" s="26">
         <f>Exams!B11</f>
@@ -5218,7 +5406,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.2136111111111112</v>
+        <v>2.1779861111111112</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
@@ -5239,7 +5427,7 @@
       </c>
       <c r="C12" s="28">
         <f>Homeworks!J12</f>
-        <v>1.1681250000000001</v>
+        <v>1.0528794642857144</v>
       </c>
       <c r="D12" s="26">
         <f>Exams!B12</f>
@@ -5251,7 +5439,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.398865740740741</v>
+        <v>3.2836202050264554</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
@@ -5272,7 +5460,7 @@
       </c>
       <c r="C13" s="28">
         <f>Homeworks!J13</f>
-        <v>0.94781250000000006</v>
+        <v>1.0313950892857142</v>
       </c>
       <c r="D13" s="26">
         <f>Exams!B13</f>
@@ -5284,7 +5472,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.4613310185185187</v>
+        <v>3.5449136078042329</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
@@ -5305,7 +5493,7 @@
       </c>
       <c r="C14" s="28">
         <f>Homeworks!J14</f>
-        <v>0.52687500000000009</v>
+        <v>0.4889062500000001</v>
       </c>
       <c r="D14" s="26">
         <f>Exams!B14</f>
@@ -5317,7 +5505,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.3213194444444447</v>
+        <v>2.2833506944444446</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
@@ -5338,7 +5526,7 @@
       </c>
       <c r="C15" s="28">
         <f>Homeworks!J15</f>
-        <v>0.66156250000000005</v>
+        <v>0.76112723214285716</v>
       </c>
       <c r="D15" s="26">
         <f>Exams!B15</f>
@@ -5350,7 +5538,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.3489699074074073</v>
+        <v>3.4485346395502647</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -5371,7 +5559,7 @@
       </c>
       <c r="C16" s="28">
         <f>Homeworks!J16</f>
-        <v>1.2110937500000001</v>
+        <v>1.1868917410714286</v>
       </c>
       <c r="D16" s="26">
         <f>Exams!B16</f>
@@ -5383,7 +5571,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.084797453703704</v>
+        <v>3.0605954447751325</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
@@ -5404,7 +5592,7 @@
       </c>
       <c r="C17" s="28">
         <f>Homeworks!J17</f>
-        <v>0.54812499999999997</v>
+        <v>0.72024553571428562</v>
       </c>
       <c r="D17" s="26">
         <f>Exams!B17</f>
@@ -5416,7 +5604,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.2716435185185184</v>
+        <v>2.4437640542328039</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
@@ -5437,7 +5625,7 @@
       </c>
       <c r="C18" s="28">
         <f>Homeworks!J18</f>
-        <v>0.10843750000000001</v>
+        <v>8.1328125000000001E-2</v>
       </c>
       <c r="D18" s="26">
         <f>Exams!B18</f>
@@ -5449,7 +5637,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>1.2919560185185186</v>
+        <v>1.2648466435185184</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" si="1"/>
@@ -5470,7 +5658,7 @@
       </c>
       <c r="C19" s="28">
         <f>Homeworks!J19</f>
-        <v>1.09765625</v>
+        <v>1.1484654017857143</v>
       </c>
       <c r="D19" s="26">
         <f>Exams!B19</f>
@@ -5482,7 +5670,7 @@
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>3.0606192129629628</v>
+        <v>3.1114283647486776</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
@@ -5503,7 +5691,7 @@
       </c>
       <c r="C20" s="28">
         <f>Homeworks!J20</f>
-        <v>1.05078125</v>
+        <v>1.1282645089285714</v>
       </c>
       <c r="D20" s="26">
         <f>Exams!B20</f>
@@ -5515,7 +5703,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.8383738425925928</v>
+        <v>3.9158571015211643</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
@@ -5536,7 +5724,7 @@
       </c>
       <c r="C21" s="28">
         <f>Homeworks!J21</f>
-        <v>0.93437500000000007</v>
+        <v>0.86685267857142878</v>
       </c>
       <c r="D21" s="26">
         <f>Exams!B21</f>
@@ -5548,7 +5736,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.2484490740740739</v>
+        <v>3.1809267526455027</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
@@ -5569,7 +5757,7 @@
       </c>
       <c r="C22" s="28">
         <f>Homeworks!J22</f>
-        <v>1.3451562499999998</v>
+        <v>1.3758314732142858</v>
       </c>
       <c r="D22" s="26">
         <f>Exams!B22</f>
@@ -5581,7 +5769,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.5244155092592591</v>
+        <v>4.5550907324735448</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
@@ -5602,7 +5790,7 @@
       </c>
       <c r="C23" s="28">
         <f>Homeworks!J23</f>
-        <v>1.0618750000000001</v>
+        <v>0.95171874999999995</v>
       </c>
       <c r="D23" s="26">
         <f>Exams!B23</f>
@@ -5614,7 +5802,7 @@
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.6707638888888892</v>
+        <v>2.560607638888889</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
@@ -5635,7 +5823,7 @@
       </c>
       <c r="C24" s="28">
         <f>Homeworks!J24</f>
-        <v>0.54937500000000006</v>
+        <v>0.61069196428571437</v>
       </c>
       <c r="D24" s="26">
         <f>Exams!B24</f>
@@ -5647,7 +5835,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.0977083333333333</v>
+        <v>3.1590252976190474</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
@@ -5668,7 +5856,7 @@
       </c>
       <c r="C25" s="28">
         <f>Homeworks!J25</f>
-        <v>0.50593750000000004</v>
+        <v>0.59150669642857145</v>
       </c>
       <c r="D25" s="26">
         <f>Exams!B25</f>
@@ -5680,7 +5868,7 @@
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>2.3448263888888889</v>
+        <v>2.4303955853174606</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
@@ -5701,7 +5889,7 @@
       </c>
       <c r="C26" s="28">
         <f>Homeworks!J26</f>
-        <v>0.56812499999999999</v>
+        <v>0.74729910714285719</v>
       </c>
       <c r="D26" s="26">
         <f>Exams!B26</f>
@@ -5713,11 +5901,11 @@
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.1920138888888889</v>
+        <v>2.3711879960317459</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -5734,7 +5922,7 @@
       </c>
       <c r="C27" s="28">
         <f>Homeworks!J27</f>
-        <v>0.54953125000000003</v>
+        <v>0.6050055803571428</v>
       </c>
       <c r="D27" s="26">
         <f>Exams!B27</f>
@@ -5746,7 +5934,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.3154571759259257</v>
+        <v>2.3709315062830685</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
@@ -5767,7 +5955,7 @@
       </c>
       <c r="C28" s="28">
         <f>Homeworks!J28</f>
-        <v>8.8125000000000009E-2</v>
+        <v>0.11296875000000001</v>
       </c>
       <c r="D28" s="26">
         <f>Exams!B28</f>
@@ -5779,7 +5967,7 @@
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.6029398148148148</v>
+        <v>1.6277835648148149</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
@@ -5800,7 +5988,7 @@
       </c>
       <c r="C29" s="28">
         <f>Homeworks!J29</f>
-        <v>0.19499999999999998</v>
+        <v>0.28687499999999999</v>
       </c>
       <c r="D29" s="26">
         <f>Exams!B29</f>
@@ -5812,7 +6000,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.4716666666666667</v>
+        <v>1.5635416666666666</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
@@ -5833,7 +6021,7 @@
       </c>
       <c r="C30" s="28">
         <f>Homeworks!J30</f>
-        <v>1.41</v>
+        <v>1.3907589285714286</v>
       </c>
       <c r="D30" s="26">
         <f>Exams!B30</f>
@@ -5845,7 +6033,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.2181481481481491</v>
+        <v>5.1989070767195766</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
@@ -5866,7 +6054,7 @@
       </c>
       <c r="C31" s="28">
         <f>Homeworks!J31</f>
-        <v>0.75546875000000002</v>
+        <v>0.81861049107142869</v>
       </c>
       <c r="D31" s="26">
         <f>Exams!B31</f>
@@ -5878,7 +6066,7 @@
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.1336168981481483</v>
+        <v>3.1967586392195768</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
@@ -5899,7 +6087,7 @@
       </c>
       <c r="C32" s="28">
         <f>Homeworks!J32</f>
-        <v>0.82281249999999995</v>
+        <v>0.86755580357142847</v>
       </c>
       <c r="D32" s="26">
         <f>Exams!B32</f>
@@ -5911,7 +6099,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.5952199074074076</v>
+        <v>3.639963210978836</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
@@ -5965,7 +6153,7 @@
       </c>
       <c r="C34" s="28">
         <f>Homeworks!J34</f>
-        <v>0.62375000000000003</v>
+        <v>0.67450892857142863</v>
       </c>
       <c r="D34" s="26">
         <f>Exams!B34</f>
@@ -5977,11 +6165,11 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.2456018518518519</v>
+        <v>3.2963607804232802</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="2"/>
@@ -5998,7 +6186,7 @@
       </c>
       <c r="C35" s="28">
         <f>Homeworks!J35</f>
-        <v>0.19187499999999999</v>
+        <v>0.16801339285714284</v>
       </c>
       <c r="D35" s="26">
         <f>Exams!B35</f>
@@ -6010,7 +6198,7 @@
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.2383564814814814</v>
+        <v>1.2144948743386244</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
@@ -6097,7 +6285,7 @@
       </c>
       <c r="C38" s="28">
         <f>Homeworks!J38</f>
-        <v>0.55562500000000004</v>
+        <v>0.681450892857143</v>
       </c>
       <c r="D38" s="26">
         <f>Exams!B38</f>
@@ -6109,7 +6297,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>2.3171064814814817</v>
+        <v>2.4429323743386249</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
@@ -6130,7 +6318,7 @@
       </c>
       <c r="C39" s="28">
         <f>Homeworks!J39</f>
-        <v>0.75749999999999995</v>
+        <v>0.65651785714285715</v>
       </c>
       <c r="D39" s="26">
         <f>Exams!B39</f>
@@ -6142,7 +6330,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.1658333333333335</v>
+        <v>3.0648511904761904</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
@@ -6163,7 +6351,7 @@
       </c>
       <c r="C40" s="28">
         <f>Homeworks!J40</f>
-        <v>0.22437499999999999</v>
+        <v>0.38569196428571428</v>
       </c>
       <c r="D40" s="26">
         <f>Exams!B40</f>
@@ -6175,7 +6363,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.8171527777777778</v>
+        <v>1.978469742063492</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
@@ -6196,7 +6384,7 @@
       </c>
       <c r="C41" s="28">
         <f>Homeworks!J41</f>
-        <v>1.34078125</v>
+        <v>1.3645145089285715</v>
       </c>
       <c r="D41" s="26">
         <f>Exams!B41</f>
@@ -6208,7 +6396,7 @@
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.4352256944444441</v>
+        <v>4.4589589533730161</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
@@ -6229,7 +6417,7 @@
       </c>
       <c r="C42" s="28">
         <f>Homeworks!J42</f>
-        <v>0.26375000000000004</v>
+        <v>0.48040178571428571</v>
       </c>
       <c r="D42" s="26">
         <f>Exams!B42</f>
@@ -6241,11 +6429,11 @@
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.240601851851852</v>
+        <v>1.4572536375661378</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H42" s="26">
         <f t="shared" si="2"/>
@@ -6262,7 +6450,7 @@
       </c>
       <c r="C43" s="28">
         <f>Homeworks!J43</f>
-        <v>1.1612500000000001</v>
+        <v>1.2162500000000001</v>
       </c>
       <c r="D43" s="26">
         <f>Exams!B43</f>
@@ -6274,7 +6462,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.4534722222222225</v>
+        <v>4.5084722222222222</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
@@ -6295,7 +6483,7 @@
       </c>
       <c r="C44" s="28">
         <f>Homeworks!J44</f>
-        <v>0.92937499999999995</v>
+        <v>1.0418973214285714</v>
       </c>
       <c r="D44" s="26">
         <f>Exams!B44</f>
@@ -6307,7 +6495,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>2.9619675925925923</v>
+        <v>3.0744899140211639</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
@@ -6361,7 +6549,7 @@
       </c>
       <c r="C46" s="28">
         <f>Homeworks!J46</f>
-        <v>0.81859375000000012</v>
+        <v>0.89073102678571425</v>
       </c>
       <c r="D46" s="26">
         <f>Exams!B46</f>
@@ -6373,7 +6561,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.5854456018518519</v>
+        <v>2.6575828786375659</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
@@ -6394,7 +6582,7 @@
       </c>
       <c r="C47" s="28">
         <f>Homeworks!J47</f>
-        <v>0.34703124999999996</v>
+        <v>0.26027343749999998</v>
       </c>
       <c r="D47" s="26">
         <f>Exams!B47</f>
@@ -6406,7 +6594,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.2240682870370367</v>
+        <v>2.137310474537037</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
@@ -6427,7 +6615,7 @@
       </c>
       <c r="C48" s="28">
         <f>Homeworks!J48</f>
-        <v>0.21406249999999996</v>
+        <v>0.16054687499999998</v>
       </c>
       <c r="D48" s="26">
         <f>Exams!B48</f>
@@ -6439,7 +6627,7 @@
       </c>
       <c r="F48" s="28">
         <f t="shared" si="0"/>
-        <v>0.66869212962962954</v>
+        <v>0.61517650462962958</v>
       </c>
       <c r="G48" s="29">
         <f t="shared" si="1"/>
@@ -6492,7 +6680,7 @@
       </c>
       <c r="C51" s="13">
         <f t="shared" ref="C51:H51" si="5">AVERAGE(C$2:C$48)</f>
-        <v>0.62746010638297889</v>
+        <v>0.65448945668693015</v>
       </c>
       <c r="D51" s="13">
         <f t="shared" si="5"/>
@@ -6504,11 +6692,11 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.4947532505910166</v>
+        <v>2.521782600894968</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.478723404255319</v>
+        <v>2.5106382978723403</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
@@ -6525,7 +6713,7 @@
       </c>
       <c r="C52" s="13">
         <f t="shared" ref="C52:H52" si="6">STDEV(C$2:C$48)</f>
-        <v>0.44949257777572238</v>
+        <v>0.45797216731590284</v>
       </c>
       <c r="D52" s="13">
         <f t="shared" si="6"/>
@@ -6537,11 +6725,11 @@
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.30873837630002</v>
+        <v>1.3147149100958579</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3185855679827938</v>
+        <v>1.3125206487076675</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
@@ -6558,7 +6746,7 @@
       </c>
       <c r="C53" s="13">
         <f t="shared" ref="C53:H53" si="7">MEDIAN(C$2:C$48)</f>
-        <v>0.55562500000000004</v>
+        <v>0.67450892857142863</v>
       </c>
       <c r="D53" s="13">
         <f t="shared" si="7"/>
@@ -6570,7 +6758,7 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.3722800925925926</v>
+        <v>2.4942609126984125</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>

--- a/phy140/Grades/grades_report_2023.xlsx
+++ b/phy140/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS140/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EDA45-7A97-0A44-8463-26A5BC6CFD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A33B83-3774-144A-B7B4-354A9263EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1680" windowWidth="30320" windowHeight="20720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="500" windowWidth="30320" windowHeight="20720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quizzes" sheetId="5" r:id="rId1"/>
@@ -2705,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B60FCCA-9573-8140-9A4F-53646890C136}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -4508,7 +4508,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4536,7 +4536,9 @@
         <f>(14.5+6.5+7.5+4+4.5)</f>
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="30">
+        <v>20</v>
+      </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4547,7 +4549,9 @@
         <f>(19+10+14.5+17.5+15)</f>
         <v>76</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="30">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4557,14 +4561,16 @@
         <f>(19+15+13.5+11.5+17.5)</f>
         <v>76.5</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="30">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -4574,7 +4580,9 @@
         <f>(13.5+14+16.5+11+8.5)</f>
         <v>63.5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="30">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -4584,7 +4592,9 @@
         <f>(16+9+7+5+5.5)</f>
         <v>42.5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="30">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -4594,7 +4604,9 @@
         <f>(13.5+5+1.5+5.5+0)</f>
         <v>25.5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="30">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -4604,7 +4616,9 @@
         <f>(15+10+13.5+12.5+0)</f>
         <v>51</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="30">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -4614,7 +4628,9 @@
         <f>(16.5+8+6.5+13.5+16)</f>
         <v>60.5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="30">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -4624,7 +4640,9 @@
         <f>(15+6+6+12.5+12.5)</f>
         <v>52</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="30">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -4634,7 +4652,9 @@
         <f>(16+11+9+11+16)</f>
         <v>63</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="30">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -4644,7 +4664,9 @@
         <f>(19+14+12+12+9.5)</f>
         <v>66.5</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="30">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -4654,7 +4676,9 @@
         <f>(12.5+9+7.5+10+6)</f>
         <v>45</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="30">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -4664,7 +4688,9 @@
         <f>(14.5+12+13.5+10.5+15.5)</f>
         <v>66</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="30">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -4674,7 +4700,9 @@
         <f>(16+7+9+3.5+13.5)</f>
         <v>49</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="30">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -4684,7 +4712,9 @@
         <f>(14+7+8.5+8.5+5.5)</f>
         <v>43.5</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="30">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -4694,7 +4724,7 @@
         <f>(12+10+7.5+1+5)</f>
         <v>35.5</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -4704,7 +4734,9 @@
         <f>(12.5+6+9.5+12.5+9.5)</f>
         <v>50</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="30">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -4714,7 +4746,9 @@
         <f>(17+9+13.5+14+13)</f>
         <v>66.5</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="30">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -4724,7 +4758,9 @@
         <f>(17.5+10+6+13+11.5)</f>
         <v>58</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="30">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -4734,7 +4770,9 @@
         <f>(17+13+16.5+10.5+17)</f>
         <v>74</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="30">
+        <v>96.5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -4744,7 +4782,9 @@
         <f>(11+5+12+5.5+10.5)</f>
         <v>44</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="30">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -4754,7 +4794,9 @@
         <f>(18+9+14.5+11.5+17.5)</f>
         <v>70.5</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="30">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -4764,7 +4806,9 @@
         <f>(14+7+8.5+8+7.5)</f>
         <v>45</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="30">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -4774,7 +4818,9 @@
         <f>(14.5+2.5+2.5+6+9)</f>
         <v>34.5</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="30">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -4784,7 +4830,9 @@
         <f>(12+7+7+12+10)</f>
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="30">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -4794,7 +4842,9 @@
         <f>(11+7+8.5+7.5+6)</f>
         <v>40</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="30">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -4804,7 +4854,9 @@
         <f>(14+4+3.5+5.5+0)</f>
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="30">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -4814,7 +4866,9 @@
         <f>(19+14+19+20+20)</f>
         <v>92</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="30">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -4824,7 +4878,9 @@
         <f>(14+11+9.5+11.5+15)</f>
         <v>61</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="30">
+        <v>52</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -4834,7 +4890,9 @@
         <f>(15.5+15+16.5+16+12.5)</f>
         <v>75.5</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="30">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -4844,7 +4902,7 @@
         <f>(5+3+3.5+0+0)</f>
         <v>11.5</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -4854,7 +4912,9 @@
         <f>(13+13+15.5+15.5+12)</f>
         <v>69</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="30">
+        <v>67</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -4864,21 +4924,23 @@
         <f>(12.5+4.5+5.5+3+0)</f>
         <v>25.5</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="30">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>7949</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>8688</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -4888,7 +4950,9 @@
         <f>(15.5+4+9+1.5+16)</f>
         <v>46</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="30">
+        <v>50</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -4898,7 +4962,9 @@
         <f>(10+15+11+13+13.5)</f>
         <v>62.5</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="30">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -4908,7 +4974,9 @@
         <f>(17.5+6+5+4+8)</f>
         <v>40.5</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="30">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -4918,7 +4986,9 @@
         <f>(16+16+14.5+16+12.5)</f>
         <v>75</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="30">
+        <v>91.5</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -4928,7 +4998,9 @@
         <f>(8.5+4+7+3.5+4.5)</f>
         <v>27.5</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="30">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -4938,7 +5010,9 @@
         <f>(19+15+16+12+17)</f>
         <v>79</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="30">
+        <v>73</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -4948,14 +5022,16 @@
         <f>(14.5+9+9+9+6.5)</f>
         <v>48</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="30">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>9516</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -4965,7 +5041,9 @@
         <f>(16+12+0+0+12.5)</f>
         <v>40.5</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="30">
+        <v>47</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -4975,7 +5053,9 @@
         <f>(12.5+6+10+10.5+9)</f>
         <v>48</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="30">
+        <v>31</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -4985,7 +5065,7 @@
         <f>(5.5+2+0+0+0)</f>
         <v>7.5</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5007,9 +5087,9 @@
         <f>AVERAGE(B$2:B$48)</f>
         <v>51.616279069767444</v>
       </c>
-      <c r="C51" s="19" t="e">
+      <c r="C51" s="19">
         <f t="shared" ref="C51" si="0">AVERAGE(C$2:C$48)</f>
-        <v>#DIV/0!</v>
+        <v>47.35</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5020,9 +5100,9 @@
         <f>STDEV(B$2:B$48)</f>
         <v>18.739707400172374</v>
       </c>
-      <c r="C52" s="19" t="e">
+      <c r="C52" s="19">
         <f t="shared" ref="C52" si="1">STDEV(C$2:C$48)</f>
-        <v>#DIV/0!</v>
+        <v>20.812718005326236</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5033,9 +5113,9 @@
         <f>MEDIAN(B$2:B$48)</f>
         <v>49</v>
       </c>
-      <c r="C53" s="19" t="e">
+      <c r="C53" s="19">
         <f t="shared" ref="C53" si="2">MEDIAN(C$2:C$48)</f>
-        <v>#NUM!</v>
+        <v>43.5</v>
       </c>
     </row>
   </sheetData>
@@ -5050,7 +5130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D72AB-081C-F944-AC06-2660F6476096}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -5105,15 +5185,15 @@
       </c>
       <c r="E2" s="26">
         <f>Exams!C2</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2" s="28">
         <f>$B2+$C2+IF(($E2/$E$50&gt;$D2/$D$50),($E2/$E$50)*7.5, ($D2/$D$50)*3+($E2/$E$50)*4.5)</f>
-        <v>1.3880555555555554</v>
+        <v>2.2880555555555553</v>
       </c>
       <c r="G2" s="29">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="26">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -5138,19 +5218,19 @@
       </c>
       <c r="E3" s="26">
         <f>Exams!C3</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F3" s="28">
         <f t="shared" ref="F3:F48" si="0">$B3+$C3+IF(($E3/$E$50&gt;$D3/$D$50),($E3/$E$50)*7.5, ($D3/$D$50)*3+($E3/$E$50)*4.5)</f>
-        <v>4.1998222552910054</v>
+        <v>6.9448222552910064</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G48" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" ref="H3:H48" si="2">IF(G3&gt;4.75,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5171,19 +5251,19 @@
       </c>
       <c r="E4" s="26">
         <f>Exams!C4</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F4" s="28">
         <f t="shared" si="0"/>
-        <v>4.513835358796296</v>
+        <v>8.2938353587962972</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="H4" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5237,19 +5317,19 @@
       </c>
       <c r="E6" s="26">
         <f>Exams!C6</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" si="0"/>
-        <v>2.921918402777778</v>
+        <v>5.2619184027777779</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5270,15 +5350,15 @@
       </c>
       <c r="E7" s="26">
         <f>Exams!C7</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" si="0"/>
-        <v>2.4942609126984125</v>
+        <v>4.3842609126984122</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
@@ -5303,15 +5383,15 @@
       </c>
       <c r="E8" s="26">
         <f>Exams!C8</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" si="0"/>
-        <v>1.0436375661375661</v>
+        <v>2.3036375661375663</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="26">
         <f t="shared" si="2"/>
@@ -5336,15 +5416,15 @@
       </c>
       <c r="E9" s="26">
         <f>Exams!C9</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>2.3129832175925928</v>
+        <v>4.3829832175925931</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" si="2"/>
@@ -5369,19 +5449,19 @@
       </c>
       <c r="E10" s="26">
         <f>Exams!C10</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="0"/>
-        <v>3.7912322255291002</v>
+        <v>5.7712322255291006</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5402,15 +5482,15 @@
       </c>
       <c r="E11" s="26">
         <f>Exams!C11</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>2.1779861111111112</v>
+        <v>3.8429861111111112</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="2"/>
@@ -5435,19 +5515,19 @@
       </c>
       <c r="E12" s="26">
         <f>Exams!C12</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>3.2836202050264554</v>
+        <v>4.9486202050264554</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5468,19 +5548,19 @@
       </c>
       <c r="E13" s="26">
         <f>Exams!C13</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>3.5449136078042329</v>
+        <v>6.3799136078042329</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5501,15 +5581,15 @@
       </c>
       <c r="E14" s="26">
         <f>Exams!C14</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>2.2833506944444446</v>
+        <v>3.8583506944444443</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="2"/>
@@ -5534,19 +5614,19 @@
       </c>
       <c r="E15" s="26">
         <f>Exams!C15</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>3.4485346395502647</v>
+        <v>6.5685346395502648</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5567,19 +5647,19 @@
       </c>
       <c r="E16" s="26">
         <f>Exams!C16</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" si="0"/>
-        <v>3.0605954447751325</v>
+        <v>4.8605954447751323</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5600,19 +5680,19 @@
       </c>
       <c r="E17" s="26">
         <f>Exams!C17</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" si="0"/>
-        <v>2.4437640542328039</v>
+        <v>4.813764054232804</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5666,15 +5746,15 @@
       </c>
       <c r="E19" s="26">
         <f>Exams!C19</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" si="0"/>
-        <v>3.1114283647486776</v>
+        <v>4.1914283647486776</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" s="26">
         <f t="shared" si="2"/>
@@ -5699,19 +5779,19 @@
       </c>
       <c r="E20" s="26">
         <f>Exams!C20</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" si="0"/>
-        <v>3.9158571015211643</v>
+        <v>7.0958571015211636</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5732,19 +5812,19 @@
       </c>
       <c r="E21" s="26">
         <f>Exams!C21</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="0"/>
-        <v>3.1809267526455027</v>
+        <v>5.1159267526455032</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5765,19 +5845,19 @@
       </c>
       <c r="E22" s="26">
         <f>Exams!C22</f>
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>4.5550907324735448</v>
+        <v>9.5725907324735449</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="H22" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5798,15 +5878,15 @@
       </c>
       <c r="E23" s="26">
         <f>Exams!C23</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" si="0"/>
-        <v>2.560607638888889</v>
+        <v>3.5506076388888888</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" si="2"/>
@@ -5831,19 +5911,19 @@
       </c>
       <c r="E24" s="26">
         <f>Exams!C24</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>3.1590252976190474</v>
+        <v>5.8590252976190467</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H24" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -5864,15 +5944,15 @@
       </c>
       <c r="E25" s="26">
         <f>Exams!C25</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="0"/>
-        <v>2.4303955853174606</v>
+        <v>4.0503955853174602</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="26">
         <f t="shared" si="2"/>
@@ -5897,15 +5977,15 @@
       </c>
       <c r="E26" s="26">
         <f>Exams!C26</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="0"/>
-        <v>2.3711879960317459</v>
+        <v>3.8111879960317459</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H26" s="26">
         <f t="shared" si="2"/>
@@ -5930,15 +6010,15 @@
       </c>
       <c r="E27" s="26">
         <f>Exams!C27</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>2.3709315062830685</v>
+        <v>3.3159315062830688</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="2"/>
@@ -5963,15 +6043,15 @@
       </c>
       <c r="E28" s="26">
         <f>Exams!C28</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="0"/>
-        <v>1.6277835648148149</v>
+        <v>3.0677835648148148</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="26">
         <f t="shared" si="2"/>
@@ -5996,15 +6076,15 @@
       </c>
       <c r="E29" s="26">
         <f>Exams!C29</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1.5635416666666666</v>
+        <v>2.6435416666666667</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="2"/>
@@ -6029,15 +6109,15 @@
       </c>
       <c r="E30" s="26">
         <f>Exams!C30</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="0"/>
-        <v>5.1989070767195766</v>
+        <v>9.9389070767195768</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H30" s="26">
         <f t="shared" si="2"/>
@@ -6062,19 +6142,19 @@
       </c>
       <c r="E31" s="26">
         <f>Exams!C31</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="0"/>
-        <v>3.1967586392195768</v>
+        <v>5.5367586392195767</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H31" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6095,19 +6175,19 @@
       </c>
       <c r="E32" s="26">
         <f>Exams!C32</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="0"/>
-        <v>3.639963210978836</v>
+        <v>5.6649632109788364</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H32" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6161,19 +6241,19 @@
       </c>
       <c r="E34" s="26">
         <f>Exams!C34</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="0"/>
-        <v>3.2963607804232802</v>
+        <v>6.3113607804232803</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H34" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6194,15 +6274,15 @@
       </c>
       <c r="E35" s="26">
         <f>Exams!C35</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="0"/>
-        <v>1.2144948743386244</v>
+        <v>2.8494948743386241</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="26">
         <f t="shared" si="2"/>
@@ -6293,19 +6373,19 @@
       </c>
       <c r="E38" s="26">
         <f>Exams!C38</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="0"/>
-        <v>2.4429323743386249</v>
+        <v>4.8129323743386241</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H38" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6326,19 +6406,19 @@
       </c>
       <c r="E39" s="26">
         <f>Exams!C39</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="0"/>
-        <v>3.0648511904761904</v>
+        <v>5.1798511904761906</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6359,15 +6439,15 @@
       </c>
       <c r="E40" s="26">
         <f>Exams!C40</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" si="0"/>
-        <v>1.978469742063492</v>
+        <v>2.9684697420634922</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="26">
         <f t="shared" si="2"/>
@@ -6392,19 +6472,19 @@
       </c>
       <c r="E41" s="26">
         <f>Exams!C41</f>
-        <v>0</v>
+        <v>91.5</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" si="0"/>
-        <v>4.4589589533730161</v>
+        <v>9.0714589533730177</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="H41" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6425,15 +6505,15 @@
       </c>
       <c r="E42" s="26">
         <f>Exams!C42</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" si="0"/>
-        <v>1.4572536375661378</v>
+        <v>3.7072536375661373</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H42" s="26">
         <f t="shared" si="2"/>
@@ -6458,19 +6538,19 @@
       </c>
       <c r="E43" s="26">
         <f>Exams!C43</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F43" s="28">
         <f t="shared" si="0"/>
-        <v>4.5084722222222222</v>
+        <v>7.7934722222222224</v>
       </c>
       <c r="G43" s="29">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="H43" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6491,15 +6571,15 @@
       </c>
       <c r="E44" s="26">
         <f>Exams!C44</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F44" s="28">
         <f t="shared" si="0"/>
-        <v>3.0744899140211639</v>
+        <v>4.6044899140211637</v>
       </c>
       <c r="G44" s="29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H44" s="26">
         <f t="shared" si="2"/>
@@ -6557,19 +6637,19 @@
       </c>
       <c r="E46" s="26">
         <f>Exams!C46</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F46" s="28">
         <f t="shared" si="0"/>
-        <v>2.6575828786375659</v>
+        <v>4.9675828786375664</v>
       </c>
       <c r="G46" s="29">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H46" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6590,15 +6670,15 @@
       </c>
       <c r="E47" s="26">
         <f>Exams!C47</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F47" s="28">
         <f t="shared" si="0"/>
-        <v>2.137310474537037</v>
+        <v>3.5323104745370371</v>
       </c>
       <c r="G47" s="29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H47" s="26">
         <f t="shared" si="2"/>
@@ -6667,7 +6747,7 @@
       </c>
       <c r="H50" s="10">
         <f>SUM(H2:H48)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6688,19 +6768,19 @@
       </c>
       <c r="E51" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40.297872340425535</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" si="5"/>
-        <v>2.521782600894968</v>
+        <v>4.3948677072779478</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2.5106382978723403</v>
+        <v>4.4361702127659575</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="5"/>
-        <v>2.1276595744680851E-2</v>
+        <v>0.46808510638297873</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6721,19 +6801,19 @@
       </c>
       <c r="E52" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>25.644022011764662</v>
       </c>
       <c r="F52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3147149100958579</v>
+        <v>2.4695744592787423</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="6"/>
-        <v>1.3125206487076675</v>
+        <v>2.4817092227031661</v>
       </c>
       <c r="H52" s="13">
         <f t="shared" si="6"/>
-        <v>0.14586499149789456</v>
+        <v>0.50437493946068213</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6754,15 +6834,15 @@
       </c>
       <c r="E53" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F53" s="13">
         <f t="shared" si="7"/>
-        <v>2.4942609126984125</v>
+        <v>4.3842609126984122</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="7"/>
